--- a/trailtech/Leistungen-KC-Trailtech.xlsx
+++ b/trailtech/Leistungen-KC-Trailtech.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="858">
   <si>
     <t>Tätigkeit</t>
   </si>
@@ -2649,9 +2649,6 @@
     <t>Talks with David on Appo</t>
   </si>
   <si>
-    <t>Thomas Falkner Update -&gt; Gem.sitzung Mils smid January -&gt; hopefully commitment by the Gemeinde. BGm is fully committed;)</t>
-  </si>
-  <si>
     <t>Jochtal-Gitschberg</t>
   </si>
   <si>
@@ -2665,6 +2662,42 @@
 Viktoria Leitner (Gitschberg Jochtal AG Büroleitung)
 Markus Reifer (Ski- &amp; Almenregion Gitschberg Jochtal Buchhaltung)
 Stefan Gruber (Gitschberg Jochtal AG GF)</t>
+  </si>
+  <si>
+    <t>Dezember (Rechnung fehlt noch)</t>
+  </si>
+  <si>
+    <t>VS Graz</t>
+  </si>
+  <si>
+    <t>Uli Absprache</t>
+  </si>
+  <si>
+    <t>Marina E-Mails</t>
+  </si>
+  <si>
+    <t>Absprache Cody</t>
+  </si>
+  <si>
+    <t>Anlage Projektdateien in GD</t>
+  </si>
+  <si>
+    <t>Konrad neue Rechnungsadresse</t>
+  </si>
+  <si>
+    <t>Polak Rechnungsübermittlung</t>
+  </si>
+  <si>
+    <t>Thomas Falkner Update -&gt; Gem.sitzung Mils mid January -&gt; hopefully commitment by the Gemeinde. BGm is fully committed;)</t>
+  </si>
+  <si>
+    <t>Referenzen neu übermitteln</t>
+  </si>
+  <si>
+    <t>Referenzen neu, Auswahl Fotos, Text, Einarbeitung</t>
+  </si>
+  <si>
+    <t>Termin Akk.</t>
   </si>
 </sst>
 </file>
@@ -3483,246 +3516,6 @@
   <dxfs count="107">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -3990,6 +3783,246 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -5347,29 +5380,35 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="TAB_Doku_201910" displayName="TAB_Doku_201910" ref="A1:H56" totalsRowCount="1" headerRowDxfId="51" dataDxfId="50" totalsRowDxfId="49" tableBorderDxfId="48">
-  <autoFilter ref="A1:H55"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="TAB_Doku_201910" displayName="TAB_Doku_201910" ref="A1:H65" totalsRowCount="1" headerRowDxfId="51" dataDxfId="50" totalsRowDxfId="49" tableBorderDxfId="48">
+  <autoFilter ref="A1:H64">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:H55">
     <sortCondition ref="C1:C55"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="47" totalsRowDxfId="31"/>
-    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="30">
+    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="47" totalsRowDxfId="7"/>
+    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="6">
       <totalsRowFormula>SUBTOTAL(5,TAB_Doku_201910[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="29">
+    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="5">
       <totalsRowFormula>SUBTOTAL(4,TAB_Doku_201910[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Stk." dataDxfId="44" totalsRowDxfId="28"/>
-    <tableColumn id="5" name="Zeitaufwand" dataDxfId="43" totalsRowDxfId="27">
+    <tableColumn id="4" name="Stk." dataDxfId="44" totalsRowDxfId="4"/>
+    <tableColumn id="5" name="Zeitaufwand" dataDxfId="43" totalsRowDxfId="3">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="26">
+    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="2">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,TAB_Doku_201910[[Kosten ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Abrechnung" dataDxfId="41" totalsRowDxfId="25"/>
-    <tableColumn id="8" name="Notiz" dataDxfId="40" totalsRowDxfId="24"/>
+    <tableColumn id="7" name="Abrechnung" dataDxfId="41" totalsRowDxfId="1"/>
+    <tableColumn id="8" name="Notiz" dataDxfId="40" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6737,13 +6776,13 @@
   <sheetPr published="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I313"/>
+  <dimension ref="A1:I322"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6785,181 +6824,181 @@
     </row>
     <row r="2" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="78" t="s">
-        <v>816</v>
+        <v>847</v>
       </c>
       <c r="B2" s="133" t="s">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="C2" s="137">
-        <v>44201</v>
+        <v>44208</v>
       </c>
       <c r="D2" s="133">
         <v>3</v>
       </c>
       <c r="E2" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F2" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>22.5</v>
       </c>
       <c r="G2" s="78" t="s">
         <v>498</v>
       </c>
       <c r="H2" s="134" t="s">
-        <v>840</v>
+        <v>849</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="78" t="s">
-        <v>744</v>
-      </c>
-      <c r="B3" s="132" t="s">
-        <v>1</v>
+        <v>830</v>
+      </c>
+      <c r="B3" s="133" t="s">
+        <v>48</v>
       </c>
       <c r="C3" s="137">
-        <v>44201</v>
+        <v>44209</v>
       </c>
       <c r="D3" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G3" s="78" t="s">
         <v>498</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>841</v>
+        <v>857</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="78" t="s">
-        <v>830</v>
-      </c>
-      <c r="B4" s="132" t="s">
-        <v>48</v>
+        <v>847</v>
+      </c>
+      <c r="B4" s="133" t="s">
+        <v>140</v>
       </c>
       <c r="C4" s="137">
-        <v>44201</v>
+        <v>44209</v>
       </c>
       <c r="D4" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F4" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="G4" s="78" t="s">
         <v>498</v>
       </c>
       <c r="H4" s="134" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="78" t="s">
-        <v>843</v>
-      </c>
-      <c r="B5" s="132" t="s">
-        <v>48</v>
+        <v>847</v>
+      </c>
+      <c r="B5" s="133" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="137">
-        <v>44203</v>
+        <v>44210</v>
       </c>
       <c r="D5" s="133">
         <v>1</v>
       </c>
       <c r="E5" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F5" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>30</v>
       </c>
       <c r="G5" s="78" t="s">
         <v>498</v>
       </c>
       <c r="H5" s="134" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="78" t="s">
-        <v>780</v>
-      </c>
-      <c r="B6" s="132" t="s">
-        <v>1</v>
+        <v>847</v>
+      </c>
+      <c r="B6" s="133" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="137">
-        <v>44203</v>
+        <v>44210</v>
       </c>
       <c r="D6" s="133">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E6" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F6" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G6" s="78" t="s">
         <v>498</v>
       </c>
       <c r="H6" s="134" t="s">
-        <v>842</v>
+        <v>851</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="78" t="s">
-        <v>816</v>
-      </c>
-      <c r="B7" s="132" t="s">
-        <v>1</v>
+        <v>727</v>
+      </c>
+      <c r="B7" s="133" t="s">
+        <v>140</v>
       </c>
       <c r="C7" s="137">
-        <v>44203</v>
+        <v>44209</v>
       </c>
       <c r="D7" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F7" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="G7" s="78" t="s">
         <v>498</v>
       </c>
       <c r="H7" s="134" t="s">
-        <v>839</v>
+        <v>852</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="78" t="s">
-        <v>781</v>
-      </c>
-      <c r="B8" s="132" t="s">
+        <v>727</v>
+      </c>
+      <c r="B8" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C8" s="137">
-        <v>44203</v>
+        <v>44209</v>
       </c>
       <c r="D8" s="133">
         <v>1</v>
@@ -6976,18 +7015,18 @@
         <v>498</v>
       </c>
       <c r="H8" s="134" t="s">
-        <v>844</v>
+        <v>853</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
-        <v>767</v>
-      </c>
-      <c r="B9" s="132" t="s">
+        <v>816</v>
+      </c>
+      <c r="B9" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="137">
-        <v>44203</v>
+        <v>44209</v>
       </c>
       <c r="D9" s="133">
         <v>1</v>
@@ -7004,174 +7043,264 @@
         <v>498</v>
       </c>
       <c r="H9" s="134" t="s">
-        <v>844</v>
+        <v>855</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
-        <v>727</v>
-      </c>
-      <c r="B10" s="132"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133" t="e">
+        <v>102</v>
+      </c>
+      <c r="B10" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="137">
+        <v>44208</v>
+      </c>
+      <c r="D10" s="133">
+        <v>2</v>
+      </c>
+      <c r="E10" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F10" s="133" t="e">
+        <v>60</v>
+      </c>
+      <c r="F10" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G10" s="78"/>
-      <c r="H10" s="134"/>
+        <v>60</v>
+      </c>
+      <c r="G10" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="H10" s="134" t="s">
+        <v>856</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="78" t="s">
-        <v>813</v>
-      </c>
-      <c r="B11" s="133"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133" t="e">
+        <v>816</v>
+      </c>
+      <c r="B11" s="133" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="137">
+        <v>44201</v>
+      </c>
+      <c r="D11" s="133">
+        <v>3</v>
+      </c>
+      <c r="E11" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F11" s="133" t="e">
+        <v>5</v>
+      </c>
+      <c r="F11" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G11" s="78"/>
-      <c r="H11" s="134"/>
+        <v>7.5</v>
+      </c>
+      <c r="G11" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="H11" s="134" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="78" t="s">
-        <v>819</v>
-      </c>
-      <c r="B12" s="132"/>
-      <c r="C12" s="137"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133" t="e">
+        <v>744</v>
+      </c>
+      <c r="B12" s="132" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="137">
+        <v>44201</v>
+      </c>
+      <c r="D12" s="133">
+        <v>2</v>
+      </c>
+      <c r="E12" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F12" s="133" t="e">
+        <v>10</v>
+      </c>
+      <c r="F12" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G12" s="78"/>
-      <c r="H12" s="134"/>
+        <v>10</v>
+      </c>
+      <c r="G12" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="H12" s="134" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="78" t="s">
-        <v>810</v>
-      </c>
-      <c r="B13" s="132"/>
-      <c r="C13" s="137"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133" t="e">
+        <v>830</v>
+      </c>
+      <c r="B13" s="132" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="137">
+        <v>44201</v>
+      </c>
+      <c r="D13" s="133">
+        <v>1</v>
+      </c>
+      <c r="E13" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F13" s="133" t="e">
+        <v>15</v>
+      </c>
+      <c r="F13" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G13" s="78"/>
-      <c r="H13" s="134"/>
+        <v>7.5</v>
+      </c>
+      <c r="G13" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="H13" s="134" t="s">
+        <v>844</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="78" t="s">
-        <v>765</v>
-      </c>
-      <c r="B14" s="132"/>
-      <c r="C14" s="137"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133" t="e">
+        <v>842</v>
+      </c>
+      <c r="B14" s="132" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D14" s="133">
+        <v>1</v>
+      </c>
+      <c r="E14" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F14" s="133" t="e">
+        <v>15</v>
+      </c>
+      <c r="F14" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G14" s="78"/>
-      <c r="H14" s="134"/>
+        <v>7.5</v>
+      </c>
+      <c r="G14" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="H14" s="134" t="s">
+        <v>845</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78" t="s">
-        <v>795</v>
-      </c>
-      <c r="B15" s="132"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133" t="e">
+        <v>780</v>
+      </c>
+      <c r="B15" s="132" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D15" s="133">
+        <v>1</v>
+      </c>
+      <c r="E15" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F15" s="133" t="e">
+        <v>10</v>
+      </c>
+      <c r="F15" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G15" s="78"/>
-      <c r="H15" s="134"/>
+        <v>5</v>
+      </c>
+      <c r="G15" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="H15" s="134" t="s">
+        <v>854</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="132"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133" t="e">
+        <v>816</v>
+      </c>
+      <c r="B16" s="132" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D16" s="133">
+        <v>2</v>
+      </c>
+      <c r="E16" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F16" s="133" t="e">
+        <v>10</v>
+      </c>
+      <c r="F16" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G16" s="78"/>
-      <c r="H16" s="134"/>
+        <v>10</v>
+      </c>
+      <c r="G16" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="H16" s="134" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="78" t="s">
-        <v>780</v>
-      </c>
-      <c r="B17" s="132"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133" t="e">
+        <v>781</v>
+      </c>
+      <c r="B17" s="132" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D17" s="133">
+        <v>1</v>
+      </c>
+      <c r="E17" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F17" s="133" t="e">
+        <v>15</v>
+      </c>
+      <c r="F17" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G17" s="78"/>
-      <c r="H17" s="134"/>
+        <v>7.5</v>
+      </c>
+      <c r="G17" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="H17" s="134" t="s">
+        <v>843</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="78" t="s">
-        <v>734</v>
-      </c>
-      <c r="B18" s="132"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133" t="e">
+        <v>767</v>
+      </c>
+      <c r="B18" s="132" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D18" s="133">
+        <v>1</v>
+      </c>
+      <c r="E18" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F18" s="133" t="e">
+        <v>15</v>
+      </c>
+      <c r="F18" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G18" s="78"/>
-      <c r="H18" s="134"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+      <c r="G18" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="H18" s="134" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="78" t="s">
-        <v>789</v>
+        <v>727</v>
       </c>
       <c r="B19" s="132"/>
       <c r="C19" s="137"/>
@@ -7187,11 +7316,11 @@
       <c r="G19" s="78"/>
       <c r="H19" s="134"/>
     </row>
-    <row r="20" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="78" t="s">
-        <v>760</v>
-      </c>
-      <c r="B20" s="132"/>
+        <v>813</v>
+      </c>
+      <c r="B20" s="133"/>
       <c r="C20" s="137"/>
       <c r="D20" s="133"/>
       <c r="E20" s="133" t="e">
@@ -7205,9 +7334,9 @@
       <c r="G20" s="78"/>
       <c r="H20" s="134"/>
     </row>
-    <row r="21" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="78" t="s">
-        <v>738</v>
+        <v>819</v>
       </c>
       <c r="B21" s="132"/>
       <c r="C21" s="137"/>
@@ -7223,9 +7352,9 @@
       <c r="G21" s="78"/>
       <c r="H21" s="134"/>
     </row>
-    <row r="22" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="78" t="s">
-        <v>756</v>
+        <v>810</v>
       </c>
       <c r="B22" s="132"/>
       <c r="C22" s="137"/>
@@ -7241,9 +7370,9 @@
       <c r="G22" s="78"/>
       <c r="H22" s="134"/>
     </row>
-    <row r="23" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="78" t="s">
-        <v>728</v>
+        <v>765</v>
       </c>
       <c r="B23" s="132"/>
       <c r="C23" s="137"/>
@@ -7259,9 +7388,9 @@
       <c r="G23" s="78"/>
       <c r="H23" s="134"/>
     </row>
-    <row r="24" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78" t="s">
-        <v>725</v>
+        <v>795</v>
       </c>
       <c r="B24" s="132"/>
       <c r="C24" s="137"/>
@@ -7277,9 +7406,9 @@
       <c r="G24" s="78"/>
       <c r="H24" s="134"/>
     </row>
-    <row r="25" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="78" t="s">
-        <v>726</v>
+        <v>102</v>
       </c>
       <c r="B25" s="132"/>
       <c r="C25" s="137"/>
@@ -7295,9 +7424,9 @@
       <c r="G25" s="78"/>
       <c r="H25" s="134"/>
     </row>
-    <row r="26" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="78" t="s">
-        <v>672</v>
+        <v>780</v>
       </c>
       <c r="B26" s="132"/>
       <c r="C26" s="137"/>
@@ -7313,9 +7442,9 @@
       <c r="G26" s="78"/>
       <c r="H26" s="134"/>
     </row>
-    <row r="27" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="78" t="s">
-        <v>631</v>
+        <v>734</v>
       </c>
       <c r="B27" s="132"/>
       <c r="C27" s="137"/>
@@ -7328,12 +7457,12 @@
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>#N/A</v>
       </c>
-      <c r="G27" s="130"/>
+      <c r="G27" s="78"/>
       <c r="H27" s="134"/>
     </row>
-    <row r="28" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="78" t="s">
-        <v>509</v>
+        <v>789</v>
       </c>
       <c r="B28" s="132"/>
       <c r="C28" s="137"/>
@@ -7349,9 +7478,9 @@
       <c r="G28" s="78"/>
       <c r="H28" s="134"/>
     </row>
-    <row r="29" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="78" t="s">
-        <v>643</v>
+        <v>760</v>
       </c>
       <c r="B29" s="132"/>
       <c r="C29" s="137"/>
@@ -7367,9 +7496,9 @@
       <c r="G29" s="78"/>
       <c r="H29" s="134"/>
     </row>
-    <row r="30" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="78" t="s">
-        <v>649</v>
+        <v>738</v>
       </c>
       <c r="B30" s="132"/>
       <c r="C30" s="137"/>
@@ -7385,9 +7514,9 @@
       <c r="G30" s="78"/>
       <c r="H30" s="134"/>
     </row>
-    <row r="31" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="78" t="s">
-        <v>642</v>
+        <v>756</v>
       </c>
       <c r="B31" s="132"/>
       <c r="C31" s="137"/>
@@ -7403,12 +7532,12 @@
       <c r="G31" s="78"/>
       <c r="H31" s="134"/>
     </row>
-    <row r="32" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="147" t="s">
-        <v>609</v>
+    <row r="32" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="78" t="s">
+        <v>728</v>
       </c>
       <c r="B32" s="132"/>
-      <c r="C32" s="149"/>
+      <c r="C32" s="137"/>
       <c r="D32" s="133"/>
       <c r="E32" s="133" t="e">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -7418,16 +7547,16 @@
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>#N/A</v>
       </c>
-      <c r="G32" s="130"/>
-      <c r="H32" s="138"/>
-    </row>
-    <row r="33" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G32" s="78"/>
+      <c r="H32" s="134"/>
+    </row>
+    <row r="33" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="78" t="s">
-        <v>640</v>
+        <v>725</v>
       </c>
       <c r="B33" s="132"/>
-      <c r="C33" s="149"/>
-      <c r="D33" s="138"/>
+      <c r="C33" s="137"/>
+      <c r="D33" s="133"/>
       <c r="E33" s="133" t="e">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>#N/A</v>
@@ -7436,16 +7565,16 @@
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>#N/A</v>
       </c>
-      <c r="G33" s="130"/>
-      <c r="H33" s="148"/>
-    </row>
-    <row r="34" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="147" t="s">
-        <v>607</v>
+      <c r="G33" s="78"/>
+      <c r="H33" s="134"/>
+    </row>
+    <row r="34" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="78" t="s">
+        <v>726</v>
       </c>
       <c r="B34" s="132"/>
-      <c r="C34" s="149"/>
-      <c r="D34" s="138"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="133"/>
       <c r="E34" s="133" t="e">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>#N/A</v>
@@ -7454,16 +7583,16 @@
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>#N/A</v>
       </c>
-      <c r="G34" s="130"/>
-      <c r="H34" s="148"/>
-    </row>
-    <row r="35" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="147" t="s">
-        <v>597</v>
+      <c r="G34" s="78"/>
+      <c r="H34" s="134"/>
+    </row>
+    <row r="35" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="78" t="s">
+        <v>672</v>
       </c>
       <c r="B35" s="132"/>
-      <c r="C35" s="149"/>
-      <c r="D35" s="138"/>
+      <c r="C35" s="137"/>
+      <c r="D35" s="133"/>
       <c r="E35" s="133" t="e">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>#N/A</v>
@@ -7472,16 +7601,16 @@
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>#N/A</v>
       </c>
-      <c r="G35" s="130"/>
-      <c r="H35" s="148"/>
-    </row>
-    <row r="36" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="147" t="s">
-        <v>500</v>
+      <c r="G35" s="78"/>
+      <c r="H35" s="134"/>
+    </row>
+    <row r="36" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="78" t="s">
+        <v>631</v>
       </c>
       <c r="B36" s="132"/>
-      <c r="C36" s="149"/>
-      <c r="D36" s="138"/>
+      <c r="C36" s="137"/>
+      <c r="D36" s="133"/>
       <c r="E36" s="133" t="e">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>#N/A</v>
@@ -7491,15 +7620,15 @@
         <v>#N/A</v>
       </c>
       <c r="G36" s="130"/>
-      <c r="H36" s="148"/>
-    </row>
-    <row r="37" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="130" t="s">
-        <v>278</v>
+      <c r="H36" s="134"/>
+    </row>
+    <row r="37" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="78" t="s">
+        <v>509</v>
       </c>
       <c r="B37" s="132"/>
-      <c r="C37" s="149"/>
-      <c r="D37" s="138"/>
+      <c r="C37" s="137"/>
+      <c r="D37" s="133"/>
       <c r="E37" s="133" t="e">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>#N/A</v>
@@ -7508,16 +7637,16 @@
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>#N/A</v>
       </c>
-      <c r="G37" s="130"/>
-      <c r="H37" s="148"/>
-    </row>
-    <row r="38" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="147" t="s">
-        <v>593</v>
+      <c r="G37" s="78"/>
+      <c r="H37" s="134"/>
+    </row>
+    <row r="38" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="78" t="s">
+        <v>643</v>
       </c>
       <c r="B38" s="132"/>
-      <c r="C38" s="149"/>
-      <c r="D38" s="138"/>
+      <c r="C38" s="137"/>
+      <c r="D38" s="133"/>
       <c r="E38" s="133" t="e">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>#N/A</v>
@@ -7526,16 +7655,16 @@
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>#N/A</v>
       </c>
-      <c r="G38" s="130"/>
-      <c r="H38" s="148"/>
-    </row>
-    <row r="39" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="147" t="s">
-        <v>574</v>
+      <c r="G38" s="78"/>
+      <c r="H38" s="134"/>
+    </row>
+    <row r="39" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="78" t="s">
+        <v>649</v>
       </c>
       <c r="B39" s="132"/>
-      <c r="C39" s="149"/>
-      <c r="D39" s="138"/>
+      <c r="C39" s="137"/>
+      <c r="D39" s="133"/>
       <c r="E39" s="133" t="e">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>#N/A</v>
@@ -7544,16 +7673,16 @@
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>#N/A</v>
       </c>
-      <c r="G39" s="130"/>
-      <c r="H39" s="148"/>
-    </row>
-    <row r="40" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="147" t="s">
-        <v>178</v>
+      <c r="G39" s="78"/>
+      <c r="H39" s="134"/>
+    </row>
+    <row r="40" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="78" t="s">
+        <v>642</v>
       </c>
       <c r="B40" s="132"/>
-      <c r="C40" s="149"/>
-      <c r="D40" s="138"/>
+      <c r="C40" s="137"/>
+      <c r="D40" s="133"/>
       <c r="E40" s="133" t="e">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>#N/A</v>
@@ -7562,16 +7691,16 @@
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>#N/A</v>
       </c>
-      <c r="G40" s="130"/>
-      <c r="H40" s="148"/>
-    </row>
-    <row r="41" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G40" s="78"/>
+      <c r="H40" s="134"/>
+    </row>
+    <row r="41" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="147" t="s">
-        <v>576</v>
+        <v>609</v>
       </c>
       <c r="B41" s="132"/>
       <c r="C41" s="149"/>
-      <c r="D41" s="138"/>
+      <c r="D41" s="133"/>
       <c r="E41" s="133" t="e">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>#N/A</v>
@@ -7581,11 +7710,11 @@
         <v>#N/A</v>
       </c>
       <c r="G41" s="130"/>
-      <c r="H41" s="148"/>
-    </row>
-    <row r="42" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="147" t="s">
-        <v>541</v>
+      <c r="H41" s="138"/>
+    </row>
+    <row r="42" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="78" t="s">
+        <v>640</v>
       </c>
       <c r="B42" s="132"/>
       <c r="C42" s="149"/>
@@ -7601,9 +7730,9 @@
       <c r="G42" s="130"/>
       <c r="H42" s="148"/>
     </row>
-    <row r="43" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="147" t="s">
-        <v>239</v>
+        <v>607</v>
       </c>
       <c r="B43" s="132"/>
       <c r="C43" s="149"/>
@@ -7619,9 +7748,9 @@
       <c r="G43" s="130"/>
       <c r="H43" s="148"/>
     </row>
-    <row r="44" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="130" t="s">
-        <v>492</v>
+    <row r="44" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="147" t="s">
+        <v>597</v>
       </c>
       <c r="B44" s="132"/>
       <c r="C44" s="149"/>
@@ -7637,9 +7766,9 @@
       <c r="G44" s="130"/>
       <c r="H44" s="148"/>
     </row>
-    <row r="45" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="130" t="s">
-        <v>482</v>
+    <row r="45" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="147" t="s">
+        <v>500</v>
       </c>
       <c r="B45" s="132"/>
       <c r="C45" s="149"/>
@@ -7655,9 +7784,9 @@
       <c r="G45" s="130"/>
       <c r="H45" s="148"/>
     </row>
-    <row r="46" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="130" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="B46" s="132"/>
       <c r="C46" s="149"/>
@@ -7673,9 +7802,9 @@
       <c r="G46" s="130"/>
       <c r="H46" s="148"/>
     </row>
-    <row r="47" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="130" t="s">
-        <v>268</v>
+    <row r="47" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="147" t="s">
+        <v>593</v>
       </c>
       <c r="B47" s="132"/>
       <c r="C47" s="149"/>
@@ -7691,9 +7820,9 @@
       <c r="G47" s="130"/>
       <c r="H47" s="148"/>
     </row>
-    <row r="48" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="130" t="s">
-        <v>41</v>
+    <row r="48" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="147" t="s">
+        <v>574</v>
       </c>
       <c r="B48" s="132"/>
       <c r="C48" s="149"/>
@@ -7709,9 +7838,9 @@
       <c r="G48" s="130"/>
       <c r="H48" s="148"/>
     </row>
-    <row r="49" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="130" t="s">
-        <v>273</v>
+    <row r="49" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="147" t="s">
+        <v>178</v>
       </c>
       <c r="B49" s="132"/>
       <c r="C49" s="149"/>
@@ -7727,9 +7856,9 @@
       <c r="G49" s="130"/>
       <c r="H49" s="148"/>
     </row>
-    <row r="50" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="130" t="s">
-        <v>129</v>
+    <row r="50" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="147" t="s">
+        <v>576</v>
       </c>
       <c r="B50" s="132"/>
       <c r="C50" s="149"/>
@@ -7745,9 +7874,9 @@
       <c r="G50" s="130"/>
       <c r="H50" s="148"/>
     </row>
-    <row r="51" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="130" t="s">
-        <v>274</v>
+    <row r="51" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="147" t="s">
+        <v>541</v>
       </c>
       <c r="B51" s="132"/>
       <c r="C51" s="149"/>
@@ -7763,9 +7892,9 @@
       <c r="G51" s="130"/>
       <c r="H51" s="148"/>
     </row>
-    <row r="52" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="130" t="s">
-        <v>21</v>
+    <row r="52" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="147" t="s">
+        <v>239</v>
       </c>
       <c r="B52" s="132"/>
       <c r="C52" s="149"/>
@@ -7781,9 +7910,9 @@
       <c r="G52" s="130"/>
       <c r="H52" s="148"/>
     </row>
-    <row r="53" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="130" t="s">
-        <v>36</v>
+        <v>492</v>
       </c>
       <c r="B53" s="132"/>
       <c r="C53" s="149"/>
@@ -7799,9 +7928,9 @@
       <c r="G53" s="130"/>
       <c r="H53" s="148"/>
     </row>
-    <row r="54" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="130" t="s">
-        <v>256</v>
+        <v>482</v>
       </c>
       <c r="B54" s="132"/>
       <c r="C54" s="149"/>
@@ -7817,9 +7946,9 @@
       <c r="G54" s="130"/>
       <c r="H54" s="148"/>
     </row>
-    <row r="55" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="130" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B55" s="132"/>
       <c r="C55" s="149"/>
@@ -7835,196 +7964,331 @@
       <c r="G55" s="130"/>
       <c r="H55" s="148"/>
     </row>
-    <row r="56" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="150" t="s">
+    <row r="56" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="130" t="s">
+        <v>268</v>
+      </c>
+      <c r="B56" s="132"/>
+      <c r="C56" s="149"/>
+      <c r="D56" s="138"/>
+      <c r="E56" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F56" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G56" s="130"/>
+      <c r="H56" s="148"/>
+    </row>
+    <row r="57" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" s="132"/>
+      <c r="C57" s="149"/>
+      <c r="D57" s="138"/>
+      <c r="E57" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F57" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G57" s="130"/>
+      <c r="H57" s="148"/>
+    </row>
+    <row r="58" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="130" t="s">
+        <v>273</v>
+      </c>
+      <c r="B58" s="132"/>
+      <c r="C58" s="149"/>
+      <c r="D58" s="138"/>
+      <c r="E58" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F58" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G58" s="130"/>
+      <c r="H58" s="148"/>
+    </row>
+    <row r="59" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" s="132"/>
+      <c r="C59" s="149"/>
+      <c r="D59" s="138"/>
+      <c r="E59" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F59" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G59" s="130"/>
+      <c r="H59" s="148"/>
+    </row>
+    <row r="60" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="130" t="s">
+        <v>274</v>
+      </c>
+      <c r="B60" s="132"/>
+      <c r="C60" s="149"/>
+      <c r="D60" s="138"/>
+      <c r="E60" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F60" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G60" s="130"/>
+      <c r="H60" s="148"/>
+    </row>
+    <row r="61" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="130" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="132"/>
+      <c r="C61" s="149"/>
+      <c r="D61" s="138"/>
+      <c r="E61" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F61" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G61" s="130"/>
+      <c r="H61" s="148"/>
+    </row>
+    <row r="62" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="130" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" s="132"/>
+      <c r="C62" s="149"/>
+      <c r="D62" s="138"/>
+      <c r="E62" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F62" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G62" s="130"/>
+      <c r="H62" s="148"/>
+    </row>
+    <row r="63" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="130" t="s">
+        <v>256</v>
+      </c>
+      <c r="B63" s="132"/>
+      <c r="C63" s="149"/>
+      <c r="D63" s="138"/>
+      <c r="E63" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F63" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G63" s="130"/>
+      <c r="H63" s="148"/>
+    </row>
+    <row r="64" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="130" t="s">
+        <v>259</v>
+      </c>
+      <c r="B64" s="132"/>
+      <c r="C64" s="149"/>
+      <c r="D64" s="138"/>
+      <c r="E64" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F64" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G64" s="130"/>
+      <c r="H64" s="148"/>
+    </row>
+    <row r="65" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="150" t="s">
         <v>491</v>
       </c>
-      <c r="B56" s="151">
+      <c r="B65" s="151">
         <f>SUBTOTAL(5,TAB_Doku_201910[Datum])</f>
         <v>44201</v>
       </c>
-      <c r="C56" s="152">
+      <c r="C65" s="152">
         <f>SUBTOTAL(4,TAB_Doku_201910[Datum])</f>
-        <v>44203</v>
-      </c>
-      <c r="D56" s="153"/>
-      <c r="E56" s="153"/>
-      <c r="F56" s="154" t="e">
+        <v>44210</v>
+      </c>
+      <c r="D65" s="153"/>
+      <c r="E65" s="153"/>
+      <c r="F65" s="154">
         <f>SUBTOTAL(9,TAB_Doku_201910[[Kosten ]])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G56" s="150"/>
-      <c r="H56" s="155"/>
-    </row>
-    <row r="57" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57"/>
-    </row>
-    <row r="58" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58"/>
-    </row>
-    <row r="59" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59"/>
-    </row>
-    <row r="60" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60"/>
-    </row>
-    <row r="61" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61"/>
-    </row>
-    <row r="62" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62"/>
-    </row>
-    <row r="63" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C63"/>
-    </row>
-    <row r="64" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64"/>
-    </row>
-    <row r="65" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65"/>
-    </row>
-    <row r="66" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="G65" s="150"/>
+      <c r="H65" s="155"/>
+    </row>
+    <row r="66" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66"/>
     </row>
-    <row r="67" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67"/>
     </row>
-    <row r="68" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68"/>
     </row>
-    <row r="69" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69"/>
     </row>
-    <row r="70" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70"/>
     </row>
-    <row r="71" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71"/>
     </row>
-    <row r="72" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72"/>
     </row>
-    <row r="73" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73"/>
     </row>
-    <row r="74" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74"/>
     </row>
-    <row r="75" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75"/>
     </row>
-    <row r="76" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76"/>
     </row>
-    <row r="77" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77"/>
     </row>
-    <row r="78" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78"/>
     </row>
-    <row r="79" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79"/>
     </row>
-    <row r="80" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80"/>
     </row>
-    <row r="81" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81"/>
     </row>
-    <row r="82" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82"/>
     </row>
-    <row r="83" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83"/>
     </row>
-    <row r="84" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84"/>
     </row>
-    <row r="85" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85"/>
     </row>
-    <row r="86" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C86"/>
     </row>
-    <row r="87" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C87"/>
     </row>
-    <row r="88" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C88"/>
     </row>
-    <row r="89" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C89"/>
     </row>
-    <row r="90" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C90"/>
     </row>
-    <row r="91" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C91"/>
     </row>
-    <row r="92" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C92"/>
-      <c r="I92" t="s">
+    </row>
+    <row r="93" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C93"/>
+    </row>
+    <row r="94" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C94"/>
+    </row>
+    <row r="95" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C95"/>
+    </row>
+    <row r="96" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C96"/>
+    </row>
+    <row r="97" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C97"/>
+    </row>
+    <row r="98" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C98"/>
+    </row>
+    <row r="99" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C99"/>
+    </row>
+    <row r="100" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C100"/>
+    </row>
+    <row r="101" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C101"/>
+      <c r="I101" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="93" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C93"/>
-    </row>
-    <row r="94" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C94"/>
-    </row>
-    <row r="95" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C95"/>
-    </row>
-    <row r="96" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C96"/>
-    </row>
-    <row r="97" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C97"/>
-    </row>
-    <row r="98" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C98"/>
-    </row>
-    <row r="99" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C99"/>
-    </row>
-    <row r="100" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C100"/>
-    </row>
-    <row r="101" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C101"/>
-    </row>
-    <row r="102" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C102"/>
     </row>
-    <row r="103" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C103"/>
     </row>
-    <row r="104" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C104"/>
     </row>
-    <row r="105" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C105"/>
     </row>
-    <row r="106" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C106"/>
     </row>
-    <row r="107" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C107"/>
     </row>
-    <row r="108" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C108"/>
     </row>
-    <row r="109" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C109"/>
     </row>
-    <row r="110" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C110"/>
     </row>
-    <row r="111" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C111"/>
     </row>
-    <row r="112" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C112"/>
     </row>
     <row r="113" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -8090,15 +8354,8 @@
     <row r="133" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C133"/>
     </row>
-    <row r="134" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A134"/>
-      <c r="B134"/>
+    <row r="134" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C134"/>
-      <c r="D134"/>
-      <c r="E134"/>
-      <c r="F134"/>
-      <c r="G134"/>
-      <c r="H134"/>
     </row>
     <row r="135" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C135"/>
@@ -8112,15 +8369,8 @@
     <row r="138" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C138"/>
     </row>
-    <row r="139" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A139"/>
-      <c r="B139"/>
+    <row r="139" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C139"/>
-      <c r="D139"/>
-      <c r="E139"/>
-      <c r="F139"/>
-      <c r="G139"/>
-      <c r="H139"/>
     </row>
     <row r="140" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C140"/>
@@ -8131,61 +8381,75 @@
     <row r="142" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C142"/>
     </row>
-    <row r="143" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A143"/>
+      <c r="B143"/>
       <c r="C143"/>
+      <c r="D143"/>
+      <c r="E143"/>
+      <c r="F143"/>
+      <c r="G143"/>
+      <c r="H143"/>
     </row>
     <row r="144" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C144"/>
     </row>
-    <row r="145" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C145"/>
     </row>
-    <row r="146" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C146"/>
     </row>
-    <row r="147" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C147"/>
     </row>
-    <row r="148" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A148"/>
+      <c r="B148"/>
       <c r="C148"/>
-    </row>
-    <row r="149" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D148"/>
+      <c r="E148"/>
+      <c r="F148"/>
+      <c r="G148"/>
+      <c r="H148"/>
+    </row>
+    <row r="149" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C149"/>
     </row>
-    <row r="150" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C150"/>
     </row>
-    <row r="151" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C151"/>
     </row>
-    <row r="152" spans="3:3" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C152"/>
     </row>
-    <row r="153" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C153"/>
     </row>
-    <row r="154" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C154"/>
     </row>
-    <row r="155" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C155"/>
     </row>
-    <row r="156" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C156"/>
     </row>
-    <row r="157" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C157"/>
     </row>
-    <row r="158" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C158"/>
     </row>
-    <row r="159" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C159"/>
     </row>
-    <row r="160" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C160"/>
     </row>
-    <row r="161" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:3" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C161"/>
     </row>
     <row r="162" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -8200,7 +8464,7 @@
     <row r="165" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C165"/>
     </row>
-    <row r="166" spans="3:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C166"/>
     </row>
     <row r="167" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -8227,7 +8491,7 @@
     <row r="174" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C174"/>
     </row>
-    <row r="175" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C175"/>
     </row>
     <row r="176" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -8638,11 +8902,38 @@
     <row r="311" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C311"/>
     </row>
-    <row r="312" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C312"/>
     </row>
-    <row r="313" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C313"/>
+    </row>
+    <row r="314" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C314"/>
+    </row>
+    <row r="315" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C315"/>
+    </row>
+    <row r="316" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C316"/>
+    </row>
+    <row r="317" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C317"/>
+    </row>
+    <row r="318" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C318"/>
+    </row>
+    <row r="319" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C319"/>
+    </row>
+    <row r="320" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C320"/>
+    </row>
+    <row r="321" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C321"/>
+    </row>
+    <row r="322" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C322"/>
     </row>
   </sheetData>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.47244094488188981" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8661,7 +8952,7 @@
           <x14:formula1>
             <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B55</xm:sqref>
+          <xm:sqref>B2:B64</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8677,10 +8968,10 @@
   <dimension ref="A1:I314"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F318" sqref="F318"/>
+      <selection pane="bottomRight" activeCell="A314" sqref="A314:XFD314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8690,7 +8981,8 @@
     <col min="3" max="3" width="13.77734375" style="5" customWidth="1"/>
     <col min="4" max="4" width="13.21875" customWidth="1"/>
     <col min="5" max="5" width="17.88671875" customWidth="1"/>
-    <col min="6" max="7" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" customWidth="1"/>
     <col min="8" max="8" width="80.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8742,7 +9034,7 @@
         <v>30</v>
       </c>
       <c r="G2" s="78" t="s">
-        <v>498</v>
+        <v>846</v>
       </c>
       <c r="H2" s="134" t="s">
         <v>838</v>
@@ -8770,7 +9062,7 @@
         <v>30</v>
       </c>
       <c r="G3" s="78" t="s">
-        <v>498</v>
+        <v>846</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>838</v>
@@ -8798,7 +9090,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="78" t="s">
-        <v>498</v>
+        <v>846</v>
       </c>
       <c r="H4" s="134" t="s">
         <v>838</v>
@@ -8826,7 +9118,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="78" t="s">
-        <v>498</v>
+        <v>846</v>
       </c>
       <c r="H5" s="134" t="s">
         <v>837</v>
@@ -8854,7 +9146,7 @@
         <v>120</v>
       </c>
       <c r="G6" s="78" t="s">
-        <v>498</v>
+        <v>846</v>
       </c>
       <c r="H6" s="134" t="s">
         <v>834</v>
@@ -8882,7 +9174,7 @@
         <v>7.5</v>
       </c>
       <c r="G7" s="78" t="s">
-        <v>498</v>
+        <v>846</v>
       </c>
       <c r="H7" s="134" t="s">
         <v>833</v>
@@ -8910,7 +9202,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="78" t="s">
-        <v>498</v>
+        <v>846</v>
       </c>
       <c r="H8" s="134" t="s">
         <v>836</v>
@@ -8938,7 +9230,7 @@
         <v>60</v>
       </c>
       <c r="G9" s="78" t="s">
-        <v>498</v>
+        <v>846</v>
       </c>
       <c r="H9" s="134" t="s">
         <v>835</v>
@@ -8966,7 +9258,7 @@
         <v>7.5</v>
       </c>
       <c r="G10" s="78" t="s">
-        <v>498</v>
+        <v>846</v>
       </c>
       <c r="H10" s="134" t="s">
         <v>832</v>
@@ -8994,7 +9286,7 @@
         <v>7.5</v>
       </c>
       <c r="G11" s="78" t="s">
-        <v>498</v>
+        <v>846</v>
       </c>
       <c r="H11" s="134" t="s">
         <v>831</v>
@@ -9022,7 +9314,7 @@
         <v>7.5</v>
       </c>
       <c r="G12" s="78" t="s">
-        <v>498</v>
+        <v>846</v>
       </c>
       <c r="H12" s="134" t="s">
         <v>829</v>
@@ -9050,7 +9342,7 @@
         <v>30</v>
       </c>
       <c r="G13" s="78" t="s">
-        <v>498</v>
+        <v>846</v>
       </c>
       <c r="H13" s="134" t="s">
         <v>825</v>
@@ -9078,7 +9370,7 @@
         <v>30</v>
       </c>
       <c r="G14" s="78" t="s">
-        <v>498</v>
+        <v>846</v>
       </c>
       <c r="H14" s="134" t="s">
         <v>824</v>
@@ -9106,7 +9398,7 @@
         <v>7.5</v>
       </c>
       <c r="G15" s="78" t="s">
-        <v>498</v>
+        <v>846</v>
       </c>
       <c r="H15" s="134" t="s">
         <v>823</v>
@@ -9134,7 +9426,7 @@
         <v>7.5</v>
       </c>
       <c r="G16" s="78" t="s">
-        <v>498</v>
+        <v>846</v>
       </c>
       <c r="H16" s="134" t="s">
         <v>821</v>
@@ -9162,7 +9454,7 @@
         <v>7.5</v>
       </c>
       <c r="G17" s="78" t="s">
-        <v>498</v>
+        <v>846</v>
       </c>
       <c r="H17" s="134" t="s">
         <v>820</v>
@@ -9190,7 +9482,7 @@
         <v>5</v>
       </c>
       <c r="G18" s="78" t="s">
-        <v>498</v>
+        <v>846</v>
       </c>
       <c r="H18" s="134" t="s">
         <v>827</v>
@@ -9218,7 +9510,7 @@
         <v>5</v>
       </c>
       <c r="G19" s="78" t="s">
-        <v>498</v>
+        <v>846</v>
       </c>
       <c r="H19" s="134" t="s">
         <v>817</v>
@@ -9246,7 +9538,7 @@
         <v>7.5</v>
       </c>
       <c r="G20" s="78" t="s">
-        <v>498</v>
+        <v>846</v>
       </c>
       <c r="H20" s="134" t="s">
         <v>815</v>
@@ -9274,7 +9566,7 @@
         <v>5</v>
       </c>
       <c r="G21" s="78" t="s">
-        <v>498</v>
+        <v>846</v>
       </c>
       <c r="H21" s="134" t="s">
         <v>826</v>
@@ -9302,7 +9594,7 @@
         <v>7.5</v>
       </c>
       <c r="G22" s="78" t="s">
-        <v>498</v>
+        <v>846</v>
       </c>
       <c r="H22" s="134" t="s">
         <v>818</v>
@@ -9330,7 +9622,7 @@
         <v>7.5</v>
       </c>
       <c r="G23" s="78" t="s">
-        <v>498</v>
+        <v>846</v>
       </c>
       <c r="H23" s="134" t="s">
         <v>814</v>
@@ -9358,7 +9650,7 @@
         <v>7.5</v>
       </c>
       <c r="G24" s="78" t="s">
-        <v>498</v>
+        <v>846</v>
       </c>
       <c r="H24" s="134" t="s">
         <v>822</v>
@@ -9386,7 +9678,7 @@
         <v>7.5</v>
       </c>
       <c r="G25" s="78" t="s">
-        <v>498</v>
+        <v>846</v>
       </c>
       <c r="H25" s="134" t="s">
         <v>812</v>
@@ -9414,7 +9706,7 @@
         <v>7.5</v>
       </c>
       <c r="G26" s="78" t="s">
-        <v>498</v>
+        <v>846</v>
       </c>
       <c r="H26" s="134" t="s">
         <v>828</v>
@@ -9442,7 +9734,7 @@
         <v>15</v>
       </c>
       <c r="G27" s="78" t="s">
-        <v>498</v>
+        <v>846</v>
       </c>
       <c r="H27" s="134" t="s">
         <v>809</v>
@@ -9470,7 +9762,7 @@
         <v>7.5</v>
       </c>
       <c r="G28" s="78" t="s">
-        <v>498</v>
+        <v>846</v>
       </c>
       <c r="H28" s="134" t="s">
         <v>806</v>
@@ -9498,7 +9790,7 @@
         <v>7.5</v>
       </c>
       <c r="G29" s="78" t="s">
-        <v>498</v>
+        <v>846</v>
       </c>
       <c r="H29" s="134" t="s">
         <v>803</v>
@@ -9526,7 +9818,7 @@
         <v>15</v>
       </c>
       <c r="G30" s="78" t="s">
-        <v>498</v>
+        <v>846</v>
       </c>
       <c r="H30" s="134" t="s">
         <v>811</v>
@@ -9554,7 +9846,7 @@
         <v>5</v>
       </c>
       <c r="G31" s="78" t="s">
-        <v>498</v>
+        <v>846</v>
       </c>
       <c r="H31" s="134" t="s">
         <v>808</v>
@@ -9582,7 +9874,7 @@
         <v>7.5</v>
       </c>
       <c r="G32" s="78" t="s">
-        <v>498</v>
+        <v>846</v>
       </c>
       <c r="H32" s="134" t="s">
         <v>804</v>
@@ -9610,7 +9902,7 @@
         <v>5</v>
       </c>
       <c r="G33" s="78" t="s">
-        <v>498</v>
+        <v>846</v>
       </c>
       <c r="H33" s="134" t="s">
         <v>807</v>
@@ -9638,7 +9930,7 @@
         <v>90</v>
       </c>
       <c r="G34" s="78" t="s">
-        <v>498</v>
+        <v>846</v>
       </c>
       <c r="H34" s="133" t="s">
         <v>805</v>
@@ -17513,7 +17805,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.47244094488188981" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L &amp;F&amp;C&amp;A&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P von &amp;N</oddFooter>
@@ -23257,122 +23549,122 @@
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0"/>
   <conditionalFormatting sqref="C2:C90 C94:C123">
-    <cfRule type="containsText" dxfId="23" priority="33" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C15">
-    <cfRule type="containsText" dxfId="22" priority="32" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="21" priority="31" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C43 C45:C46">
-    <cfRule type="containsText" dxfId="20" priority="30" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C34">
-    <cfRule type="containsText" dxfId="19" priority="29" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="containsText" dxfId="18" priority="27" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73:D76 D2:D71">
-    <cfRule type="cellIs" dxfId="17" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79">
-    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77:D78">
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81">
-    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81">
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82">
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="20" priority="14" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="19" priority="12" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C89:C90">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C89)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C125:C126">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C127">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C127)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C124">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C128">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C128)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C129)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/trailtech/Leistungen-KC-Trailtech.xlsx
+++ b/trailtech/Leistungen-KC-Trailtech.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="24" windowWidth="17796" windowHeight="6588" activeTab="1"/>
+    <workbookView xWindow="288" yWindow="24" windowWidth="17796" windowHeight="6588" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Leistungen-Liste" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="860">
   <si>
     <t>Tätigkeit</t>
   </si>
@@ -2698,6 +2698,12 @@
   </si>
   <si>
     <t>Termin Akk.</t>
+  </si>
+  <si>
+    <t>http://www.guschi.at/kollverw.htm</t>
+  </si>
+  <si>
+    <t>https://www.wko.at/service/kollektivvertrag/gehaltstabelle-information-consulting-2021.html</t>
   </si>
 </sst>
 </file>
@@ -3629,6 +3635,276 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
@@ -4023,276 +4299,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -5392,23 +5398,23 @@
     <sortCondition ref="C1:C55"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="47" totalsRowDxfId="7"/>
-    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="6">
+    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="47" totalsRowDxfId="15"/>
+    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="14">
       <totalsRowFormula>SUBTOTAL(5,TAB_Doku_201910[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="5">
+    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="13">
       <totalsRowFormula>SUBTOTAL(4,TAB_Doku_201910[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Stk." dataDxfId="44" totalsRowDxfId="4"/>
-    <tableColumn id="5" name="Zeitaufwand" dataDxfId="43" totalsRowDxfId="3">
+    <tableColumn id="4" name="Stk." dataDxfId="44" totalsRowDxfId="12"/>
+    <tableColumn id="5" name="Zeitaufwand" dataDxfId="43" totalsRowDxfId="11">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="2">
+    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="10">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,TAB_Doku_201910[[Kosten ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Abrechnung" dataDxfId="41" totalsRowDxfId="1"/>
-    <tableColumn id="8" name="Notiz" dataDxfId="40" totalsRowDxfId="0"/>
+    <tableColumn id="7" name="Abrechnung" dataDxfId="41" totalsRowDxfId="9"/>
+    <tableColumn id="8" name="Notiz" dataDxfId="40" totalsRowDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5417,30 +5423,46 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TAB_Doku_2019" displayName="TAB_Doku_2019" ref="A1:H314" totalsRowCount="1" headerRowDxfId="97" dataDxfId="96" totalsRowDxfId="94" tableBorderDxfId="95">
   <autoFilter ref="A1:H313">
-    <filterColumn colId="6">
+    <filterColumn colId="2">
       <filters>
-        <filter val="nächste"/>
+        <dateGroupItem year="2019" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="0"/>
+        <filter val="10"/>
+        <filter val="120"/>
+        <filter val="1440"/>
+        <filter val="15"/>
+        <filter val="180"/>
+        <filter val="1920"/>
+        <filter val="30"/>
+        <filter val="5"/>
+        <filter val="60"/>
+        <filter val="960"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="93" totalsRowDxfId="39"/>
-    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="92" totalsRowDxfId="38">
+    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="93" totalsRowDxfId="7"/>
+    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="92" totalsRowDxfId="6">
       <totalsRowFormula>SUBTOTAL(5,TAB_Doku_2019[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="37">
+    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="5">
       <totalsRowFormula>SUBTOTAL(4,TAB_Doku_2019[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Stk." dataDxfId="90" totalsRowDxfId="36"/>
-    <tableColumn id="5" name="Zeitaufwand" dataDxfId="89" totalsRowDxfId="35">
+    <tableColumn id="4" name="Stk." dataDxfId="90" totalsRowDxfId="4"/>
+    <tableColumn id="5" name="Zeitaufwand" totalsRowFunction="custom" dataDxfId="89" totalsRowDxfId="3">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_2019[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</calculatedColumnFormula>
+      <totalsRowFormula>ROUND(SUBTOTAL(9,TAB_Doku_2019[Zeitaufwand])/60,0) &amp;" h"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="34">
+    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="2">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_2019[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_2019[[#This Row],[Stk.]]</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,TAB_Doku_2019[[Kosten ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Abrechnung" dataDxfId="87" totalsRowDxfId="33"/>
-    <tableColumn id="8" name="Notiz" dataDxfId="86" totalsRowDxfId="32"/>
+    <tableColumn id="7" name="Abrechnung" dataDxfId="87" totalsRowDxfId="1"/>
+    <tableColumn id="8" name="Notiz" dataDxfId="86" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6778,7 +6800,7 @@
   </sheetPr>
   <dimension ref="A1:I322"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -8965,13 +8987,13 @@
   <sheetPr published="0" codeName="Tabelle5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I314"/>
+  <dimension ref="A1:I319"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C304" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A314" sqref="A314:XFD314"/>
+      <selection pane="bottomRight" activeCell="E321" sqref="E321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9012,7 +9034,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="78" t="s">
         <v>102</v>
       </c>
@@ -9020,7 +9042,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="137">
-        <v>44561</v>
+        <v>44196</v>
       </c>
       <c r="D2" s="133">
         <v>1</v>
@@ -9040,7 +9062,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="78" t="s">
         <v>734</v>
       </c>
@@ -9048,7 +9070,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="137">
-        <v>44561</v>
+        <v>44196</v>
       </c>
       <c r="D3" s="133">
         <v>1</v>
@@ -9068,7 +9090,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="78" t="s">
         <v>102</v>
       </c>
@@ -9076,7 +9098,7 @@
         <v>207</v>
       </c>
       <c r="C4" s="137">
-        <v>44561</v>
+        <v>44196</v>
       </c>
       <c r="D4" s="133">
         <v>1</v>
@@ -9096,7 +9118,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="78" t="s">
         <v>816</v>
       </c>
@@ -9124,7 +9146,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="78" t="s">
         <v>816</v>
       </c>
@@ -9152,7 +9174,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="78" t="s">
         <v>816</v>
       </c>
@@ -9180,7 +9202,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="78" t="s">
         <v>744</v>
       </c>
@@ -9208,7 +9230,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
         <v>744</v>
       </c>
@@ -9236,7 +9258,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
         <v>830</v>
       </c>
@@ -9264,7 +9286,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="78" t="s">
         <v>830</v>
       </c>
@@ -9292,7 +9314,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="78" t="s">
         <v>727</v>
       </c>
@@ -9320,7 +9342,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="78" t="s">
         <v>727</v>
       </c>
@@ -9348,7 +9370,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="78" t="s">
         <v>727</v>
       </c>
@@ -9376,7 +9398,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78" t="s">
         <v>727</v>
       </c>
@@ -9404,7 +9426,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78" t="s">
         <v>813</v>
       </c>
@@ -9432,7 +9454,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="78" t="s">
         <v>819</v>
       </c>
@@ -9460,7 +9482,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="78" t="s">
         <v>819</v>
       </c>
@@ -9488,7 +9510,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="78" t="s">
         <v>816</v>
       </c>
@@ -9516,7 +9538,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="78" t="s">
         <v>781</v>
       </c>
@@ -9544,7 +9566,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="78" t="s">
         <v>727</v>
       </c>
@@ -9572,7 +9594,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="78" t="s">
         <v>816</v>
       </c>
@@ -9600,7 +9622,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="78" t="s">
         <v>813</v>
       </c>
@@ -9628,7 +9650,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78" t="s">
         <v>727</v>
       </c>
@@ -9656,7 +9678,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="78" t="s">
         <v>810</v>
       </c>
@@ -9684,7 +9706,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="78" t="s">
         <v>765</v>
       </c>
@@ -9712,7 +9734,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="78" t="s">
         <v>765</v>
       </c>
@@ -9740,7 +9762,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="78" t="s">
         <v>765</v>
       </c>
@@ -9768,7 +9790,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="78" t="s">
         <v>795</v>
       </c>
@@ -9796,7 +9818,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="78" t="s">
         <v>810</v>
       </c>
@@ -9824,7 +9846,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="78" t="s">
         <v>765</v>
       </c>
@@ -9852,7 +9874,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="78" t="s">
         <v>795</v>
       </c>
@@ -9880,7 +9902,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="78" t="s">
         <v>765</v>
       </c>
@@ -9908,7 +9930,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="78" t="s">
         <v>795</v>
       </c>
@@ -14734,7 +14756,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A205" s="79" t="s">
         <v>278</v>
       </c>
@@ -14762,7 +14784,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A206" s="79" t="s">
         <v>278</v>
       </c>
@@ -14790,7 +14812,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A207" s="79" t="s">
         <v>278</v>
       </c>
@@ -14818,7 +14840,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="135" t="s">
         <v>102</v>
       </c>
@@ -14845,7 +14867,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="135" t="s">
         <v>593</v>
       </c>
@@ -14873,7 +14895,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A210" s="135" t="s">
         <v>102</v>
       </c>
@@ -14901,7 +14923,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A211" s="135" t="s">
         <v>102</v>
       </c>
@@ -14929,7 +14951,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="135" t="s">
         <v>574</v>
       </c>
@@ -14957,7 +14979,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A213" s="135" t="s">
         <v>574</v>
       </c>
@@ -14985,7 +15007,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A214" s="135" t="s">
         <v>574</v>
       </c>
@@ -15013,7 +15035,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A215" s="135" t="s">
         <v>500</v>
       </c>
@@ -15037,7 +15059,7 @@
       <c r="G215" s="79"/>
       <c r="H215" s="79"/>
     </row>
-    <row r="216" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A216" s="135" t="s">
         <v>500</v>
       </c>
@@ -15065,7 +15087,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A217" s="135" t="s">
         <v>500</v>
       </c>
@@ -15093,7 +15115,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A218" s="135" t="s">
         <v>500</v>
       </c>
@@ -15121,7 +15143,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A219" s="135" t="s">
         <v>500</v>
       </c>
@@ -15149,7 +15171,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A220" s="135" t="s">
         <v>500</v>
       </c>
@@ -15205,7 +15227,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A222" s="135" t="s">
         <v>500</v>
       </c>
@@ -15233,7 +15255,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="135" t="s">
         <v>500</v>
       </c>
@@ -15261,7 +15283,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="135" t="s">
         <v>500</v>
       </c>
@@ -15317,7 +15339,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A226" s="135" t="s">
         <v>178</v>
       </c>
@@ -15345,7 +15367,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A227" s="135" t="s">
         <v>178</v>
       </c>
@@ -15373,7 +15395,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A228" s="135" t="s">
         <v>178</v>
       </c>
@@ -15401,7 +15423,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="135" t="s">
         <v>576</v>
       </c>
@@ -15429,7 +15451,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A230" s="135" t="s">
         <v>576</v>
       </c>
@@ -15457,7 +15479,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A231" s="135" t="s">
         <v>576</v>
       </c>
@@ -15485,7 +15507,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A232" s="135" t="s">
         <v>576</v>
       </c>
@@ -15513,7 +15535,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A233" s="135" t="s">
         <v>178</v>
       </c>
@@ -15541,7 +15563,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A234" s="135" t="s">
         <v>541</v>
       </c>
@@ -15569,7 +15591,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A235" s="135" t="s">
         <v>178</v>
       </c>
@@ -15597,7 +15619,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A236" s="135" t="s">
         <v>178</v>
       </c>
@@ -15625,7 +15647,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A237" s="135" t="s">
         <v>102</v>
       </c>
@@ -15653,7 +15675,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A238" s="135" t="s">
         <v>102</v>
       </c>
@@ -15681,7 +15703,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A239" s="135" t="s">
         <v>178</v>
       </c>
@@ -15709,7 +15731,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A240" s="135" t="s">
         <v>178</v>
       </c>
@@ -15737,7 +15759,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A241" s="135" t="s">
         <v>178</v>
       </c>
@@ -15765,7 +15787,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A242" s="135" t="s">
         <v>509</v>
       </c>
@@ -15793,7 +15815,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A243" s="135" t="s">
         <v>509</v>
       </c>
@@ -15821,7 +15843,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A244" s="135" t="s">
         <v>509</v>
       </c>
@@ -15849,7 +15871,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A245" s="135" t="s">
         <v>178</v>
       </c>
@@ -15877,7 +15899,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A246" s="135" t="s">
         <v>500</v>
       </c>
@@ -15905,7 +15927,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A247" s="135" t="s">
         <v>509</v>
       </c>
@@ -15934,7 +15956,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A248" s="135" t="s">
         <v>509</v>
       </c>
@@ -15962,7 +15984,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" s="135" t="s">
         <v>509</v>
       </c>
@@ -15990,7 +16012,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A250" s="135" t="s">
         <v>509</v>
       </c>
@@ -16018,7 +16040,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A251" s="135" t="s">
         <v>509</v>
       </c>
@@ -16046,7 +16068,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A252" s="135" t="s">
         <v>509</v>
       </c>
@@ -16074,7 +16096,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A253" s="135" t="s">
         <v>239</v>
       </c>
@@ -16102,7 +16124,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A254" s="135" t="s">
         <v>239</v>
       </c>
@@ -16130,7 +16152,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A255" s="79" t="s">
         <v>500</v>
       </c>
@@ -16158,7 +16180,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A256" s="79" t="s">
         <v>500</v>
       </c>
@@ -16186,7 +16208,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A257" s="79" t="s">
         <v>500</v>
       </c>
@@ -16214,7 +16236,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A258" s="79" t="s">
         <v>509</v>
       </c>
@@ -16242,7 +16264,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A259" s="79" t="s">
         <v>239</v>
       </c>
@@ -16270,7 +16292,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A260" s="79" t="s">
         <v>500</v>
       </c>
@@ -16298,7 +16320,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A261" s="79" t="s">
         <v>509</v>
       </c>
@@ -16326,7 +16348,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A262" s="79" t="s">
         <v>500</v>
       </c>
@@ -16354,7 +16376,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A263" s="79" t="s">
         <v>500</v>
       </c>
@@ -16382,7 +16404,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A264" s="79" t="s">
         <v>500</v>
       </c>
@@ -16410,7 +16432,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A265" s="79" t="s">
         <v>178</v>
       </c>
@@ -16438,7 +16460,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A266" s="79" t="s">
         <v>178</v>
       </c>
@@ -16466,7 +16488,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A267" s="79" t="s">
         <v>178</v>
       </c>
@@ -16494,7 +16516,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A268" s="79" t="s">
         <v>500</v>
       </c>
@@ -16522,7 +16544,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A269" s="79" t="s">
         <v>500</v>
       </c>
@@ -16550,7 +16572,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A270" s="79" t="s">
         <v>500</v>
       </c>
@@ -16578,7 +16600,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A271" s="79" t="s">
         <v>500</v>
       </c>
@@ -16606,7 +16628,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A272" s="79" t="s">
         <v>102</v>
       </c>
@@ -16634,7 +16656,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A273" s="79" t="s">
         <v>102</v>
       </c>
@@ -16662,7 +16684,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A274" s="79" t="s">
         <v>492</v>
       </c>
@@ -16690,7 +16712,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A275" s="79" t="s">
         <v>482</v>
       </c>
@@ -16718,7 +16740,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A276" s="79" t="s">
         <v>482</v>
       </c>
@@ -16746,7 +16768,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A277" s="79" t="s">
         <v>482</v>
       </c>
@@ -16774,7 +16796,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A278" s="79" t="s">
         <v>178</v>
       </c>
@@ -16802,7 +16824,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A279" s="79" t="s">
         <v>178</v>
       </c>
@@ -16830,7 +16852,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A280" s="79" t="s">
         <v>267</v>
       </c>
@@ -16858,7 +16880,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A281" s="79" t="s">
         <v>268</v>
       </c>
@@ -16886,7 +16908,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A282" s="79" t="s">
         <v>267</v>
       </c>
@@ -16914,7 +16936,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A283" s="79" t="s">
         <v>41</v>
       </c>
@@ -16942,7 +16964,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A284" s="79" t="s">
         <v>273</v>
       </c>
@@ -16970,7 +16992,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A285" s="79" t="s">
         <v>273</v>
       </c>
@@ -16998,7 +17020,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A286" s="79" t="s">
         <v>178</v>
       </c>
@@ -17026,7 +17048,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287" s="79" t="s">
         <v>267</v>
       </c>
@@ -17054,7 +17076,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A288" s="79" t="s">
         <v>267</v>
       </c>
@@ -17082,7 +17104,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A289" s="79" t="s">
         <v>273</v>
       </c>
@@ -17110,7 +17132,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A290" s="79" t="s">
         <v>273</v>
       </c>
@@ -17138,7 +17160,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" s="79" t="s">
         <v>268</v>
       </c>
@@ -17166,7 +17188,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A292" s="79" t="s">
         <v>129</v>
       </c>
@@ -17194,7 +17216,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A293" s="79" t="s">
         <v>273</v>
       </c>
@@ -17222,7 +17244,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A294" s="79" t="s">
         <v>274</v>
       </c>
@@ -17246,7 +17268,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A295" s="79" t="s">
         <v>21</v>
       </c>
@@ -17274,7 +17296,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A296" s="79" t="s">
         <v>102</v>
       </c>
@@ -17302,7 +17324,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="79" t="s">
         <v>36</v>
       </c>
@@ -17330,7 +17352,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A298" s="79" t="s">
         <v>268</v>
       </c>
@@ -17358,7 +17380,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A299" s="79" t="s">
         <v>267</v>
       </c>
@@ -17386,7 +17408,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A300" s="79" t="s">
         <v>267</v>
       </c>
@@ -17414,7 +17436,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A301" s="79" t="s">
         <v>239</v>
       </c>
@@ -17442,7 +17464,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A302" s="79" t="s">
         <v>36</v>
       </c>
@@ -17470,7 +17492,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A303" s="79" t="s">
         <v>256</v>
       </c>
@@ -17498,7 +17520,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A304" s="79" t="s">
         <v>36</v>
       </c>
@@ -17526,7 +17548,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A305" s="79" t="s">
         <v>36</v>
       </c>
@@ -17554,7 +17576,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A306" s="79" t="s">
         <v>36</v>
       </c>
@@ -17582,7 +17604,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A307" s="79" t="s">
         <v>259</v>
       </c>
@@ -17610,7 +17632,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A308" s="79" t="s">
         <v>259</v>
       </c>
@@ -17638,7 +17660,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A309" s="79" t="s">
         <v>259</v>
       </c>
@@ -17666,7 +17688,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A310" s="132" t="s">
         <v>256</v>
       </c>
@@ -17694,7 +17716,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A311" s="132" t="s">
         <v>256</v>
       </c>
@@ -17722,7 +17744,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A312" s="132" t="s">
         <v>256</v>
       </c>
@@ -17780,20 +17802,43 @@
       </c>
       <c r="B314" s="151">
         <f>SUBTOTAL(5,TAB_Doku_2019[Datum])</f>
-        <v>44146</v>
+        <v>43500</v>
       </c>
       <c r="C314" s="152">
         <f>SUBTOTAL(4,TAB_Doku_2019[Datum])</f>
-        <v>44561</v>
+        <v>43818</v>
       </c>
       <c r="D314" s="153"/>
-      <c r="E314" s="153"/>
+      <c r="E314" s="154" t="str">
+        <f>ROUND(SUBTOTAL(9,TAB_Doku_2019[Zeitaufwand])/60,0) &amp;" h"</f>
+        <v>143 h</v>
+      </c>
       <c r="F314" s="154">
         <f>SUBTOTAL(9,TAB_Doku_2019[[Kosten ]])</f>
-        <v>585</v>
+        <v>4712.05</v>
       </c>
       <c r="G314" s="150"/>
       <c r="H314" s="155"/>
+    </row>
+    <row r="316" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D316" t="s">
+        <v>858</v>
+      </c>
+      <c r="E316">
+        <f>TAB_Doku_2019[[#Totals],[Kosten ]]/143*0.75</f>
+        <v>24.713548951048949</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D317" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E319">
+        <f>(2500*14)/47/40</f>
+        <v>18.617021276595743</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -23549,122 +23594,122 @@
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0"/>
   <conditionalFormatting sqref="C2:C90 C94:C123">
-    <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="39" priority="33" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C15">
-    <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="38" priority="32" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="37" priority="31" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C43 C45:C46">
-    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="36" priority="30" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C34">
-    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="35" priority="29" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="34" priority="27" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73:D76 D2:D71">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79">
-    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77:D78">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81">
-    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="30" priority="18" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81">
-    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82">
-    <cfRule type="containsText" dxfId="20" priority="14" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="28" priority="14" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="containsText" dxfId="19" priority="12" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="27" priority="12" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="25" priority="10" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C89:C90">
-    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C89)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92">
-    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="23" priority="8" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91">
-    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93">
-    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="21" priority="6" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C125:C126">
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C127">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C127)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C124">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C128">
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C128)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C129)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/trailtech/Leistungen-KC-Trailtech.xlsx
+++ b/trailtech/Leistungen-KC-Trailtech.xlsx
@@ -8990,10 +8990,10 @@
   <dimension ref="A1:I319"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C304" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E321" sqref="E321"/>
+      <selection pane="bottomRight" activeCell="H220" sqref="H220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/trailtech/Leistungen-KC-Trailtech.xlsx
+++ b/trailtech/Leistungen-KC-Trailtech.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="24" windowWidth="17796" windowHeight="6588" activeTab="2"/>
+    <workbookView xWindow="288" yWindow="24" windowWidth="17796" windowHeight="6588" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Leistungen-Liste" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="873">
   <si>
     <t>Tätigkeit</t>
   </si>
@@ -2646,9 +2646,6 @@
     <t>3 tries to get in touch with Köhle.</t>
   </si>
   <si>
-    <t>Talks with David on Appo</t>
-  </si>
-  <si>
     <t>Jochtal-Gitschberg</t>
   </si>
   <si>
@@ -2704,6 +2701,48 @@
   </si>
   <si>
     <t>https://www.wko.at/service/kollektivvertrag/gehaltstabelle-information-consulting-2021.html</t>
+  </si>
+  <si>
+    <t>Termin Akk. 23.2.22</t>
+  </si>
+  <si>
+    <t>unverb. Angebot PT rd. 100.000,-</t>
+  </si>
+  <si>
+    <t>E-Mail mit Angebot/Preisauskunft</t>
+  </si>
+  <si>
+    <t>Follow-Up Preisauskunft</t>
+  </si>
+  <si>
+    <t>VS Brand</t>
+  </si>
+  <si>
+    <t>Angebot PT Miete TVB Brand</t>
+  </si>
+  <si>
+    <t>Miete PT</t>
+  </si>
+  <si>
+    <t>Miete PT Brand, Absprachen mit Kunden, VS Uli und Parkitect..</t>
+  </si>
+  <si>
+    <t>Montafon</t>
+  </si>
+  <si>
+    <t>Trackwalk</t>
+  </si>
+  <si>
+    <t>Editing E-Mail Absage</t>
+  </si>
+  <si>
+    <t>Jerzens</t>
+  </si>
+  <si>
+    <t>Anfahrt</t>
+  </si>
+  <si>
+    <t>Meeting</t>
   </si>
 </sst>
 </file>
@@ -3522,273 +3561,243 @@
   <dxfs count="107">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4059,467 +4068,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -5055,6 +4603,497 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5233,24 +5272,24 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="0"/>
+        <color rgb="FFFFFFFF"/>
         <name val="Calibri"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color theme="1"/>
+          <color rgb="FF000000"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </right>
         <top/>
         <bottom/>
@@ -5386,90 +5425,69 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="TAB_Doku_201910" displayName="TAB_Doku_201910" ref="A1:H65" totalsRowCount="1" headerRowDxfId="51" dataDxfId="50" totalsRowDxfId="49" tableBorderDxfId="48">
-  <autoFilter ref="A1:H64">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="TAB_Doku_201910" displayName="TAB_Doku_201910" ref="A1:H78" totalsRowCount="1" headerRowDxfId="97" dataDxfId="96" totalsRowDxfId="94" tableBorderDxfId="95">
+  <autoFilter ref="A1:H77"/>
   <sortState ref="A2:H55">
     <sortCondition ref="C1:C55"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="47" totalsRowDxfId="15"/>
-    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="14">
+    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="93" totalsRowDxfId="31"/>
+    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="92" totalsRowDxfId="30">
       <totalsRowFormula>SUBTOTAL(5,TAB_Doku_201910[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="13">
+    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="29">
       <totalsRowFormula>SUBTOTAL(4,TAB_Doku_201910[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Stk." dataDxfId="44" totalsRowDxfId="12"/>
-    <tableColumn id="5" name="Zeitaufwand" dataDxfId="43" totalsRowDxfId="11">
+    <tableColumn id="4" name="Stk." dataDxfId="90" totalsRowDxfId="28"/>
+    <tableColumn id="5" name="Zeitaufwand" dataDxfId="89" totalsRowDxfId="27">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="10">
+    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="26">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,TAB_Doku_201910[[Kosten ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Abrechnung" dataDxfId="41" totalsRowDxfId="9"/>
-    <tableColumn id="8" name="Notiz" dataDxfId="40" totalsRowDxfId="8"/>
+    <tableColumn id="7" name="Abrechnung" dataDxfId="87" totalsRowDxfId="25"/>
+    <tableColumn id="8" name="Notiz" dataDxfId="86" totalsRowDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TAB_Doku_2019" displayName="TAB_Doku_2019" ref="A1:H314" totalsRowCount="1" headerRowDxfId="97" dataDxfId="96" totalsRowDxfId="94" tableBorderDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TAB_Doku_2019" displayName="TAB_Doku_2019" ref="A1:H314" totalsRowCount="1" headerRowDxfId="85" dataDxfId="84" totalsRowDxfId="82" tableBorderDxfId="83">
   <autoFilter ref="A1:H313">
-    <filterColumn colId="2">
+    <filterColumn colId="6">
       <filters>
-        <dateGroupItem year="2019" dateTimeGrouping="year"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="0"/>
-        <filter val="10"/>
-        <filter val="120"/>
-        <filter val="1440"/>
-        <filter val="15"/>
-        <filter val="180"/>
-        <filter val="1920"/>
-        <filter val="30"/>
-        <filter val="5"/>
-        <filter val="60"/>
-        <filter val="960"/>
+        <filter val="Dezember (Rechnung fehlt noch)"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="93" totalsRowDxfId="7"/>
-    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="92" totalsRowDxfId="6">
+    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="79" totalsRowDxfId="78">
       <totalsRowFormula>SUBTOTAL(5,TAB_Doku_2019[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="5">
+    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="77" totalsRowDxfId="76">
       <totalsRowFormula>SUBTOTAL(4,TAB_Doku_2019[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Stk." dataDxfId="90" totalsRowDxfId="4"/>
-    <tableColumn id="5" name="Zeitaufwand" totalsRowFunction="custom" dataDxfId="89" totalsRowDxfId="3">
+    <tableColumn id="4" name="Stk." dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="5" name="Zeitaufwand" totalsRowFunction="custom" dataDxfId="73" totalsRowDxfId="72">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_2019[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</calculatedColumnFormula>
       <totalsRowFormula>ROUND(SUBTOTAL(9,TAB_Doku_2019[Zeitaufwand])/60,0) &amp;" h"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="2">
+    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="71" totalsRowDxfId="70">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_2019[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_2019[[#This Row],[Stk.]]</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,TAB_Doku_2019[[Kosten ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Abrechnung" dataDxfId="87" totalsRowDxfId="1"/>
-    <tableColumn id="8" name="Notiz" dataDxfId="86" totalsRowDxfId="0"/>
+    <tableColumn id="7" name="Abrechnung" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="8" name="Notiz" dataDxfId="67" totalsRowDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TAB_Dokumentation" displayName="TAB_Dokumentation" ref="A1:H199" totalsRowCount="1" headerRowDxfId="85" dataDxfId="84" totalsRowDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TAB_Dokumentation" displayName="TAB_Dokumentation" ref="A1:H199" totalsRowCount="1" headerRowDxfId="65" dataDxfId="64" totalsRowDxfId="63">
   <autoFilter ref="A1:H198">
     <filterColumn colId="0">
       <filters>
@@ -5481,44 +5499,44 @@
     <sortCondition descending="1" ref="G1:G198"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="82" totalsRowDxfId="81"/>
-    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="80" totalsRowDxfId="79">
+    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="59">
       <totalsRowFormula>SUBTOTAL(5,TAB_Dokumentation[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Datum" totalsRowFunction="custom" dataDxfId="78" totalsRowDxfId="77">
+    <tableColumn id="7" name="Datum" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="57">
       <totalsRowFormula>MAX(4,TAB_Dokumentation[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Stk." dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="4" name="Zeitaufwand" dataDxfId="74" totalsRowDxfId="73">
+    <tableColumn id="3" name="Stk." dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="4" name="Zeitaufwand" dataDxfId="54" totalsRowDxfId="53">
       <calculatedColumnFormula>INDEX(TAB_Leistungen[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Dokumentation[[#This Row],[Leistung]],TAB_Leistungen[Tätigkeit],0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Kosten " totalsRowFunction="custom" dataDxfId="72" totalsRowDxfId="71">
+    <tableColumn id="5" name="Kosten " totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="51">
       <calculatedColumnFormula>INDEX(TAB_Leistungen[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Dokumentation[[#This Row],[Leistung]],TAB_Leistungen[Tätigkeit],0),3)*TAB_Dokumentation[[#This Row],[Stk.]]</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,TAB_Dokumentation[[Kosten ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Abrechnung" totalsRowDxfId="70"/>
-    <tableColumn id="8" name="Notiz" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="6" name="Abrechnung" totalsRowDxfId="50"/>
+    <tableColumn id="8" name="Notiz" dataDxfId="49" totalsRowDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle1" displayName="Tabelle1" ref="A1:I40" totalsRowShown="0" headerRowDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle1" displayName="Tabelle1" ref="A1:I40" totalsRowShown="0" headerRowDxfId="47">
   <autoFilter ref="A1:I40"/>
   <sortState ref="A2:I35">
     <sortCondition descending="1" ref="D1:D35"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="Name" dataDxfId="66"/>
-    <tableColumn id="2" name="Zusatz" dataDxfId="65"/>
-    <tableColumn id="3" name="Adresse" dataDxfId="64"/>
-    <tableColumn id="4" name="PLZ" dataDxfId="63"/>
-    <tableColumn id="5" name="Ort" dataDxfId="62"/>
-    <tableColumn id="6" name="Spalte1" dataDxfId="61"/>
-    <tableColumn id="7" name="Telefon" dataDxfId="60"/>
-    <tableColumn id="8" name="Spalte2" dataDxfId="59"/>
-    <tableColumn id="9" name="Notiz" dataDxfId="58"/>
+    <tableColumn id="1" name="Name" dataDxfId="46"/>
+    <tableColumn id="2" name="Zusatz" dataDxfId="45"/>
+    <tableColumn id="3" name="Adresse" dataDxfId="44"/>
+    <tableColumn id="4" name="PLZ" dataDxfId="43"/>
+    <tableColumn id="5" name="Ort" dataDxfId="42"/>
+    <tableColumn id="6" name="Spalte1" dataDxfId="41"/>
+    <tableColumn id="7" name="Telefon" dataDxfId="40"/>
+    <tableColumn id="8" name="Spalte2" dataDxfId="39"/>
+    <tableColumn id="9" name="Notiz" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5529,9 +5547,9 @@
   <autoFilter ref="C4:F8"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Position"/>
-    <tableColumn id="2" name="Stk/Std" dataDxfId="57"/>
-    <tableColumn id="3" name="Stk/Std-Preis" dataDxfId="56"/>
-    <tableColumn id="4" name="Summe:" dataDxfId="55" dataCellStyle="Währung"/>
+    <tableColumn id="2" name="Stk/Std" dataDxfId="37"/>
+    <tableColumn id="3" name="Stk/Std-Preis" dataDxfId="36"/>
+    <tableColumn id="4" name="Summe:" dataDxfId="35" dataCellStyle="Währung"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5553,9 +5571,9 @@
   <autoFilter ref="H4:K7"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Position"/>
-    <tableColumn id="2" name="Stk/Std" dataDxfId="54"/>
-    <tableColumn id="3" name="Stk/Std-Preis" dataDxfId="53"/>
-    <tableColumn id="4" name="Summe:" dataDxfId="52" dataCellStyle="Währung"/>
+    <tableColumn id="2" name="Stk/Std" dataDxfId="34"/>
+    <tableColumn id="3" name="Stk/Std-Preis" dataDxfId="33"/>
+    <tableColumn id="4" name="Summe:" dataDxfId="32" dataCellStyle="Währung"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6798,13 +6816,13 @@
   <sheetPr published="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I322"/>
+  <dimension ref="A1:I335"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="A28" sqref="A26:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6846,100 +6864,96 @@
     </row>
     <row r="2" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="78" t="s">
-        <v>847</v>
+        <v>102</v>
       </c>
       <c r="B2" s="133" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C2" s="137">
-        <v>44208</v>
+        <v>44244</v>
       </c>
       <c r="D2" s="133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F2" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
+        <v>30</v>
       </c>
       <c r="G2" s="78" t="s">
         <v>498</v>
       </c>
-      <c r="H2" s="134" t="s">
-        <v>849</v>
-      </c>
+      <c r="H2" s="134"/>
     </row>
     <row r="3" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="78" t="s">
-        <v>830</v>
+        <v>734</v>
       </c>
       <c r="B3" s="133" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C3" s="137">
-        <v>44209</v>
+        <v>44244</v>
       </c>
       <c r="D3" s="133">
         <v>1</v>
       </c>
       <c r="E3" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F3" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>30</v>
       </c>
       <c r="G3" s="78" t="s">
         <v>498</v>
       </c>
-      <c r="H3" s="134" t="s">
-        <v>857</v>
-      </c>
+      <c r="H3" s="134"/>
     </row>
     <row r="4" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="78" t="s">
-        <v>847</v>
+        <v>867</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="C4" s="137">
-        <v>44209</v>
+        <v>44242</v>
       </c>
       <c r="D4" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F4" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G4" s="78" t="s">
         <v>498</v>
       </c>
       <c r="H4" s="134" t="s">
-        <v>848</v>
+        <v>869</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="78" t="s">
-        <v>847</v>
+        <v>867</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C5" s="137">
-        <v>44210</v>
+        <v>44242</v>
       </c>
       <c r="D5" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -6947,111 +6961,111 @@
       </c>
       <c r="F5" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G5" s="78" t="s">
         <v>498</v>
       </c>
       <c r="H5" s="134" t="s">
-        <v>850</v>
+        <v>872</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="78" t="s">
-        <v>847</v>
+        <v>867</v>
       </c>
       <c r="B6" s="133" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C6" s="137">
-        <v>44210</v>
+        <v>44242</v>
       </c>
       <c r="D6" s="133">
-        <v>0.5</v>
+        <v>18</v>
       </c>
       <c r="E6" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F6" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="G6" s="78" t="s">
         <v>498</v>
       </c>
       <c r="H6" s="134" t="s">
-        <v>851</v>
+        <v>871</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="78" t="s">
-        <v>727</v>
+        <v>867</v>
       </c>
       <c r="B7" s="133" t="s">
-        <v>140</v>
+        <v>487</v>
       </c>
       <c r="C7" s="137">
-        <v>44209</v>
+        <v>44242</v>
       </c>
       <c r="D7" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F7" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>2.5</v>
+        <v>60</v>
       </c>
       <c r="G7" s="78" t="s">
         <v>498</v>
       </c>
       <c r="H7" s="134" t="s">
-        <v>852</v>
+        <v>868</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="78" t="s">
-        <v>727</v>
+        <v>870</v>
       </c>
       <c r="B8" s="133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="137">
-        <v>44209</v>
+        <v>44239</v>
       </c>
       <c r="D8" s="133">
         <v>1</v>
       </c>
       <c r="E8" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F8" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="G8" s="78" t="s">
         <v>498</v>
       </c>
       <c r="H8" s="134" t="s">
-        <v>853</v>
+        <v>869</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
-        <v>816</v>
+        <v>863</v>
       </c>
       <c r="B9" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="137">
-        <v>44209</v>
+        <v>44224</v>
       </c>
       <c r="D9" s="133">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E9" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -7059,108 +7073,108 @@
       </c>
       <c r="F9" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>37.5</v>
       </c>
       <c r="G9" s="78" t="s">
         <v>498</v>
       </c>
       <c r="H9" s="134" t="s">
-        <v>855</v>
+        <v>866</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="133" t="s">
-        <v>22</v>
+        <v>863</v>
+      </c>
+      <c r="B10" s="132" t="s">
+        <v>1</v>
       </c>
       <c r="C10" s="137">
-        <v>44208</v>
+        <v>44225</v>
       </c>
       <c r="D10" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F10" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G10" s="78" t="s">
         <v>498</v>
       </c>
       <c r="H10" s="134" t="s">
-        <v>856</v>
+        <v>865</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="78" t="s">
-        <v>816</v>
+        <v>863</v>
       </c>
       <c r="B11" s="133" t="s">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="C11" s="137">
-        <v>44201</v>
+        <v>44232</v>
       </c>
       <c r="D11" s="133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="F11" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>90</v>
       </c>
       <c r="G11" s="78" t="s">
         <v>498</v>
       </c>
       <c r="H11" s="134" t="s">
-        <v>840</v>
+        <v>864</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="78" t="s">
-        <v>744</v>
-      </c>
-      <c r="B12" s="132" t="s">
-        <v>1</v>
+        <v>846</v>
+      </c>
+      <c r="B12" s="133" t="s">
+        <v>48</v>
       </c>
       <c r="C12" s="137">
-        <v>44201</v>
+        <v>44244</v>
       </c>
       <c r="D12" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F12" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G12" s="78" t="s">
         <v>498</v>
       </c>
       <c r="H12" s="134" t="s">
-        <v>841</v>
+        <v>862</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="78" t="s">
-        <v>830</v>
-      </c>
-      <c r="B13" s="132" t="s">
+        <v>846</v>
+      </c>
+      <c r="B13" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="137">
-        <v>44201</v>
+        <v>44218</v>
       </c>
       <c r="D13" s="133">
         <v>1</v>
@@ -7177,102 +7191,102 @@
         <v>498</v>
       </c>
       <c r="H13" s="134" t="s">
-        <v>844</v>
+        <v>861</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="78" t="s">
-        <v>842</v>
-      </c>
-      <c r="B14" s="132" t="s">
-        <v>48</v>
+        <v>846</v>
+      </c>
+      <c r="B14" s="133" t="s">
+        <v>8</v>
       </c>
       <c r="C14" s="137">
-        <v>44203</v>
+        <v>44218</v>
       </c>
       <c r="D14" s="133">
         <v>1</v>
       </c>
       <c r="E14" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="F14" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>90</v>
       </c>
       <c r="G14" s="78" t="s">
         <v>498</v>
       </c>
       <c r="H14" s="134" t="s">
-        <v>845</v>
+        <v>860</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78" t="s">
-        <v>780</v>
-      </c>
-      <c r="B15" s="132" t="s">
-        <v>1</v>
+        <v>830</v>
+      </c>
+      <c r="B15" s="133" t="s">
+        <v>48</v>
       </c>
       <c r="C15" s="137">
-        <v>44203</v>
+        <v>44209</v>
       </c>
       <c r="D15" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F15" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G15" s="78" t="s">
         <v>498</v>
       </c>
       <c r="H15" s="134" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78" t="s">
-        <v>816</v>
-      </c>
-      <c r="B16" s="132" t="s">
-        <v>1</v>
+        <v>846</v>
+      </c>
+      <c r="B16" s="133" t="s">
+        <v>48</v>
       </c>
       <c r="C16" s="137">
-        <v>44203</v>
+        <v>44208</v>
       </c>
       <c r="D16" s="133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F16" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>22.5</v>
       </c>
       <c r="G16" s="78" t="s">
         <v>498</v>
       </c>
       <c r="H16" s="134" t="s">
-        <v>839</v>
+        <v>848</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="78" t="s">
-        <v>781</v>
-      </c>
-      <c r="B17" s="132" t="s">
+        <v>830</v>
+      </c>
+      <c r="B17" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="137">
-        <v>44203</v>
+        <v>44209</v>
       </c>
       <c r="D17" s="133">
         <v>1</v>
@@ -7289,274 +7303,404 @@
         <v>498</v>
       </c>
       <c r="H17" s="134" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="78" t="s">
-        <v>767</v>
-      </c>
-      <c r="B18" s="132" t="s">
-        <v>48</v>
+        <v>846</v>
+      </c>
+      <c r="B18" s="133" t="s">
+        <v>140</v>
       </c>
       <c r="C18" s="137">
-        <v>44203</v>
+        <v>44209</v>
       </c>
       <c r="D18" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F18" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="G18" s="78" t="s">
         <v>498</v>
       </c>
       <c r="H18" s="134" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="78" t="s">
+        <v>846</v>
+      </c>
+      <c r="B19" s="133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="137">
+        <v>44210</v>
+      </c>
+      <c r="D19" s="133">
+        <v>1</v>
+      </c>
+      <c r="E19" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>60</v>
+      </c>
+      <c r="F19" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>30</v>
+      </c>
+      <c r="G19" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="H19" s="134" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="78" t="s">
+        <v>846</v>
+      </c>
+      <c r="B20" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="137">
+        <v>44210</v>
+      </c>
+      <c r="D20" s="133">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>60</v>
+      </c>
+      <c r="F20" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>15</v>
+      </c>
+      <c r="G20" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="H20" s="134" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="78" t="s">
+        <v>727</v>
+      </c>
+      <c r="B21" s="133" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="137">
+        <v>44209</v>
+      </c>
+      <c r="D21" s="133">
+        <v>1</v>
+      </c>
+      <c r="E21" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>5</v>
+      </c>
+      <c r="F21" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>2.5</v>
+      </c>
+      <c r="G21" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="H21" s="134" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="78" t="s">
+        <v>727</v>
+      </c>
+      <c r="B22" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="137">
+        <v>44209</v>
+      </c>
+      <c r="D22" s="133">
+        <v>1</v>
+      </c>
+      <c r="E22" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F22" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G22" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="H22" s="134" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="78" t="s">
+        <v>816</v>
+      </c>
+      <c r="B23" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="137">
+        <v>44209</v>
+      </c>
+      <c r="D23" s="133">
+        <v>1</v>
+      </c>
+      <c r="E23" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F23" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G23" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="H23" s="134" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="137">
+        <v>44208</v>
+      </c>
+      <c r="D24" s="133">
+        <v>2</v>
+      </c>
+      <c r="E24" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>60</v>
+      </c>
+      <c r="F24" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>60</v>
+      </c>
+      <c r="G24" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="H24" s="134" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="78" t="s">
+        <v>816</v>
+      </c>
+      <c r="B25" s="133" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="137">
+        <v>44201</v>
+      </c>
+      <c r="D25" s="133">
+        <v>3</v>
+      </c>
+      <c r="E25" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>5</v>
+      </c>
+      <c r="F25" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G25" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="H25" s="134" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="78" t="s">
+        <v>830</v>
+      </c>
+      <c r="B26" s="132" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="137">
+        <v>44201</v>
+      </c>
+      <c r="D26" s="133">
+        <v>1</v>
+      </c>
+      <c r="E26" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F26" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G26" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="H26" s="134" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="78" t="s">
+    <row r="27" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="78" t="s">
+        <v>841</v>
+      </c>
+      <c r="B27" s="132" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D27" s="133">
+        <v>1</v>
+      </c>
+      <c r="E27" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F27" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G27" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="H27" s="134" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="78" t="s">
+        <v>780</v>
+      </c>
+      <c r="B28" s="132" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D28" s="133">
+        <v>1</v>
+      </c>
+      <c r="E28" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>10</v>
+      </c>
+      <c r="F28" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>5</v>
+      </c>
+      <c r="G28" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="H28" s="134" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="78" t="s">
+        <v>816</v>
+      </c>
+      <c r="B29" s="132" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D29" s="133">
+        <v>2</v>
+      </c>
+      <c r="E29" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>10</v>
+      </c>
+      <c r="F29" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>10</v>
+      </c>
+      <c r="G29" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="H29" s="134" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="78" t="s">
+        <v>781</v>
+      </c>
+      <c r="B30" s="132" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D30" s="133">
+        <v>1</v>
+      </c>
+      <c r="E30" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F30" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G30" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="H30" s="134" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="78" t="s">
+        <v>767</v>
+      </c>
+      <c r="B31" s="132" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D31" s="133">
+        <v>1</v>
+      </c>
+      <c r="E31" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F31" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G31" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="H31" s="134" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="78" t="s">
         <v>727</v>
-      </c>
-      <c r="B19" s="132"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F19" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G19" s="78"/>
-      <c r="H19" s="134"/>
-    </row>
-    <row r="20" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="78" t="s">
-        <v>813</v>
-      </c>
-      <c r="B20" s="133"/>
-      <c r="C20" s="137"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F20" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G20" s="78"/>
-      <c r="H20" s="134"/>
-    </row>
-    <row r="21" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="78" t="s">
-        <v>819</v>
-      </c>
-      <c r="B21" s="132"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F21" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G21" s="78"/>
-      <c r="H21" s="134"/>
-    </row>
-    <row r="22" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="78" t="s">
-        <v>810</v>
-      </c>
-      <c r="B22" s="132"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F22" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G22" s="78"/>
-      <c r="H22" s="134"/>
-    </row>
-    <row r="23" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="78" t="s">
-        <v>765</v>
-      </c>
-      <c r="B23" s="132"/>
-      <c r="C23" s="137"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F23" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G23" s="78"/>
-      <c r="H23" s="134"/>
-    </row>
-    <row r="24" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="78" t="s">
-        <v>795</v>
-      </c>
-      <c r="B24" s="132"/>
-      <c r="C24" s="137"/>
-      <c r="D24" s="133"/>
-      <c r="E24" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F24" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G24" s="78"/>
-      <c r="H24" s="134"/>
-    </row>
-    <row r="25" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="132"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F25" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G25" s="78"/>
-      <c r="H25" s="134"/>
-    </row>
-    <row r="26" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="78" t="s">
-        <v>780</v>
-      </c>
-      <c r="B26" s="132"/>
-      <c r="C26" s="137"/>
-      <c r="D26" s="133"/>
-      <c r="E26" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F26" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G26" s="78"/>
-      <c r="H26" s="134"/>
-    </row>
-    <row r="27" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="78" t="s">
-        <v>734</v>
-      </c>
-      <c r="B27" s="132"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F27" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G27" s="78"/>
-      <c r="H27" s="134"/>
-    </row>
-    <row r="28" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="78" t="s">
-        <v>789</v>
-      </c>
-      <c r="B28" s="132"/>
-      <c r="C28" s="137"/>
-      <c r="D28" s="133"/>
-      <c r="E28" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F28" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G28" s="78"/>
-      <c r="H28" s="134"/>
-    </row>
-    <row r="29" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="78" t="s">
-        <v>760</v>
-      </c>
-      <c r="B29" s="132"/>
-      <c r="C29" s="137"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F29" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G29" s="78"/>
-      <c r="H29" s="134"/>
-    </row>
-    <row r="30" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="78" t="s">
-        <v>738</v>
-      </c>
-      <c r="B30" s="132"/>
-      <c r="C30" s="137"/>
-      <c r="D30" s="133"/>
-      <c r="E30" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F30" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G30" s="78"/>
-      <c r="H30" s="134"/>
-    </row>
-    <row r="31" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="78" t="s">
-        <v>756</v>
-      </c>
-      <c r="B31" s="132"/>
-      <c r="C31" s="137"/>
-      <c r="D31" s="133"/>
-      <c r="E31" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F31" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G31" s="78"/>
-      <c r="H31" s="134"/>
-    </row>
-    <row r="32" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="78" t="s">
-        <v>728</v>
       </c>
       <c r="B32" s="132"/>
       <c r="C32" s="137"/>
@@ -7572,11 +7716,11 @@
       <c r="G32" s="78"/>
       <c r="H32" s="134"/>
     </row>
-    <row r="33" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="78" t="s">
-        <v>725</v>
-      </c>
-      <c r="B33" s="132"/>
+        <v>813</v>
+      </c>
+      <c r="B33" s="133"/>
       <c r="C33" s="137"/>
       <c r="D33" s="133"/>
       <c r="E33" s="133" t="e">
@@ -7590,9 +7734,9 @@
       <c r="G33" s="78"/>
       <c r="H33" s="134"/>
     </row>
-    <row r="34" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="78" t="s">
-        <v>726</v>
+        <v>819</v>
       </c>
       <c r="B34" s="132"/>
       <c r="C34" s="137"/>
@@ -7608,9 +7752,9 @@
       <c r="G34" s="78"/>
       <c r="H34" s="134"/>
     </row>
-    <row r="35" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="78" t="s">
-        <v>672</v>
+        <v>810</v>
       </c>
       <c r="B35" s="132"/>
       <c r="C35" s="137"/>
@@ -7626,9 +7770,9 @@
       <c r="G35" s="78"/>
       <c r="H35" s="134"/>
     </row>
-    <row r="36" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="78" t="s">
-        <v>631</v>
+        <v>765</v>
       </c>
       <c r="B36" s="132"/>
       <c r="C36" s="137"/>
@@ -7641,12 +7785,12 @@
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>#N/A</v>
       </c>
-      <c r="G36" s="130"/>
+      <c r="G36" s="78"/>
       <c r="H36" s="134"/>
     </row>
-    <row r="37" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="78" t="s">
-        <v>509</v>
+        <v>795</v>
       </c>
       <c r="B37" s="132"/>
       <c r="C37" s="137"/>
@@ -7662,9 +7806,9 @@
       <c r="G37" s="78"/>
       <c r="H37" s="134"/>
     </row>
-    <row r="38" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="78" t="s">
-        <v>643</v>
+        <v>102</v>
       </c>
       <c r="B38" s="132"/>
       <c r="C38" s="137"/>
@@ -7680,9 +7824,9 @@
       <c r="G38" s="78"/>
       <c r="H38" s="134"/>
     </row>
-    <row r="39" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="78" t="s">
-        <v>649</v>
+        <v>780</v>
       </c>
       <c r="B39" s="132"/>
       <c r="C39" s="137"/>
@@ -7698,9 +7842,9 @@
       <c r="G39" s="78"/>
       <c r="H39" s="134"/>
     </row>
-    <row r="40" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="78" t="s">
-        <v>642</v>
+        <v>734</v>
       </c>
       <c r="B40" s="132"/>
       <c r="C40" s="137"/>
@@ -7716,12 +7860,12 @@
       <c r="G40" s="78"/>
       <c r="H40" s="134"/>
     </row>
-    <row r="41" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="147" t="s">
-        <v>609</v>
+    <row r="41" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="78" t="s">
+        <v>789</v>
       </c>
       <c r="B41" s="132"/>
-      <c r="C41" s="149"/>
+      <c r="C41" s="137"/>
       <c r="D41" s="133"/>
       <c r="E41" s="133" t="e">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -7731,16 +7875,16 @@
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>#N/A</v>
       </c>
-      <c r="G41" s="130"/>
-      <c r="H41" s="138"/>
-    </row>
-    <row r="42" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G41" s="78"/>
+      <c r="H41" s="134"/>
+    </row>
+    <row r="42" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="78" t="s">
-        <v>640</v>
+        <v>760</v>
       </c>
       <c r="B42" s="132"/>
-      <c r="C42" s="149"/>
-      <c r="D42" s="138"/>
+      <c r="C42" s="137"/>
+      <c r="D42" s="133"/>
       <c r="E42" s="133" t="e">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>#N/A</v>
@@ -7749,16 +7893,16 @@
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>#N/A</v>
       </c>
-      <c r="G42" s="130"/>
-      <c r="H42" s="148"/>
-    </row>
-    <row r="43" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="147" t="s">
-        <v>607</v>
+      <c r="G42" s="78"/>
+      <c r="H42" s="134"/>
+    </row>
+    <row r="43" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="78" t="s">
+        <v>738</v>
       </c>
       <c r="B43" s="132"/>
-      <c r="C43" s="149"/>
-      <c r="D43" s="138"/>
+      <c r="C43" s="137"/>
+      <c r="D43" s="133"/>
       <c r="E43" s="133" t="e">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>#N/A</v>
@@ -7767,16 +7911,16 @@
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>#N/A</v>
       </c>
-      <c r="G43" s="130"/>
-      <c r="H43" s="148"/>
-    </row>
-    <row r="44" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="147" t="s">
-        <v>597</v>
+      <c r="G43" s="78"/>
+      <c r="H43" s="134"/>
+    </row>
+    <row r="44" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="78" t="s">
+        <v>756</v>
       </c>
       <c r="B44" s="132"/>
-      <c r="C44" s="149"/>
-      <c r="D44" s="138"/>
+      <c r="C44" s="137"/>
+      <c r="D44" s="133"/>
       <c r="E44" s="133" t="e">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>#N/A</v>
@@ -7785,16 +7929,16 @@
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>#N/A</v>
       </c>
-      <c r="G44" s="130"/>
-      <c r="H44" s="148"/>
-    </row>
-    <row r="45" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="147" t="s">
-        <v>500</v>
+      <c r="G44" s="78"/>
+      <c r="H44" s="134"/>
+    </row>
+    <row r="45" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="78" t="s">
+        <v>728</v>
       </c>
       <c r="B45" s="132"/>
-      <c r="C45" s="149"/>
-      <c r="D45" s="138"/>
+      <c r="C45" s="137"/>
+      <c r="D45" s="133"/>
       <c r="E45" s="133" t="e">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>#N/A</v>
@@ -7803,16 +7947,16 @@
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>#N/A</v>
       </c>
-      <c r="G45" s="130"/>
-      <c r="H45" s="148"/>
-    </row>
-    <row r="46" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="130" t="s">
-        <v>278</v>
+      <c r="G45" s="78"/>
+      <c r="H45" s="134"/>
+    </row>
+    <row r="46" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="78" t="s">
+        <v>725</v>
       </c>
       <c r="B46" s="132"/>
-      <c r="C46" s="149"/>
-      <c r="D46" s="138"/>
+      <c r="C46" s="137"/>
+      <c r="D46" s="133"/>
       <c r="E46" s="133" t="e">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>#N/A</v>
@@ -7821,16 +7965,16 @@
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>#N/A</v>
       </c>
-      <c r="G46" s="130"/>
-      <c r="H46" s="148"/>
-    </row>
-    <row r="47" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="147" t="s">
-        <v>593</v>
+      <c r="G46" s="78"/>
+      <c r="H46" s="134"/>
+    </row>
+    <row r="47" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="78" t="s">
+        <v>726</v>
       </c>
       <c r="B47" s="132"/>
-      <c r="C47" s="149"/>
-      <c r="D47" s="138"/>
+      <c r="C47" s="137"/>
+      <c r="D47" s="133"/>
       <c r="E47" s="133" t="e">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>#N/A</v>
@@ -7839,16 +7983,16 @@
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>#N/A</v>
       </c>
-      <c r="G47" s="130"/>
-      <c r="H47" s="148"/>
-    </row>
-    <row r="48" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="147" t="s">
-        <v>574</v>
+      <c r="G47" s="78"/>
+      <c r="H47" s="134"/>
+    </row>
+    <row r="48" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="78" t="s">
+        <v>672</v>
       </c>
       <c r="B48" s="132"/>
-      <c r="C48" s="149"/>
-      <c r="D48" s="138"/>
+      <c r="C48" s="137"/>
+      <c r="D48" s="133"/>
       <c r="E48" s="133" t="e">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>#N/A</v>
@@ -7857,16 +8001,16 @@
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>#N/A</v>
       </c>
-      <c r="G48" s="130"/>
-      <c r="H48" s="148"/>
-    </row>
-    <row r="49" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="147" t="s">
-        <v>178</v>
+      <c r="G48" s="78"/>
+      <c r="H48" s="134"/>
+    </row>
+    <row r="49" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="78" t="s">
+        <v>631</v>
       </c>
       <c r="B49" s="132"/>
-      <c r="C49" s="149"/>
-      <c r="D49" s="138"/>
+      <c r="C49" s="137"/>
+      <c r="D49" s="133"/>
       <c r="E49" s="133" t="e">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>#N/A</v>
@@ -7876,15 +8020,15 @@
         <v>#N/A</v>
       </c>
       <c r="G49" s="130"/>
-      <c r="H49" s="148"/>
-    </row>
-    <row r="50" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="147" t="s">
-        <v>576</v>
+      <c r="H49" s="134"/>
+    </row>
+    <row r="50" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="78" t="s">
+        <v>509</v>
       </c>
       <c r="B50" s="132"/>
-      <c r="C50" s="149"/>
-      <c r="D50" s="138"/>
+      <c r="C50" s="137"/>
+      <c r="D50" s="133"/>
       <c r="E50" s="133" t="e">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>#N/A</v>
@@ -7893,16 +8037,16 @@
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>#N/A</v>
       </c>
-      <c r="G50" s="130"/>
-      <c r="H50" s="148"/>
-    </row>
-    <row r="51" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="147" t="s">
-        <v>541</v>
+      <c r="G50" s="78"/>
+      <c r="H50" s="134"/>
+    </row>
+    <row r="51" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="78" t="s">
+        <v>643</v>
       </c>
       <c r="B51" s="132"/>
-      <c r="C51" s="149"/>
-      <c r="D51" s="138"/>
+      <c r="C51" s="137"/>
+      <c r="D51" s="133"/>
       <c r="E51" s="133" t="e">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>#N/A</v>
@@ -7911,16 +8055,16 @@
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>#N/A</v>
       </c>
-      <c r="G51" s="130"/>
-      <c r="H51" s="148"/>
-    </row>
-    <row r="52" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="147" t="s">
-        <v>239</v>
+      <c r="G51" s="78"/>
+      <c r="H51" s="134"/>
+    </row>
+    <row r="52" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="78" t="s">
+        <v>649</v>
       </c>
       <c r="B52" s="132"/>
-      <c r="C52" s="149"/>
-      <c r="D52" s="138"/>
+      <c r="C52" s="137"/>
+      <c r="D52" s="133"/>
       <c r="E52" s="133" t="e">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>#N/A</v>
@@ -7929,16 +8073,16 @@
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>#N/A</v>
       </c>
-      <c r="G52" s="130"/>
-      <c r="H52" s="148"/>
-    </row>
-    <row r="53" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="130" t="s">
-        <v>492</v>
+      <c r="G52" s="78"/>
+      <c r="H52" s="134"/>
+    </row>
+    <row r="53" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="78" t="s">
+        <v>642</v>
       </c>
       <c r="B53" s="132"/>
-      <c r="C53" s="149"/>
-      <c r="D53" s="138"/>
+      <c r="C53" s="137"/>
+      <c r="D53" s="133"/>
       <c r="E53" s="133" t="e">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>#N/A</v>
@@ -7947,16 +8091,16 @@
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>#N/A</v>
       </c>
-      <c r="G53" s="130"/>
-      <c r="H53" s="148"/>
-    </row>
-    <row r="54" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="130" t="s">
-        <v>482</v>
+      <c r="G53" s="78"/>
+      <c r="H53" s="134"/>
+    </row>
+    <row r="54" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="147" t="s">
+        <v>609</v>
       </c>
       <c r="B54" s="132"/>
       <c r="C54" s="149"/>
-      <c r="D54" s="138"/>
+      <c r="D54" s="133"/>
       <c r="E54" s="133" t="e">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>#N/A</v>
@@ -7966,11 +8110,11 @@
         <v>#N/A</v>
       </c>
       <c r="G54" s="130"/>
-      <c r="H54" s="148"/>
-    </row>
-    <row r="55" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="130" t="s">
-        <v>267</v>
+      <c r="H54" s="138"/>
+    </row>
+    <row r="55" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="78" t="s">
+        <v>640</v>
       </c>
       <c r="B55" s="132"/>
       <c r="C55" s="149"/>
@@ -7986,9 +8130,9 @@
       <c r="G55" s="130"/>
       <c r="H55" s="148"/>
     </row>
-    <row r="56" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="130" t="s">
-        <v>268</v>
+    <row r="56" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="147" t="s">
+        <v>607</v>
       </c>
       <c r="B56" s="132"/>
       <c r="C56" s="149"/>
@@ -8004,9 +8148,9 @@
       <c r="G56" s="130"/>
       <c r="H56" s="148"/>
     </row>
-    <row r="57" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="130" t="s">
-        <v>41</v>
+    <row r="57" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="147" t="s">
+        <v>597</v>
       </c>
       <c r="B57" s="132"/>
       <c r="C57" s="149"/>
@@ -8022,9 +8166,9 @@
       <c r="G57" s="130"/>
       <c r="H57" s="148"/>
     </row>
-    <row r="58" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="130" t="s">
-        <v>273</v>
+    <row r="58" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="147" t="s">
+        <v>500</v>
       </c>
       <c r="B58" s="132"/>
       <c r="C58" s="149"/>
@@ -8040,9 +8184,9 @@
       <c r="G58" s="130"/>
       <c r="H58" s="148"/>
     </row>
-    <row r="59" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="130" t="s">
-        <v>129</v>
+        <v>278</v>
       </c>
       <c r="B59" s="132"/>
       <c r="C59" s="149"/>
@@ -8058,9 +8202,9 @@
       <c r="G59" s="130"/>
       <c r="H59" s="148"/>
     </row>
-    <row r="60" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="130" t="s">
-        <v>274</v>
+    <row r="60" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="147" t="s">
+        <v>593</v>
       </c>
       <c r="B60" s="132"/>
       <c r="C60" s="149"/>
@@ -8076,9 +8220,9 @@
       <c r="G60" s="130"/>
       <c r="H60" s="148"/>
     </row>
-    <row r="61" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="130" t="s">
-        <v>21</v>
+    <row r="61" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="147" t="s">
+        <v>574</v>
       </c>
       <c r="B61" s="132"/>
       <c r="C61" s="149"/>
@@ -8094,9 +8238,9 @@
       <c r="G61" s="130"/>
       <c r="H61" s="148"/>
     </row>
-    <row r="62" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="130" t="s">
-        <v>36</v>
+    <row r="62" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="147" t="s">
+        <v>178</v>
       </c>
       <c r="B62" s="132"/>
       <c r="C62" s="149"/>
@@ -8112,9 +8256,9 @@
       <c r="G62" s="130"/>
       <c r="H62" s="148"/>
     </row>
-    <row r="63" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="130" t="s">
-        <v>256</v>
+    <row r="63" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="147" t="s">
+        <v>576</v>
       </c>
       <c r="B63" s="132"/>
       <c r="C63" s="149"/>
@@ -8130,9 +8274,9 @@
       <c r="G63" s="130"/>
       <c r="H63" s="148"/>
     </row>
-    <row r="64" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="130" t="s">
-        <v>259</v>
+    <row r="64" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="147" t="s">
+        <v>541</v>
       </c>
       <c r="B64" s="132"/>
       <c r="C64" s="149"/>
@@ -8149,64 +8293,259 @@
       <c r="H64" s="148"/>
     </row>
     <row r="65" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="150" t="s">
+      <c r="A65" s="147" t="s">
+        <v>239</v>
+      </c>
+      <c r="B65" s="132"/>
+      <c r="C65" s="149"/>
+      <c r="D65" s="138"/>
+      <c r="E65" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F65" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G65" s="130"/>
+      <c r="H65" s="148"/>
+    </row>
+    <row r="66" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="130" t="s">
+        <v>492</v>
+      </c>
+      <c r="B66" s="132"/>
+      <c r="C66" s="149"/>
+      <c r="D66" s="138"/>
+      <c r="E66" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F66" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G66" s="130"/>
+      <c r="H66" s="148"/>
+    </row>
+    <row r="67" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="130" t="s">
+        <v>482</v>
+      </c>
+      <c r="B67" s="132"/>
+      <c r="C67" s="149"/>
+      <c r="D67" s="138"/>
+      <c r="E67" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F67" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G67" s="130"/>
+      <c r="H67" s="148"/>
+    </row>
+    <row r="68" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="130" t="s">
+        <v>267</v>
+      </c>
+      <c r="B68" s="132"/>
+      <c r="C68" s="149"/>
+      <c r="D68" s="138"/>
+      <c r="E68" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F68" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G68" s="130"/>
+      <c r="H68" s="148"/>
+    </row>
+    <row r="69" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="130" t="s">
+        <v>268</v>
+      </c>
+      <c r="B69" s="132"/>
+      <c r="C69" s="149"/>
+      <c r="D69" s="138"/>
+      <c r="E69" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F69" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G69" s="130"/>
+      <c r="H69" s="148"/>
+    </row>
+    <row r="70" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="B70" s="132"/>
+      <c r="C70" s="149"/>
+      <c r="D70" s="138"/>
+      <c r="E70" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F70" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G70" s="130"/>
+      <c r="H70" s="148"/>
+    </row>
+    <row r="71" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="130" t="s">
+        <v>273</v>
+      </c>
+      <c r="B71" s="132"/>
+      <c r="C71" s="149"/>
+      <c r="D71" s="138"/>
+      <c r="E71" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F71" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G71" s="130"/>
+      <c r="H71" s="148"/>
+    </row>
+    <row r="72" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B72" s="132"/>
+      <c r="C72" s="149"/>
+      <c r="D72" s="138"/>
+      <c r="E72" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F72" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G72" s="130"/>
+      <c r="H72" s="148"/>
+    </row>
+    <row r="73" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="130" t="s">
+        <v>274</v>
+      </c>
+      <c r="B73" s="132"/>
+      <c r="C73" s="149"/>
+      <c r="D73" s="138"/>
+      <c r="E73" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F73" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G73" s="130"/>
+      <c r="H73" s="148"/>
+    </row>
+    <row r="74" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="130" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="132"/>
+      <c r="C74" s="149"/>
+      <c r="D74" s="138"/>
+      <c r="E74" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F74" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G74" s="130"/>
+      <c r="H74" s="148"/>
+    </row>
+    <row r="75" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="130" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75" s="132"/>
+      <c r="C75" s="149"/>
+      <c r="D75" s="138"/>
+      <c r="E75" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F75" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G75" s="130"/>
+      <c r="H75" s="148"/>
+    </row>
+    <row r="76" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="130" t="s">
+        <v>256</v>
+      </c>
+      <c r="B76" s="132"/>
+      <c r="C76" s="149"/>
+      <c r="D76" s="138"/>
+      <c r="E76" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F76" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G76" s="130"/>
+      <c r="H76" s="148"/>
+    </row>
+    <row r="77" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="130" t="s">
+        <v>259</v>
+      </c>
+      <c r="B77" s="132"/>
+      <c r="C77" s="149"/>
+      <c r="D77" s="138"/>
+      <c r="E77" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F77" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G77" s="130"/>
+      <c r="H77" s="148"/>
+    </row>
+    <row r="78" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="150" t="s">
         <v>491</v>
       </c>
-      <c r="B65" s="151">
+      <c r="B78" s="151">
         <f>SUBTOTAL(5,TAB_Doku_201910[Datum])</f>
         <v>44201</v>
       </c>
-      <c r="C65" s="152">
+      <c r="C78" s="152">
         <f>SUBTOTAL(4,TAB_Doku_201910[Datum])</f>
-        <v>44210</v>
-      </c>
-      <c r="D65" s="153"/>
-      <c r="E65" s="153"/>
-      <c r="F65" s="154">
+        <v>44244</v>
+      </c>
+      <c r="D78" s="153"/>
+      <c r="E78" s="153"/>
+      <c r="F78" s="154" t="e">
         <f>SUBTOTAL(9,TAB_Doku_201910[[Kosten ]])</f>
-        <v>220</v>
-      </c>
-      <c r="G65" s="150"/>
-      <c r="H65" s="155"/>
-    </row>
-    <row r="66" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66"/>
-    </row>
-    <row r="67" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C67"/>
-    </row>
-    <row r="68" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68"/>
-    </row>
-    <row r="69" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C69"/>
-    </row>
-    <row r="70" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C70"/>
-    </row>
-    <row r="71" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C71"/>
-    </row>
-    <row r="72" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C72"/>
-    </row>
-    <row r="73" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C73"/>
-    </row>
-    <row r="74" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C74"/>
-    </row>
-    <row r="75" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C75"/>
-    </row>
-    <row r="76" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C76"/>
-    </row>
-    <row r="77" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C77"/>
-    </row>
-    <row r="78" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C78"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G78" s="150"/>
+      <c r="H78" s="155"/>
     </row>
     <row r="79" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79"/>
@@ -8229,191 +8568,184 @@
     <row r="85" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85"/>
     </row>
-    <row r="86" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86"/>
     </row>
-    <row r="87" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87"/>
     </row>
-    <row r="88" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88"/>
     </row>
-    <row r="89" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89"/>
     </row>
-    <row r="90" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90"/>
     </row>
-    <row r="91" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91"/>
     </row>
-    <row r="92" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92"/>
     </row>
-    <row r="93" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93"/>
     </row>
-    <row r="94" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94"/>
     </row>
-    <row r="95" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95"/>
     </row>
-    <row r="96" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96"/>
     </row>
-    <row r="97" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97"/>
     </row>
-    <row r="98" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C98"/>
     </row>
-    <row r="99" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C99"/>
     </row>
-    <row r="100" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C100"/>
     </row>
-    <row r="101" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C101"/>
-      <c r="I101" t="s">
+    </row>
+    <row r="102" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C102"/>
+    </row>
+    <row r="103" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C103"/>
+    </row>
+    <row r="104" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C104"/>
+    </row>
+    <row r="105" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C105"/>
+    </row>
+    <row r="106" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C106"/>
+    </row>
+    <row r="107" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C107"/>
+    </row>
+    <row r="108" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C108"/>
+    </row>
+    <row r="109" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C109"/>
+    </row>
+    <row r="110" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C110"/>
+    </row>
+    <row r="111" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C111"/>
+    </row>
+    <row r="112" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C112"/>
+    </row>
+    <row r="113" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C113"/>
+    </row>
+    <row r="114" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C114"/>
+      <c r="I114" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="102" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C102"/>
-    </row>
-    <row r="103" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C103"/>
-    </row>
-    <row r="104" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C104"/>
-    </row>
-    <row r="105" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C105"/>
-    </row>
-    <row r="106" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C106"/>
-    </row>
-    <row r="107" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C107"/>
-    </row>
-    <row r="108" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C108"/>
-    </row>
-    <row r="109" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C109"/>
-    </row>
-    <row r="110" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C110"/>
-    </row>
-    <row r="111" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C111"/>
-    </row>
-    <row r="112" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C112"/>
-    </row>
-    <row r="113" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C113"/>
-    </row>
-    <row r="114" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C114"/>
-    </row>
-    <row r="115" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C115"/>
     </row>
-    <row r="116" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C116"/>
     </row>
-    <row r="117" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C117"/>
     </row>
-    <row r="118" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C118"/>
     </row>
-    <row r="119" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C119"/>
     </row>
-    <row r="120" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C120"/>
     </row>
-    <row r="121" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C121"/>
     </row>
-    <row r="122" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C122"/>
     </row>
-    <row r="123" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C123"/>
     </row>
-    <row r="124" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C124"/>
     </row>
-    <row r="125" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C125"/>
     </row>
-    <row r="126" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C126"/>
     </row>
-    <row r="127" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C127"/>
     </row>
-    <row r="128" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C128"/>
     </row>
-    <row r="129" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C129"/>
     </row>
-    <row r="130" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C130"/>
     </row>
-    <row r="131" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C131"/>
     </row>
-    <row r="132" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C132"/>
     </row>
-    <row r="133" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C133"/>
     </row>
-    <row r="134" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C134"/>
     </row>
-    <row r="135" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C135"/>
     </row>
-    <row r="136" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C136"/>
     </row>
-    <row r="137" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C137"/>
     </row>
-    <row r="138" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C138"/>
     </row>
-    <row r="139" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C139"/>
     </row>
-    <row r="140" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C140"/>
     </row>
-    <row r="141" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C141"/>
     </row>
-    <row r="142" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C142"/>
     </row>
-    <row r="143" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A143"/>
-      <c r="B143"/>
+    <row r="143" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C143"/>
-      <c r="D143"/>
-      <c r="E143"/>
-      <c r="F143"/>
-      <c r="G143"/>
-      <c r="H143"/>
-    </row>
-    <row r="144" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C144"/>
     </row>
     <row r="145" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -8425,15 +8757,8 @@
     <row r="147" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C147"/>
     </row>
-    <row r="148" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A148"/>
-      <c r="B148"/>
+    <row r="148" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C148"/>
-      <c r="D148"/>
-      <c r="E148"/>
-      <c r="F148"/>
-      <c r="G148"/>
-      <c r="H148"/>
     </row>
     <row r="149" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C149"/>
@@ -8456,8 +8781,15 @@
     <row r="155" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C155"/>
     </row>
-    <row r="156" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A156"/>
+      <c r="B156"/>
       <c r="C156"/>
+      <c r="D156"/>
+      <c r="E156"/>
+      <c r="F156"/>
+      <c r="G156"/>
+      <c r="H156"/>
     </row>
     <row r="157" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C157"/>
@@ -8471,52 +8803,59 @@
     <row r="160" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C160"/>
     </row>
-    <row r="161" spans="3:3" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A161"/>
+      <c r="B161"/>
       <c r="C161"/>
-    </row>
-    <row r="162" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D161"/>
+      <c r="E161"/>
+      <c r="F161"/>
+      <c r="G161"/>
+      <c r="H161"/>
+    </row>
+    <row r="162" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C162"/>
     </row>
-    <row r="163" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C163"/>
     </row>
-    <row r="164" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C164"/>
     </row>
-    <row r="165" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C165"/>
     </row>
-    <row r="166" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C166"/>
     </row>
-    <row r="167" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C167"/>
     </row>
-    <row r="168" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C168"/>
     </row>
-    <row r="169" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C169"/>
     </row>
-    <row r="170" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C170"/>
     </row>
-    <row r="171" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C171"/>
     </row>
-    <row r="172" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C172"/>
     </row>
-    <row r="173" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C173"/>
     </row>
-    <row r="174" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C174"/>
     </row>
-    <row r="175" spans="3:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C175"/>
     </row>
-    <row r="176" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C176"/>
     </row>
     <row r="177" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -8552,7 +8891,7 @@
     <row r="187" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C187"/>
     </row>
-    <row r="188" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C188"/>
     </row>
     <row r="189" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -8951,11 +9290,50 @@
     <row r="320" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C320"/>
     </row>
-    <row r="321" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C321"/>
     </row>
-    <row r="322" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C322"/>
+    </row>
+    <row r="323" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C323"/>
+    </row>
+    <row r="324" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C324"/>
+    </row>
+    <row r="325" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C325"/>
+    </row>
+    <row r="326" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C326"/>
+    </row>
+    <row r="327" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C327"/>
+    </row>
+    <row r="328" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C328"/>
+    </row>
+    <row r="329" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C329"/>
+    </row>
+    <row r="330" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C330"/>
+    </row>
+    <row r="331" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C331"/>
+    </row>
+    <row r="332" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C332"/>
+    </row>
+    <row r="333" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C333"/>
+    </row>
+    <row r="334" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C334"/>
+    </row>
+    <row r="335" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C335"/>
     </row>
   </sheetData>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.47244094488188981" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8974,7 +9352,7 @@
           <x14:formula1>
             <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B64</xm:sqref>
+          <xm:sqref>B2:B77</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8989,11 +9367,11 @@
   </sheetPr>
   <dimension ref="A1:I319"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H220" sqref="H220"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9034,7 +9412,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="78" t="s">
         <v>102</v>
       </c>
@@ -9056,13 +9434,13 @@
         <v>30</v>
       </c>
       <c r="G2" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H2" s="134" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="78" t="s">
         <v>734</v>
       </c>
@@ -9084,13 +9462,13 @@
         <v>30</v>
       </c>
       <c r="G3" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="78" t="s">
         <v>102</v>
       </c>
@@ -9112,13 +9490,13 @@
         <v>5</v>
       </c>
       <c r="G4" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H4" s="134" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="78" t="s">
         <v>816</v>
       </c>
@@ -9140,13 +9518,13 @@
         <v>5</v>
       </c>
       <c r="G5" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H5" s="134" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="78" t="s">
         <v>816</v>
       </c>
@@ -9168,13 +9546,13 @@
         <v>120</v>
       </c>
       <c r="G6" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H6" s="134" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="78" t="s">
         <v>816</v>
       </c>
@@ -9196,13 +9574,13 @@
         <v>7.5</v>
       </c>
       <c r="G7" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H7" s="134" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="78" t="s">
         <v>744</v>
       </c>
@@ -9224,13 +9602,13 @@
         <v>10</v>
       </c>
       <c r="G8" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H8" s="134" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
         <v>744</v>
       </c>
@@ -9252,13 +9630,13 @@
         <v>60</v>
       </c>
       <c r="G9" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H9" s="134" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
         <v>830</v>
       </c>
@@ -9280,13 +9658,13 @@
         <v>7.5</v>
       </c>
       <c r="G10" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H10" s="134" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="78" t="s">
         <v>830</v>
       </c>
@@ -9308,13 +9686,13 @@
         <v>7.5</v>
       </c>
       <c r="G11" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H11" s="134" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="78" t="s">
         <v>727</v>
       </c>
@@ -9336,13 +9714,13 @@
         <v>7.5</v>
       </c>
       <c r="G12" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H12" s="134" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="78" t="s">
         <v>727</v>
       </c>
@@ -9364,13 +9742,13 @@
         <v>30</v>
       </c>
       <c r="G13" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H13" s="134" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="78" t="s">
         <v>727</v>
       </c>
@@ -9392,13 +9770,13 @@
         <v>30</v>
       </c>
       <c r="G14" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H14" s="134" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78" t="s">
         <v>727</v>
       </c>
@@ -9420,13 +9798,13 @@
         <v>7.5</v>
       </c>
       <c r="G15" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H15" s="134" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78" t="s">
         <v>813</v>
       </c>
@@ -9448,13 +9826,13 @@
         <v>7.5</v>
       </c>
       <c r="G16" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H16" s="134" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="78" t="s">
         <v>819</v>
       </c>
@@ -9476,13 +9854,13 @@
         <v>7.5</v>
       </c>
       <c r="G17" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H17" s="134" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="78" t="s">
         <v>819</v>
       </c>
@@ -9504,13 +9882,13 @@
         <v>5</v>
       </c>
       <c r="G18" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H18" s="134" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="78" t="s">
         <v>816</v>
       </c>
@@ -9532,13 +9910,13 @@
         <v>5</v>
       </c>
       <c r="G19" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H19" s="134" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="78" t="s">
         <v>781</v>
       </c>
@@ -9560,13 +9938,13 @@
         <v>7.5</v>
       </c>
       <c r="G20" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H20" s="134" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="78" t="s">
         <v>727</v>
       </c>
@@ -9588,13 +9966,13 @@
         <v>5</v>
       </c>
       <c r="G21" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H21" s="134" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="78" t="s">
         <v>816</v>
       </c>
@@ -9616,13 +9994,13 @@
         <v>7.5</v>
       </c>
       <c r="G22" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H22" s="134" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="78" t="s">
         <v>813</v>
       </c>
@@ -9644,13 +10022,13 @@
         <v>7.5</v>
       </c>
       <c r="G23" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H23" s="134" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78" t="s">
         <v>727</v>
       </c>
@@ -9672,13 +10050,13 @@
         <v>7.5</v>
       </c>
       <c r="G24" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H24" s="134" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="78" t="s">
         <v>810</v>
       </c>
@@ -9700,13 +10078,13 @@
         <v>7.5</v>
       </c>
       <c r="G25" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H25" s="134" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="78" t="s">
         <v>765</v>
       </c>
@@ -9728,13 +10106,13 @@
         <v>7.5</v>
       </c>
       <c r="G26" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H26" s="134" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="78" t="s">
         <v>765</v>
       </c>
@@ -9756,13 +10134,13 @@
         <v>15</v>
       </c>
       <c r="G27" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H27" s="134" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="78" t="s">
         <v>765</v>
       </c>
@@ -9784,13 +10162,13 @@
         <v>7.5</v>
       </c>
       <c r="G28" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H28" s="134" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="78" t="s">
         <v>795</v>
       </c>
@@ -9812,13 +10190,13 @@
         <v>7.5</v>
       </c>
       <c r="G29" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H29" s="134" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="78" t="s">
         <v>810</v>
       </c>
@@ -9840,13 +10218,13 @@
         <v>15</v>
       </c>
       <c r="G30" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H30" s="134" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="78" t="s">
         <v>765</v>
       </c>
@@ -9868,13 +10246,13 @@
         <v>5</v>
       </c>
       <c r="G31" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H31" s="134" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="78" t="s">
         <v>795</v>
       </c>
@@ -9896,13 +10274,13 @@
         <v>7.5</v>
       </c>
       <c r="G32" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H32" s="134" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="78" t="s">
         <v>765</v>
       </c>
@@ -9924,13 +10302,13 @@
         <v>5</v>
       </c>
       <c r="G33" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H33" s="134" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="78" t="s">
         <v>795</v>
       </c>
@@ -9952,7 +10330,7 @@
         <v>90</v>
       </c>
       <c r="G34" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H34" s="133" t="s">
         <v>805</v>
@@ -14756,7 +15134,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="79" t="s">
         <v>278</v>
       </c>
@@ -14784,7 +15162,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="79" t="s">
         <v>278</v>
       </c>
@@ -14812,7 +15190,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="79" t="s">
         <v>278</v>
       </c>
@@ -14840,7 +15218,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="135" t="s">
         <v>102</v>
       </c>
@@ -14867,7 +15245,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="135" t="s">
         <v>593</v>
       </c>
@@ -14895,7 +15273,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="135" t="s">
         <v>102</v>
       </c>
@@ -14923,7 +15301,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="135" t="s">
         <v>102</v>
       </c>
@@ -14951,7 +15329,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="135" t="s">
         <v>574</v>
       </c>
@@ -14979,7 +15357,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="135" t="s">
         <v>574</v>
       </c>
@@ -15007,7 +15385,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="135" t="s">
         <v>574</v>
       </c>
@@ -15035,7 +15413,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="135" t="s">
         <v>500</v>
       </c>
@@ -15059,7 +15437,7 @@
       <c r="G215" s="79"/>
       <c r="H215" s="79"/>
     </row>
-    <row r="216" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="135" t="s">
         <v>500</v>
       </c>
@@ -15087,7 +15465,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="135" t="s">
         <v>500</v>
       </c>
@@ -15115,7 +15493,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="135" t="s">
         <v>500</v>
       </c>
@@ -15143,7 +15521,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="135" t="s">
         <v>500</v>
       </c>
@@ -15171,7 +15549,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="135" t="s">
         <v>500</v>
       </c>
@@ -15227,7 +15605,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="135" t="s">
         <v>500</v>
       </c>
@@ -15255,7 +15633,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="135" t="s">
         <v>500</v>
       </c>
@@ -15283,7 +15661,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="135" t="s">
         <v>500</v>
       </c>
@@ -15339,7 +15717,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="135" t="s">
         <v>178</v>
       </c>
@@ -15367,7 +15745,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="135" t="s">
         <v>178</v>
       </c>
@@ -15395,7 +15773,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="135" t="s">
         <v>178</v>
       </c>
@@ -15423,7 +15801,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="135" t="s">
         <v>576</v>
       </c>
@@ -15451,7 +15829,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="135" t="s">
         <v>576</v>
       </c>
@@ -15479,7 +15857,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="135" t="s">
         <v>576</v>
       </c>
@@ -15507,7 +15885,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="135" t="s">
         <v>576</v>
       </c>
@@ -15535,7 +15913,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="135" t="s">
         <v>178</v>
       </c>
@@ -15563,7 +15941,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="135" t="s">
         <v>541</v>
       </c>
@@ -15591,7 +15969,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="135" t="s">
         <v>178</v>
       </c>
@@ -15619,7 +15997,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="135" t="s">
         <v>178</v>
       </c>
@@ -15647,7 +16025,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="135" t="s">
         <v>102</v>
       </c>
@@ -15675,7 +16053,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="135" t="s">
         <v>102</v>
       </c>
@@ -15703,7 +16081,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="135" t="s">
         <v>178</v>
       </c>
@@ -15731,7 +16109,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="135" t="s">
         <v>178</v>
       </c>
@@ -15759,7 +16137,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="135" t="s">
         <v>178</v>
       </c>
@@ -15787,7 +16165,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="135" t="s">
         <v>509</v>
       </c>
@@ -15815,7 +16193,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="135" t="s">
         <v>509</v>
       </c>
@@ -15843,7 +16221,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="135" t="s">
         <v>509</v>
       </c>
@@ -15871,7 +16249,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="135" t="s">
         <v>178</v>
       </c>
@@ -15899,7 +16277,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="135" t="s">
         <v>500</v>
       </c>
@@ -15927,7 +16305,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="135" t="s">
         <v>509</v>
       </c>
@@ -15956,7 +16334,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="135" t="s">
         <v>509</v>
       </c>
@@ -15984,7 +16362,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="135" t="s">
         <v>509</v>
       </c>
@@ -16012,7 +16390,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="135" t="s">
         <v>509</v>
       </c>
@@ -16040,7 +16418,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="135" t="s">
         <v>509</v>
       </c>
@@ -16068,7 +16446,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="135" t="s">
         <v>509</v>
       </c>
@@ -16096,7 +16474,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="135" t="s">
         <v>239</v>
       </c>
@@ -16124,7 +16502,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="135" t="s">
         <v>239</v>
       </c>
@@ -16152,7 +16530,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="79" t="s">
         <v>500</v>
       </c>
@@ -16180,7 +16558,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="79" t="s">
         <v>500</v>
       </c>
@@ -16208,7 +16586,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="79" t="s">
         <v>500</v>
       </c>
@@ -16236,7 +16614,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="79" t="s">
         <v>509</v>
       </c>
@@ -16264,7 +16642,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="79" t="s">
         <v>239</v>
       </c>
@@ -16292,7 +16670,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="79" t="s">
         <v>500</v>
       </c>
@@ -16320,7 +16698,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="79" t="s">
         <v>509</v>
       </c>
@@ -16348,7 +16726,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="79" t="s">
         <v>500</v>
       </c>
@@ -16376,7 +16754,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="79" t="s">
         <v>500</v>
       </c>
@@ -16404,7 +16782,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="79" t="s">
         <v>500</v>
       </c>
@@ -16432,7 +16810,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="79" t="s">
         <v>178</v>
       </c>
@@ -16460,7 +16838,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="79" t="s">
         <v>178</v>
       </c>
@@ -16488,7 +16866,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="79" t="s">
         <v>178</v>
       </c>
@@ -16516,7 +16894,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="79" t="s">
         <v>500</v>
       </c>
@@ -16544,7 +16922,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="79" t="s">
         <v>500</v>
       </c>
@@ -16572,7 +16950,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="79" t="s">
         <v>500</v>
       </c>
@@ -16600,7 +16978,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="79" t="s">
         <v>500</v>
       </c>
@@ -16628,7 +17006,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="79" t="s">
         <v>102</v>
       </c>
@@ -16656,7 +17034,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="79" t="s">
         <v>102</v>
       </c>
@@ -16684,7 +17062,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="79" t="s">
         <v>492</v>
       </c>
@@ -16712,7 +17090,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="79" t="s">
         <v>482</v>
       </c>
@@ -16740,7 +17118,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="79" t="s">
         <v>482</v>
       </c>
@@ -16768,7 +17146,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="79" t="s">
         <v>482</v>
       </c>
@@ -16796,7 +17174,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="79" t="s">
         <v>178</v>
       </c>
@@ -16824,7 +17202,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="79" t="s">
         <v>178</v>
       </c>
@@ -16852,7 +17230,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="79" t="s">
         <v>267</v>
       </c>
@@ -16880,7 +17258,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="79" t="s">
         <v>268</v>
       </c>
@@ -16908,7 +17286,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="79" t="s">
         <v>267</v>
       </c>
@@ -16936,7 +17314,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="79" t="s">
         <v>41</v>
       </c>
@@ -16964,7 +17342,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="79" t="s">
         <v>273</v>
       </c>
@@ -16992,7 +17370,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="79" t="s">
         <v>273</v>
       </c>
@@ -17020,7 +17398,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="79" t="s">
         <v>178</v>
       </c>
@@ -17048,7 +17426,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="79" t="s">
         <v>267</v>
       </c>
@@ -17076,7 +17454,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="79" t="s">
         <v>267</v>
       </c>
@@ -17104,7 +17482,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="79" t="s">
         <v>273</v>
       </c>
@@ -17132,7 +17510,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="79" t="s">
         <v>273</v>
       </c>
@@ -17160,7 +17538,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="79" t="s">
         <v>268</v>
       </c>
@@ -17188,7 +17566,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="79" t="s">
         <v>129</v>
       </c>
@@ -17216,7 +17594,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="79" t="s">
         <v>273</v>
       </c>
@@ -17244,7 +17622,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="79" t="s">
         <v>274</v>
       </c>
@@ -17268,7 +17646,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="79" t="s">
         <v>21</v>
       </c>
@@ -17296,7 +17674,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="79" t="s">
         <v>102</v>
       </c>
@@ -17324,7 +17702,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="79" t="s">
         <v>36</v>
       </c>
@@ -17352,7 +17730,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="79" t="s">
         <v>268</v>
       </c>
@@ -17380,7 +17758,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="79" t="s">
         <v>267</v>
       </c>
@@ -17408,7 +17786,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="79" t="s">
         <v>267</v>
       </c>
@@ -17436,7 +17814,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="79" t="s">
         <v>239</v>
       </c>
@@ -17464,7 +17842,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="79" t="s">
         <v>36</v>
       </c>
@@ -17492,7 +17870,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="79" t="s">
         <v>256</v>
       </c>
@@ -17520,7 +17898,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="79" t="s">
         <v>36</v>
       </c>
@@ -17548,7 +17926,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="79" t="s">
         <v>36</v>
       </c>
@@ -17576,7 +17954,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="79" t="s">
         <v>36</v>
       </c>
@@ -17604,7 +17982,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="79" t="s">
         <v>259</v>
       </c>
@@ -17632,7 +18010,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="79" t="s">
         <v>259</v>
       </c>
@@ -17660,7 +18038,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="79" t="s">
         <v>259</v>
       </c>
@@ -17688,7 +18066,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="132" t="s">
         <v>256</v>
       </c>
@@ -17716,7 +18094,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="132" t="s">
         <v>256</v>
       </c>
@@ -17744,7 +18122,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="132" t="s">
         <v>256</v>
       </c>
@@ -17802,36 +18180,36 @@
       </c>
       <c r="B314" s="151">
         <f>SUBTOTAL(5,TAB_Doku_2019[Datum])</f>
-        <v>43500</v>
+        <v>44146</v>
       </c>
       <c r="C314" s="152">
         <f>SUBTOTAL(4,TAB_Doku_2019[Datum])</f>
-        <v>43818</v>
+        <v>44196</v>
       </c>
       <c r="D314" s="153"/>
       <c r="E314" s="154" t="str">
         <f>ROUND(SUBTOTAL(9,TAB_Doku_2019[Zeitaufwand])/60,0) &amp;" h"</f>
-        <v>143 h</v>
+        <v>19 h</v>
       </c>
       <c r="F314" s="154">
         <f>SUBTOTAL(9,TAB_Doku_2019[[Kosten ]])</f>
-        <v>4712.05</v>
+        <v>585</v>
       </c>
       <c r="G314" s="150"/>
       <c r="H314" s="155"/>
     </row>
     <row r="316" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D316" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E316">
         <f>TAB_Doku_2019[[#Totals],[Kosten ]]/143*0.75</f>
-        <v>24.713548951048949</v>
+        <v>3.0681818181818183</v>
       </c>
     </row>
     <row r="317" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D317" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="319" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -20010,7 +20388,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="41" t="s">
         <v>239</v>
       </c>
@@ -20038,7 +20416,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="41" t="s">
         <v>239</v>
       </c>
@@ -20179,7 +20557,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="41" t="s">
         <v>239</v>
       </c>
@@ -21212,7 +21590,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="32" t="s">
         <v>239</v>
       </c>
@@ -21492,7 +21870,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="32" t="s">
         <v>239</v>
       </c>
@@ -21688,7 +22066,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="32" t="s">
         <v>239</v>
       </c>
@@ -22579,7 +22957,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="165" spans="1:8" s="49" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="12" t="s">
         <v>239</v>
       </c>
@@ -22607,7 +22985,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="166" spans="1:8" s="49" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="12" t="s">
         <v>239</v>
       </c>
@@ -22635,7 +23013,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A167" s="12" t="s">
         <v>239</v>
       </c>
@@ -22691,7 +23069,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="169" spans="1:8" s="49" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="12" t="s">
         <v>239</v>
       </c>
@@ -22915,7 +23293,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A177" s="12" t="s">
         <v>239</v>
       </c>
@@ -23083,7 +23461,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="12" t="s">
         <v>239</v>
       </c>
@@ -23111,7 +23489,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="12" t="s">
         <v>239</v>
       </c>
@@ -23447,7 +23825,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="12" t="s">
         <v>239</v>
       </c>
@@ -23594,122 +23972,122 @@
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0"/>
   <conditionalFormatting sqref="C2:C90 C94:C123">
-    <cfRule type="containsText" dxfId="39" priority="33" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="23" priority="33" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C15">
-    <cfRule type="containsText" dxfId="38" priority="32" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="22" priority="32" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="37" priority="31" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="21" priority="31" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C43 C45:C46">
-    <cfRule type="containsText" dxfId="36" priority="30" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="20" priority="30" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C34">
-    <cfRule type="containsText" dxfId="35" priority="29" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="19" priority="29" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="containsText" dxfId="34" priority="27" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="18" priority="27" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73:D76 D2:D71">
-    <cfRule type="cellIs" dxfId="33" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79">
-    <cfRule type="cellIs" dxfId="32" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77:D78">
-    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81">
-    <cfRule type="containsText" dxfId="30" priority="18" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81">
-    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82">
-    <cfRule type="containsText" dxfId="28" priority="14" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="containsText" dxfId="27" priority="12" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="containsText" dxfId="25" priority="10" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C89:C90">
-    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C89)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92">
-    <cfRule type="containsText" dxfId="23" priority="8" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91">
-    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93">
-    <cfRule type="containsText" dxfId="21" priority="6" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C125:C126">
-    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C127">
-    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C127)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C124">
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C128">
-    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C128)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C129)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/trailtech/Leistungen-KC-Trailtech.xlsx
+++ b/trailtech/Leistungen-KC-Trailtech.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="24" windowWidth="17796" windowHeight="6588" activeTab="1"/>
+    <workbookView xWindow="288" yWindow="24" windowWidth="17796" windowHeight="6588" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Leistungen-Liste" sheetId="1" r:id="rId1"/>
@@ -2661,9 +2661,6 @@
 Stefan Gruber (Gitschberg Jochtal AG GF)</t>
   </si>
   <si>
-    <t>Dezember (Rechnung fehlt noch)</t>
-  </si>
-  <si>
     <t>VS Graz</t>
   </si>
   <si>
@@ -2743,6 +2740,9 @@
   </si>
   <si>
     <t>Meeting</t>
+  </si>
+  <si>
+    <t>Dezember</t>
   </si>
 </sst>
 </file>
@@ -3559,6 +3559,276 @@
     <cellStyle name="Währung" xfId="3" builtinId="4"/>
   </cellStyles>
   <dxfs count="107">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4603,36 +4873,25 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top/>
-        <bottom/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -4658,34 +4917,25 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -4711,29 +4961,29 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4741,8 +4991,12 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -4765,260 +5019,6 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -5426,28 +5426,34 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="TAB_Doku_201910" displayName="TAB_Doku_201910" ref="A1:H78" totalsRowCount="1" headerRowDxfId="97" dataDxfId="96" totalsRowDxfId="94" tableBorderDxfId="95">
-  <autoFilter ref="A1:H77"/>
+  <autoFilter ref="A1:H77">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:H55">
     <sortCondition ref="C1:C55"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="93" totalsRowDxfId="31"/>
-    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="92" totalsRowDxfId="30">
+    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="93" totalsRowDxfId="39"/>
+    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="92" totalsRowDxfId="38">
       <totalsRowFormula>SUBTOTAL(5,TAB_Doku_201910[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="29">
+    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="37">
       <totalsRowFormula>SUBTOTAL(4,TAB_Doku_201910[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Stk." dataDxfId="90" totalsRowDxfId="28"/>
-    <tableColumn id="5" name="Zeitaufwand" dataDxfId="89" totalsRowDxfId="27">
+    <tableColumn id="4" name="Stk." dataDxfId="90" totalsRowDxfId="36"/>
+    <tableColumn id="5" name="Zeitaufwand" dataDxfId="89" totalsRowDxfId="35">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="26">
+    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="34">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,TAB_Doku_201910[[Kosten ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Abrechnung" dataDxfId="87" totalsRowDxfId="25"/>
-    <tableColumn id="8" name="Notiz" dataDxfId="86" totalsRowDxfId="24"/>
+    <tableColumn id="7" name="Abrechnung" dataDxfId="87" totalsRowDxfId="33"/>
+    <tableColumn id="8" name="Notiz" dataDxfId="86" totalsRowDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5463,31 +5469,31 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="81" totalsRowDxfId="80"/>
-    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="79" totalsRowDxfId="78">
+    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="81" totalsRowDxfId="7"/>
+    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="80" totalsRowDxfId="6">
       <totalsRowFormula>SUBTOTAL(5,TAB_Doku_2019[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="77" totalsRowDxfId="76">
+    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="79" totalsRowDxfId="5">
       <totalsRowFormula>SUBTOTAL(4,TAB_Doku_2019[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Stk." dataDxfId="75" totalsRowDxfId="74"/>
-    <tableColumn id="5" name="Zeitaufwand" totalsRowFunction="custom" dataDxfId="73" totalsRowDxfId="72">
+    <tableColumn id="4" name="Stk." dataDxfId="78" totalsRowDxfId="4"/>
+    <tableColumn id="5" name="Zeitaufwand" totalsRowFunction="custom" dataDxfId="77" totalsRowDxfId="3">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_2019[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</calculatedColumnFormula>
       <totalsRowFormula>ROUND(SUBTOTAL(9,TAB_Doku_2019[Zeitaufwand])/60,0) &amp;" h"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="71" totalsRowDxfId="70">
+    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="76" totalsRowDxfId="2">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_2019[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_2019[[#This Row],[Stk.]]</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,TAB_Doku_2019[[Kosten ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Abrechnung" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="8" name="Notiz" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="7" name="Abrechnung" dataDxfId="75" totalsRowDxfId="1"/>
+    <tableColumn id="8" name="Notiz" dataDxfId="74" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TAB_Dokumentation" displayName="TAB_Dokumentation" ref="A1:H199" totalsRowCount="1" headerRowDxfId="65" dataDxfId="64" totalsRowDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TAB_Dokumentation" displayName="TAB_Dokumentation" ref="A1:H199" totalsRowCount="1" headerRowDxfId="73" dataDxfId="72" totalsRowDxfId="71">
   <autoFilter ref="A1:H198">
     <filterColumn colId="0">
       <filters>
@@ -5499,44 +5505,44 @@
     <sortCondition descending="1" ref="G1:G198"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="59">
+    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="68" totalsRowDxfId="67">
       <totalsRowFormula>SUBTOTAL(5,TAB_Dokumentation[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Datum" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="57">
+    <tableColumn id="7" name="Datum" totalsRowFunction="custom" dataDxfId="66" totalsRowDxfId="65">
       <totalsRowFormula>MAX(4,TAB_Dokumentation[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Stk." dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="4" name="Zeitaufwand" dataDxfId="54" totalsRowDxfId="53">
+    <tableColumn id="3" name="Stk." dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="4" name="Zeitaufwand" dataDxfId="62" totalsRowDxfId="61">
       <calculatedColumnFormula>INDEX(TAB_Leistungen[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Dokumentation[[#This Row],[Leistung]],TAB_Leistungen[Tätigkeit],0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Kosten " totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="51">
+    <tableColumn id="5" name="Kosten " totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="59">
       <calculatedColumnFormula>INDEX(TAB_Leistungen[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Dokumentation[[#This Row],[Leistung]],TAB_Leistungen[Tätigkeit],0),3)*TAB_Dokumentation[[#This Row],[Stk.]]</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,TAB_Dokumentation[[Kosten ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Abrechnung" totalsRowDxfId="50"/>
-    <tableColumn id="8" name="Notiz" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="6" name="Abrechnung" totalsRowDxfId="58"/>
+    <tableColumn id="8" name="Notiz" dataDxfId="57" totalsRowDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle1" displayName="Tabelle1" ref="A1:I40" totalsRowShown="0" headerRowDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle1" displayName="Tabelle1" ref="A1:I40" totalsRowShown="0" headerRowDxfId="55">
   <autoFilter ref="A1:I40"/>
   <sortState ref="A2:I35">
     <sortCondition descending="1" ref="D1:D35"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="Name" dataDxfId="46"/>
-    <tableColumn id="2" name="Zusatz" dataDxfId="45"/>
-    <tableColumn id="3" name="Adresse" dataDxfId="44"/>
-    <tableColumn id="4" name="PLZ" dataDxfId="43"/>
-    <tableColumn id="5" name="Ort" dataDxfId="42"/>
-    <tableColumn id="6" name="Spalte1" dataDxfId="41"/>
-    <tableColumn id="7" name="Telefon" dataDxfId="40"/>
-    <tableColumn id="8" name="Spalte2" dataDxfId="39"/>
-    <tableColumn id="9" name="Notiz" dataDxfId="38"/>
+    <tableColumn id="1" name="Name" dataDxfId="54"/>
+    <tableColumn id="2" name="Zusatz" dataDxfId="53"/>
+    <tableColumn id="3" name="Adresse" dataDxfId="52"/>
+    <tableColumn id="4" name="PLZ" dataDxfId="51"/>
+    <tableColumn id="5" name="Ort" dataDxfId="50"/>
+    <tableColumn id="6" name="Spalte1" dataDxfId="49"/>
+    <tableColumn id="7" name="Telefon" dataDxfId="48"/>
+    <tableColumn id="8" name="Spalte2" dataDxfId="47"/>
+    <tableColumn id="9" name="Notiz" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5547,9 +5553,9 @@
   <autoFilter ref="C4:F8"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Position"/>
-    <tableColumn id="2" name="Stk/Std" dataDxfId="37"/>
-    <tableColumn id="3" name="Stk/Std-Preis" dataDxfId="36"/>
-    <tableColumn id="4" name="Summe:" dataDxfId="35" dataCellStyle="Währung"/>
+    <tableColumn id="2" name="Stk/Std" dataDxfId="45"/>
+    <tableColumn id="3" name="Stk/Std-Preis" dataDxfId="44"/>
+    <tableColumn id="4" name="Summe:" dataDxfId="43" dataCellStyle="Währung"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5571,9 +5577,9 @@
   <autoFilter ref="H4:K7"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Position"/>
-    <tableColumn id="2" name="Stk/Std" dataDxfId="34"/>
-    <tableColumn id="3" name="Stk/Std-Preis" dataDxfId="33"/>
-    <tableColumn id="4" name="Summe:" dataDxfId="32" dataCellStyle="Währung"/>
+    <tableColumn id="2" name="Stk/Std" dataDxfId="42"/>
+    <tableColumn id="3" name="Stk/Std-Preis" dataDxfId="41"/>
+    <tableColumn id="4" name="Summe:" dataDxfId="40" dataCellStyle="Währung"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6818,11 +6824,11 @@
   </sheetPr>
   <dimension ref="A1:I335"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A26:XFD28"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6916,7 +6922,7 @@
     </row>
     <row r="4" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="78" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B4" s="133" t="s">
         <v>49</v>
@@ -6939,12 +6945,12 @@
         <v>498</v>
       </c>
       <c r="H4" s="134" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="78" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B5" s="133" t="s">
         <v>35</v>
@@ -6967,12 +6973,12 @@
         <v>498</v>
       </c>
       <c r="H5" s="134" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="78" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B6" s="133" t="s">
         <v>2</v>
@@ -6995,12 +7001,12 @@
         <v>498</v>
       </c>
       <c r="H6" s="134" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="78" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B7" s="133" t="s">
         <v>487</v>
@@ -7023,12 +7029,12 @@
         <v>498</v>
       </c>
       <c r="H7" s="134" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="78" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B8" s="133" t="s">
         <v>49</v>
@@ -7051,12 +7057,12 @@
         <v>498</v>
       </c>
       <c r="H8" s="134" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B9" s="133" t="s">
         <v>48</v>
@@ -7079,12 +7085,12 @@
         <v>498</v>
       </c>
       <c r="H9" s="134" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B10" s="132" t="s">
         <v>1</v>
@@ -7107,12 +7113,12 @@
         <v>498</v>
       </c>
       <c r="H10" s="134" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="78" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B11" s="133" t="s">
         <v>8</v>
@@ -7135,12 +7141,12 @@
         <v>498</v>
       </c>
       <c r="H11" s="134" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B12" s="133" t="s">
         <v>48</v>
@@ -7163,12 +7169,12 @@
         <v>498</v>
       </c>
       <c r="H12" s="134" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B13" s="133" t="s">
         <v>48</v>
@@ -7191,12 +7197,12 @@
         <v>498</v>
       </c>
       <c r="H13" s="134" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B14" s="133" t="s">
         <v>8</v>
@@ -7219,7 +7225,7 @@
         <v>498</v>
       </c>
       <c r="H14" s="134" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7247,12 +7253,12 @@
         <v>498</v>
       </c>
       <c r="H15" s="134" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B16" s="133" t="s">
         <v>48</v>
@@ -7275,7 +7281,7 @@
         <v>498</v>
       </c>
       <c r="H16" s="134" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7303,12 +7309,12 @@
         <v>498</v>
       </c>
       <c r="H17" s="134" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B18" s="133" t="s">
         <v>140</v>
@@ -7331,12 +7337,12 @@
         <v>498</v>
       </c>
       <c r="H18" s="134" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B19" s="133" t="s">
         <v>13</v>
@@ -7359,12 +7365,12 @@
         <v>498</v>
       </c>
       <c r="H19" s="134" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B20" s="133" t="s">
         <v>22</v>
@@ -7387,7 +7393,7 @@
         <v>498</v>
       </c>
       <c r="H20" s="134" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7415,7 +7421,7 @@
         <v>498</v>
       </c>
       <c r="H21" s="134" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7443,7 +7449,7 @@
         <v>498</v>
       </c>
       <c r="H22" s="134" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7471,7 +7477,7 @@
         <v>498</v>
       </c>
       <c r="H23" s="134" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7499,7 +7505,7 @@
         <v>498</v>
       </c>
       <c r="H24" s="134" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7611,7 +7617,7 @@
         <v>498</v>
       </c>
       <c r="H28" s="134" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7698,7 +7704,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="78" t="s">
         <v>727</v>
       </c>
@@ -7716,7 +7722,7 @@
       <c r="G32" s="78"/>
       <c r="H32" s="134"/>
     </row>
-    <row r="33" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="78" t="s">
         <v>813</v>
       </c>
@@ -7734,7 +7740,7 @@
       <c r="G33" s="78"/>
       <c r="H33" s="134"/>
     </row>
-    <row r="34" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="78" t="s">
         <v>819</v>
       </c>
@@ -7752,7 +7758,7 @@
       <c r="G34" s="78"/>
       <c r="H34" s="134"/>
     </row>
-    <row r="35" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="78" t="s">
         <v>810</v>
       </c>
@@ -7770,7 +7776,7 @@
       <c r="G35" s="78"/>
       <c r="H35" s="134"/>
     </row>
-    <row r="36" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="78" t="s">
         <v>765</v>
       </c>
@@ -7788,7 +7794,7 @@
       <c r="G36" s="78"/>
       <c r="H36" s="134"/>
     </row>
-    <row r="37" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="78" t="s">
         <v>795</v>
       </c>
@@ -7806,7 +7812,7 @@
       <c r="G37" s="78"/>
       <c r="H37" s="134"/>
     </row>
-    <row r="38" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="78" t="s">
         <v>102</v>
       </c>
@@ -7824,7 +7830,7 @@
       <c r="G38" s="78"/>
       <c r="H38" s="134"/>
     </row>
-    <row r="39" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="78" t="s">
         <v>780</v>
       </c>
@@ -7842,7 +7848,7 @@
       <c r="G39" s="78"/>
       <c r="H39" s="134"/>
     </row>
-    <row r="40" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="78" t="s">
         <v>734</v>
       </c>
@@ -7860,7 +7866,7 @@
       <c r="G40" s="78"/>
       <c r="H40" s="134"/>
     </row>
-    <row r="41" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="78" t="s">
         <v>789</v>
       </c>
@@ -7878,7 +7884,7 @@
       <c r="G41" s="78"/>
       <c r="H41" s="134"/>
     </row>
-    <row r="42" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="78" t="s">
         <v>760</v>
       </c>
@@ -7896,7 +7902,7 @@
       <c r="G42" s="78"/>
       <c r="H42" s="134"/>
     </row>
-    <row r="43" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="78" t="s">
         <v>738</v>
       </c>
@@ -7914,7 +7920,7 @@
       <c r="G43" s="78"/>
       <c r="H43" s="134"/>
     </row>
-    <row r="44" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="78" t="s">
         <v>756</v>
       </c>
@@ -7932,7 +7938,7 @@
       <c r="G44" s="78"/>
       <c r="H44" s="134"/>
     </row>
-    <row r="45" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="78" t="s">
         <v>728</v>
       </c>
@@ -7950,7 +7956,7 @@
       <c r="G45" s="78"/>
       <c r="H45" s="134"/>
     </row>
-    <row r="46" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="78" t="s">
         <v>725</v>
       </c>
@@ -7968,7 +7974,7 @@
       <c r="G46" s="78"/>
       <c r="H46" s="134"/>
     </row>
-    <row r="47" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="78" t="s">
         <v>726</v>
       </c>
@@ -7986,7 +7992,7 @@
       <c r="G47" s="78"/>
       <c r="H47" s="134"/>
     </row>
-    <row r="48" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="78" t="s">
         <v>672</v>
       </c>
@@ -8004,7 +8010,7 @@
       <c r="G48" s="78"/>
       <c r="H48" s="134"/>
     </row>
-    <row r="49" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="78" t="s">
         <v>631</v>
       </c>
@@ -8022,7 +8028,7 @@
       <c r="G49" s="130"/>
       <c r="H49" s="134"/>
     </row>
-    <row r="50" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="78" t="s">
         <v>509</v>
       </c>
@@ -8040,7 +8046,7 @@
       <c r="G50" s="78"/>
       <c r="H50" s="134"/>
     </row>
-    <row r="51" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="78" t="s">
         <v>643</v>
       </c>
@@ -8058,7 +8064,7 @@
       <c r="G51" s="78"/>
       <c r="H51" s="134"/>
     </row>
-    <row r="52" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="78" t="s">
         <v>649</v>
       </c>
@@ -8076,7 +8082,7 @@
       <c r="G52" s="78"/>
       <c r="H52" s="134"/>
     </row>
-    <row r="53" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="78" t="s">
         <v>642</v>
       </c>
@@ -8094,7 +8100,7 @@
       <c r="G53" s="78"/>
       <c r="H53" s="134"/>
     </row>
-    <row r="54" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="147" t="s">
         <v>609</v>
       </c>
@@ -8112,7 +8118,7 @@
       <c r="G54" s="130"/>
       <c r="H54" s="138"/>
     </row>
-    <row r="55" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="78" t="s">
         <v>640</v>
       </c>
@@ -8130,7 +8136,7 @@
       <c r="G55" s="130"/>
       <c r="H55" s="148"/>
     </row>
-    <row r="56" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="147" t="s">
         <v>607</v>
       </c>
@@ -8148,7 +8154,7 @@
       <c r="G56" s="130"/>
       <c r="H56" s="148"/>
     </row>
-    <row r="57" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="147" t="s">
         <v>597</v>
       </c>
@@ -8166,7 +8172,7 @@
       <c r="G57" s="130"/>
       <c r="H57" s="148"/>
     </row>
-    <row r="58" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="147" t="s">
         <v>500</v>
       </c>
@@ -8184,7 +8190,7 @@
       <c r="G58" s="130"/>
       <c r="H58" s="148"/>
     </row>
-    <row r="59" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="130" t="s">
         <v>278</v>
       </c>
@@ -8202,7 +8208,7 @@
       <c r="G59" s="130"/>
       <c r="H59" s="148"/>
     </row>
-    <row r="60" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="147" t="s">
         <v>593</v>
       </c>
@@ -8220,7 +8226,7 @@
       <c r="G60" s="130"/>
       <c r="H60" s="148"/>
     </row>
-    <row r="61" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="147" t="s">
         <v>574</v>
       </c>
@@ -8238,7 +8244,7 @@
       <c r="G61" s="130"/>
       <c r="H61" s="148"/>
     </row>
-    <row r="62" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="147" t="s">
         <v>178</v>
       </c>
@@ -8256,7 +8262,7 @@
       <c r="G62" s="130"/>
       <c r="H62" s="148"/>
     </row>
-    <row r="63" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="147" t="s">
         <v>576</v>
       </c>
@@ -8274,7 +8280,7 @@
       <c r="G63" s="130"/>
       <c r="H63" s="148"/>
     </row>
-    <row r="64" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="147" t="s">
         <v>541</v>
       </c>
@@ -8292,7 +8298,7 @@
       <c r="G64" s="130"/>
       <c r="H64" s="148"/>
     </row>
-    <row r="65" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="147" t="s">
         <v>239</v>
       </c>
@@ -8310,7 +8316,7 @@
       <c r="G65" s="130"/>
       <c r="H65" s="148"/>
     </row>
-    <row r="66" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="130" t="s">
         <v>492</v>
       </c>
@@ -8328,7 +8334,7 @@
       <c r="G66" s="130"/>
       <c r="H66" s="148"/>
     </row>
-    <row r="67" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="130" t="s">
         <v>482</v>
       </c>
@@ -8346,7 +8352,7 @@
       <c r="G67" s="130"/>
       <c r="H67" s="148"/>
     </row>
-    <row r="68" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="130" t="s">
         <v>267</v>
       </c>
@@ -8364,7 +8370,7 @@
       <c r="G68" s="130"/>
       <c r="H68" s="148"/>
     </row>
-    <row r="69" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="130" t="s">
         <v>268</v>
       </c>
@@ -8382,7 +8388,7 @@
       <c r="G69" s="130"/>
       <c r="H69" s="148"/>
     </row>
-    <row r="70" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="130" t="s">
         <v>41</v>
       </c>
@@ -8400,7 +8406,7 @@
       <c r="G70" s="130"/>
       <c r="H70" s="148"/>
     </row>
-    <row r="71" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="130" t="s">
         <v>273</v>
       </c>
@@ -8418,7 +8424,7 @@
       <c r="G71" s="130"/>
       <c r="H71" s="148"/>
     </row>
-    <row r="72" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="130" t="s">
         <v>129</v>
       </c>
@@ -8436,7 +8442,7 @@
       <c r="G72" s="130"/>
       <c r="H72" s="148"/>
     </row>
-    <row r="73" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="130" t="s">
         <v>274</v>
       </c>
@@ -8454,7 +8460,7 @@
       <c r="G73" s="130"/>
       <c r="H73" s="148"/>
     </row>
-    <row r="74" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="130" t="s">
         <v>21</v>
       </c>
@@ -8472,7 +8478,7 @@
       <c r="G74" s="130"/>
       <c r="H74" s="148"/>
     </row>
-    <row r="75" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="130" t="s">
         <v>36</v>
       </c>
@@ -8490,7 +8496,7 @@
       <c r="G75" s="130"/>
       <c r="H75" s="148"/>
     </row>
-    <row r="76" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="130" t="s">
         <v>256</v>
       </c>
@@ -8508,7 +8514,7 @@
       <c r="G76" s="130"/>
       <c r="H76" s="148"/>
     </row>
-    <row r="77" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="130" t="s">
         <v>259</v>
       </c>
@@ -8540,9 +8546,9 @@
       </c>
       <c r="D78" s="153"/>
       <c r="E78" s="153"/>
-      <c r="F78" s="154" t="e">
+      <c r="F78" s="154">
         <f>SUBTOTAL(9,TAB_Doku_201910[[Kosten ]])</f>
-        <v>#N/A</v>
+        <v>717.5</v>
       </c>
       <c r="G78" s="150"/>
       <c r="H78" s="155"/>
@@ -9367,11 +9373,11 @@
   </sheetPr>
   <dimension ref="A1:I319"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9434,7 +9440,7 @@
         <v>30</v>
       </c>
       <c r="G2" s="78" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="H2" s="134" t="s">
         <v>838</v>
@@ -9462,7 +9468,7 @@
         <v>30</v>
       </c>
       <c r="G3" s="78" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>838</v>
@@ -9490,7 +9496,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="78" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="H4" s="134" t="s">
         <v>838</v>
@@ -9518,7 +9524,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="78" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="H5" s="134" t="s">
         <v>837</v>
@@ -9546,7 +9552,7 @@
         <v>120</v>
       </c>
       <c r="G6" s="78" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="H6" s="134" t="s">
         <v>834</v>
@@ -9574,7 +9580,7 @@
         <v>7.5</v>
       </c>
       <c r="G7" s="78" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="H7" s="134" t="s">
         <v>833</v>
@@ -9602,7 +9608,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="78" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="H8" s="134" t="s">
         <v>836</v>
@@ -9630,7 +9636,7 @@
         <v>60</v>
       </c>
       <c r="G9" s="78" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="H9" s="134" t="s">
         <v>835</v>
@@ -9658,7 +9664,7 @@
         <v>7.5</v>
       </c>
       <c r="G10" s="78" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="H10" s="134" t="s">
         <v>832</v>
@@ -9686,7 +9692,7 @@
         <v>7.5</v>
       </c>
       <c r="G11" s="78" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="H11" s="134" t="s">
         <v>831</v>
@@ -9714,7 +9720,7 @@
         <v>7.5</v>
       </c>
       <c r="G12" s="78" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="H12" s="134" t="s">
         <v>829</v>
@@ -9742,7 +9748,7 @@
         <v>30</v>
       </c>
       <c r="G13" s="78" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="H13" s="134" t="s">
         <v>825</v>
@@ -9770,7 +9776,7 @@
         <v>30</v>
       </c>
       <c r="G14" s="78" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="H14" s="134" t="s">
         <v>824</v>
@@ -9798,7 +9804,7 @@
         <v>7.5</v>
       </c>
       <c r="G15" s="78" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="H15" s="134" t="s">
         <v>823</v>
@@ -9826,7 +9832,7 @@
         <v>7.5</v>
       </c>
       <c r="G16" s="78" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="H16" s="134" t="s">
         <v>821</v>
@@ -9854,7 +9860,7 @@
         <v>7.5</v>
       </c>
       <c r="G17" s="78" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="H17" s="134" t="s">
         <v>820</v>
@@ -9882,7 +9888,7 @@
         <v>5</v>
       </c>
       <c r="G18" s="78" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="H18" s="134" t="s">
         <v>827</v>
@@ -9910,7 +9916,7 @@
         <v>5</v>
       </c>
       <c r="G19" s="78" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="H19" s="134" t="s">
         <v>817</v>
@@ -9938,7 +9944,7 @@
         <v>7.5</v>
       </c>
       <c r="G20" s="78" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="H20" s="134" t="s">
         <v>815</v>
@@ -9966,7 +9972,7 @@
         <v>5</v>
       </c>
       <c r="G21" s="78" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="H21" s="134" t="s">
         <v>826</v>
@@ -9994,7 +10000,7 @@
         <v>7.5</v>
       </c>
       <c r="G22" s="78" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="H22" s="134" t="s">
         <v>818</v>
@@ -10022,7 +10028,7 @@
         <v>7.5</v>
       </c>
       <c r="G23" s="78" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="H23" s="134" t="s">
         <v>814</v>
@@ -10050,7 +10056,7 @@
         <v>7.5</v>
       </c>
       <c r="G24" s="78" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="H24" s="134" t="s">
         <v>822</v>
@@ -10078,7 +10084,7 @@
         <v>7.5</v>
       </c>
       <c r="G25" s="78" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="H25" s="134" t="s">
         <v>812</v>
@@ -10106,7 +10112,7 @@
         <v>7.5</v>
       </c>
       <c r="G26" s="78" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="H26" s="134" t="s">
         <v>828</v>
@@ -10134,7 +10140,7 @@
         <v>15</v>
       </c>
       <c r="G27" s="78" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="H27" s="134" t="s">
         <v>809</v>
@@ -10162,7 +10168,7 @@
         <v>7.5</v>
       </c>
       <c r="G28" s="78" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="H28" s="134" t="s">
         <v>806</v>
@@ -10190,7 +10196,7 @@
         <v>7.5</v>
       </c>
       <c r="G29" s="78" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="H29" s="134" t="s">
         <v>803</v>
@@ -10218,7 +10224,7 @@
         <v>15</v>
       </c>
       <c r="G30" s="78" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="H30" s="134" t="s">
         <v>811</v>
@@ -10246,7 +10252,7 @@
         <v>5</v>
       </c>
       <c r="G31" s="78" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="H31" s="134" t="s">
         <v>808</v>
@@ -10274,7 +10280,7 @@
         <v>7.5</v>
       </c>
       <c r="G32" s="78" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="H32" s="134" t="s">
         <v>804</v>
@@ -10302,7 +10308,7 @@
         <v>5</v>
       </c>
       <c r="G33" s="78" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="H33" s="134" t="s">
         <v>807</v>
@@ -10330,7 +10336,7 @@
         <v>90</v>
       </c>
       <c r="G34" s="78" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="H34" s="133" t="s">
         <v>805</v>
@@ -18200,7 +18206,7 @@
     </row>
     <row r="316" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D316" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E316">
         <f>TAB_Doku_2019[[#Totals],[Kosten ]]/143*0.75</f>
@@ -18209,7 +18215,7 @@
     </row>
     <row r="317" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D317" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="319" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -23972,122 +23978,122 @@
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0"/>
   <conditionalFormatting sqref="C2:C90 C94:C123">
-    <cfRule type="containsText" dxfId="23" priority="33" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C15">
-    <cfRule type="containsText" dxfId="22" priority="32" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="21" priority="31" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C43 C45:C46">
-    <cfRule type="containsText" dxfId="20" priority="30" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C34">
-    <cfRule type="containsText" dxfId="19" priority="29" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="containsText" dxfId="18" priority="27" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73:D76 D2:D71">
-    <cfRule type="cellIs" dxfId="17" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79">
-    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77:D78">
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81">
-    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81">
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82">
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="20" priority="14" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="19" priority="12" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C89:C90">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C89)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C125:C126">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C127">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C127)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C124">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C128">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C128)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C129)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/trailtech/Leistungen-KC-Trailtech.xlsx
+++ b/trailtech/Leistungen-KC-Trailtech.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="24" windowWidth="17796" windowHeight="6588" activeTab="2"/>
+    <workbookView xWindow="288" yWindow="24" windowWidth="17796" windowHeight="6588" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Leistungen-Liste" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="877">
   <si>
     <t>Tätigkeit</t>
   </si>
@@ -2744,6 +2744,18 @@
   <si>
     <t>Dezember</t>
   </si>
+  <si>
+    <t>VS-Schwemberger</t>
+  </si>
+  <si>
+    <t>Besichtugung, Absprache und Fläche Vermessung</t>
+  </si>
+  <si>
+    <t>Planungspauschale Angebot</t>
+  </si>
+  <si>
+    <t>Erst Kontakt mit Kunden und Absprache mit Uli</t>
+  </si>
 </sst>
 </file>
 
@@ -2752,7 +2764,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2914,6 +2926,12 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3125,7 +3143,7 @@
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3551,6 +3569,24 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink 2" xfId="2"/>
@@ -3674,7 +3710,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -4068,276 +4104,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4873,25 +4639,36 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <right/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -4917,25 +4694,34 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -4961,6 +4747,41 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4983,7 +4804,29 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4991,12 +4834,8 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -5019,6 +4858,203 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -5425,35 +5461,29 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="TAB_Doku_201910" displayName="TAB_Doku_201910" ref="A1:H78" totalsRowCount="1" headerRowDxfId="97" dataDxfId="96" totalsRowDxfId="94" tableBorderDxfId="95">
-  <autoFilter ref="A1:H77">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="TAB_Doku_201910" displayName="TAB_Doku_201910" ref="A1:H82" totalsRowCount="1" headerRowDxfId="97" dataDxfId="96" totalsRowDxfId="94" tableBorderDxfId="95">
+  <autoFilter ref="A1:H81"/>
   <sortState ref="A2:H55">
     <sortCondition ref="C1:C55"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="93" totalsRowDxfId="39"/>
-    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="92" totalsRowDxfId="38">
+    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="93" totalsRowDxfId="7"/>
+    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="92" totalsRowDxfId="6">
       <totalsRowFormula>SUBTOTAL(5,TAB_Doku_201910[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="37">
+    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="5">
       <totalsRowFormula>SUBTOTAL(4,TAB_Doku_201910[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Stk." dataDxfId="90" totalsRowDxfId="36"/>
-    <tableColumn id="5" name="Zeitaufwand" dataDxfId="89" totalsRowDxfId="35">
+    <tableColumn id="4" name="Stk." dataDxfId="90" totalsRowDxfId="4"/>
+    <tableColumn id="5" name="Zeitaufwand" dataDxfId="89" totalsRowDxfId="3">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="34">
+    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="2">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,TAB_Doku_201910[[Kosten ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Abrechnung" dataDxfId="87" totalsRowDxfId="33"/>
-    <tableColumn id="8" name="Notiz" dataDxfId="86" totalsRowDxfId="32"/>
+    <tableColumn id="7" name="Abrechnung" dataDxfId="87" totalsRowDxfId="1"/>
+    <tableColumn id="8" name="Notiz" dataDxfId="86" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5469,31 +5499,31 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="81" totalsRowDxfId="7"/>
-    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="80" totalsRowDxfId="6">
+    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="79" totalsRowDxfId="78">
       <totalsRowFormula>SUBTOTAL(5,TAB_Doku_2019[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="79" totalsRowDxfId="5">
+    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="77" totalsRowDxfId="76">
       <totalsRowFormula>SUBTOTAL(4,TAB_Doku_2019[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Stk." dataDxfId="78" totalsRowDxfId="4"/>
-    <tableColumn id="5" name="Zeitaufwand" totalsRowFunction="custom" dataDxfId="77" totalsRowDxfId="3">
+    <tableColumn id="4" name="Stk." dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="5" name="Zeitaufwand" totalsRowFunction="custom" dataDxfId="73" totalsRowDxfId="72">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_2019[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</calculatedColumnFormula>
       <totalsRowFormula>ROUND(SUBTOTAL(9,TAB_Doku_2019[Zeitaufwand])/60,0) &amp;" h"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="76" totalsRowDxfId="2">
+    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="71" totalsRowDxfId="70">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_2019[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_2019[[#This Row],[Stk.]]</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,TAB_Doku_2019[[Kosten ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Abrechnung" dataDxfId="75" totalsRowDxfId="1"/>
-    <tableColumn id="8" name="Notiz" dataDxfId="74" totalsRowDxfId="0"/>
+    <tableColumn id="7" name="Abrechnung" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="8" name="Notiz" dataDxfId="67" totalsRowDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TAB_Dokumentation" displayName="TAB_Dokumentation" ref="A1:H199" totalsRowCount="1" headerRowDxfId="73" dataDxfId="72" totalsRowDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TAB_Dokumentation" displayName="TAB_Dokumentation" ref="A1:H199" totalsRowCount="1" headerRowDxfId="65" dataDxfId="64" totalsRowDxfId="63">
   <autoFilter ref="A1:H198">
     <filterColumn colId="0">
       <filters>
@@ -5505,44 +5535,44 @@
     <sortCondition descending="1" ref="G1:G198"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="70" totalsRowDxfId="69"/>
-    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="68" totalsRowDxfId="67">
+    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="59">
       <totalsRowFormula>SUBTOTAL(5,TAB_Dokumentation[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Datum" totalsRowFunction="custom" dataDxfId="66" totalsRowDxfId="65">
+    <tableColumn id="7" name="Datum" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="57">
       <totalsRowFormula>MAX(4,TAB_Dokumentation[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Stk." dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="4" name="Zeitaufwand" dataDxfId="62" totalsRowDxfId="61">
+    <tableColumn id="3" name="Stk." dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="4" name="Zeitaufwand" dataDxfId="54" totalsRowDxfId="53">
       <calculatedColumnFormula>INDEX(TAB_Leistungen[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Dokumentation[[#This Row],[Leistung]],TAB_Leistungen[Tätigkeit],0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Kosten " totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="59">
+    <tableColumn id="5" name="Kosten " totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="51">
       <calculatedColumnFormula>INDEX(TAB_Leistungen[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Dokumentation[[#This Row],[Leistung]],TAB_Leistungen[Tätigkeit],0),3)*TAB_Dokumentation[[#This Row],[Stk.]]</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,TAB_Dokumentation[[Kosten ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Abrechnung" totalsRowDxfId="58"/>
-    <tableColumn id="8" name="Notiz" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="6" name="Abrechnung" totalsRowDxfId="50"/>
+    <tableColumn id="8" name="Notiz" dataDxfId="49" totalsRowDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle1" displayName="Tabelle1" ref="A1:I40" totalsRowShown="0" headerRowDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle1" displayName="Tabelle1" ref="A1:I40" totalsRowShown="0" headerRowDxfId="47">
   <autoFilter ref="A1:I40"/>
   <sortState ref="A2:I35">
     <sortCondition descending="1" ref="D1:D35"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="Name" dataDxfId="54"/>
-    <tableColumn id="2" name="Zusatz" dataDxfId="53"/>
-    <tableColumn id="3" name="Adresse" dataDxfId="52"/>
-    <tableColumn id="4" name="PLZ" dataDxfId="51"/>
-    <tableColumn id="5" name="Ort" dataDxfId="50"/>
-    <tableColumn id="6" name="Spalte1" dataDxfId="49"/>
-    <tableColumn id="7" name="Telefon" dataDxfId="48"/>
-    <tableColumn id="8" name="Spalte2" dataDxfId="47"/>
-    <tableColumn id="9" name="Notiz" dataDxfId="46"/>
+    <tableColumn id="1" name="Name" dataDxfId="46"/>
+    <tableColumn id="2" name="Zusatz" dataDxfId="45"/>
+    <tableColumn id="3" name="Adresse" dataDxfId="44"/>
+    <tableColumn id="4" name="PLZ" dataDxfId="43"/>
+    <tableColumn id="5" name="Ort" dataDxfId="42"/>
+    <tableColumn id="6" name="Spalte1" dataDxfId="41"/>
+    <tableColumn id="7" name="Telefon" dataDxfId="40"/>
+    <tableColumn id="8" name="Spalte2" dataDxfId="39"/>
+    <tableColumn id="9" name="Notiz" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5553,9 +5583,9 @@
   <autoFilter ref="C4:F8"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Position"/>
-    <tableColumn id="2" name="Stk/Std" dataDxfId="45"/>
-    <tableColumn id="3" name="Stk/Std-Preis" dataDxfId="44"/>
-    <tableColumn id="4" name="Summe:" dataDxfId="43" dataCellStyle="Währung"/>
+    <tableColumn id="2" name="Stk/Std" dataDxfId="37"/>
+    <tableColumn id="3" name="Stk/Std-Preis" dataDxfId="36"/>
+    <tableColumn id="4" name="Summe:" dataDxfId="35" dataCellStyle="Währung"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5577,9 +5607,9 @@
   <autoFilter ref="H4:K7"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Position"/>
-    <tableColumn id="2" name="Stk/Std" dataDxfId="42"/>
-    <tableColumn id="3" name="Stk/Std-Preis" dataDxfId="41"/>
-    <tableColumn id="4" name="Summe:" dataDxfId="40" dataCellStyle="Währung"/>
+    <tableColumn id="2" name="Stk/Std" dataDxfId="34"/>
+    <tableColumn id="3" name="Stk/Std-Preis" dataDxfId="33"/>
+    <tableColumn id="4" name="Summe:" dataDxfId="32" dataCellStyle="Währung"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6822,13 +6852,13 @@
   <sheetPr published="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I335"/>
+  <dimension ref="A1:I339"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6870,42 +6900,44 @@
     </row>
     <row r="2" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="78" t="s">
-        <v>102</v>
+        <v>873</v>
       </c>
       <c r="B2" s="133" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C2" s="137">
-        <v>44244</v>
+        <v>44264</v>
       </c>
       <c r="D2" s="133">
-        <v>1</v>
+        <v>0.33333333333330001</v>
       </c>
       <c r="E2" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="F2" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>29.999999999997002</v>
       </c>
       <c r="G2" s="78" t="s">
         <v>498</v>
       </c>
-      <c r="H2" s="134"/>
+      <c r="H2" s="134" t="s">
+        <v>875</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="78" t="s">
-        <v>734</v>
+        <v>873</v>
       </c>
       <c r="B3" s="133" t="s">
-        <v>13</v>
+        <v>487</v>
       </c>
       <c r="C3" s="137">
-        <v>44244</v>
+        <v>44264</v>
       </c>
       <c r="D3" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -6913,109 +6945,109 @@
       </c>
       <c r="F3" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G3" s="78" t="s">
         <v>498</v>
       </c>
-      <c r="H3" s="134"/>
+      <c r="H3" s="134" t="s">
+        <v>874</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="78" t="s">
-        <v>866</v>
+        <v>873</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="C4" s="137">
-        <v>44242</v>
+        <v>44264</v>
       </c>
       <c r="D4" s="133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F4" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="G4" s="78" t="s">
         <v>498</v>
       </c>
       <c r="H4" s="134" t="s">
-        <v>868</v>
+        <v>832</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="78" t="s">
-        <v>866</v>
+        <v>873</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C5" s="137">
-        <v>44242</v>
+        <v>44259</v>
       </c>
       <c r="D5" s="133">
         <v>2</v>
       </c>
       <c r="E5" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F5" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G5" s="78" t="s">
         <v>498</v>
       </c>
       <c r="H5" s="134" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="78" t="s">
-        <v>866</v>
+        <v>102</v>
       </c>
       <c r="B6" s="133" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C6" s="137">
-        <v>44242</v>
+        <v>44244</v>
       </c>
       <c r="D6" s="133">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E6" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F6" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G6" s="78" t="s">
-        <v>498</v>
-      </c>
-      <c r="H6" s="134" t="s">
-        <v>870</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="H6" s="134"/>
     </row>
     <row r="7" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="78" t="s">
-        <v>866</v>
+        <v>734</v>
       </c>
       <c r="B7" s="133" t="s">
-        <v>487</v>
+        <v>13</v>
       </c>
       <c r="C7" s="137">
-        <v>44242</v>
+        <v>44244</v>
       </c>
       <c r="D7" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -7023,24 +7055,22 @@
       </c>
       <c r="F7" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G7" s="78" t="s">
-        <v>498</v>
-      </c>
-      <c r="H7" s="134" t="s">
-        <v>867</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="H7" s="134"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="78" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B8" s="133" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="137">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="D8" s="133">
         <v>1</v>
@@ -7054,7 +7084,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="78" t="s">
-        <v>498</v>
+        <v>661</v>
       </c>
       <c r="H8" s="134" t="s">
         <v>868</v>
@@ -7062,44 +7092,44 @@
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="B9" s="133" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C9" s="137">
-        <v>44224</v>
+        <v>44242</v>
       </c>
       <c r="D9" s="133">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E9" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F9" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>37.5</v>
+        <v>60</v>
       </c>
       <c r="G9" s="78" t="s">
-        <v>498</v>
+        <v>661</v>
       </c>
       <c r="H9" s="134" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
-        <v>862</v>
-      </c>
-      <c r="B10" s="132" t="s">
-        <v>1</v>
+        <v>866</v>
+      </c>
+      <c r="B10" s="133" t="s">
+        <v>2</v>
       </c>
       <c r="C10" s="137">
-        <v>44225</v>
+        <v>44242</v>
       </c>
       <c r="D10" s="133">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E10" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -7107,83 +7137,83 @@
       </c>
       <c r="F10" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="G10" s="78" t="s">
-        <v>498</v>
+        <v>661</v>
       </c>
       <c r="H10" s="134" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="78" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="B11" s="133" t="s">
-        <v>8</v>
+        <v>487</v>
       </c>
       <c r="C11" s="137">
-        <v>44232</v>
+        <v>44242</v>
       </c>
       <c r="D11" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="F11" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G11" s="78" t="s">
-        <v>498</v>
+        <v>661</v>
       </c>
       <c r="H11" s="134" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="78" t="s">
-        <v>845</v>
+        <v>869</v>
       </c>
       <c r="B12" s="133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="137">
-        <v>44244</v>
+        <v>44239</v>
       </c>
       <c r="D12" s="133">
         <v>1</v>
       </c>
       <c r="E12" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F12" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="G12" s="78" t="s">
-        <v>498</v>
+        <v>661</v>
       </c>
       <c r="H12" s="134" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="78" t="s">
-        <v>845</v>
+        <v>862</v>
       </c>
       <c r="B13" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="137">
-        <v>44218</v>
+        <v>44224</v>
       </c>
       <c r="D13" s="133">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E13" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -7191,69 +7221,69 @@
       </c>
       <c r="F13" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>37.5</v>
       </c>
       <c r="G13" s="78" t="s">
-        <v>498</v>
+        <v>661</v>
       </c>
       <c r="H13" s="134" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="78" t="s">
-        <v>845</v>
-      </c>
-      <c r="B14" s="133" t="s">
-        <v>8</v>
+        <v>862</v>
+      </c>
+      <c r="B14" s="132" t="s">
+        <v>1</v>
       </c>
       <c r="C14" s="137">
-        <v>44218</v>
+        <v>44225</v>
       </c>
       <c r="D14" s="133">
         <v>1</v>
       </c>
       <c r="E14" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="F14" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="G14" s="78" t="s">
-        <v>498</v>
+        <v>661</v>
       </c>
       <c r="H14" s="134" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78" t="s">
-        <v>830</v>
+        <v>862</v>
       </c>
       <c r="B15" s="133" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C15" s="137">
-        <v>44209</v>
+        <v>44232</v>
       </c>
       <c r="D15" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="F15" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="G15" s="78" t="s">
-        <v>498</v>
+        <v>661</v>
       </c>
       <c r="H15" s="134" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7264,10 +7294,10 @@
         <v>48</v>
       </c>
       <c r="C16" s="137">
-        <v>44208</v>
+        <v>44244</v>
       </c>
       <c r="D16" s="133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -7275,24 +7305,24 @@
       </c>
       <c r="F16" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
+        <v>7.5</v>
       </c>
       <c r="G16" s="78" t="s">
-        <v>498</v>
+        <v>661</v>
       </c>
       <c r="H16" s="134" t="s">
-        <v>847</v>
+        <v>861</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="78" t="s">
-        <v>830</v>
+        <v>845</v>
       </c>
       <c r="B17" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="137">
-        <v>44209</v>
+        <v>44218</v>
       </c>
       <c r="D17" s="133">
         <v>1</v>
@@ -7306,10 +7336,10 @@
         <v>7.5</v>
       </c>
       <c r="G17" s="78" t="s">
-        <v>498</v>
+        <v>661</v>
       </c>
       <c r="H17" s="134" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7317,55 +7347,55 @@
         <v>845</v>
       </c>
       <c r="B18" s="133" t="s">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="C18" s="137">
-        <v>44209</v>
+        <v>44218</v>
       </c>
       <c r="D18" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="F18" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="G18" s="78" t="s">
-        <v>498</v>
+        <v>661</v>
       </c>
       <c r="H18" s="134" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="78" t="s">
-        <v>845</v>
+        <v>830</v>
       </c>
       <c r="B19" s="133" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C19" s="137">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="D19" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F19" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G19" s="78" t="s">
-        <v>498</v>
+        <v>661</v>
       </c>
       <c r="H19" s="134" t="s">
-        <v>848</v>
+        <v>858</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7373,35 +7403,35 @@
         <v>845</v>
       </c>
       <c r="B20" s="133" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C20" s="137">
-        <v>44210</v>
+        <v>44208</v>
       </c>
       <c r="D20" s="133">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E20" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F20" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="G20" s="78" t="s">
-        <v>498</v>
+        <v>661</v>
       </c>
       <c r="H20" s="134" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="78" t="s">
-        <v>727</v>
+        <v>830</v>
       </c>
       <c r="B21" s="133" t="s">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="C21" s="137">
         <v>44209</v>
@@ -7411,87 +7441,87 @@
       </c>
       <c r="E21" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F21" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="G21" s="78" t="s">
-        <v>498</v>
+        <v>661</v>
       </c>
       <c r="H21" s="134" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="78" t="s">
-        <v>727</v>
+        <v>845</v>
       </c>
       <c r="B22" s="133" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="C22" s="137">
         <v>44209</v>
       </c>
       <c r="D22" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F22" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="G22" s="78" t="s">
-        <v>498</v>
+        <v>661</v>
       </c>
       <c r="H22" s="134" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="78" t="s">
-        <v>816</v>
+        <v>845</v>
       </c>
       <c r="B23" s="133" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C23" s="137">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="D23" s="133">
         <v>1</v>
       </c>
       <c r="E23" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F23" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>30</v>
       </c>
       <c r="G23" s="78" t="s">
-        <v>498</v>
+        <v>661</v>
       </c>
       <c r="H23" s="134" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78" t="s">
-        <v>102</v>
+        <v>845</v>
       </c>
       <c r="B24" s="133" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="137">
-        <v>44208</v>
+        <v>44210</v>
       </c>
       <c r="D24" s="133">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E24" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -7499,27 +7529,27 @@
       </c>
       <c r="F24" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="G24" s="78" t="s">
-        <v>498</v>
+        <v>661</v>
       </c>
       <c r="H24" s="134" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="78" t="s">
-        <v>816</v>
+        <v>727</v>
       </c>
       <c r="B25" s="133" t="s">
         <v>140</v>
       </c>
       <c r="C25" s="137">
-        <v>44201</v>
+        <v>44209</v>
       </c>
       <c r="D25" s="133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -7527,24 +7557,24 @@
       </c>
       <c r="F25" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="G25" s="78" t="s">
-        <v>498</v>
+        <v>661</v>
       </c>
       <c r="H25" s="134" t="s">
-        <v>840</v>
+        <v>850</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="78" t="s">
-        <v>830</v>
-      </c>
-      <c r="B26" s="132" t="s">
+        <v>727</v>
+      </c>
+      <c r="B26" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="137">
-        <v>44201</v>
+        <v>44209</v>
       </c>
       <c r="D26" s="133">
         <v>1</v>
@@ -7558,21 +7588,21 @@
         <v>7.5</v>
       </c>
       <c r="G26" s="78" t="s">
-        <v>498</v>
+        <v>661</v>
       </c>
       <c r="H26" s="134" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="78" t="s">
-        <v>841</v>
-      </c>
-      <c r="B27" s="132" t="s">
+        <v>816</v>
+      </c>
+      <c r="B27" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C27" s="137">
-        <v>44203</v>
+        <v>44209</v>
       </c>
       <c r="D27" s="133">
         <v>1</v>
@@ -7586,77 +7616,77 @@
         <v>7.5</v>
       </c>
       <c r="G27" s="78" t="s">
-        <v>498</v>
+        <v>661</v>
       </c>
       <c r="H27" s="134" t="s">
-        <v>844</v>
+        <v>853</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="78" t="s">
-        <v>780</v>
-      </c>
-      <c r="B28" s="132" t="s">
-        <v>1</v>
+        <v>102</v>
+      </c>
+      <c r="B28" s="133" t="s">
+        <v>22</v>
       </c>
       <c r="C28" s="137">
-        <v>44203</v>
+        <v>44208</v>
       </c>
       <c r="D28" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F28" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="G28" s="78" t="s">
-        <v>498</v>
+        <v>661</v>
       </c>
       <c r="H28" s="134" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="78" t="s">
         <v>816</v>
       </c>
-      <c r="B29" s="132" t="s">
-        <v>1</v>
+      <c r="B29" s="133" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="137">
-        <v>44203</v>
+        <v>44201</v>
       </c>
       <c r="D29" s="133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F29" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G29" s="78" t="s">
-        <v>498</v>
+        <v>661</v>
       </c>
       <c r="H29" s="134" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="78" t="s">
-        <v>781</v>
+        <v>830</v>
       </c>
       <c r="B30" s="132" t="s">
         <v>48</v>
       </c>
       <c r="C30" s="137">
-        <v>44203</v>
+        <v>44201</v>
       </c>
       <c r="D30" s="133">
         <v>1</v>
@@ -7670,15 +7700,15 @@
         <v>7.5</v>
       </c>
       <c r="G30" s="78" t="s">
-        <v>498</v>
+        <v>661</v>
       </c>
       <c r="H30" s="134" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="78" t="s">
-        <v>767</v>
+        <v>841</v>
       </c>
       <c r="B31" s="132" t="s">
         <v>48</v>
@@ -7698,87 +7728,127 @@
         <v>7.5</v>
       </c>
       <c r="G31" s="78" t="s">
-        <v>498</v>
+        <v>661</v>
       </c>
       <c r="H31" s="134" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="78" t="s">
+        <v>780</v>
+      </c>
+      <c r="B32" s="132" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D32" s="133">
+        <v>1</v>
+      </c>
+      <c r="E32" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>10</v>
+      </c>
+      <c r="F32" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>5</v>
+      </c>
+      <c r="G32" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H32" s="134" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="78" t="s">
+        <v>816</v>
+      </c>
+      <c r="B33" s="132" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D33" s="133">
+        <v>2</v>
+      </c>
+      <c r="E33" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>10</v>
+      </c>
+      <c r="F33" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>10</v>
+      </c>
+      <c r="G33" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H33" s="134" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="78" t="s">
+        <v>781</v>
+      </c>
+      <c r="B34" s="132" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D34" s="133">
+        <v>1</v>
+      </c>
+      <c r="E34" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F34" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G34" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H34" s="134" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="78" t="s">
+    <row r="35" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="78" t="s">
+        <v>767</v>
+      </c>
+      <c r="B35" s="132" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D35" s="133">
+        <v>1</v>
+      </c>
+      <c r="E35" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F35" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G35" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H35" s="134" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="78" t="s">
         <v>727</v>
-      </c>
-      <c r="B32" s="132"/>
-      <c r="C32" s="137"/>
-      <c r="D32" s="133"/>
-      <c r="E32" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F32" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G32" s="78"/>
-      <c r="H32" s="134"/>
-    </row>
-    <row r="33" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="78" t="s">
-        <v>813</v>
-      </c>
-      <c r="B33" s="133"/>
-      <c r="C33" s="137"/>
-      <c r="D33" s="133"/>
-      <c r="E33" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F33" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G33" s="78"/>
-      <c r="H33" s="134"/>
-    </row>
-    <row r="34" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="78" t="s">
-        <v>819</v>
-      </c>
-      <c r="B34" s="132"/>
-      <c r="C34" s="137"/>
-      <c r="D34" s="133"/>
-      <c r="E34" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F34" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G34" s="78"/>
-      <c r="H34" s="134"/>
-    </row>
-    <row r="35" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="78" t="s">
-        <v>810</v>
-      </c>
-      <c r="B35" s="132"/>
-      <c r="C35" s="137"/>
-      <c r="D35" s="133"/>
-      <c r="E35" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F35" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G35" s="78"/>
-      <c r="H35" s="134"/>
-    </row>
-    <row r="36" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="78" t="s">
-        <v>765</v>
       </c>
       <c r="B36" s="132"/>
       <c r="C36" s="137"/>
@@ -7794,11 +7864,11 @@
       <c r="G36" s="78"/>
       <c r="H36" s="134"/>
     </row>
-    <row r="37" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="78" t="s">
-        <v>795</v>
-      </c>
-      <c r="B37" s="132"/>
+        <v>813</v>
+      </c>
+      <c r="B37" s="133"/>
       <c r="C37" s="137"/>
       <c r="D37" s="133"/>
       <c r="E37" s="133" t="e">
@@ -7812,9 +7882,9 @@
       <c r="G37" s="78"/>
       <c r="H37" s="134"/>
     </row>
-    <row r="38" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="78" t="s">
-        <v>102</v>
+        <v>819</v>
       </c>
       <c r="B38" s="132"/>
       <c r="C38" s="137"/>
@@ -7830,9 +7900,9 @@
       <c r="G38" s="78"/>
       <c r="H38" s="134"/>
     </row>
-    <row r="39" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="78" t="s">
-        <v>780</v>
+        <v>810</v>
       </c>
       <c r="B39" s="132"/>
       <c r="C39" s="137"/>
@@ -7848,9 +7918,9 @@
       <c r="G39" s="78"/>
       <c r="H39" s="134"/>
     </row>
-    <row r="40" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="78" t="s">
-        <v>734</v>
+        <v>765</v>
       </c>
       <c r="B40" s="132"/>
       <c r="C40" s="137"/>
@@ -7866,9 +7936,9 @@
       <c r="G40" s="78"/>
       <c r="H40" s="134"/>
     </row>
-    <row r="41" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="78" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="B41" s="132"/>
       <c r="C41" s="137"/>
@@ -7884,9 +7954,9 @@
       <c r="G41" s="78"/>
       <c r="H41" s="134"/>
     </row>
-    <row r="42" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="78" t="s">
-        <v>760</v>
+        <v>102</v>
       </c>
       <c r="B42" s="132"/>
       <c r="C42" s="137"/>
@@ -7902,9 +7972,9 @@
       <c r="G42" s="78"/>
       <c r="H42" s="134"/>
     </row>
-    <row r="43" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="78" t="s">
-        <v>738</v>
+        <v>780</v>
       </c>
       <c r="B43" s="132"/>
       <c r="C43" s="137"/>
@@ -7920,9 +7990,9 @@
       <c r="G43" s="78"/>
       <c r="H43" s="134"/>
     </row>
-    <row r="44" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="78" t="s">
-        <v>756</v>
+        <v>734</v>
       </c>
       <c r="B44" s="132"/>
       <c r="C44" s="137"/>
@@ -7938,9 +8008,9 @@
       <c r="G44" s="78"/>
       <c r="H44" s="134"/>
     </row>
-    <row r="45" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="78" t="s">
-        <v>728</v>
+        <v>789</v>
       </c>
       <c r="B45" s="132"/>
       <c r="C45" s="137"/>
@@ -7956,9 +8026,9 @@
       <c r="G45" s="78"/>
       <c r="H45" s="134"/>
     </row>
-    <row r="46" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="78" t="s">
-        <v>725</v>
+        <v>760</v>
       </c>
       <c r="B46" s="132"/>
       <c r="C46" s="137"/>
@@ -7974,9 +8044,9 @@
       <c r="G46" s="78"/>
       <c r="H46" s="134"/>
     </row>
-    <row r="47" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="78" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="B47" s="132"/>
       <c r="C47" s="137"/>
@@ -7992,9 +8062,9 @@
       <c r="G47" s="78"/>
       <c r="H47" s="134"/>
     </row>
-    <row r="48" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="78" t="s">
-        <v>672</v>
+        <v>756</v>
       </c>
       <c r="B48" s="132"/>
       <c r="C48" s="137"/>
@@ -8010,9 +8080,9 @@
       <c r="G48" s="78"/>
       <c r="H48" s="134"/>
     </row>
-    <row r="49" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="78" t="s">
-        <v>631</v>
+        <v>728</v>
       </c>
       <c r="B49" s="132"/>
       <c r="C49" s="137"/>
@@ -8025,12 +8095,12 @@
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>#N/A</v>
       </c>
-      <c r="G49" s="130"/>
+      <c r="G49" s="78"/>
       <c r="H49" s="134"/>
     </row>
-    <row r="50" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="78" t="s">
-        <v>509</v>
+        <v>725</v>
       </c>
       <c r="B50" s="132"/>
       <c r="C50" s="137"/>
@@ -8046,9 +8116,9 @@
       <c r="G50" s="78"/>
       <c r="H50" s="134"/>
     </row>
-    <row r="51" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="78" t="s">
-        <v>643</v>
+        <v>726</v>
       </c>
       <c r="B51" s="132"/>
       <c r="C51" s="137"/>
@@ -8064,9 +8134,9 @@
       <c r="G51" s="78"/>
       <c r="H51" s="134"/>
     </row>
-    <row r="52" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="78" t="s">
-        <v>649</v>
+        <v>672</v>
       </c>
       <c r="B52" s="132"/>
       <c r="C52" s="137"/>
@@ -8082,9 +8152,9 @@
       <c r="G52" s="78"/>
       <c r="H52" s="134"/>
     </row>
-    <row r="53" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="78" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="B53" s="132"/>
       <c r="C53" s="137"/>
@@ -8097,15 +8167,15 @@
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>#N/A</v>
       </c>
-      <c r="G53" s="78"/>
+      <c r="G53" s="130"/>
       <c r="H53" s="134"/>
     </row>
-    <row r="54" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="147" t="s">
-        <v>609</v>
+    <row r="54" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="78" t="s">
+        <v>509</v>
       </c>
       <c r="B54" s="132"/>
-      <c r="C54" s="149"/>
+      <c r="C54" s="137"/>
       <c r="D54" s="133"/>
       <c r="E54" s="133" t="e">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8115,16 +8185,16 @@
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>#N/A</v>
       </c>
-      <c r="G54" s="130"/>
-      <c r="H54" s="138"/>
-    </row>
-    <row r="55" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G54" s="78"/>
+      <c r="H54" s="134"/>
+    </row>
+    <row r="55" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="78" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B55" s="132"/>
-      <c r="C55" s="149"/>
-      <c r="D55" s="138"/>
+      <c r="C55" s="137"/>
+      <c r="D55" s="133"/>
       <c r="E55" s="133" t="e">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>#N/A</v>
@@ -8133,16 +8203,16 @@
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>#N/A</v>
       </c>
-      <c r="G55" s="130"/>
-      <c r="H55" s="148"/>
-    </row>
-    <row r="56" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="147" t="s">
-        <v>607</v>
+      <c r="G55" s="78"/>
+      <c r="H55" s="134"/>
+    </row>
+    <row r="56" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="78" t="s">
+        <v>649</v>
       </c>
       <c r="B56" s="132"/>
-      <c r="C56" s="149"/>
-      <c r="D56" s="138"/>
+      <c r="C56" s="137"/>
+      <c r="D56" s="133"/>
       <c r="E56" s="133" t="e">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>#N/A</v>
@@ -8151,16 +8221,16 @@
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>#N/A</v>
       </c>
-      <c r="G56" s="130"/>
-      <c r="H56" s="148"/>
-    </row>
-    <row r="57" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="147" t="s">
-        <v>597</v>
+      <c r="G56" s="78"/>
+      <c r="H56" s="134"/>
+    </row>
+    <row r="57" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="78" t="s">
+        <v>642</v>
       </c>
       <c r="B57" s="132"/>
-      <c r="C57" s="149"/>
-      <c r="D57" s="138"/>
+      <c r="C57" s="137"/>
+      <c r="D57" s="133"/>
       <c r="E57" s="133" t="e">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>#N/A</v>
@@ -8169,16 +8239,16 @@
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>#N/A</v>
       </c>
-      <c r="G57" s="130"/>
-      <c r="H57" s="148"/>
-    </row>
-    <row r="58" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G57" s="78"/>
+      <c r="H57" s="134"/>
+    </row>
+    <row r="58" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="147" t="s">
-        <v>500</v>
+        <v>609</v>
       </c>
       <c r="B58" s="132"/>
       <c r="C58" s="149"/>
-      <c r="D58" s="138"/>
+      <c r="D58" s="133"/>
       <c r="E58" s="133" t="e">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>#N/A</v>
@@ -8188,11 +8258,11 @@
         <v>#N/A</v>
       </c>
       <c r="G58" s="130"/>
-      <c r="H58" s="148"/>
-    </row>
-    <row r="59" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="130" t="s">
-        <v>278</v>
+      <c r="H58" s="138"/>
+    </row>
+    <row r="59" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="78" t="s">
+        <v>640</v>
       </c>
       <c r="B59" s="132"/>
       <c r="C59" s="149"/>
@@ -8208,9 +8278,9 @@
       <c r="G59" s="130"/>
       <c r="H59" s="148"/>
     </row>
-    <row r="60" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="147" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="B60" s="132"/>
       <c r="C60" s="149"/>
@@ -8226,9 +8296,9 @@
       <c r="G60" s="130"/>
       <c r="H60" s="148"/>
     </row>
-    <row r="61" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="147" t="s">
-        <v>574</v>
+        <v>597</v>
       </c>
       <c r="B61" s="132"/>
       <c r="C61" s="149"/>
@@ -8244,9 +8314,9 @@
       <c r="G61" s="130"/>
       <c r="H61" s="148"/>
     </row>
-    <row r="62" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="147" t="s">
-        <v>178</v>
+        <v>500</v>
       </c>
       <c r="B62" s="132"/>
       <c r="C62" s="149"/>
@@ -8262,9 +8332,9 @@
       <c r="G62" s="130"/>
       <c r="H62" s="148"/>
     </row>
-    <row r="63" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="147" t="s">
-        <v>576</v>
+    <row r="63" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="130" t="s">
+        <v>278</v>
       </c>
       <c r="B63" s="132"/>
       <c r="C63" s="149"/>
@@ -8280,9 +8350,9 @@
       <c r="G63" s="130"/>
       <c r="H63" s="148"/>
     </row>
-    <row r="64" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="147" t="s">
-        <v>541</v>
+        <v>593</v>
       </c>
       <c r="B64" s="132"/>
       <c r="C64" s="149"/>
@@ -8298,9 +8368,9 @@
       <c r="G64" s="130"/>
       <c r="H64" s="148"/>
     </row>
-    <row r="65" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="147" t="s">
-        <v>239</v>
+        <v>574</v>
       </c>
       <c r="B65" s="132"/>
       <c r="C65" s="149"/>
@@ -8316,9 +8386,9 @@
       <c r="G65" s="130"/>
       <c r="H65" s="148"/>
     </row>
-    <row r="66" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="130" t="s">
-        <v>492</v>
+    <row r="66" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="147" t="s">
+        <v>178</v>
       </c>
       <c r="B66" s="132"/>
       <c r="C66" s="149"/>
@@ -8334,9 +8404,9 @@
       <c r="G66" s="130"/>
       <c r="H66" s="148"/>
     </row>
-    <row r="67" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="130" t="s">
-        <v>482</v>
+    <row r="67" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="147" t="s">
+        <v>576</v>
       </c>
       <c r="B67" s="132"/>
       <c r="C67" s="149"/>
@@ -8352,9 +8422,9 @@
       <c r="G67" s="130"/>
       <c r="H67" s="148"/>
     </row>
-    <row r="68" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="130" t="s">
-        <v>267</v>
+    <row r="68" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="147" t="s">
+        <v>541</v>
       </c>
       <c r="B68" s="132"/>
       <c r="C68" s="149"/>
@@ -8370,9 +8440,9 @@
       <c r="G68" s="130"/>
       <c r="H68" s="148"/>
     </row>
-    <row r="69" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="130" t="s">
-        <v>268</v>
+    <row r="69" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="147" t="s">
+        <v>239</v>
       </c>
       <c r="B69" s="132"/>
       <c r="C69" s="149"/>
@@ -8388,9 +8458,9 @@
       <c r="G69" s="130"/>
       <c r="H69" s="148"/>
     </row>
-    <row r="70" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="130" t="s">
-        <v>41</v>
+        <v>492</v>
       </c>
       <c r="B70" s="132"/>
       <c r="C70" s="149"/>
@@ -8406,9 +8476,9 @@
       <c r="G70" s="130"/>
       <c r="H70" s="148"/>
     </row>
-    <row r="71" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="130" t="s">
-        <v>273</v>
+        <v>482</v>
       </c>
       <c r="B71" s="132"/>
       <c r="C71" s="149"/>
@@ -8424,9 +8494,9 @@
       <c r="G71" s="130"/>
       <c r="H71" s="148"/>
     </row>
-    <row r="72" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="130" t="s">
-        <v>129</v>
+        <v>267</v>
       </c>
       <c r="B72" s="132"/>
       <c r="C72" s="149"/>
@@ -8442,9 +8512,9 @@
       <c r="G72" s="130"/>
       <c r="H72" s="148"/>
     </row>
-    <row r="73" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="130" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B73" s="132"/>
       <c r="C73" s="149"/>
@@ -8460,9 +8530,9 @@
       <c r="G73" s="130"/>
       <c r="H73" s="148"/>
     </row>
-    <row r="74" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="130" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B74" s="132"/>
       <c r="C74" s="149"/>
@@ -8478,9 +8548,9 @@
       <c r="G74" s="130"/>
       <c r="H74" s="148"/>
     </row>
-    <row r="75" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="130" t="s">
-        <v>36</v>
+        <v>273</v>
       </c>
       <c r="B75" s="132"/>
       <c r="C75" s="149"/>
@@ -8496,9 +8566,9 @@
       <c r="G75" s="130"/>
       <c r="H75" s="148"/>
     </row>
-    <row r="76" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="130" t="s">
-        <v>256</v>
+        <v>129</v>
       </c>
       <c r="B76" s="132"/>
       <c r="C76" s="149"/>
@@ -8514,9 +8584,9 @@
       <c r="G76" s="130"/>
       <c r="H76" s="148"/>
     </row>
-    <row r="77" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="130" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="B77" s="132"/>
       <c r="C77" s="149"/>
@@ -8533,78 +8603,138 @@
       <c r="H77" s="148"/>
     </row>
     <row r="78" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="150" t="s">
+      <c r="A78" s="130" t="s">
+        <v>21</v>
+      </c>
+      <c r="B78" s="132"/>
+      <c r="C78" s="149"/>
+      <c r="D78" s="138"/>
+      <c r="E78" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F78" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G78" s="130"/>
+      <c r="H78" s="148"/>
+    </row>
+    <row r="79" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="130" t="s">
+        <v>36</v>
+      </c>
+      <c r="B79" s="132"/>
+      <c r="C79" s="149"/>
+      <c r="D79" s="138"/>
+      <c r="E79" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F79" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G79" s="130"/>
+      <c r="H79" s="148"/>
+    </row>
+    <row r="80" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="130" t="s">
+        <v>256</v>
+      </c>
+      <c r="B80" s="132"/>
+      <c r="C80" s="149"/>
+      <c r="D80" s="138"/>
+      <c r="E80" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F80" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G80" s="130"/>
+      <c r="H80" s="148"/>
+    </row>
+    <row r="81" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="130" t="s">
+        <v>259</v>
+      </c>
+      <c r="B81" s="132"/>
+      <c r="C81" s="149"/>
+      <c r="D81" s="138"/>
+      <c r="E81" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F81" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G81" s="130"/>
+      <c r="H81" s="148"/>
+    </row>
+    <row r="82" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="156" t="s">
         <v>491</v>
       </c>
-      <c r="B78" s="151">
+      <c r="B82" s="157">
         <f>SUBTOTAL(5,TAB_Doku_201910[Datum])</f>
         <v>44201</v>
       </c>
-      <c r="C78" s="152">
+      <c r="C82" s="158">
         <f>SUBTOTAL(4,TAB_Doku_201910[Datum])</f>
-        <v>44244</v>
-      </c>
-      <c r="D78" s="153"/>
-      <c r="E78" s="153"/>
-      <c r="F78" s="154">
+        <v>44264</v>
+      </c>
+      <c r="D82" s="159"/>
+      <c r="E82" s="159"/>
+      <c r="F82" s="160" t="e">
         <f>SUBTOTAL(9,TAB_Doku_201910[[Kosten ]])</f>
-        <v>717.5</v>
-      </c>
-      <c r="G78" s="150"/>
-      <c r="H78" s="155"/>
-    </row>
-    <row r="79" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C79"/>
-    </row>
-    <row r="80" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C80"/>
-    </row>
-    <row r="81" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C81"/>
-    </row>
-    <row r="82" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C82"/>
-    </row>
-    <row r="83" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>#N/A</v>
+      </c>
+      <c r="G82" s="156"/>
+      <c r="H82" s="161"/>
+    </row>
+    <row r="83" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83"/>
     </row>
-    <row r="84" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84"/>
     </row>
-    <row r="85" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85"/>
     </row>
-    <row r="86" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86"/>
     </row>
-    <row r="87" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87"/>
     </row>
-    <row r="88" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88"/>
     </row>
-    <row r="89" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89"/>
     </row>
-    <row r="90" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90"/>
     </row>
-    <row r="91" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91"/>
     </row>
-    <row r="92" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92"/>
     </row>
-    <row r="93" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93"/>
     </row>
-    <row r="94" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94"/>
     </row>
-    <row r="95" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95"/>
     </row>
-    <row r="96" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96"/>
     </row>
     <row r="97" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -8613,16 +8743,16 @@
     <row r="98" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C98"/>
     </row>
-    <row r="99" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C99"/>
     </row>
-    <row r="100" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C100"/>
     </row>
-    <row r="101" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C101"/>
     </row>
-    <row r="102" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C102"/>
     </row>
     <row r="103" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -8660,9 +8790,6 @@
     </row>
     <row r="114" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C114"/>
-      <c r="I114" t="s">
-        <v>546</v>
-      </c>
     </row>
     <row r="115" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C115"/>
@@ -8675,6 +8802,9 @@
     </row>
     <row r="118" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C118"/>
+      <c r="I118" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="119" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C119"/>
@@ -8787,15 +8917,8 @@
     <row r="155" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C155"/>
     </row>
-    <row r="156" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A156"/>
-      <c r="B156"/>
+    <row r="156" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C156"/>
-      <c r="D156"/>
-      <c r="E156"/>
-      <c r="F156"/>
-      <c r="G156"/>
-      <c r="H156"/>
     </row>
     <row r="157" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C157"/>
@@ -8806,18 +8929,18 @@
     <row r="159" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C159"/>
     </row>
-    <row r="160" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A160"/>
+      <c r="B160"/>
       <c r="C160"/>
-    </row>
-    <row r="161" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A161"/>
-      <c r="B161"/>
+      <c r="D160"/>
+      <c r="E160"/>
+      <c r="F160"/>
+      <c r="G160"/>
+      <c r="H160"/>
+    </row>
+    <row r="161" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C161"/>
-      <c r="D161"/>
-      <c r="E161"/>
-      <c r="F161"/>
-      <c r="G161"/>
-      <c r="H161"/>
     </row>
     <row r="162" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C162"/>
@@ -8828,8 +8951,15 @@
     <row r="164" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C164"/>
     </row>
-    <row r="165" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A165"/>
+      <c r="B165"/>
       <c r="C165"/>
+      <c r="D165"/>
+      <c r="E165"/>
+      <c r="F165"/>
+      <c r="G165"/>
+      <c r="H165"/>
     </row>
     <row r="166" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C166"/>
@@ -8855,7 +8985,7 @@
     <row r="173" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C173"/>
     </row>
-    <row r="174" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C174"/>
     </row>
     <row r="175" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -8867,7 +8997,7 @@
     <row r="177" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C177"/>
     </row>
-    <row r="178" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:3" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C178"/>
     </row>
     <row r="179" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -8897,7 +9027,7 @@
     <row r="187" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C187"/>
     </row>
-    <row r="188" spans="3:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C188"/>
     </row>
     <row r="189" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -8909,7 +9039,7 @@
     <row r="191" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C191"/>
     </row>
-    <row r="192" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="192" spans="3:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C192"/>
     </row>
     <row r="193" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -9335,11 +9465,23 @@
     <row r="333" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C333"/>
     </row>
-    <row r="334" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C334"/>
     </row>
-    <row r="335" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C335"/>
+    </row>
+    <row r="336" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C336"/>
+    </row>
+    <row r="337" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C337"/>
+    </row>
+    <row r="338" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C338"/>
+    </row>
+    <row r="339" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C339"/>
     </row>
   </sheetData>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.47244094488188981" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9358,7 +9500,7 @@
           <x14:formula1>
             <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B77</xm:sqref>
+          <xm:sqref>B2:B81</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9373,8 +9515,8 @@
   </sheetPr>
   <dimension ref="A1:I319"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F21" sqref="F21"/>

--- a/trailtech/Leistungen-KC-Trailtech.xlsx
+++ b/trailtech/Leistungen-KC-Trailtech.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="906">
   <si>
     <t>Tätigkeit</t>
   </si>
@@ -2755,6 +2755,93 @@
   </si>
   <si>
     <t>Erst Kontakt mit Kunden und Absprache mit Uli</t>
+  </si>
+  <si>
+    <t>VS-Hitzendorf</t>
+  </si>
+  <si>
+    <t>skip</t>
+  </si>
+  <si>
+    <t>Flachau</t>
+  </si>
+  <si>
+    <t>Protokolle für Kick-Off und Begehung</t>
+  </si>
+  <si>
+    <t>Termin Akkordierung und Absprache Inhalte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erst Kontakt Andreas Fischbacher </t>
+  </si>
+  <si>
+    <t>Rossau</t>
+  </si>
+  <si>
+    <t>David Messner Absprachen wegen Rossau</t>
+  </si>
+  <si>
+    <t>VS-Deutschlandsberg</t>
+  </si>
+  <si>
+    <t>Lannach</t>
+  </si>
+  <si>
+    <t>BKK Übungstrail</t>
+  </si>
+  <si>
+    <t>Absprachen Markus Pekoll</t>
+  </si>
+  <si>
+    <t>Absprachen, Datenaustausch Gemeinde (Hr. Kahr) und Markus Pekoll</t>
+  </si>
+  <si>
+    <t>Akquise, Erstgespräche</t>
+  </si>
+  <si>
+    <t>VS-Bad Schönau</t>
+  </si>
+  <si>
+    <t>Absprache</t>
+  </si>
+  <si>
+    <t>Follow Up</t>
+  </si>
+  <si>
+    <t>Lageplan und Technische Beschreibung</t>
+  </si>
+  <si>
+    <t>Telefonat Absprache Umweltbüro wegen Hangwasser</t>
+  </si>
+  <si>
+    <t>!! OFFEN !! Vorab Infos Pumptrack Konzeptphase</t>
+  </si>
+  <si>
+    <t>!! OFFEN !! Mod PT Angebot</t>
+  </si>
+  <si>
+    <t>!! OFFEN !! Begehungsprotokoll schreiben</t>
+  </si>
+  <si>
+    <t>TVB Pillerseetal</t>
+  </si>
+  <si>
+    <t>offen</t>
+  </si>
+  <si>
+    <t>Konzept Angebot</t>
+  </si>
+  <si>
+    <t>Konzept übermitteln</t>
+  </si>
+  <si>
+    <t>Machbarkeitsstudie Angebot (nach Aufwand)</t>
+  </si>
+  <si>
+    <t>Follow up</t>
+  </si>
+  <si>
+    <t>Abstimmung Rahmenbedingungen Planung</t>
   </si>
 </sst>
 </file>
@@ -3143,7 +3230,7 @@
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3541,16 +3628,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3586,6 +3663,22 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4104,6 +4197,299 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4639,36 +5025,25 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top/>
-        <bottom/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -4694,34 +5069,25 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -4747,29 +5113,29 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4777,8 +5143,12 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -4801,260 +5171,6 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -5128,28 +5244,6 @@
         <bottom/>
       </border>
       <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -5448,6 +5542,9 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="TAB_Leistungen_30" displayName="TAB_Leistungen_30" ref="F1:I35" totalsRowShown="0" headerRowDxfId="100">
   <autoFilter ref="F1:I35"/>
+  <sortState ref="F2:I35">
+    <sortCondition ref="F2"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="Tätigkeit"/>
     <tableColumn id="2" name="Zeitbedarf Min (pauschal)"/>
@@ -5461,10 +5558,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="TAB_Doku_201910" displayName="TAB_Doku_201910" ref="A1:H82" totalsRowCount="1" headerRowDxfId="97" dataDxfId="96" totalsRowDxfId="94" tableBorderDxfId="95">
-  <autoFilter ref="A1:H81"/>
-  <sortState ref="A2:H55">
-    <sortCondition ref="C1:C55"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="TAB_Doku_201910" displayName="TAB_Doku_201910" ref="A1:H65" totalsRowCount="1" headerRowDxfId="97" dataDxfId="96" totalsRowDxfId="94" tableBorderDxfId="95">
+  <autoFilter ref="A1:H64"/>
+  <sortState ref="A2:H64">
+    <sortCondition descending="1" ref="C1:C64"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="93" totalsRowDxfId="7"/>
@@ -5478,52 +5575,46 @@
     <tableColumn id="5" name="Zeitaufwand" dataDxfId="89" totalsRowDxfId="3">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="2">
+    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="2">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,TAB_Doku_201910[[Kosten ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Abrechnung" dataDxfId="87" totalsRowDxfId="1"/>
-    <tableColumn id="8" name="Notiz" dataDxfId="86" totalsRowDxfId="0"/>
+    <tableColumn id="7" name="Abrechnung" dataDxfId="88" totalsRowDxfId="1"/>
+    <tableColumn id="8" name="Notiz" dataDxfId="87" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TAB_Doku_2019" displayName="TAB_Doku_2019" ref="A1:H314" totalsRowCount="1" headerRowDxfId="85" dataDxfId="84" totalsRowDxfId="82" tableBorderDxfId="83">
-  <autoFilter ref="A1:H313">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Dezember (Rechnung fehlt noch)"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TAB_Doku_2019" displayName="TAB_Doku_2019" ref="A1:H314" totalsRowCount="1" headerRowDxfId="86" dataDxfId="85" totalsRowDxfId="83" tableBorderDxfId="84">
+  <autoFilter ref="A1:H313"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="81" totalsRowDxfId="80"/>
-    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="79" totalsRowDxfId="78">
+    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="82" totalsRowDxfId="40"/>
+    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="81" totalsRowDxfId="39">
       <totalsRowFormula>SUBTOTAL(5,TAB_Doku_2019[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="77" totalsRowDxfId="76">
+    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="80" totalsRowDxfId="38">
       <totalsRowFormula>SUBTOTAL(4,TAB_Doku_2019[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Stk." dataDxfId="75" totalsRowDxfId="74"/>
-    <tableColumn id="5" name="Zeitaufwand" totalsRowFunction="custom" dataDxfId="73" totalsRowDxfId="72">
+    <tableColumn id="4" name="Stk." dataDxfId="79" totalsRowDxfId="37"/>
+    <tableColumn id="5" name="Zeitaufwand" totalsRowFunction="custom" dataDxfId="78" totalsRowDxfId="36">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_2019[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</calculatedColumnFormula>
       <totalsRowFormula>ROUND(SUBTOTAL(9,TAB_Doku_2019[Zeitaufwand])/60,0) &amp;" h"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="71" totalsRowDxfId="70">
+    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="77" totalsRowDxfId="35">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_2019[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_2019[[#This Row],[Stk.]]</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,TAB_Doku_2019[[Kosten ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Abrechnung" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="8" name="Notiz" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="7" name="Abrechnung" dataDxfId="76" totalsRowDxfId="34"/>
+    <tableColumn id="8" name="Notiz" dataDxfId="75" totalsRowDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TAB_Dokumentation" displayName="TAB_Dokumentation" ref="A1:H199" totalsRowCount="1" headerRowDxfId="65" dataDxfId="64" totalsRowDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TAB_Dokumentation" displayName="TAB_Dokumentation" ref="A1:H199" totalsRowCount="1" headerRowDxfId="74" dataDxfId="73" totalsRowDxfId="72">
   <autoFilter ref="A1:H198">
     <filterColumn colId="0">
       <filters>
@@ -5535,44 +5626,44 @@
     <sortCondition descending="1" ref="G1:G198"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="59">
+    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="69" totalsRowDxfId="68">
       <totalsRowFormula>SUBTOTAL(5,TAB_Dokumentation[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Datum" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="57">
+    <tableColumn id="7" name="Datum" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="66">
       <totalsRowFormula>MAX(4,TAB_Dokumentation[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Stk." dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="4" name="Zeitaufwand" dataDxfId="54" totalsRowDxfId="53">
+    <tableColumn id="3" name="Stk." dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="4" name="Zeitaufwand" dataDxfId="63" totalsRowDxfId="62">
       <calculatedColumnFormula>INDEX(TAB_Leistungen[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Dokumentation[[#This Row],[Leistung]],TAB_Leistungen[Tätigkeit],0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Kosten " totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="51">
+    <tableColumn id="5" name="Kosten " totalsRowFunction="custom" dataDxfId="61" totalsRowDxfId="60">
       <calculatedColumnFormula>INDEX(TAB_Leistungen[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Dokumentation[[#This Row],[Leistung]],TAB_Leistungen[Tätigkeit],0),3)*TAB_Dokumentation[[#This Row],[Stk.]]</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,TAB_Dokumentation[[Kosten ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Abrechnung" totalsRowDxfId="50"/>
-    <tableColumn id="8" name="Notiz" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="6" name="Abrechnung" totalsRowDxfId="59"/>
+    <tableColumn id="8" name="Notiz" dataDxfId="58" totalsRowDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle1" displayName="Tabelle1" ref="A1:I40" totalsRowShown="0" headerRowDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle1" displayName="Tabelle1" ref="A1:I40" totalsRowShown="0" headerRowDxfId="56">
   <autoFilter ref="A1:I40"/>
   <sortState ref="A2:I35">
     <sortCondition descending="1" ref="D1:D35"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="Name" dataDxfId="46"/>
-    <tableColumn id="2" name="Zusatz" dataDxfId="45"/>
-    <tableColumn id="3" name="Adresse" dataDxfId="44"/>
-    <tableColumn id="4" name="PLZ" dataDxfId="43"/>
-    <tableColumn id="5" name="Ort" dataDxfId="42"/>
-    <tableColumn id="6" name="Spalte1" dataDxfId="41"/>
-    <tableColumn id="7" name="Telefon" dataDxfId="40"/>
-    <tableColumn id="8" name="Spalte2" dataDxfId="39"/>
-    <tableColumn id="9" name="Notiz" dataDxfId="38"/>
+    <tableColumn id="1" name="Name" dataDxfId="55"/>
+    <tableColumn id="2" name="Zusatz" dataDxfId="54"/>
+    <tableColumn id="3" name="Adresse" dataDxfId="53"/>
+    <tableColumn id="4" name="PLZ" dataDxfId="52"/>
+    <tableColumn id="5" name="Ort" dataDxfId="51"/>
+    <tableColumn id="6" name="Spalte1" dataDxfId="50"/>
+    <tableColumn id="7" name="Telefon" dataDxfId="49"/>
+    <tableColumn id="8" name="Spalte2" dataDxfId="48"/>
+    <tableColumn id="9" name="Notiz" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5583,9 +5674,9 @@
   <autoFilter ref="C4:F8"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Position"/>
-    <tableColumn id="2" name="Stk/Std" dataDxfId="37"/>
-    <tableColumn id="3" name="Stk/Std-Preis" dataDxfId="36"/>
-    <tableColumn id="4" name="Summe:" dataDxfId="35" dataCellStyle="Währung"/>
+    <tableColumn id="2" name="Stk/Std" dataDxfId="46"/>
+    <tableColumn id="3" name="Stk/Std-Preis" dataDxfId="45"/>
+    <tableColumn id="4" name="Summe:" dataDxfId="44" dataCellStyle="Währung"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5607,9 +5698,9 @@
   <autoFilter ref="H4:K7"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Position"/>
-    <tableColumn id="2" name="Stk/Std" dataDxfId="34"/>
-    <tableColumn id="3" name="Stk/Std-Preis" dataDxfId="33"/>
-    <tableColumn id="4" name="Summe:" dataDxfId="32" dataCellStyle="Währung"/>
+    <tableColumn id="2" name="Stk/Std" dataDxfId="43"/>
+    <tableColumn id="3" name="Stk/Std-Preis" dataDxfId="42"/>
+    <tableColumn id="4" name="Summe:" dataDxfId="41" dataCellStyle="Währung"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5903,10 +5994,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5959,17 +6050,17 @@
         <v>0.5</v>
       </c>
       <c r="D2" s="82"/>
-      <c r="F2" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="G2" s="3">
-        <v>15</v>
+      <c r="F2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
       </c>
       <c r="H2" s="40">
         <f>I2*G2/60</f>
-        <v>7.5</v>
-      </c>
-      <c r="I2" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="I2" s="19">
         <v>30</v>
       </c>
     </row>
@@ -5987,17 +6078,17 @@
       <c r="D3" s="82">
         <v>25</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="G3" s="3">
-        <v>15</v>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
       </c>
       <c r="H3" s="40">
         <f>I3*G3/60</f>
-        <v>7.5</v>
-      </c>
-      <c r="I3" s="18">
+        <v>5</v>
+      </c>
+      <c r="I3" s="19">
         <v>30</v>
       </c>
     </row>
@@ -6015,17 +6106,17 @@
       <c r="D4" s="82">
         <v>25</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="3">
-        <v>60</v>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
       </c>
       <c r="H4" s="40">
         <f>I4*G4/60</f>
-        <v>30</v>
-      </c>
-      <c r="I4" s="18">
+        <v>7.5</v>
+      </c>
+      <c r="I4" s="19">
         <v>30</v>
       </c>
     </row>
@@ -6043,17 +6134,17 @@
       <c r="D5" s="85">
         <v>25</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5" s="40">
+        <f>I5*G5/60</f>
         <v>15</v>
       </c>
-      <c r="H5" s="40">
-        <f t="shared" ref="H5:H15" si="1">I5*G5/60</f>
-        <v>7.5</v>
-      </c>
-      <c r="I5" s="18">
+      <c r="I5" s="19">
         <v>30</v>
       </c>
     </row>
@@ -6072,14 +6163,14 @@
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H6" s="40">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
+        <f>I6*G6/60</f>
+        <v>2.5</v>
       </c>
       <c r="I6" s="19">
         <v>30</v>
@@ -6100,14 +6191,14 @@
         <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G7">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H7" s="40">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f>I7*G7/60</f>
+        <v>5</v>
       </c>
       <c r="I7" s="19">
         <v>30</v>
@@ -6128,14 +6219,14 @@
         <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8" s="40">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>180</v>
+      </c>
+      <c r="H8" s="1">
+        <f>I8*G8/60</f>
+        <v>90</v>
       </c>
       <c r="I8" s="19">
         <v>30</v>
@@ -6156,14 +6247,14 @@
         <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>10</v>
-      </c>
-      <c r="H9" s="40">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>300</v>
+      </c>
+      <c r="H9" s="1">
+        <f>I9*G9/60</f>
+        <v>150</v>
       </c>
       <c r="I9" s="19">
         <v>30</v>
@@ -6184,14 +6275,14 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="G10">
-        <v>5</v>
-      </c>
-      <c r="H10" s="40">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>240</v>
+      </c>
+      <c r="H10" s="1">
+        <f>I10*G10/60</f>
+        <v>120</v>
       </c>
       <c r="I10" s="19">
         <v>30</v>
@@ -6207,14 +6298,14 @@
       </c>
       <c r="D11" s="85"/>
       <c r="F11" t="s">
-        <v>1</v>
+        <v>487</v>
       </c>
       <c r="G11">
-        <v>10</v>
-      </c>
-      <c r="H11" s="40">
+        <v>60</v>
+      </c>
+      <c r="H11" s="1">
         <f>I11*G11/60</f>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I11" s="19">
         <v>30</v>
@@ -6234,13 +6325,19 @@
       <c r="D12" s="85">
         <v>25</v>
       </c>
-      <c r="F12" t="s">
-        <v>207</v>
+      <c r="F12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="3">
+        <v>60</v>
       </c>
       <c r="H12" s="40">
-        <v>5</v>
-      </c>
-      <c r="I12" s="19"/>
+        <f>I12*G12/60</f>
+        <v>30</v>
+      </c>
+      <c r="I12" s="18">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="84" t="s">
@@ -6257,13 +6354,12 @@
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>633</v>
       </c>
       <c r="G13">
         <v>60</v>
       </c>
       <c r="H13" s="40">
-        <f>I13*G13/60</f>
         <v>30</v>
       </c>
       <c r="I13" s="19">
@@ -6285,14 +6381,14 @@
         <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G14">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="H14" s="40">
         <f>I14*G14/60</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I14" s="19">
         <v>30</v>
@@ -6308,14 +6404,14 @@
       </c>
       <c r="D15" s="85"/>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="G15">
+        <v>120</v>
+      </c>
+      <c r="H15" s="40">
+        <f>I15*G15/60</f>
         <v>60</v>
-      </c>
-      <c r="H15" s="40">
-        <f t="shared" si="1"/>
-        <v>30</v>
       </c>
       <c r="I15" s="19">
         <v>30</v>
@@ -6336,16 +6432,17 @@
         <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>633</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>60</v>
-      </c>
-      <c r="H16" s="40">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="H16" s="1">
+        <f>I16*G16/60</f>
+        <v>2.5</v>
       </c>
       <c r="I16" s="19">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -6356,20 +6453,25 @@
         <v>60</v>
       </c>
       <c r="C17" s="86">
-        <f t="shared" ref="C17:C29" si="2">D17*B17/60</f>
+        <f t="shared" ref="C17:C29" si="1">D17*B17/60</f>
         <v>25</v>
       </c>
       <c r="D17" s="85">
         <v>25</v>
       </c>
-      <c r="F17" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30">
-        <v>0.3</v>
-      </c>
-      <c r="I17" s="31"/>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17">
+        <v>60</v>
+      </c>
+      <c r="H17" s="40">
+        <f>I17*G17/60</f>
+        <v>30</v>
+      </c>
+      <c r="I17" s="19">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="84" t="s">
@@ -6385,27 +6487,26 @@
       <c r="D18" s="85">
         <v>10</v>
       </c>
-      <c r="F18" s="29" t="s">
-        <v>798</v>
-      </c>
-      <c r="G18" s="29">
-        <f>3*8*60</f>
-        <v>1440</v>
-      </c>
-      <c r="H18" s="30">
+      <c r="F18" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="G18" s="3">
+        <v>15</v>
+      </c>
+      <c r="H18" s="40">
         <f>I18*G18/60</f>
-        <v>720</v>
-      </c>
-      <c r="I18" s="31">
+        <v>7.5</v>
+      </c>
+      <c r="I18" s="18">
         <v>30</v>
       </c>
       <c r="K18">
         <f>TAB_Leistungen_30[[#This Row],[Zeitbedarf Min (pauschal)]]/60</f>
-        <v>24</v>
+        <v>0.25</v>
       </c>
       <c r="L18">
         <f>K18/8</f>
-        <v>3</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -6422,17 +6523,16 @@
       <c r="D19" s="85">
         <v>25</v>
       </c>
-      <c r="F19" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" s="29">
+      <c r="F19" t="s">
+        <v>523</v>
+      </c>
+      <c r="G19">
         <v>60</v>
       </c>
-      <c r="H19" s="30">
-        <f t="shared" ref="H19:H34" si="3">I19*G19/60</f>
+      <c r="H19" s="1">
         <v>30</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="19">
         <v>30</v>
       </c>
     </row>
@@ -6444,25 +6544,20 @@
         <v>240</v>
       </c>
       <c r="C20" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="D20" s="85">
         <v>25</v>
       </c>
-      <c r="F20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <v>10</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" si="3"/>
-        <v>2.5</v>
-      </c>
-      <c r="I20" s="19">
-        <v>15</v>
-      </c>
+      <c r="F20" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="I20" s="31"/>
     </row>
     <row r="21" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="84" t="s">
@@ -6472,24 +6567,24 @@
         <v>300</v>
       </c>
       <c r="C21" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="D21" s="85">
         <v>25</v>
       </c>
-      <c r="F21" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="88">
-        <f>60*8</f>
-        <v>480</v>
-      </c>
-      <c r="H21" s="89">
-        <f t="shared" si="3"/>
-        <v>240</v>
-      </c>
-      <c r="I21" s="90">
+      <c r="F21" s="29" t="s">
+        <v>798</v>
+      </c>
+      <c r="G21" s="29">
+        <f>3*8*60</f>
+        <v>1440</v>
+      </c>
+      <c r="H21" s="30">
+        <f>I21*G21/60</f>
+        <v>720</v>
+      </c>
+      <c r="I21" s="31">
         <v>30</v>
       </c>
     </row>
@@ -6501,24 +6596,23 @@
         <v>120</v>
       </c>
       <c r="C22" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="D22" s="85">
         <v>25</v>
       </c>
-      <c r="F22" s="88" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="88">
-        <f>60*16</f>
-        <v>960</v>
-      </c>
-      <c r="H22" s="89">
-        <f t="shared" si="3"/>
-        <v>480</v>
-      </c>
-      <c r="I22" s="90">
+      <c r="F22" s="29" t="s">
+        <v>903</v>
+      </c>
+      <c r="G22" s="29">
+        <v>60</v>
+      </c>
+      <c r="H22" s="30">
+        <f>I22*G22/60</f>
+        <v>30</v>
+      </c>
+      <c r="I22" s="31">
         <v>30</v>
       </c>
     </row>
@@ -6530,29 +6624,29 @@
         <v>150</v>
       </c>
       <c r="C23" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
       <c r="D23" s="85">
         <v>25</v>
       </c>
       <c r="F23" s="88" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G23" s="88">
-        <f>24*60</f>
-        <v>1440</v>
+        <f>60*8</f>
+        <v>480</v>
       </c>
       <c r="H23" s="89">
-        <f t="shared" si="3"/>
-        <v>720</v>
+        <f>I23*G23/60</f>
+        <v>240</v>
       </c>
       <c r="I23" s="90">
         <v>30</v>
       </c>
       <c r="K23">
         <f>TAB_Leistungen_30[[#This Row],[Zeitbedarf Min (pauschal)]]/60</f>
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -6563,22 +6657,22 @@
         <v>180</v>
       </c>
       <c r="C24" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="D24" s="85">
         <v>25</v>
       </c>
       <c r="F24" s="88" t="s">
-        <v>524</v>
+        <v>16</v>
       </c>
       <c r="G24" s="88">
-        <f>16*60</f>
-        <v>960</v>
+        <f>24*60</f>
+        <v>1440</v>
       </c>
       <c r="H24" s="89">
-        <f t="shared" si="3"/>
-        <v>480</v>
+        <f>I24*G24/60</f>
+        <v>720</v>
       </c>
       <c r="I24" s="90">
         <v>30</v>
@@ -6592,22 +6686,22 @@
         <v>180</v>
       </c>
       <c r="C25" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="D25" s="85">
         <v>25</v>
       </c>
       <c r="F25" s="88" t="s">
-        <v>525</v>
+        <v>15</v>
       </c>
       <c r="G25" s="88">
-        <f>24*60</f>
-        <v>1440</v>
+        <f>60*16</f>
+        <v>960</v>
       </c>
       <c r="H25" s="89">
         <f>I25*G25/60</f>
-        <v>720</v>
+        <v>480</v>
       </c>
       <c r="I25" s="90">
         <v>30</v>
@@ -6621,22 +6715,22 @@
         <v>240</v>
       </c>
       <c r="C26" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="D26" s="85">
         <v>25</v>
       </c>
       <c r="F26" s="88" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G26" s="88">
-        <f>32*60</f>
-        <v>1920</v>
+        <f>16*60</f>
+        <v>960</v>
       </c>
       <c r="H26" s="89">
-        <f t="shared" si="3"/>
-        <v>960</v>
+        <f>I26*G26/60</f>
+        <v>480</v>
       </c>
       <c r="I26" s="90">
         <v>30</v>
@@ -6650,23 +6744,24 @@
         <v>300</v>
       </c>
       <c r="C27" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="D27" s="85">
         <v>25</v>
       </c>
-      <c r="F27" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27">
-        <v>120</v>
-      </c>
-      <c r="H27" s="1">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="I27" s="19">
+      <c r="F27" s="88" t="s">
+        <v>526</v>
+      </c>
+      <c r="G27" s="88">
+        <f>32*60</f>
+        <v>1920</v>
+      </c>
+      <c r="H27" s="89">
+        <f>I27*G27/60</f>
+        <v>960</v>
+      </c>
+      <c r="I27" s="90">
         <v>30</v>
       </c>
     </row>
@@ -6678,23 +6773,24 @@
         <v>60</v>
       </c>
       <c r="C28" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="D28" s="85">
         <v>25</v>
       </c>
-      <c r="F28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28">
-        <v>150</v>
-      </c>
-      <c r="H28" s="1">
-        <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-      <c r="I28" s="19">
+      <c r="F28" s="88" t="s">
+        <v>525</v>
+      </c>
+      <c r="G28" s="88">
+        <f>24*60</f>
+        <v>1440</v>
+      </c>
+      <c r="H28" s="89">
+        <f>I28*G28/60</f>
+        <v>720</v>
+      </c>
+      <c r="I28" s="90">
         <v>30</v>
       </c>
     </row>
@@ -6706,21 +6802,21 @@
         <v>60</v>
       </c>
       <c r="C29" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="D29" s="85">
         <v>25</v>
       </c>
       <c r="F29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G29">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="3"/>
-        <v>90</v>
+        <f>I29*G29/60</f>
+        <v>60</v>
       </c>
       <c r="I29" s="19">
         <v>30</v>
@@ -6728,13 +6824,13 @@
     </row>
     <row r="30" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G30">
         <v>180</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="3"/>
+        <f>I30*G30/60</f>
         <v>90</v>
       </c>
       <c r="I30" s="19">
@@ -6743,31 +6839,31 @@
     </row>
     <row r="31" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F31" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G31">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="3"/>
-        <v>120</v>
+        <f>I31*G31/60</f>
+        <v>75</v>
       </c>
       <c r="I31" s="19">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32">
-        <v>300</v>
-      </c>
-      <c r="H32" s="1">
-        <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-      <c r="I32" s="19">
+      <c r="F32" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G32" s="3">
+        <v>15</v>
+      </c>
+      <c r="H32" s="40">
+        <f>I32*G32/60</f>
+        <v>7.5</v>
+      </c>
+      <c r="I32" s="18">
         <v>30</v>
       </c>
     </row>
@@ -6779,7 +6875,7 @@
         <v>60</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="3"/>
+        <f>I33*G33/60</f>
         <v>30</v>
       </c>
       <c r="I33" s="19">
@@ -6787,53 +6883,48 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F34" t="s">
-        <v>487</v>
-      </c>
-      <c r="G34">
-        <v>60</v>
-      </c>
-      <c r="H34" s="1">
-        <f t="shared" si="3"/>
+      <c r="F34" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="3">
+        <v>15</v>
+      </c>
+      <c r="H34" s="40">
+        <f>I34*G34/60</f>
+        <v>7.5</v>
+      </c>
+      <c r="I34" s="18">
         <v>30</v>
       </c>
-      <c r="I34" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F35" t="s">
-        <v>523</v>
-      </c>
-      <c r="G35">
-        <v>60</v>
-      </c>
-      <c r="H35" s="1">
-        <v>30</v>
-      </c>
-      <c r="I35" s="19">
-        <v>30</v>
+        <v>207</v>
+      </c>
+      <c r="H35" s="40">
+        <v>5</v>
+      </c>
+      <c r="I35" s="19"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="25"/>
+      <c r="B36" s="26" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
-      <c r="B37" s="26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="105" t="s">
+        <v>490</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="105" t="s">
-        <v>490</v>
+        <v>105</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="105" t="s">
-        <v>105</v>
-      </c>
-      <c r="B39" s="27" t="s">
         <v>578</v>
       </c>
     </row>
@@ -6852,13 +6943,13 @@
   <sheetPr published="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I339"/>
+  <dimension ref="A1:I322"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6899,155 +6990,155 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
-        <v>873</v>
-      </c>
-      <c r="B2" s="133" t="s">
+      <c r="A2" s="159" t="s">
+        <v>891</v>
+      </c>
+      <c r="B2" s="160" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="161">
+        <v>44302</v>
+      </c>
+      <c r="D2" s="160">
+        <v>1</v>
+      </c>
+      <c r="E2" s="160">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>30</v>
+      </c>
+      <c r="F2" s="160">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>15</v>
+      </c>
+      <c r="G2" s="159" t="s">
+        <v>498</v>
+      </c>
+      <c r="H2" s="162" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="159" t="s">
+        <v>885</v>
+      </c>
+      <c r="B3" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="137">
-        <v>44264</v>
-      </c>
-      <c r="D2" s="133">
-        <v>0.33333333333330001</v>
-      </c>
-      <c r="E2" s="133">
+      <c r="C3" s="161">
+        <v>44302</v>
+      </c>
+      <c r="D3" s="160">
+        <v>1</v>
+      </c>
+      <c r="E3" s="160">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>180</v>
       </c>
-      <c r="F2" s="133">
+      <c r="F3" s="160">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>29.999999999997002</v>
-      </c>
-      <c r="G2" s="78" t="s">
-        <v>498</v>
-      </c>
-      <c r="H2" s="134" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
-        <v>873</v>
-      </c>
-      <c r="B3" s="133" t="s">
-        <v>487</v>
-      </c>
-      <c r="C3" s="137">
-        <v>44264</v>
-      </c>
-      <c r="D3" s="133">
+        <v>90</v>
+      </c>
+      <c r="G3" s="159" t="s">
+        <v>900</v>
+      </c>
+      <c r="H3" s="162" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="159" t="s">
+        <v>879</v>
+      </c>
+      <c r="B4" s="160" t="s">
+        <v>633</v>
+      </c>
+      <c r="C4" s="161">
+        <v>44302</v>
+      </c>
+      <c r="D4" s="160">
         <v>2</v>
       </c>
-      <c r="E3" s="133">
+      <c r="E4" s="160">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>60</v>
       </c>
-      <c r="F3" s="133">
+      <c r="F4" s="160">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>60</v>
       </c>
-      <c r="G3" s="78" t="s">
-        <v>498</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
-        <v>873</v>
-      </c>
-      <c r="B4" s="133" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="137">
-        <v>44264</v>
-      </c>
-      <c r="D4" s="133">
-        <v>3</v>
-      </c>
-      <c r="E4" s="133">
+      <c r="G4" s="159" t="s">
+        <v>900</v>
+      </c>
+      <c r="H4" s="162" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="78" t="s">
+        <v>887</v>
+      </c>
+      <c r="B5" s="133" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="137">
+        <v>44301</v>
+      </c>
+      <c r="D5" s="133">
+        <v>4</v>
+      </c>
+      <c r="E5" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>5</v>
-      </c>
-      <c r="F4" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
-      </c>
-      <c r="G4" s="78" t="s">
-        <v>498</v>
-      </c>
-      <c r="H4" s="134" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="78" t="s">
-        <v>873</v>
-      </c>
-      <c r="B5" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="137">
-        <v>44259</v>
-      </c>
-      <c r="D5" s="133">
-        <v>2</v>
-      </c>
-      <c r="E5" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
       </c>
       <c r="F5" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>10</v>
       </c>
       <c r="G5" s="78" t="s">
-        <v>498</v>
-      </c>
-      <c r="H5" s="134" t="s">
-        <v>876</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="H5" s="134"/>
     </row>
     <row r="6" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="78" t="s">
-        <v>102</v>
+        <v>887</v>
       </c>
       <c r="B6" s="133" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C6" s="137">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="D6" s="133">
         <v>1</v>
       </c>
       <c r="E6" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F6" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G6" s="78" t="s">
-        <v>661</v>
-      </c>
-      <c r="H6" s="134"/>
+        <v>494</v>
+      </c>
+      <c r="H6" s="134" t="s">
+        <v>895</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="78" t="s">
-        <v>734</v>
+        <v>887</v>
       </c>
       <c r="B7" s="133" t="s">
-        <v>13</v>
+        <v>523</v>
       </c>
       <c r="C7" s="137">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="D7" s="133">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E7" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -7055,106 +7146,106 @@
       </c>
       <c r="F7" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="G7" s="78" t="s">
-        <v>661</v>
-      </c>
-      <c r="H7" s="134"/>
+        <v>494</v>
+      </c>
+      <c r="H7" s="134" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="78" t="s">
-        <v>866</v>
+        <v>891</v>
       </c>
       <c r="B8" s="133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="137">
-        <v>44242</v>
+        <v>44301</v>
       </c>
       <c r="D8" s="133">
         <v>1</v>
       </c>
       <c r="E8" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F8" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="G8" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H8" s="134" t="s">
-        <v>868</v>
+        <v>892</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
-        <v>866</v>
+        <v>883</v>
       </c>
       <c r="B9" s="133" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C9" s="137">
-        <v>44242</v>
+        <v>44301</v>
       </c>
       <c r="D9" s="133">
         <v>2</v>
       </c>
       <c r="E9" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F9" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G9" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H9" s="134" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
-        <v>866</v>
+        <v>102</v>
       </c>
       <c r="B10" s="133" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="137">
+        <v>44301</v>
+      </c>
+      <c r="D10" s="133">
         <v>2</v>
-      </c>
-      <c r="C10" s="137">
-        <v>44242</v>
-      </c>
-      <c r="D10" s="133">
-        <v>18</v>
       </c>
       <c r="E10" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F10" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="G10" s="78" t="s">
-        <v>661</v>
-      </c>
-      <c r="H10" s="134" t="s">
-        <v>870</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="H10" s="134"/>
     </row>
     <row r="11" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="78" t="s">
-        <v>866</v>
+        <v>102</v>
       </c>
       <c r="B11" s="133" t="s">
-        <v>487</v>
+        <v>13</v>
       </c>
       <c r="C11" s="137">
-        <v>44242</v>
+        <v>44301</v>
       </c>
       <c r="D11" s="133">
         <v>2</v>
@@ -7168,77 +7259,73 @@
         <v>60</v>
       </c>
       <c r="G11" s="78" t="s">
-        <v>661</v>
-      </c>
-      <c r="H11" s="134" t="s">
-        <v>867</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="H11" s="134"/>
     </row>
     <row r="12" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="78" t="s">
-        <v>869</v>
+        <v>734</v>
       </c>
       <c r="B12" s="133" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C12" s="137">
-        <v>44239</v>
+        <v>44301</v>
       </c>
       <c r="D12" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F12" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G12" s="78" t="s">
-        <v>661</v>
-      </c>
-      <c r="H12" s="134" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+      <c r="H12" s="134"/>
+    </row>
+    <row r="13" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="78" t="s">
-        <v>862</v>
+        <v>883</v>
       </c>
       <c r="B13" s="133" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C13" s="137">
-        <v>44224</v>
+        <v>44301</v>
       </c>
       <c r="D13" s="133">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E13" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F13" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>37.5</v>
+        <v>5</v>
       </c>
       <c r="G13" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H13" s="134" t="s">
-        <v>865</v>
+        <v>905</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="78" t="s">
-        <v>862</v>
-      </c>
-      <c r="B14" s="132" t="s">
+        <v>891</v>
+      </c>
+      <c r="B14" s="133" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="137">
-        <v>44225</v>
+        <v>44300</v>
       </c>
       <c r="D14" s="133">
         <v>1</v>
@@ -7252,192 +7339,190 @@
         <v>5</v>
       </c>
       <c r="G14" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H14" s="134" t="s">
-        <v>864</v>
+        <v>890</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78" t="s">
-        <v>862</v>
+        <v>877</v>
       </c>
       <c r="B15" s="133" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="C15" s="137">
-        <v>44232</v>
+        <v>44300</v>
       </c>
       <c r="D15" s="133">
         <v>1</v>
       </c>
       <c r="E15" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="F15" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="G15" s="78" t="s">
-        <v>661</v>
-      </c>
-      <c r="H15" s="134" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+      <c r="H15" s="134"/>
+    </row>
+    <row r="16" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78" t="s">
-        <v>845</v>
+        <v>899</v>
       </c>
       <c r="B16" s="133" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C16" s="137">
-        <v>44244</v>
+        <v>44294</v>
       </c>
       <c r="D16" s="133">
         <v>1</v>
       </c>
       <c r="E16" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F16" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="G16" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H16" s="134" t="s">
-        <v>861</v>
+        <v>893</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="78" t="s">
-        <v>845</v>
+        <v>899</v>
       </c>
       <c r="B17" s="133" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C17" s="137">
-        <v>44218</v>
+        <v>44294</v>
       </c>
       <c r="D17" s="133">
         <v>1</v>
       </c>
       <c r="E17" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F17" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="G17" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H17" s="134" t="s">
-        <v>860</v>
+        <v>890</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="78" t="s">
-        <v>845</v>
+        <v>509</v>
       </c>
       <c r="B18" s="133" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C18" s="137">
-        <v>44218</v>
+        <v>44294</v>
       </c>
       <c r="D18" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="F18" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="G18" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H18" s="134" t="s">
-        <v>859</v>
+        <v>893</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="78" t="s">
-        <v>830</v>
+        <v>879</v>
       </c>
       <c r="B19" s="133" t="s">
-        <v>48</v>
+        <v>487</v>
       </c>
       <c r="C19" s="137">
-        <v>44209</v>
+        <v>44294</v>
       </c>
       <c r="D19" s="133">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E19" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F19" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="G19" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H19" s="134" t="s">
-        <v>858</v>
+        <v>871</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="78" t="s">
-        <v>845</v>
+        <v>879</v>
       </c>
       <c r="B20" s="133" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="C20" s="137">
-        <v>44208</v>
+        <v>44294</v>
       </c>
       <c r="D20" s="133">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E20" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F20" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
+        <v>80</v>
       </c>
       <c r="G20" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H20" s="134" t="s">
-        <v>847</v>
+        <v>870</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="78" t="s">
-        <v>830</v>
+        <v>886</v>
       </c>
       <c r="B21" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="137">
-        <v>44209</v>
+        <v>44288</v>
       </c>
       <c r="D21" s="133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -7445,83 +7530,83 @@
       </c>
       <c r="F21" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>22.5</v>
       </c>
       <c r="G21" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H21" s="134" t="s">
-        <v>855</v>
+        <v>889</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="78" t="s">
-        <v>845</v>
+        <v>886</v>
       </c>
       <c r="B22" s="133" t="s">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="C22" s="137">
-        <v>44209</v>
+        <v>44288</v>
       </c>
       <c r="D22" s="133">
         <v>2</v>
       </c>
       <c r="E22" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F22" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G22" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H22" s="134" t="s">
-        <v>846</v>
+        <v>888</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="78" t="s">
-        <v>845</v>
+        <v>885</v>
       </c>
       <c r="B23" s="133" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C23" s="137">
-        <v>44210</v>
+        <v>44288</v>
       </c>
       <c r="D23" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F23" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G23" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H23" s="134" t="s">
-        <v>848</v>
+        <v>890</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78" t="s">
-        <v>845</v>
+        <v>879</v>
       </c>
       <c r="B24" s="133" t="s">
-        <v>22</v>
+        <v>633</v>
       </c>
       <c r="C24" s="137">
-        <v>44210</v>
+        <v>44288</v>
       </c>
       <c r="D24" s="133">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E24" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -7529,55 +7614,55 @@
       </c>
       <c r="F24" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G24" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H24" s="134" t="s">
-        <v>849</v>
+        <v>880</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="78" t="s">
-        <v>727</v>
+        <v>883</v>
       </c>
       <c r="B25" s="133" t="s">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="C25" s="137">
-        <v>44209</v>
+        <v>44288</v>
       </c>
       <c r="D25" s="133">
         <v>1</v>
       </c>
       <c r="E25" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F25" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="G25" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H25" s="134" t="s">
-        <v>850</v>
+        <v>905</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="78" t="s">
-        <v>727</v>
+        <v>879</v>
       </c>
       <c r="B26" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="137">
-        <v>44209</v>
+        <v>44284</v>
       </c>
       <c r="D26" s="133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -7585,52 +7670,52 @@
       </c>
       <c r="F26" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>22.5</v>
       </c>
       <c r="G26" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H26" s="134" t="s">
-        <v>851</v>
+        <v>881</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="78" t="s">
-        <v>816</v>
+        <v>879</v>
       </c>
       <c r="B27" s="133" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C27" s="137">
-        <v>44209</v>
+        <v>44275</v>
       </c>
       <c r="D27" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F27" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="G27" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H27" s="134" t="s">
-        <v>853</v>
+        <v>882</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="78" t="s">
-        <v>102</v>
+        <v>830</v>
       </c>
       <c r="B28" s="133" t="s">
-        <v>22</v>
+        <v>903</v>
       </c>
       <c r="C28" s="137">
-        <v>44208</v>
+        <v>44270</v>
       </c>
       <c r="D28" s="133">
         <v>2</v>
@@ -7644,108 +7729,108 @@
         <v>60</v>
       </c>
       <c r="G28" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H28" s="134" t="s">
-        <v>854</v>
+        <v>901</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="78" t="s">
-        <v>816</v>
+        <v>873</v>
       </c>
       <c r="B29" s="133" t="s">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="C29" s="137">
-        <v>44201</v>
+        <v>44264</v>
       </c>
       <c r="D29" s="133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="F29" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>90</v>
       </c>
       <c r="G29" s="78" t="s">
-        <v>661</v>
+        <v>878</v>
       </c>
       <c r="H29" s="134" t="s">
-        <v>840</v>
+        <v>875</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="78" t="s">
-        <v>830</v>
-      </c>
-      <c r="B30" s="132" t="s">
-        <v>48</v>
+        <v>873</v>
+      </c>
+      <c r="B30" s="133" t="s">
+        <v>487</v>
       </c>
       <c r="C30" s="137">
-        <v>44201</v>
+        <v>44264</v>
       </c>
       <c r="D30" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F30" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>60</v>
       </c>
       <c r="G30" s="78" t="s">
-        <v>661</v>
+        <v>878</v>
       </c>
       <c r="H30" s="134" t="s">
-        <v>843</v>
+        <v>874</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="78" t="s">
-        <v>841</v>
-      </c>
-      <c r="B31" s="132" t="s">
-        <v>48</v>
+        <v>873</v>
+      </c>
+      <c r="B31" s="133" t="s">
+        <v>140</v>
       </c>
       <c r="C31" s="137">
-        <v>44203</v>
+        <v>44264</v>
       </c>
       <c r="D31" s="133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F31" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>7.5</v>
       </c>
       <c r="G31" s="78" t="s">
-        <v>661</v>
+        <v>878</v>
       </c>
       <c r="H31" s="134" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="78" t="s">
-        <v>780</v>
-      </c>
-      <c r="B32" s="132" t="s">
+        <v>873</v>
+      </c>
+      <c r="B32" s="133" t="s">
         <v>1</v>
       </c>
       <c r="C32" s="137">
-        <v>44203</v>
+        <v>44259</v>
       </c>
       <c r="D32" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -7753,52 +7838,52 @@
       </c>
       <c r="F32" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G32" s="78" t="s">
-        <v>661</v>
+        <v>878</v>
       </c>
       <c r="H32" s="134" t="s">
-        <v>852</v>
+        <v>876</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="78" t="s">
-        <v>816</v>
-      </c>
-      <c r="B33" s="132" t="s">
-        <v>1</v>
+        <v>830</v>
+      </c>
+      <c r="B33" s="133" t="s">
+        <v>140</v>
       </c>
       <c r="C33" s="137">
-        <v>44203</v>
+        <v>44256</v>
       </c>
       <c r="D33" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F33" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="G33" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H33" s="134" t="s">
-        <v>839</v>
+        <v>904</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="78" t="s">
-        <v>781</v>
-      </c>
-      <c r="B34" s="132" t="s">
+        <v>830</v>
+      </c>
+      <c r="B34" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C34" s="137">
-        <v>44203</v>
+        <v>44250</v>
       </c>
       <c r="D34" s="133">
         <v>1</v>
@@ -7812,1076 +7897,1114 @@
         <v>7.5</v>
       </c>
       <c r="G34" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H34" s="134" t="s">
-        <v>842</v>
+        <v>902</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="78" t="s">
-        <v>767</v>
-      </c>
-      <c r="B35" s="132" t="s">
-        <v>48</v>
+        <v>102</v>
+      </c>
+      <c r="B35" s="133" t="s">
+        <v>13</v>
       </c>
       <c r="C35" s="137">
-        <v>44203</v>
+        <v>44244</v>
       </c>
       <c r="D35" s="133">
         <v>1</v>
       </c>
       <c r="E35" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F35" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>30</v>
       </c>
       <c r="G35" s="78" t="s">
         <v>661</v>
       </c>
-      <c r="H35" s="134" t="s">
-        <v>842</v>
-      </c>
+      <c r="H35" s="134"/>
     </row>
     <row r="36" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="78" t="s">
-        <v>727</v>
-      </c>
-      <c r="B36" s="132"/>
-      <c r="C36" s="137"/>
-      <c r="D36" s="133"/>
-      <c r="E36" s="133" t="e">
+        <v>734</v>
+      </c>
+      <c r="B36" s="133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="137">
+        <v>44244</v>
+      </c>
+      <c r="D36" s="133">
+        <v>1</v>
+      </c>
+      <c r="E36" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F36" s="133" t="e">
+        <v>60</v>
+      </c>
+      <c r="F36" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G36" s="78"/>
+        <v>30</v>
+      </c>
+      <c r="G36" s="78" t="s">
+        <v>661</v>
+      </c>
       <c r="H36" s="134"/>
     </row>
     <row r="37" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="78" t="s">
-        <v>813</v>
-      </c>
-      <c r="B37" s="133"/>
-      <c r="C37" s="137"/>
-      <c r="D37" s="133"/>
-      <c r="E37" s="133" t="e">
+        <v>845</v>
+      </c>
+      <c r="B37" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="137">
+        <v>44244</v>
+      </c>
+      <c r="D37" s="133">
+        <v>1</v>
+      </c>
+      <c r="E37" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F37" s="133" t="e">
+        <v>15</v>
+      </c>
+      <c r="F37" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G37" s="78"/>
-      <c r="H37" s="134"/>
+        <v>7.5</v>
+      </c>
+      <c r="G37" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H37" s="134" t="s">
+        <v>861</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="78" t="s">
-        <v>819</v>
-      </c>
-      <c r="B38" s="132"/>
-      <c r="C38" s="137"/>
-      <c r="D38" s="133"/>
-      <c r="E38" s="133" t="e">
+        <v>866</v>
+      </c>
+      <c r="B38" s="133" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="137">
+        <v>44242</v>
+      </c>
+      <c r="D38" s="133">
+        <v>1</v>
+      </c>
+      <c r="E38" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F38" s="133" t="e">
+        <v>30</v>
+      </c>
+      <c r="F38" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G38" s="78"/>
-      <c r="H38" s="134"/>
+        <v>15</v>
+      </c>
+      <c r="G38" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H38" s="134" t="s">
+        <v>868</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="78" t="s">
-        <v>810</v>
-      </c>
-      <c r="B39" s="132"/>
-      <c r="C39" s="137"/>
-      <c r="D39" s="133"/>
-      <c r="E39" s="133" t="e">
+        <v>866</v>
+      </c>
+      <c r="B39" s="133" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="137">
+        <v>44242</v>
+      </c>
+      <c r="D39" s="133">
+        <v>2</v>
+      </c>
+      <c r="E39" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F39" s="133" t="e">
+        <v>60</v>
+      </c>
+      <c r="F39" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G39" s="78"/>
-      <c r="H39" s="134"/>
+        <v>60</v>
+      </c>
+      <c r="G39" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H39" s="134" t="s">
+        <v>871</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="78" t="s">
-        <v>765</v>
-      </c>
-      <c r="B40" s="132"/>
-      <c r="C40" s="137"/>
-      <c r="D40" s="133"/>
-      <c r="E40" s="133" t="e">
+        <v>866</v>
+      </c>
+      <c r="B40" s="133" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="137">
+        <v>44242</v>
+      </c>
+      <c r="D40" s="133">
+        <v>18</v>
+      </c>
+      <c r="E40" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F40" s="133" t="e">
+        <v>10</v>
+      </c>
+      <c r="F40" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G40" s="78"/>
-      <c r="H40" s="134"/>
+        <v>45</v>
+      </c>
+      <c r="G40" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H40" s="134" t="s">
+        <v>870</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="78" t="s">
-        <v>795</v>
-      </c>
-      <c r="B41" s="132"/>
-      <c r="C41" s="137"/>
-      <c r="D41" s="133"/>
-      <c r="E41" s="133" t="e">
+        <v>866</v>
+      </c>
+      <c r="B41" s="133" t="s">
+        <v>487</v>
+      </c>
+      <c r="C41" s="137">
+        <v>44242</v>
+      </c>
+      <c r="D41" s="133">
+        <v>2</v>
+      </c>
+      <c r="E41" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F41" s="133" t="e">
+        <v>60</v>
+      </c>
+      <c r="F41" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G41" s="78"/>
-      <c r="H41" s="134"/>
+        <v>60</v>
+      </c>
+      <c r="G41" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H41" s="134" t="s">
+        <v>867</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="B42" s="132"/>
-      <c r="C42" s="137"/>
-      <c r="D42" s="133"/>
-      <c r="E42" s="133" t="e">
+        <v>869</v>
+      </c>
+      <c r="B42" s="133" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="137">
+        <v>44239</v>
+      </c>
+      <c r="D42" s="133">
+        <v>1</v>
+      </c>
+      <c r="E42" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F42" s="133" t="e">
+        <v>30</v>
+      </c>
+      <c r="F42" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G42" s="78"/>
-      <c r="H42" s="134"/>
+        <v>15</v>
+      </c>
+      <c r="G42" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H42" s="134" t="s">
+        <v>868</v>
+      </c>
     </row>
     <row r="43" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="78" t="s">
-        <v>780</v>
-      </c>
-      <c r="B43" s="132"/>
-      <c r="C43" s="137"/>
-      <c r="D43" s="133"/>
-      <c r="E43" s="133" t="e">
+        <v>862</v>
+      </c>
+      <c r="B43" s="132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="137">
+        <v>44232</v>
+      </c>
+      <c r="D43" s="133">
+        <v>1</v>
+      </c>
+      <c r="E43" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F43" s="133" t="e">
+        <v>180</v>
+      </c>
+      <c r="F43" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G43" s="78"/>
-      <c r="H43" s="134"/>
+        <v>90</v>
+      </c>
+      <c r="G43" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H43" s="134" t="s">
+        <v>863</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="78" t="s">
-        <v>734</v>
-      </c>
-      <c r="B44" s="132"/>
-      <c r="C44" s="137"/>
-      <c r="D44" s="133"/>
-      <c r="E44" s="133" t="e">
+        <v>862</v>
+      </c>
+      <c r="B44" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="137">
+        <v>44225</v>
+      </c>
+      <c r="D44" s="133">
+        <v>1</v>
+      </c>
+      <c r="E44" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F44" s="133" t="e">
+        <v>10</v>
+      </c>
+      <c r="F44" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G44" s="78"/>
-      <c r="H44" s="134"/>
+        <v>5</v>
+      </c>
+      <c r="G44" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H44" s="134" t="s">
+        <v>864</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="78" t="s">
-        <v>789</v>
-      </c>
-      <c r="B45" s="132"/>
-      <c r="C45" s="137"/>
-      <c r="D45" s="133"/>
-      <c r="E45" s="133" t="e">
+        <v>862</v>
+      </c>
+      <c r="B45" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="137">
+        <v>44224</v>
+      </c>
+      <c r="D45" s="133">
+        <v>5</v>
+      </c>
+      <c r="E45" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F45" s="133" t="e">
+        <v>15</v>
+      </c>
+      <c r="F45" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G45" s="78"/>
-      <c r="H45" s="134"/>
+        <v>37.5</v>
+      </c>
+      <c r="G45" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H45" s="134" t="s">
+        <v>865</v>
+      </c>
     </row>
     <row r="46" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="78" t="s">
-        <v>760</v>
-      </c>
-      <c r="B46" s="132"/>
-      <c r="C46" s="137"/>
-      <c r="D46" s="133"/>
-      <c r="E46" s="133" t="e">
+        <v>845</v>
+      </c>
+      <c r="B46" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="137">
+        <v>44218</v>
+      </c>
+      <c r="D46" s="133">
+        <v>1</v>
+      </c>
+      <c r="E46" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F46" s="133" t="e">
+        <v>15</v>
+      </c>
+      <c r="F46" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G46" s="78"/>
-      <c r="H46" s="134"/>
+        <v>7.5</v>
+      </c>
+      <c r="G46" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H46" s="134" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="78" t="s">
-        <v>738</v>
-      </c>
-      <c r="B47" s="132"/>
-      <c r="C47" s="137"/>
-      <c r="D47" s="133"/>
-      <c r="E47" s="133" t="e">
+        <v>845</v>
+      </c>
+      <c r="B47" s="133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="137">
+        <v>44218</v>
+      </c>
+      <c r="D47" s="133">
+        <v>1</v>
+      </c>
+      <c r="E47" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F47" s="133" t="e">
+        <v>180</v>
+      </c>
+      <c r="F47" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G47" s="78"/>
-      <c r="H47" s="134"/>
+        <v>90</v>
+      </c>
+      <c r="G47" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H47" s="134" t="s">
+        <v>859</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="78" t="s">
-        <v>756</v>
-      </c>
-      <c r="B48" s="132"/>
-      <c r="C48" s="137"/>
-      <c r="D48" s="133"/>
-      <c r="E48" s="133" t="e">
+        <v>845</v>
+      </c>
+      <c r="B48" s="133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="137">
+        <v>44210</v>
+      </c>
+      <c r="D48" s="133">
+        <v>1</v>
+      </c>
+      <c r="E48" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F48" s="133" t="e">
+        <v>60</v>
+      </c>
+      <c r="F48" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G48" s="78"/>
-      <c r="H48" s="134"/>
+        <v>30</v>
+      </c>
+      <c r="G48" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H48" s="134" t="s">
+        <v>848</v>
+      </c>
     </row>
     <row r="49" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="78" t="s">
-        <v>728</v>
-      </c>
-      <c r="B49" s="132"/>
-      <c r="C49" s="137"/>
-      <c r="D49" s="133"/>
-      <c r="E49" s="133" t="e">
+        <v>845</v>
+      </c>
+      <c r="B49" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="137">
+        <v>44210</v>
+      </c>
+      <c r="D49" s="133">
+        <v>0.5</v>
+      </c>
+      <c r="E49" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F49" s="133" t="e">
+        <v>60</v>
+      </c>
+      <c r="F49" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G49" s="78"/>
-      <c r="H49" s="134"/>
+        <v>15</v>
+      </c>
+      <c r="G49" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H49" s="134" t="s">
+        <v>849</v>
+      </c>
     </row>
     <row r="50" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="78" t="s">
-        <v>725</v>
-      </c>
-      <c r="B50" s="132"/>
-      <c r="C50" s="137"/>
-      <c r="D50" s="133"/>
-      <c r="E50" s="133" t="e">
+        <v>830</v>
+      </c>
+      <c r="B50" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="137">
+        <v>44209</v>
+      </c>
+      <c r="D50" s="133">
+        <v>2</v>
+      </c>
+      <c r="E50" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F50" s="133" t="e">
+        <v>15</v>
+      </c>
+      <c r="F50" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G50" s="78"/>
-      <c r="H50" s="134"/>
+        <v>15</v>
+      </c>
+      <c r="G50" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H50" s="134" t="s">
+        <v>858</v>
+      </c>
     </row>
     <row r="51" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="78" t="s">
-        <v>726</v>
-      </c>
-      <c r="B51" s="132"/>
-      <c r="C51" s="137"/>
-      <c r="D51" s="133"/>
-      <c r="E51" s="133" t="e">
+        <v>830</v>
+      </c>
+      <c r="B51" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="137">
+        <v>44209</v>
+      </c>
+      <c r="D51" s="133">
+        <v>1</v>
+      </c>
+      <c r="E51" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F51" s="133" t="e">
+        <v>15</v>
+      </c>
+      <c r="F51" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G51" s="78"/>
-      <c r="H51" s="134"/>
+        <v>7.5</v>
+      </c>
+      <c r="G51" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H51" s="134" t="s">
+        <v>855</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="78" t="s">
-        <v>672</v>
-      </c>
-      <c r="B52" s="132"/>
-      <c r="C52" s="137"/>
-      <c r="D52" s="133"/>
-      <c r="E52" s="133" t="e">
+        <v>845</v>
+      </c>
+      <c r="B52" s="133" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="137">
+        <v>44209</v>
+      </c>
+      <c r="D52" s="133">
+        <v>2</v>
+      </c>
+      <c r="E52" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F52" s="133" t="e">
+        <v>5</v>
+      </c>
+      <c r="F52" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G52" s="78"/>
-      <c r="H52" s="134"/>
+        <v>5</v>
+      </c>
+      <c r="G52" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H52" s="134" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="53" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="78" t="s">
-        <v>631</v>
-      </c>
-      <c r="B53" s="132"/>
-      <c r="C53" s="137"/>
-      <c r="D53" s="133"/>
-      <c r="E53" s="133" t="e">
+        <v>727</v>
+      </c>
+      <c r="B53" s="133" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="137">
+        <v>44209</v>
+      </c>
+      <c r="D53" s="133">
+        <v>1</v>
+      </c>
+      <c r="E53" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F53" s="133" t="e">
+        <v>5</v>
+      </c>
+      <c r="F53" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G53" s="130"/>
-      <c r="H53" s="134"/>
+        <v>2.5</v>
+      </c>
+      <c r="G53" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H53" s="134" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="54" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="78" t="s">
-        <v>509</v>
-      </c>
-      <c r="B54" s="132"/>
-      <c r="C54" s="137"/>
-      <c r="D54" s="133"/>
-      <c r="E54" s="133" t="e">
+        <v>727</v>
+      </c>
+      <c r="B54" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="137">
+        <v>44209</v>
+      </c>
+      <c r="D54" s="133">
+        <v>1</v>
+      </c>
+      <c r="E54" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F54" s="133" t="e">
+        <v>15</v>
+      </c>
+      <c r="F54" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G54" s="78"/>
-      <c r="H54" s="134"/>
+        <v>7.5</v>
+      </c>
+      <c r="G54" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H54" s="134" t="s">
+        <v>851</v>
+      </c>
     </row>
     <row r="55" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="78" t="s">
-        <v>643</v>
-      </c>
-      <c r="B55" s="132"/>
-      <c r="C55" s="137"/>
-      <c r="D55" s="133"/>
-      <c r="E55" s="133" t="e">
+        <v>816</v>
+      </c>
+      <c r="B55" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="137">
+        <v>44209</v>
+      </c>
+      <c r="D55" s="133">
+        <v>1</v>
+      </c>
+      <c r="E55" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F55" s="133" t="e">
+        <v>15</v>
+      </c>
+      <c r="F55" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G55" s="78"/>
-      <c r="H55" s="134"/>
+        <v>7.5</v>
+      </c>
+      <c r="G55" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H55" s="134" t="s">
+        <v>853</v>
+      </c>
     </row>
     <row r="56" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="78" t="s">
-        <v>649</v>
-      </c>
-      <c r="B56" s="132"/>
-      <c r="C56" s="137"/>
-      <c r="D56" s="133"/>
-      <c r="E56" s="133" t="e">
+        <v>845</v>
+      </c>
+      <c r="B56" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="137">
+        <v>44208</v>
+      </c>
+      <c r="D56" s="133">
+        <v>3</v>
+      </c>
+      <c r="E56" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F56" s="133" t="e">
+        <v>15</v>
+      </c>
+      <c r="F56" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G56" s="78"/>
-      <c r="H56" s="134"/>
+        <v>22.5</v>
+      </c>
+      <c r="G56" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H56" s="134" t="s">
+        <v>847</v>
+      </c>
     </row>
     <row r="57" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="78" t="s">
-        <v>642</v>
-      </c>
-      <c r="B57" s="132"/>
-      <c r="C57" s="137"/>
-      <c r="D57" s="133"/>
-      <c r="E57" s="133" t="e">
+        <v>102</v>
+      </c>
+      <c r="B57" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="137">
+        <v>44208</v>
+      </c>
+      <c r="D57" s="133">
+        <v>2</v>
+      </c>
+      <c r="E57" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F57" s="133" t="e">
+        <v>60</v>
+      </c>
+      <c r="F57" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G57" s="78"/>
-      <c r="H57" s="134"/>
+        <v>60</v>
+      </c>
+      <c r="G57" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H57" s="134" t="s">
+        <v>854</v>
+      </c>
     </row>
     <row r="58" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="147" t="s">
-        <v>609</v>
-      </c>
-      <c r="B58" s="132"/>
-      <c r="C58" s="149"/>
-      <c r="D58" s="133"/>
-      <c r="E58" s="133" t="e">
+      <c r="A58" s="78" t="s">
+        <v>841</v>
+      </c>
+      <c r="B58" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D58" s="133">
+        <v>1</v>
+      </c>
+      <c r="E58" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F58" s="133" t="e">
+        <v>15</v>
+      </c>
+      <c r="F58" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G58" s="130"/>
-      <c r="H58" s="138"/>
+        <v>7.5</v>
+      </c>
+      <c r="G58" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H58" s="134" t="s">
+        <v>844</v>
+      </c>
     </row>
     <row r="59" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="78" t="s">
-        <v>640</v>
-      </c>
-      <c r="B59" s="132"/>
-      <c r="C59" s="149"/>
-      <c r="D59" s="138"/>
-      <c r="E59" s="133" t="e">
+        <v>780</v>
+      </c>
+      <c r="B59" s="132" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D59" s="133">
+        <v>1</v>
+      </c>
+      <c r="E59" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F59" s="133" t="e">
+        <v>10</v>
+      </c>
+      <c r="F59" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G59" s="130"/>
-      <c r="H59" s="148"/>
+        <v>5</v>
+      </c>
+      <c r="G59" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H59" s="134" t="s">
+        <v>852</v>
+      </c>
     </row>
     <row r="60" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="147" t="s">
-        <v>607</v>
-      </c>
-      <c r="B60" s="132"/>
-      <c r="C60" s="149"/>
-      <c r="D60" s="138"/>
-      <c r="E60" s="133" t="e">
+      <c r="A60" s="78" t="s">
+        <v>816</v>
+      </c>
+      <c r="B60" s="132" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D60" s="133">
+        <v>2</v>
+      </c>
+      <c r="E60" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F60" s="133" t="e">
+        <v>10</v>
+      </c>
+      <c r="F60" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G60" s="130"/>
-      <c r="H60" s="148"/>
+        <v>10</v>
+      </c>
+      <c r="G60" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H60" s="134" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="147" t="s">
-        <v>597</v>
-      </c>
-      <c r="B61" s="132"/>
-      <c r="C61" s="149"/>
-      <c r="D61" s="138"/>
-      <c r="E61" s="133" t="e">
+      <c r="A61" s="78" t="s">
+        <v>781</v>
+      </c>
+      <c r="B61" s="132" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D61" s="133">
+        <v>1</v>
+      </c>
+      <c r="E61" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F61" s="133" t="e">
+        <v>15</v>
+      </c>
+      <c r="F61" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G61" s="130"/>
-      <c r="H61" s="148"/>
+        <v>7.5</v>
+      </c>
+      <c r="G61" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H61" s="134" t="s">
+        <v>842</v>
+      </c>
     </row>
     <row r="62" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="147" t="s">
-        <v>500</v>
-      </c>
-      <c r="B62" s="132"/>
-      <c r="C62" s="149"/>
-      <c r="D62" s="138"/>
-      <c r="E62" s="133" t="e">
+      <c r="A62" s="78" t="s">
+        <v>767</v>
+      </c>
+      <c r="B62" s="132" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D62" s="133">
+        <v>1</v>
+      </c>
+      <c r="E62" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F62" s="133" t="e">
+        <v>15</v>
+      </c>
+      <c r="F62" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G62" s="130"/>
-      <c r="H62" s="148"/>
+        <v>7.5</v>
+      </c>
+      <c r="G62" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H62" s="134" t="s">
+        <v>842</v>
+      </c>
     </row>
     <row r="63" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="130" t="s">
-        <v>278</v>
-      </c>
-      <c r="B63" s="132"/>
-      <c r="C63" s="149"/>
-      <c r="D63" s="138"/>
-      <c r="E63" s="133" t="e">
+      <c r="A63" s="78" t="s">
+        <v>816</v>
+      </c>
+      <c r="B63" s="132" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="137">
+        <v>44201</v>
+      </c>
+      <c r="D63" s="133">
+        <v>3</v>
+      </c>
+      <c r="E63" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F63" s="133" t="e">
+        <v>5</v>
+      </c>
+      <c r="F63" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G63" s="130"/>
-      <c r="H63" s="148"/>
+        <v>7.5</v>
+      </c>
+      <c r="G63" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H63" s="134" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="64" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="147" t="s">
-        <v>593</v>
-      </c>
-      <c r="B64" s="132"/>
-      <c r="C64" s="149"/>
-      <c r="D64" s="138"/>
-      <c r="E64" s="133" t="e">
+      <c r="A64" s="78" t="s">
+        <v>830</v>
+      </c>
+      <c r="B64" s="132" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" s="137">
+        <v>44201</v>
+      </c>
+      <c r="D64" s="133">
+        <v>1</v>
+      </c>
+      <c r="E64" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F64" s="133" t="e">
+        <v>15</v>
+      </c>
+      <c r="F64" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G64" s="130"/>
-      <c r="H64" s="148"/>
+        <v>7.5</v>
+      </c>
+      <c r="G64" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H64" s="134" t="s">
+        <v>843</v>
+      </c>
     </row>
     <row r="65" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="147" t="s">
-        <v>574</v>
-      </c>
-      <c r="B65" s="132"/>
-      <c r="C65" s="149"/>
-      <c r="D65" s="138"/>
-      <c r="E65" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F65" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G65" s="130"/>
-      <c r="H65" s="148"/>
-    </row>
-    <row r="66" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="147" t="s">
-        <v>178</v>
-      </c>
-      <c r="B66" s="132"/>
-      <c r="C66" s="149"/>
-      <c r="D66" s="138"/>
-      <c r="E66" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F66" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G66" s="130"/>
-      <c r="H66" s="148"/>
-    </row>
-    <row r="67" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="147" t="s">
-        <v>576</v>
-      </c>
-      <c r="B67" s="132"/>
-      <c r="C67" s="149"/>
-      <c r="D67" s="138"/>
-      <c r="E67" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F67" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G67" s="130"/>
-      <c r="H67" s="148"/>
-    </row>
-    <row r="68" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="147" t="s">
-        <v>541</v>
-      </c>
-      <c r="B68" s="132"/>
-      <c r="C68" s="149"/>
-      <c r="D68" s="138"/>
-      <c r="E68" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F68" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G68" s="130"/>
-      <c r="H68" s="148"/>
-    </row>
-    <row r="69" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="147" t="s">
-        <v>239</v>
-      </c>
-      <c r="B69" s="132"/>
-      <c r="C69" s="149"/>
-      <c r="D69" s="138"/>
-      <c r="E69" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F69" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G69" s="130"/>
-      <c r="H69" s="148"/>
-    </row>
-    <row r="70" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="130" t="s">
-        <v>492</v>
-      </c>
-      <c r="B70" s="132"/>
-      <c r="C70" s="149"/>
-      <c r="D70" s="138"/>
-      <c r="E70" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F70" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G70" s="130"/>
-      <c r="H70" s="148"/>
-    </row>
-    <row r="71" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="130" t="s">
-        <v>482</v>
-      </c>
-      <c r="B71" s="132"/>
-      <c r="C71" s="149"/>
-      <c r="D71" s="138"/>
-      <c r="E71" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F71" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G71" s="130"/>
-      <c r="H71" s="148"/>
-    </row>
-    <row r="72" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="130" t="s">
-        <v>267</v>
-      </c>
-      <c r="B72" s="132"/>
-      <c r="C72" s="149"/>
-      <c r="D72" s="138"/>
-      <c r="E72" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F72" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G72" s="130"/>
-      <c r="H72" s="148"/>
-    </row>
-    <row r="73" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="130" t="s">
-        <v>268</v>
-      </c>
-      <c r="B73" s="132"/>
-      <c r="C73" s="149"/>
-      <c r="D73" s="138"/>
-      <c r="E73" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F73" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G73" s="130"/>
-      <c r="H73" s="148"/>
-    </row>
-    <row r="74" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="130" t="s">
-        <v>41</v>
-      </c>
-      <c r="B74" s="132"/>
-      <c r="C74" s="149"/>
-      <c r="D74" s="138"/>
-      <c r="E74" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F74" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G74" s="130"/>
-      <c r="H74" s="148"/>
-    </row>
-    <row r="75" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="130" t="s">
-        <v>273</v>
-      </c>
-      <c r="B75" s="132"/>
-      <c r="C75" s="149"/>
-      <c r="D75" s="138"/>
-      <c r="E75" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F75" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G75" s="130"/>
-      <c r="H75" s="148"/>
-    </row>
-    <row r="76" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="130" t="s">
-        <v>129</v>
-      </c>
-      <c r="B76" s="132"/>
-      <c r="C76" s="149"/>
-      <c r="D76" s="138"/>
-      <c r="E76" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F76" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G76" s="130"/>
-      <c r="H76" s="148"/>
-    </row>
-    <row r="77" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="130" t="s">
-        <v>274</v>
-      </c>
-      <c r="B77" s="132"/>
-      <c r="C77" s="149"/>
-      <c r="D77" s="138"/>
-      <c r="E77" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F77" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G77" s="130"/>
-      <c r="H77" s="148"/>
-    </row>
-    <row r="78" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="130" t="s">
-        <v>21</v>
-      </c>
-      <c r="B78" s="132"/>
-      <c r="C78" s="149"/>
-      <c r="D78" s="138"/>
-      <c r="E78" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F78" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G78" s="130"/>
-      <c r="H78" s="148"/>
-    </row>
-    <row r="79" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="130" t="s">
-        <v>36</v>
-      </c>
-      <c r="B79" s="132"/>
-      <c r="C79" s="149"/>
-      <c r="D79" s="138"/>
-      <c r="E79" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F79" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G79" s="130"/>
-      <c r="H79" s="148"/>
-    </row>
-    <row r="80" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="130" t="s">
-        <v>256</v>
-      </c>
-      <c r="B80" s="132"/>
-      <c r="C80" s="149"/>
-      <c r="D80" s="138"/>
-      <c r="E80" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F80" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G80" s="130"/>
-      <c r="H80" s="148"/>
-    </row>
-    <row r="81" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="130" t="s">
-        <v>259</v>
-      </c>
-      <c r="B81" s="132"/>
-      <c r="C81" s="149"/>
-      <c r="D81" s="138"/>
-      <c r="E81" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F81" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G81" s="130"/>
-      <c r="H81" s="148"/>
-    </row>
-    <row r="82" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="156" t="s">
+      <c r="A65" s="153" t="s">
         <v>491</v>
       </c>
-      <c r="B82" s="157">
+      <c r="B65" s="154">
         <f>SUBTOTAL(5,TAB_Doku_201910[Datum])</f>
         <v>44201</v>
       </c>
-      <c r="C82" s="158">
+      <c r="C65" s="155">
         <f>SUBTOTAL(4,TAB_Doku_201910[Datum])</f>
-        <v>44264</v>
-      </c>
-      <c r="D82" s="159"/>
-      <c r="E82" s="159"/>
-      <c r="F82" s="160" t="e">
+        <v>44302</v>
+      </c>
+      <c r="D65" s="156"/>
+      <c r="E65" s="156"/>
+      <c r="F65" s="157">
         <f>SUBTOTAL(9,TAB_Doku_201910[[Kosten ]])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G82" s="156"/>
-      <c r="H82" s="161"/>
-    </row>
-    <row r="83" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1990</v>
+      </c>
+      <c r="G65" s="153"/>
+      <c r="H65" s="158"/>
+    </row>
+    <row r="66" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C66"/>
+    </row>
+    <row r="67" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C67"/>
+    </row>
+    <row r="68" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C68"/>
+    </row>
+    <row r="69" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C69"/>
+    </row>
+    <row r="70" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C70"/>
+    </row>
+    <row r="71" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C71"/>
+    </row>
+    <row r="72" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C72"/>
+    </row>
+    <row r="73" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C73"/>
+    </row>
+    <row r="74" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C74"/>
+    </row>
+    <row r="75" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C75"/>
+    </row>
+    <row r="76" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C76"/>
+    </row>
+    <row r="77" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C77"/>
+    </row>
+    <row r="78" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C78"/>
+    </row>
+    <row r="79" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C79"/>
+    </row>
+    <row r="80" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C80"/>
+    </row>
+    <row r="81" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C81"/>
+    </row>
+    <row r="82" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C82"/>
+    </row>
+    <row r="83" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83"/>
     </row>
-    <row r="84" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84"/>
     </row>
-    <row r="85" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85"/>
     </row>
-    <row r="86" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C86"/>
     </row>
-    <row r="87" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C87"/>
     </row>
-    <row r="88" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C88"/>
     </row>
-    <row r="89" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C89"/>
     </row>
-    <row r="90" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C90"/>
     </row>
-    <row r="91" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C91"/>
     </row>
-    <row r="92" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C92"/>
     </row>
-    <row r="93" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C93"/>
     </row>
-    <row r="94" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C94"/>
     </row>
-    <row r="95" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C95"/>
     </row>
-    <row r="96" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C96"/>
     </row>
-    <row r="97" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C97"/>
     </row>
-    <row r="98" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C98"/>
     </row>
-    <row r="99" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C99"/>
     </row>
-    <row r="100" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C100"/>
     </row>
-    <row r="101" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C101"/>
-    </row>
-    <row r="102" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I101" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="102" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C102"/>
     </row>
-    <row r="103" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C103"/>
     </row>
-    <row r="104" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C104"/>
     </row>
-    <row r="105" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C105"/>
     </row>
-    <row r="106" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C106"/>
     </row>
-    <row r="107" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C107"/>
     </row>
-    <row r="108" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C108"/>
     </row>
-    <row r="109" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C109"/>
     </row>
-    <row r="110" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C110"/>
     </row>
-    <row r="111" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C111"/>
     </row>
-    <row r="112" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C112"/>
     </row>
-    <row r="113" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C113"/>
     </row>
-    <row r="114" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C114"/>
     </row>
-    <row r="115" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C115"/>
     </row>
-    <row r="116" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C116"/>
     </row>
-    <row r="117" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C117"/>
     </row>
-    <row r="118" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C118"/>
-      <c r="I118" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="119" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C119"/>
     </row>
-    <row r="120" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C120"/>
     </row>
-    <row r="121" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C121"/>
     </row>
-    <row r="122" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C122"/>
     </row>
-    <row r="123" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C123"/>
     </row>
-    <row r="124" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C124"/>
     </row>
-    <row r="125" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C125"/>
     </row>
-    <row r="126" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C126"/>
     </row>
-    <row r="127" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C127"/>
     </row>
-    <row r="128" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C128"/>
     </row>
-    <row r="129" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C129"/>
     </row>
-    <row r="130" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C130"/>
     </row>
-    <row r="131" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C131"/>
     </row>
-    <row r="132" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C132"/>
     </row>
-    <row r="133" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C133"/>
     </row>
-    <row r="134" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C134"/>
     </row>
-    <row r="135" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C135"/>
     </row>
-    <row r="136" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C136"/>
     </row>
-    <row r="137" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C137"/>
     </row>
-    <row r="138" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C138"/>
     </row>
-    <row r="139" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C139"/>
     </row>
-    <row r="140" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C140"/>
     </row>
-    <row r="141" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C141"/>
     </row>
-    <row r="142" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C142"/>
     </row>
-    <row r="143" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A143"/>
+      <c r="B143"/>
       <c r="C143"/>
-    </row>
-    <row r="144" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D143"/>
+      <c r="E143"/>
+      <c r="F143"/>
+      <c r="G143"/>
+      <c r="H143"/>
+    </row>
+    <row r="144" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C144"/>
     </row>
     <row r="145" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -8893,8 +9016,15 @@
     <row r="147" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C147"/>
     </row>
-    <row r="148" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A148"/>
+      <c r="B148"/>
       <c r="C148"/>
+      <c r="D148"/>
+      <c r="E148"/>
+      <c r="F148"/>
+      <c r="G148"/>
+      <c r="H148"/>
     </row>
     <row r="149" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C149"/>
@@ -8929,75 +9059,61 @@
     <row r="159" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C159"/>
     </row>
-    <row r="160" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A160"/>
-      <c r="B160"/>
+    <row r="160" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C160"/>
-      <c r="D160"/>
-      <c r="E160"/>
-      <c r="F160"/>
-      <c r="G160"/>
-      <c r="H160"/>
-    </row>
-    <row r="161" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="3:3" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C161"/>
     </row>
-    <row r="162" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C162"/>
     </row>
-    <row r="163" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C163"/>
     </row>
-    <row r="164" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C164"/>
     </row>
-    <row r="165" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A165"/>
-      <c r="B165"/>
+    <row r="165" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C165"/>
-      <c r="D165"/>
-      <c r="E165"/>
-      <c r="F165"/>
-      <c r="G165"/>
-      <c r="H165"/>
-    </row>
-    <row r="166" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C166"/>
     </row>
-    <row r="167" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C167"/>
     </row>
-    <row r="168" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C168"/>
     </row>
-    <row r="169" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C169"/>
     </row>
-    <row r="170" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C170"/>
     </row>
-    <row r="171" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C171"/>
     </row>
-    <row r="172" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C172"/>
     </row>
-    <row r="173" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C173"/>
     </row>
-    <row r="174" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C174"/>
     </row>
-    <row r="175" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C175"/>
     </row>
-    <row r="176" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C176"/>
     </row>
     <row r="177" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C177"/>
     </row>
-    <row r="178" spans="3:3" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C178"/>
     </row>
     <row r="179" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -9039,7 +9155,7 @@
     <row r="191" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C191"/>
     </row>
-    <row r="192" spans="3:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C192"/>
     </row>
     <row r="193" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -9426,62 +9542,11 @@
     <row r="320" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C320"/>
     </row>
-    <row r="321" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="321" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C321"/>
     </row>
-    <row r="322" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="322" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C322"/>
-    </row>
-    <row r="323" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C323"/>
-    </row>
-    <row r="324" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C324"/>
-    </row>
-    <row r="325" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C325"/>
-    </row>
-    <row r="326" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C326"/>
-    </row>
-    <row r="327" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C327"/>
-    </row>
-    <row r="328" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C328"/>
-    </row>
-    <row r="329" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C329"/>
-    </row>
-    <row r="330" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C330"/>
-    </row>
-    <row r="331" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C331"/>
-    </row>
-    <row r="332" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C332"/>
-    </row>
-    <row r="333" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C333"/>
-    </row>
-    <row r="334" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C334"/>
-    </row>
-    <row r="335" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C335"/>
-    </row>
-    <row r="336" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C336"/>
-    </row>
-    <row r="337" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C337"/>
-    </row>
-    <row r="338" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C338"/>
-    </row>
-    <row r="339" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C339"/>
     </row>
   </sheetData>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.47244094488188981" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9498,9 +9563,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$35</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B81</xm:sqref>
+          <xm:sqref>B2:B64</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9516,10 +9581,10 @@
   <dimension ref="A1:I319"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C175" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="F184" sqref="F184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10484,7 +10549,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="78" t="s">
         <v>795</v>
       </c>
@@ -10513,7 +10578,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="78" t="s">
         <v>102</v>
       </c>
@@ -10542,7 +10607,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="78" t="s">
         <v>102</v>
       </c>
@@ -10571,7 +10636,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="78" t="s">
         <v>765</v>
       </c>
@@ -10600,7 +10665,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="78" t="s">
         <v>795</v>
       </c>
@@ -10629,7 +10694,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="78" t="s">
         <v>780</v>
       </c>
@@ -10657,7 +10722,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="78" t="s">
         <v>781</v>
       </c>
@@ -10686,7 +10751,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="78" t="s">
         <v>778</v>
       </c>
@@ -10715,7 +10780,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="78" t="s">
         <v>789</v>
       </c>
@@ -10744,7 +10809,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="78" t="s">
         <v>776</v>
       </c>
@@ -10773,7 +10838,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="78" t="s">
         <v>765</v>
       </c>
@@ -10802,7 +10867,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="78" t="s">
         <v>765</v>
       </c>
@@ -10831,7 +10896,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="78" t="s">
         <v>765</v>
       </c>
@@ -10860,7 +10925,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="78" t="s">
         <v>760</v>
       </c>
@@ -10889,7 +10954,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="78" t="s">
         <v>760</v>
       </c>
@@ -10918,7 +10983,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="78" t="s">
         <v>760</v>
       </c>
@@ -10947,7 +11012,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="78" t="s">
         <v>765</v>
       </c>
@@ -10976,7 +11041,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="78" t="s">
         <v>738</v>
       </c>
@@ -11005,7 +11070,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="78" t="s">
         <v>738</v>
       </c>
@@ -11034,7 +11099,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="78" t="s">
         <v>738</v>
       </c>
@@ -11063,7 +11128,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="78" t="s">
         <v>767</v>
       </c>
@@ -11092,7 +11157,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="78" t="s">
         <v>767</v>
       </c>
@@ -11121,7 +11186,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="78" t="s">
         <v>102</v>
       </c>
@@ -11150,7 +11215,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="78" t="s">
         <v>102</v>
       </c>
@@ -11179,7 +11244,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="78" t="s">
         <v>778</v>
       </c>
@@ -11208,7 +11273,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="78" t="s">
         <v>781</v>
       </c>
@@ -11237,7 +11302,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="78" t="s">
         <v>781</v>
       </c>
@@ -11266,7 +11331,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="78" t="s">
         <v>760</v>
       </c>
@@ -11295,7 +11360,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="78" t="s">
         <v>760</v>
       </c>
@@ -11324,7 +11389,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="78" t="s">
         <v>767</v>
       </c>
@@ -11353,7 +11418,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="78" t="s">
         <v>778</v>
       </c>
@@ -11382,7 +11447,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="78" t="s">
         <v>778</v>
       </c>
@@ -11411,7 +11476,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="78" t="s">
         <v>780</v>
       </c>
@@ -11440,7 +11505,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="78" t="s">
         <v>780</v>
       </c>
@@ -11469,7 +11534,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="78" t="s">
         <v>767</v>
       </c>
@@ -11498,7 +11563,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="78" t="s">
         <v>767</v>
       </c>
@@ -11527,7 +11592,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="78" t="s">
         <v>756</v>
       </c>
@@ -11556,7 +11621,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="78" t="s">
         <v>756</v>
       </c>
@@ -11585,7 +11650,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="78" t="s">
         <v>738</v>
       </c>
@@ -11614,7 +11679,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="78" t="s">
         <v>727</v>
       </c>
@@ -11643,7 +11708,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="78" t="s">
         <v>727</v>
       </c>
@@ -11672,7 +11737,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="78" t="s">
         <v>727</v>
       </c>
@@ -11701,7 +11766,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="78" t="s">
         <v>738</v>
       </c>
@@ -11730,7 +11795,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="78" t="s">
         <v>738</v>
       </c>
@@ -11759,7 +11824,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="78" t="s">
         <v>744</v>
       </c>
@@ -11787,7 +11852,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="78" t="s">
         <v>744</v>
       </c>
@@ -11815,7 +11880,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="78" t="s">
         <v>744</v>
       </c>
@@ -11843,7 +11908,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="78" t="s">
         <v>102</v>
       </c>
@@ -11871,7 +11936,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="78" t="s">
         <v>102</v>
       </c>
@@ -11899,7 +11964,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="78" t="s">
         <v>728</v>
       </c>
@@ -11927,7 +11992,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="78" t="s">
         <v>738</v>
       </c>
@@ -11955,7 +12020,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" s="78" t="s">
         <v>744</v>
       </c>
@@ -11983,7 +12048,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="78" t="s">
         <v>744</v>
       </c>
@@ -12011,7 +12076,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="78" t="s">
         <v>744</v>
       </c>
@@ -12039,7 +12104,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" s="78" t="s">
         <v>744</v>
       </c>
@@ -12067,7 +12132,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A90" s="78" t="s">
         <v>734</v>
       </c>
@@ -12095,7 +12160,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="78" t="s">
         <v>725</v>
       </c>
@@ -12123,7 +12188,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A92" s="78" t="s">
         <v>728</v>
       </c>
@@ -12151,7 +12216,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A93" s="78" t="s">
         <v>728</v>
       </c>
@@ -12182,7 +12247,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A94" s="78" t="s">
         <v>725</v>
       </c>
@@ -12210,7 +12275,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A95" s="78" t="s">
         <v>725</v>
       </c>
@@ -12238,7 +12303,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="78" t="s">
         <v>725</v>
       </c>
@@ -12264,7 +12329,7 @@
       </c>
       <c r="H96" s="134"/>
     </row>
-    <row r="97" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="78" t="s">
         <v>725</v>
       </c>
@@ -12292,7 +12357,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="78" t="s">
         <v>725</v>
       </c>
@@ -12318,7 +12383,7 @@
       </c>
       <c r="H98" s="134"/>
     </row>
-    <row r="99" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A99" s="78" t="s">
         <v>728</v>
       </c>
@@ -12346,7 +12411,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A100" s="78" t="s">
         <v>734</v>
       </c>
@@ -12374,7 +12439,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A101" s="78" t="s">
         <v>725</v>
       </c>
@@ -12402,7 +12467,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A102" s="78" t="s">
         <v>734</v>
       </c>
@@ -12430,7 +12495,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A103" s="78" t="s">
         <v>726</v>
       </c>
@@ -12458,7 +12523,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A104" s="78" t="s">
         <v>727</v>
       </c>
@@ -12486,7 +12551,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A105" s="78" t="s">
         <v>725</v>
       </c>
@@ -12514,7 +12579,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A106" s="78" t="s">
         <v>726</v>
       </c>
@@ -12542,7 +12607,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A107" s="78" t="s">
         <v>725</v>
       </c>
@@ -12570,7 +12635,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A108" s="78" t="s">
         <v>734</v>
       </c>
@@ -12598,7 +12663,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="78" t="s">
         <v>726</v>
       </c>
@@ -12626,7 +12691,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="78" t="s">
         <v>727</v>
       </c>
@@ -12654,7 +12719,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="78" t="s">
         <v>734</v>
       </c>
@@ -12682,7 +12747,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="78" t="s">
         <v>727</v>
       </c>
@@ -12710,7 +12775,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="78" t="s">
         <v>726</v>
       </c>
@@ -12738,7 +12803,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="78" t="s">
         <v>726</v>
       </c>
@@ -12766,7 +12831,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="78" t="s">
         <v>726</v>
       </c>
@@ -12794,7 +12859,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A116" s="78" t="s">
         <v>734</v>
       </c>
@@ -12822,7 +12887,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A117" s="78" t="s">
         <v>672</v>
       </c>
@@ -12850,7 +12915,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A118" s="78" t="s">
         <v>672</v>
       </c>
@@ -12878,7 +12943,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="78" t="s">
         <v>672</v>
       </c>
@@ -12906,7 +12971,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="78" t="s">
         <v>726</v>
       </c>
@@ -12934,7 +12999,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A121" s="78" t="s">
         <v>726</v>
       </c>
@@ -12962,7 +13027,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="78" t="s">
         <v>734</v>
       </c>
@@ -12990,7 +13055,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A123" s="78" t="s">
         <v>734</v>
       </c>
@@ -13018,7 +13083,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="78" t="s">
         <v>734</v>
       </c>
@@ -13046,7 +13111,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A125" s="78" t="s">
         <v>734</v>
       </c>
@@ -13074,7 +13139,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A126" s="78" t="s">
         <v>672</v>
       </c>
@@ -13102,7 +13167,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A127" s="78" t="s">
         <v>734</v>
       </c>
@@ -13130,7 +13195,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A128" s="78" t="s">
         <v>734</v>
       </c>
@@ -13158,7 +13223,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A129" s="78" t="s">
         <v>734</v>
       </c>
@@ -13186,7 +13251,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A130" s="78" t="s">
         <v>734</v>
       </c>
@@ -13214,7 +13279,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A131" s="78" t="s">
         <v>672</v>
       </c>
@@ -13242,7 +13307,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="78" t="s">
         <v>672</v>
       </c>
@@ -13270,7 +13335,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A133" s="78" t="s">
         <v>727</v>
       </c>
@@ -13298,7 +13363,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="78" t="s">
         <v>734</v>
       </c>
@@ -13326,7 +13391,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="135" spans="1:8" s="143" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A135" s="139" t="s">
         <v>672</v>
       </c>
@@ -13354,7 +13419,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A136" s="78" t="s">
         <v>672</v>
       </c>
@@ -13382,7 +13447,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A137" s="78" t="s">
         <v>672</v>
       </c>
@@ -13410,7 +13475,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A138" s="78" t="s">
         <v>672</v>
       </c>
@@ -13438,7 +13503,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A139" s="78" t="s">
         <v>672</v>
       </c>
@@ -13466,7 +13531,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="140" spans="1:8" s="143" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" s="143" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="139" t="s">
         <v>672</v>
       </c>
@@ -13494,7 +13559,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A141" s="78" t="s">
         <v>734</v>
       </c>
@@ -13522,7 +13587,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A142" s="78" t="s">
         <v>734</v>
       </c>
@@ -13550,7 +13615,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A143" s="78" t="s">
         <v>734</v>
       </c>
@@ -13578,7 +13643,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A144" s="78" t="s">
         <v>102</v>
       </c>
@@ -13606,7 +13671,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A145" s="78" t="s">
         <v>102</v>
       </c>
@@ -13634,7 +13699,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A146" s="78" t="s">
         <v>102</v>
       </c>
@@ -13662,7 +13727,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A147" s="78" t="s">
         <v>102</v>
       </c>
@@ -13690,7 +13755,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A148" s="78" t="s">
         <v>727</v>
       </c>
@@ -13718,7 +13783,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="78" t="s">
         <v>734</v>
       </c>
@@ -13746,7 +13811,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A150" s="78" t="s">
         <v>727</v>
       </c>
@@ -13774,7 +13839,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="78" t="s">
         <v>672</v>
       </c>
@@ -13802,7 +13867,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A152" s="78" t="s">
         <v>102</v>
       </c>
@@ -13830,7 +13895,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="47.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="78" t="s">
         <v>102</v>
       </c>
@@ -13858,7 +13923,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A154" s="78" t="s">
         <v>631</v>
       </c>
@@ -13886,7 +13951,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A155" s="78" t="s">
         <v>734</v>
       </c>
@@ -13914,7 +13979,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A156" s="78" t="s">
         <v>631</v>
       </c>
@@ -13942,7 +14007,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A157" s="78" t="s">
         <v>631</v>
       </c>
@@ -13970,7 +14035,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A158" s="78" t="s">
         <v>734</v>
       </c>
@@ -13998,7 +14063,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A159" s="78" t="s">
         <v>727</v>
       </c>
@@ -14026,7 +14091,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" s="132" t="s">
         <v>734</v>
       </c>
@@ -14054,7 +14119,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A161" s="78" t="s">
         <v>727</v>
       </c>
@@ -14082,7 +14147,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="132" t="s">
         <v>727</v>
       </c>
@@ -14110,7 +14175,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A163" s="132" t="s">
         <v>727</v>
       </c>
@@ -14138,7 +14203,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="132" t="s">
         <v>509</v>
       </c>
@@ -14166,7 +14231,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A165" s="132" t="s">
         <v>509</v>
       </c>
@@ -14194,7 +14259,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A166" s="132" t="s">
         <v>102</v>
       </c>
@@ -14222,7 +14287,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="31.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="132" t="s">
         <v>102</v>
       </c>
@@ -14250,7 +14315,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A168" s="132" t="s">
         <v>509</v>
       </c>
@@ -14278,7 +14343,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A169" s="132" t="s">
         <v>509</v>
       </c>
@@ -14306,7 +14371,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="132" t="s">
         <v>643</v>
       </c>
@@ -14334,7 +14399,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A171" s="132" t="s">
         <v>509</v>
       </c>
@@ -14362,7 +14427,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A172" s="132" t="s">
         <v>509</v>
       </c>
@@ -14390,7 +14455,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A173" s="132" t="s">
         <v>509</v>
       </c>
@@ -14418,7 +14483,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A174" s="132" t="s">
         <v>649</v>
       </c>
@@ -14446,7 +14511,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A175" s="132" t="s">
         <v>649</v>
       </c>
@@ -14474,7 +14539,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="132" t="s">
         <v>649</v>
       </c>
@@ -14502,7 +14567,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A177" s="132" t="s">
         <v>642</v>
       </c>
@@ -14530,7 +14595,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A178" s="132" t="s">
         <v>643</v>
       </c>
@@ -14558,7 +14623,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A179" s="132" t="s">
         <v>631</v>
       </c>
@@ -14586,7 +14651,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A180" s="135" t="s">
         <v>609</v>
       </c>
@@ -14614,7 +14679,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A181" s="135" t="s">
         <v>609</v>
       </c>
@@ -14642,7 +14707,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A182" s="135" t="s">
         <v>609</v>
       </c>
@@ -14670,7 +14735,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A183" s="132" t="s">
         <v>640</v>
       </c>
@@ -14698,7 +14763,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A184" s="132" t="s">
         <v>642</v>
       </c>
@@ -14726,7 +14791,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A185" s="132" t="s">
         <v>643</v>
       </c>
@@ -14754,7 +14819,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A186" s="132" t="s">
         <v>631</v>
       </c>
@@ -14782,7 +14847,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="132" t="s">
         <v>631</v>
       </c>
@@ -14808,7 +14873,7 @@
       </c>
       <c r="H187" s="132"/>
     </row>
-    <row r="188" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="132" t="s">
         <v>631</v>
       </c>
@@ -14834,7 +14899,7 @@
       </c>
       <c r="H188" s="132"/>
     </row>
-    <row r="189" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="132" t="s">
         <v>631</v>
       </c>
@@ -14862,7 +14927,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A190" s="132" t="s">
         <v>631</v>
       </c>
@@ -14890,7 +14955,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="132" t="s">
         <v>631</v>
       </c>
@@ -14918,7 +14983,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A192" s="132" t="s">
         <v>631</v>
       </c>
@@ -14946,7 +15011,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A193" s="132" t="s">
         <v>631</v>
       </c>
@@ -14974,7 +15039,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="135" t="s">
         <v>609</v>
       </c>
@@ -15002,7 +15067,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A195" s="135" t="s">
         <v>609</v>
       </c>
@@ -15030,7 +15095,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A196" s="135" t="s">
         <v>607</v>
       </c>
@@ -15058,7 +15123,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" s="135" t="s">
         <v>597</v>
       </c>
@@ -15086,7 +15151,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A198" s="135" t="s">
         <v>500</v>
       </c>
@@ -15114,7 +15179,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A199" s="135" t="s">
         <v>500</v>
       </c>
@@ -15142,7 +15207,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A200" s="135" t="s">
         <v>102</v>
       </c>
@@ -15170,7 +15235,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A201" s="79" t="s">
         <v>278</v>
       </c>
@@ -15198,7 +15263,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A202" s="79" t="s">
         <v>278</v>
       </c>
@@ -15226,7 +15291,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A203" s="79" t="s">
         <v>278</v>
       </c>
@@ -15254,7 +15319,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A204" s="79" t="s">
         <v>278</v>
       </c>
@@ -15282,7 +15347,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A205" s="79" t="s">
         <v>278</v>
       </c>
@@ -15310,7 +15375,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A206" s="79" t="s">
         <v>278</v>
       </c>
@@ -15338,7 +15403,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A207" s="79" t="s">
         <v>278</v>
       </c>
@@ -15366,7 +15431,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="135" t="s">
         <v>102</v>
       </c>
@@ -15393,7 +15458,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="135" t="s">
         <v>593</v>
       </c>
@@ -15421,7 +15486,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A210" s="135" t="s">
         <v>102</v>
       </c>
@@ -15449,7 +15514,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A211" s="135" t="s">
         <v>102</v>
       </c>
@@ -15477,7 +15542,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="135" t="s">
         <v>574</v>
       </c>
@@ -15505,7 +15570,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A213" s="135" t="s">
         <v>574</v>
       </c>
@@ -15533,7 +15598,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A214" s="135" t="s">
         <v>574</v>
       </c>
@@ -15561,7 +15626,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A215" s="135" t="s">
         <v>500</v>
       </c>
@@ -15585,7 +15650,7 @@
       <c r="G215" s="79"/>
       <c r="H215" s="79"/>
     </row>
-    <row r="216" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A216" s="135" t="s">
         <v>500</v>
       </c>
@@ -15613,7 +15678,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A217" s="135" t="s">
         <v>500</v>
       </c>
@@ -15641,7 +15706,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A218" s="135" t="s">
         <v>500</v>
       </c>
@@ -15669,7 +15734,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A219" s="135" t="s">
         <v>500</v>
       </c>
@@ -15697,7 +15762,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A220" s="135" t="s">
         <v>500</v>
       </c>
@@ -15725,7 +15790,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A221" s="135" t="s">
         <v>500</v>
       </c>
@@ -15753,7 +15818,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A222" s="135" t="s">
         <v>500</v>
       </c>
@@ -15781,7 +15846,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="135" t="s">
         <v>500</v>
       </c>
@@ -15809,7 +15874,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="135" t="s">
         <v>500</v>
       </c>
@@ -15837,7 +15902,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A225" s="135" t="s">
         <v>178</v>
       </c>
@@ -15865,7 +15930,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A226" s="135" t="s">
         <v>178</v>
       </c>
@@ -15893,7 +15958,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A227" s="135" t="s">
         <v>178</v>
       </c>
@@ -15921,7 +15986,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A228" s="135" t="s">
         <v>178</v>
       </c>
@@ -15949,7 +16014,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="135" t="s">
         <v>576</v>
       </c>
@@ -15977,7 +16042,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A230" s="135" t="s">
         <v>576</v>
       </c>
@@ -16005,7 +16070,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A231" s="135" t="s">
         <v>576</v>
       </c>
@@ -16033,7 +16098,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A232" s="135" t="s">
         <v>576</v>
       </c>
@@ -16061,7 +16126,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A233" s="135" t="s">
         <v>178</v>
       </c>
@@ -16089,7 +16154,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A234" s="135" t="s">
         <v>541</v>
       </c>
@@ -16117,7 +16182,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A235" s="135" t="s">
         <v>178</v>
       </c>
@@ -16145,7 +16210,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A236" s="135" t="s">
         <v>178</v>
       </c>
@@ -16173,7 +16238,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A237" s="135" t="s">
         <v>102</v>
       </c>
@@ -16201,7 +16266,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A238" s="135" t="s">
         <v>102</v>
       </c>
@@ -16229,7 +16294,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A239" s="135" t="s">
         <v>178</v>
       </c>
@@ -16257,7 +16322,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A240" s="135" t="s">
         <v>178</v>
       </c>
@@ -16285,7 +16350,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A241" s="135" t="s">
         <v>178</v>
       </c>
@@ -16313,7 +16378,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A242" s="135" t="s">
         <v>509</v>
       </c>
@@ -16341,7 +16406,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A243" s="135" t="s">
         <v>509</v>
       </c>
@@ -16369,7 +16434,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A244" s="135" t="s">
         <v>509</v>
       </c>
@@ -16397,7 +16462,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A245" s="135" t="s">
         <v>178</v>
       </c>
@@ -16425,7 +16490,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A246" s="135" t="s">
         <v>500</v>
       </c>
@@ -16453,7 +16518,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A247" s="135" t="s">
         <v>509</v>
       </c>
@@ -16482,7 +16547,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A248" s="135" t="s">
         <v>509</v>
       </c>
@@ -16510,7 +16575,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" s="135" t="s">
         <v>509</v>
       </c>
@@ -16538,7 +16603,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A250" s="135" t="s">
         <v>509</v>
       </c>
@@ -16566,7 +16631,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A251" s="135" t="s">
         <v>509</v>
       </c>
@@ -16594,7 +16659,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A252" s="135" t="s">
         <v>509</v>
       </c>
@@ -16622,7 +16687,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A253" s="135" t="s">
         <v>239</v>
       </c>
@@ -16650,7 +16715,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A254" s="135" t="s">
         <v>239</v>
       </c>
@@ -16678,7 +16743,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A255" s="79" t="s">
         <v>500</v>
       </c>
@@ -16706,7 +16771,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A256" s="79" t="s">
         <v>500</v>
       </c>
@@ -16734,7 +16799,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A257" s="79" t="s">
         <v>500</v>
       </c>
@@ -16762,7 +16827,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A258" s="79" t="s">
         <v>509</v>
       </c>
@@ -16790,7 +16855,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A259" s="79" t="s">
         <v>239</v>
       </c>
@@ -16818,7 +16883,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A260" s="79" t="s">
         <v>500</v>
       </c>
@@ -16846,7 +16911,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A261" s="79" t="s">
         <v>509</v>
       </c>
@@ -16874,7 +16939,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A262" s="79" t="s">
         <v>500</v>
       </c>
@@ -16902,7 +16967,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A263" s="79" t="s">
         <v>500</v>
       </c>
@@ -16930,7 +16995,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A264" s="79" t="s">
         <v>500</v>
       </c>
@@ -16958,7 +17023,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A265" s="79" t="s">
         <v>178</v>
       </c>
@@ -16986,7 +17051,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A266" s="79" t="s">
         <v>178</v>
       </c>
@@ -17014,7 +17079,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A267" s="79" t="s">
         <v>178</v>
       </c>
@@ -17042,7 +17107,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A268" s="79" t="s">
         <v>500</v>
       </c>
@@ -17070,7 +17135,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A269" s="79" t="s">
         <v>500</v>
       </c>
@@ -17098,7 +17163,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A270" s="79" t="s">
         <v>500</v>
       </c>
@@ -17111,13 +17176,13 @@
       <c r="D270" s="79">
         <v>1</v>
       </c>
-      <c r="E270" s="10">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_2019[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
-      </c>
-      <c r="F270" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_2019[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_2019[[#This Row],[Stk.]]</f>
-        <v>30</v>
+      <c r="E270" s="10" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_2019[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F270" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_2019[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_2019[[#This Row],[Stk.]]</f>
+        <v>#N/A</v>
       </c>
       <c r="G270" s="79" t="s">
         <v>543</v>
@@ -17126,7 +17191,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A271" s="79" t="s">
         <v>500</v>
       </c>
@@ -17154,7 +17219,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A272" s="79" t="s">
         <v>102</v>
       </c>
@@ -17182,7 +17247,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A273" s="79" t="s">
         <v>102</v>
       </c>
@@ -17210,7 +17275,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A274" s="79" t="s">
         <v>492</v>
       </c>
@@ -17238,7 +17303,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A275" s="79" t="s">
         <v>482</v>
       </c>
@@ -17266,7 +17331,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A276" s="79" t="s">
         <v>482</v>
       </c>
@@ -17294,7 +17359,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A277" s="79" t="s">
         <v>482</v>
       </c>
@@ -17322,7 +17387,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A278" s="79" t="s">
         <v>178</v>
       </c>
@@ -17350,7 +17415,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A279" s="79" t="s">
         <v>178</v>
       </c>
@@ -17378,7 +17443,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A280" s="79" t="s">
         <v>267</v>
       </c>
@@ -17406,7 +17471,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A281" s="79" t="s">
         <v>268</v>
       </c>
@@ -17434,7 +17499,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A282" s="79" t="s">
         <v>267</v>
       </c>
@@ -17462,7 +17527,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A283" s="79" t="s">
         <v>41</v>
       </c>
@@ -17490,7 +17555,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A284" s="79" t="s">
         <v>273</v>
       </c>
@@ -17518,7 +17583,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A285" s="79" t="s">
         <v>273</v>
       </c>
@@ -17546,7 +17611,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A286" s="79" t="s">
         <v>178</v>
       </c>
@@ -17574,7 +17639,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287" s="79" t="s">
         <v>267</v>
       </c>
@@ -17602,7 +17667,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A288" s="79" t="s">
         <v>267</v>
       </c>
@@ -17630,7 +17695,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A289" s="79" t="s">
         <v>273</v>
       </c>
@@ -17658,7 +17723,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A290" s="79" t="s">
         <v>273</v>
       </c>
@@ -17686,7 +17751,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" s="79" t="s">
         <v>268</v>
       </c>
@@ -17714,7 +17779,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A292" s="79" t="s">
         <v>129</v>
       </c>
@@ -17742,7 +17807,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A293" s="79" t="s">
         <v>273</v>
       </c>
@@ -17770,7 +17835,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A294" s="79" t="s">
         <v>274</v>
       </c>
@@ -17794,7 +17859,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A295" s="79" t="s">
         <v>21</v>
       </c>
@@ -17822,7 +17887,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A296" s="79" t="s">
         <v>102</v>
       </c>
@@ -17850,7 +17915,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="79" t="s">
         <v>36</v>
       </c>
@@ -17878,7 +17943,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A298" s="79" t="s">
         <v>268</v>
       </c>
@@ -17906,7 +17971,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A299" s="79" t="s">
         <v>267</v>
       </c>
@@ -17934,7 +17999,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A300" s="79" t="s">
         <v>267</v>
       </c>
@@ -17962,7 +18027,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A301" s="79" t="s">
         <v>239</v>
       </c>
@@ -17990,7 +18055,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A302" s="79" t="s">
         <v>36</v>
       </c>
@@ -18018,7 +18083,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A303" s="79" t="s">
         <v>256</v>
       </c>
@@ -18046,7 +18111,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A304" s="79" t="s">
         <v>36</v>
       </c>
@@ -18074,7 +18139,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A305" s="79" t="s">
         <v>36</v>
       </c>
@@ -18102,7 +18167,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A306" s="79" t="s">
         <v>36</v>
       </c>
@@ -18130,7 +18195,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A307" s="79" t="s">
         <v>259</v>
       </c>
@@ -18158,7 +18223,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A308" s="79" t="s">
         <v>259</v>
       </c>
@@ -18186,7 +18251,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A309" s="79" t="s">
         <v>259</v>
       </c>
@@ -18214,7 +18279,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A310" s="132" t="s">
         <v>256</v>
       </c>
@@ -18242,7 +18307,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A311" s="132" t="s">
         <v>256</v>
       </c>
@@ -18270,7 +18335,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A312" s="132" t="s">
         <v>256</v>
       </c>
@@ -18298,7 +18363,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="132" t="s">
         <v>725</v>
       </c>
@@ -18323,36 +18388,36 @@
       </c>
     </row>
     <row r="314" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A314" s="150" t="s">
+      <c r="A314" s="147" t="s">
         <v>491</v>
       </c>
-      <c r="B314" s="151">
+      <c r="B314" s="148">
         <f>SUBTOTAL(5,TAB_Doku_2019[Datum])</f>
-        <v>44146</v>
-      </c>
-      <c r="C314" s="152">
+        <v>43500</v>
+      </c>
+      <c r="C314" s="149">
         <f>SUBTOTAL(4,TAB_Doku_2019[Datum])</f>
         <v>44196</v>
       </c>
-      <c r="D314" s="153"/>
-      <c r="E314" s="154" t="str">
+      <c r="D314" s="150"/>
+      <c r="E314" s="151" t="e">
         <f>ROUND(SUBTOTAL(9,TAB_Doku_2019[Zeitaufwand])/60,0) &amp;" h"</f>
-        <v>19 h</v>
-      </c>
-      <c r="F314" s="154">
+        <v>#N/A</v>
+      </c>
+      <c r="F314" s="151" t="e">
         <f>SUBTOTAL(9,TAB_Doku_2019[[Kosten ]])</f>
-        <v>585</v>
-      </c>
-      <c r="G314" s="150"/>
-      <c r="H314" s="155"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G314" s="147"/>
+      <c r="H314" s="152"/>
     </row>
     <row r="316" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D316" t="s">
         <v>856</v>
       </c>
-      <c r="E316">
+      <c r="E316" t="e">
         <f>TAB_Doku_2019[[#Totals],[Kosten ]]/143*0.75</f>
-        <v>3.0681818181818183</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="317" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -18389,7 +18454,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="19">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="51">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
             <xm:f>'Leistungen-Liste'!$A$2:$A$28</xm:f>
@@ -18398,111 +18463,303 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
-          </x14:formula1>
-          <xm:sqref>B235:B237 B255:B256 B241:B250 B258:B260 B262 B305:B306 B171:B172 B165:B169 B308:B313 B163 B265:B299 B137:B146 B149:B158 B134:B135 B125 B123 B121 B110:B116 B118 B101:B105 B90:B98 B217 B58:B73 B41:B56 B75:B88 B32:B38 B27:B29 B23:B24 B8:B13 B15 B2:B6</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
-          <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$A$2:$A$37</xm:f>
+            <xm:f>'Leistungen-Liste'!$A$2:$A$36</xm:f>
           </x14:formula1>
           <xm:sqref>B214</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F22:$F1048573</xm:f>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>B235:B237</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>B255:B256</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>B241:B250</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>B258:B260</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>B262</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>B305:B306</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>B171:B172</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>B165:B169</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>B308:B313</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>B163</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>B265:B299</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>B137:B146</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>B149:B158</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>B134:B135</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>B125</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>B123</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>B121</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>B110:B116</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>B118</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>B101:B105</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>B90:B98</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>B217</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>B58:B73</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>B41:B56</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>B75:B88</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>B32:B38</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>B27:B29</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>B23:B24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>B8:B13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>B15</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F30:$F31</xm:f>
+          </x14:formula1>
+          <xm:sqref>B234</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F18:$F42</xm:f>
+          </x14:formula1>
+          <xm:sqref>B240</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F10:$F40</xm:f>
+          </x14:formula1>
+          <xm:sqref>B238:B239</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F5:$F1048565</xm:f>
+          </x14:formula1>
+          <xm:sqref>B216</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F7:$F1048567</xm:f>
+          </x14:formula1>
+          <xm:sqref>B218</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F8:$F28</xm:f>
+          </x14:formula1>
+          <xm:sqref>B233</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$A51:$A88</xm:f>
+          </x14:formula1>
+          <xm:sqref>B215</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$A47:$A84</xm:f>
+          </x14:formula1>
+          <xm:sqref>B208:B210</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$A54:$A80</xm:f>
+          </x14:formula1>
+          <xm:sqref>B192:B193</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$A45:$A71</xm:f>
+          </x14:formula1>
+          <xm:sqref>B183:B185</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$A39:$A76</xm:f>
+          </x14:formula1>
+          <xm:sqref>B199:B201</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$A54:$A81</xm:f>
+          </x14:formula1>
+          <xm:sqref>B181:B182</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$A41:$A67</xm:f>
+          </x14:formula1>
+          <xm:sqref>B178</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$A40:$A66</xm:f>
+          </x14:formula1>
+          <xm:sqref>B175:B177</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$A49:$A76</xm:f>
+          </x14:formula1>
+          <xm:sqref>B173</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$A36:$A62</xm:f>
+          </x14:formula1>
+          <xm:sqref>B170</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
+          <x14:formula1>
+            <xm:f>'Leistungen-Liste'!$F22:$F1048576</xm:f>
           </x14:formula1>
           <xm:sqref>B224</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F8:$F40</xm:f>
-          </x14:formula1>
-          <xm:sqref>B238:B240</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
-          <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F28:$F1048576</xm:f>
+            <xm:f>'Leistungen-Liste'!$F25:$F1048576</xm:f>
           </x14:formula1>
           <xm:sqref>B227:B230</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
-          <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F13:$F1048565</xm:f>
-          </x14:formula1>
-          <xm:sqref>B216</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
-          <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F15:$F1048567</xm:f>
-          </x14:formula1>
-          <xm:sqref>B218</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
-          <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F2:$F34</xm:f>
-          </x14:formula1>
-          <xm:sqref>B233:B234</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
-          <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$A52:$A89</xm:f>
-          </x14:formula1>
-          <xm:sqref>B215</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
-          <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$A48:$A85</xm:f>
-          </x14:formula1>
-          <xm:sqref>B208:B210</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
-          <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$A55:$A81</xm:f>
-          </x14:formula1>
-          <xm:sqref>B192:B193</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
-          <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$A46:$A72</xm:f>
-          </x14:formula1>
-          <xm:sqref>B183:B185</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
-          <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$A40:$A77</xm:f>
-          </x14:formula1>
-          <xm:sqref>B199:B201</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
-          <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$A55:$A82</xm:f>
-          </x14:formula1>
-          <xm:sqref>B181:B182</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
-          <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$A42:$A68</xm:f>
-          </x14:formula1>
-          <xm:sqref>B178</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
-          <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$A41:$A67</xm:f>
-          </x14:formula1>
-          <xm:sqref>B175:B177</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
-          <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$A50:$A77</xm:f>
-          </x14:formula1>
-          <xm:sqref>B173</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
-          <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$A37:$A63</xm:f>
-          </x14:formula1>
-          <xm:sqref>B170</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/trailtech/Leistungen-KC-Trailtech.xlsx
+++ b/trailtech/Leistungen-KC-Trailtech.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="908">
   <si>
     <t>Tätigkeit</t>
   </si>
@@ -2842,6 +2842,12 @@
   </si>
   <si>
     <t>Abstimmung Rahmenbedingungen Planung</t>
+  </si>
+  <si>
+    <t>Marina Umweltbüro Abstimmung Leitungen</t>
+  </si>
+  <si>
+    <t>Übermittlung Datensatz Umweltbüro</t>
   </si>
 </sst>
 </file>
@@ -3690,276 +3696,6 @@
   <dxfs count="107">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -4199,29 +3935,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -4336,7 +4049,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -5025,25 +4738,36 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <right/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -5069,25 +4793,34 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -5113,6 +4846,41 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5135,7 +4903,29 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5143,12 +4933,8 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -5171,6 +4957,203 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -5268,6 +5251,29 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5558,63 +5564,63 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="TAB_Doku_201910" displayName="TAB_Doku_201910" ref="A1:H65" totalsRowCount="1" headerRowDxfId="97" dataDxfId="96" totalsRowDxfId="94" tableBorderDxfId="95">
-  <autoFilter ref="A1:H64"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="TAB_Doku_201910" displayName="TAB_Doku_201910" ref="A1:H68" totalsRowCount="1" headerRowDxfId="97" dataDxfId="96" totalsRowDxfId="94" tableBorderDxfId="95">
+  <autoFilter ref="A1:H67"/>
   <sortState ref="A2:H64">
     <sortCondition descending="1" ref="C1:C64"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="93" totalsRowDxfId="7"/>
-    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="92" totalsRowDxfId="6">
+    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="93" totalsRowDxfId="31"/>
+    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="92" totalsRowDxfId="30">
       <totalsRowFormula>SUBTOTAL(5,TAB_Doku_201910[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="5">
+    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="29">
       <totalsRowFormula>SUBTOTAL(4,TAB_Doku_201910[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Stk." dataDxfId="90" totalsRowDxfId="4"/>
-    <tableColumn id="5" name="Zeitaufwand" dataDxfId="89" totalsRowDxfId="3">
+    <tableColumn id="4" name="Stk." dataDxfId="90" totalsRowDxfId="28"/>
+    <tableColumn id="5" name="Zeitaufwand" dataDxfId="89" totalsRowDxfId="27">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="2">
+    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="26">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,TAB_Doku_201910[[Kosten ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Abrechnung" dataDxfId="88" totalsRowDxfId="1"/>
-    <tableColumn id="8" name="Notiz" dataDxfId="87" totalsRowDxfId="0"/>
+    <tableColumn id="7" name="Abrechnung" dataDxfId="87" totalsRowDxfId="25"/>
+    <tableColumn id="8" name="Notiz" dataDxfId="86" totalsRowDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TAB_Doku_2019" displayName="TAB_Doku_2019" ref="A1:H314" totalsRowCount="1" headerRowDxfId="86" dataDxfId="85" totalsRowDxfId="83" tableBorderDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TAB_Doku_2019" displayName="TAB_Doku_2019" ref="A1:H314" totalsRowCount="1" headerRowDxfId="85" dataDxfId="84" totalsRowDxfId="82" tableBorderDxfId="83">
   <autoFilter ref="A1:H313"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="82" totalsRowDxfId="40"/>
-    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="81" totalsRowDxfId="39">
+    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="79" totalsRowDxfId="78">
       <totalsRowFormula>SUBTOTAL(5,TAB_Doku_2019[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="80" totalsRowDxfId="38">
+    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="77" totalsRowDxfId="76">
       <totalsRowFormula>SUBTOTAL(4,TAB_Doku_2019[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Stk." dataDxfId="79" totalsRowDxfId="37"/>
-    <tableColumn id="5" name="Zeitaufwand" totalsRowFunction="custom" dataDxfId="78" totalsRowDxfId="36">
+    <tableColumn id="4" name="Stk." dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="5" name="Zeitaufwand" totalsRowFunction="custom" dataDxfId="73" totalsRowDxfId="72">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_2019[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</calculatedColumnFormula>
       <totalsRowFormula>ROUND(SUBTOTAL(9,TAB_Doku_2019[Zeitaufwand])/60,0) &amp;" h"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="77" totalsRowDxfId="35">
+    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="71" totalsRowDxfId="70">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_2019[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_2019[[#This Row],[Stk.]]</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,TAB_Doku_2019[[Kosten ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Abrechnung" dataDxfId="76" totalsRowDxfId="34"/>
-    <tableColumn id="8" name="Notiz" dataDxfId="75" totalsRowDxfId="33"/>
+    <tableColumn id="7" name="Abrechnung" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="8" name="Notiz" dataDxfId="67" totalsRowDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TAB_Dokumentation" displayName="TAB_Dokumentation" ref="A1:H199" totalsRowCount="1" headerRowDxfId="74" dataDxfId="73" totalsRowDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TAB_Dokumentation" displayName="TAB_Dokumentation" ref="A1:H199" totalsRowCount="1" headerRowDxfId="65" dataDxfId="64" totalsRowDxfId="63">
   <autoFilter ref="A1:H198">
     <filterColumn colId="0">
       <filters>
@@ -5626,44 +5632,44 @@
     <sortCondition descending="1" ref="G1:G198"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="71" totalsRowDxfId="70"/>
-    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="69" totalsRowDxfId="68">
+    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="59">
       <totalsRowFormula>SUBTOTAL(5,TAB_Dokumentation[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Datum" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="66">
+    <tableColumn id="7" name="Datum" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="57">
       <totalsRowFormula>MAX(4,TAB_Dokumentation[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Stk." dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="4" name="Zeitaufwand" dataDxfId="63" totalsRowDxfId="62">
+    <tableColumn id="3" name="Stk." dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="4" name="Zeitaufwand" dataDxfId="54" totalsRowDxfId="53">
       <calculatedColumnFormula>INDEX(TAB_Leistungen[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Dokumentation[[#This Row],[Leistung]],TAB_Leistungen[Tätigkeit],0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Kosten " totalsRowFunction="custom" dataDxfId="61" totalsRowDxfId="60">
+    <tableColumn id="5" name="Kosten " totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="51">
       <calculatedColumnFormula>INDEX(TAB_Leistungen[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Dokumentation[[#This Row],[Leistung]],TAB_Leistungen[Tätigkeit],0),3)*TAB_Dokumentation[[#This Row],[Stk.]]</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,TAB_Dokumentation[[Kosten ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Abrechnung" totalsRowDxfId="59"/>
-    <tableColumn id="8" name="Notiz" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="6" name="Abrechnung" totalsRowDxfId="50"/>
+    <tableColumn id="8" name="Notiz" dataDxfId="49" totalsRowDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle1" displayName="Tabelle1" ref="A1:I40" totalsRowShown="0" headerRowDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle1" displayName="Tabelle1" ref="A1:I40" totalsRowShown="0" headerRowDxfId="47">
   <autoFilter ref="A1:I40"/>
   <sortState ref="A2:I35">
     <sortCondition descending="1" ref="D1:D35"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="Name" dataDxfId="55"/>
-    <tableColumn id="2" name="Zusatz" dataDxfId="54"/>
-    <tableColumn id="3" name="Adresse" dataDxfId="53"/>
-    <tableColumn id="4" name="PLZ" dataDxfId="52"/>
-    <tableColumn id="5" name="Ort" dataDxfId="51"/>
-    <tableColumn id="6" name="Spalte1" dataDxfId="50"/>
-    <tableColumn id="7" name="Telefon" dataDxfId="49"/>
-    <tableColumn id="8" name="Spalte2" dataDxfId="48"/>
-    <tableColumn id="9" name="Notiz" dataDxfId="47"/>
+    <tableColumn id="1" name="Name" dataDxfId="46"/>
+    <tableColumn id="2" name="Zusatz" dataDxfId="45"/>
+    <tableColumn id="3" name="Adresse" dataDxfId="44"/>
+    <tableColumn id="4" name="PLZ" dataDxfId="43"/>
+    <tableColumn id="5" name="Ort" dataDxfId="42"/>
+    <tableColumn id="6" name="Spalte1" dataDxfId="41"/>
+    <tableColumn id="7" name="Telefon" dataDxfId="40"/>
+    <tableColumn id="8" name="Spalte2" dataDxfId="39"/>
+    <tableColumn id="9" name="Notiz" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5674,9 +5680,9 @@
   <autoFilter ref="C4:F8"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Position"/>
-    <tableColumn id="2" name="Stk/Std" dataDxfId="46"/>
-    <tableColumn id="3" name="Stk/Std-Preis" dataDxfId="45"/>
-    <tableColumn id="4" name="Summe:" dataDxfId="44" dataCellStyle="Währung"/>
+    <tableColumn id="2" name="Stk/Std" dataDxfId="37"/>
+    <tableColumn id="3" name="Stk/Std-Preis" dataDxfId="36"/>
+    <tableColumn id="4" name="Summe:" dataDxfId="35" dataCellStyle="Währung"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5698,9 +5704,9 @@
   <autoFilter ref="H4:K7"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Position"/>
-    <tableColumn id="2" name="Stk/Std" dataDxfId="43"/>
-    <tableColumn id="3" name="Stk/Std-Preis" dataDxfId="42"/>
-    <tableColumn id="4" name="Summe:" dataDxfId="41" dataCellStyle="Währung"/>
+    <tableColumn id="2" name="Stk/Std" dataDxfId="34"/>
+    <tableColumn id="3" name="Stk/Std-Preis" dataDxfId="33"/>
+    <tableColumn id="4" name="Summe:" dataDxfId="32" dataCellStyle="Währung"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6057,7 +6063,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="40">
-        <f>I2*G2/60</f>
+        <f t="shared" ref="H2:H12" si="0">I2*G2/60</f>
         <v>2.5</v>
       </c>
       <c r="I2" s="19">
@@ -6085,7 +6091,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="40">
-        <f>I3*G3/60</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I3" s="19">
@@ -6100,7 +6106,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="83">
-        <f t="shared" ref="C4:C14" si="0">D4*B4/60</f>
+        <f t="shared" ref="C4:C14" si="1">D4*B4/60</f>
         <v>6.25</v>
       </c>
       <c r="D4" s="82">
@@ -6113,7 +6119,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="40">
-        <f>I4*G4/60</f>
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
       <c r="I4" s="19">
@@ -6128,7 +6134,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.25</v>
       </c>
       <c r="D5" s="85">
@@ -6141,7 +6147,7 @@
         <v>30</v>
       </c>
       <c r="H5" s="40">
-        <f>I5*G5/60</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="I5" s="19">
@@ -6156,7 +6162,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
       <c r="D6" s="85">
@@ -6169,7 +6175,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="40">
-        <f>I6*G6/60</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="I6" s="19">
@@ -6184,7 +6190,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0833333333333335</v>
       </c>
       <c r="D7" s="85">
@@ -6197,7 +6203,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="40">
-        <f>I7*G7/60</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I7" s="19">
@@ -6212,7 +6218,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.166666666666667</v>
       </c>
       <c r="D8" s="85">
@@ -6225,7 +6231,7 @@
         <v>180</v>
       </c>
       <c r="H8" s="1">
-        <f>I8*G8/60</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="I8" s="19">
@@ -6240,7 +6246,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0833333333333335</v>
       </c>
       <c r="D9" s="85">
@@ -6253,7 +6259,7 @@
         <v>300</v>
       </c>
       <c r="H9" s="1">
-        <f>I9*G9/60</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="I9" s="19">
@@ -6281,7 +6287,7 @@
         <v>240</v>
       </c>
       <c r="H10" s="1">
-        <f>I10*G10/60</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="I10" s="19">
@@ -6304,7 +6310,7 @@
         <v>60</v>
       </c>
       <c r="H11" s="1">
-        <f>I11*G11/60</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="I11" s="19">
@@ -6332,7 +6338,7 @@
         <v>60</v>
       </c>
       <c r="H12" s="40">
-        <f>I12*G12/60</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="I12" s="18">
@@ -6347,7 +6353,7 @@
         <v>120</v>
       </c>
       <c r="C13" s="83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="D13" s="85">
@@ -6374,7 +6380,7 @@
         <v>60</v>
       </c>
       <c r="C14" s="83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="D14" s="85">
@@ -6453,7 +6459,7 @@
         <v>60</v>
       </c>
       <c r="C17" s="86">
-        <f t="shared" ref="C17:C29" si="1">D17*B17/60</f>
+        <f t="shared" ref="C17:C29" si="2">D17*B17/60</f>
         <v>25</v>
       </c>
       <c r="D17" s="85">
@@ -6544,7 +6550,7 @@
         <v>240</v>
       </c>
       <c r="C20" s="86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="D20" s="85">
@@ -6567,7 +6573,7 @@
         <v>300</v>
       </c>
       <c r="C21" s="86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>125</v>
       </c>
       <c r="D21" s="85">
@@ -6581,7 +6587,7 @@
         <v>1440</v>
       </c>
       <c r="H21" s="30">
-        <f>I21*G21/60</f>
+        <f t="shared" ref="H21:H34" si="3">I21*G21/60</f>
         <v>720</v>
       </c>
       <c r="I21" s="31">
@@ -6596,7 +6602,7 @@
         <v>120</v>
       </c>
       <c r="C22" s="86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="D22" s="85">
@@ -6609,7 +6615,7 @@
         <v>60</v>
       </c>
       <c r="H22" s="30">
-        <f>I22*G22/60</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="I22" s="31">
@@ -6624,7 +6630,7 @@
         <v>150</v>
       </c>
       <c r="C23" s="86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>62.5</v>
       </c>
       <c r="D23" s="85">
@@ -6638,7 +6644,7 @@
         <v>480</v>
       </c>
       <c r="H23" s="89">
-        <f>I23*G23/60</f>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="I23" s="90">
@@ -6657,7 +6663,7 @@
         <v>180</v>
       </c>
       <c r="C24" s="86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="D24" s="85">
@@ -6671,7 +6677,7 @@
         <v>1440</v>
       </c>
       <c r="H24" s="89">
-        <f>I24*G24/60</f>
+        <f t="shared" si="3"/>
         <v>720</v>
       </c>
       <c r="I24" s="90">
@@ -6686,7 +6692,7 @@
         <v>180</v>
       </c>
       <c r="C25" s="86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="D25" s="85">
@@ -6700,7 +6706,7 @@
         <v>960</v>
       </c>
       <c r="H25" s="89">
-        <f>I25*G25/60</f>
+        <f t="shared" si="3"/>
         <v>480</v>
       </c>
       <c r="I25" s="90">
@@ -6715,7 +6721,7 @@
         <v>240</v>
       </c>
       <c r="C26" s="86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="D26" s="85">
@@ -6729,7 +6735,7 @@
         <v>960</v>
       </c>
       <c r="H26" s="89">
-        <f>I26*G26/60</f>
+        <f t="shared" si="3"/>
         <v>480</v>
       </c>
       <c r="I26" s="90">
@@ -6744,7 +6750,7 @@
         <v>300</v>
       </c>
       <c r="C27" s="86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>125</v>
       </c>
       <c r="D27" s="85">
@@ -6758,7 +6764,7 @@
         <v>1920</v>
       </c>
       <c r="H27" s="89">
-        <f>I27*G27/60</f>
+        <f t="shared" si="3"/>
         <v>960</v>
       </c>
       <c r="I27" s="90">
@@ -6773,7 +6779,7 @@
         <v>60</v>
       </c>
       <c r="C28" s="86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="D28" s="85">
@@ -6787,7 +6793,7 @@
         <v>1440</v>
       </c>
       <c r="H28" s="89">
-        <f>I28*G28/60</f>
+        <f t="shared" si="3"/>
         <v>720</v>
       </c>
       <c r="I28" s="90">
@@ -6802,7 +6808,7 @@
         <v>60</v>
       </c>
       <c r="C29" s="86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="D29" s="85">
@@ -6815,7 +6821,7 @@
         <v>120</v>
       </c>
       <c r="H29" s="1">
-        <f>I29*G29/60</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="I29" s="19">
@@ -6830,7 +6836,7 @@
         <v>180</v>
       </c>
       <c r="H30" s="1">
-        <f>I30*G30/60</f>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="I30" s="19">
@@ -6845,7 +6851,7 @@
         <v>150</v>
       </c>
       <c r="H31" s="1">
-        <f>I31*G31/60</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="I31" s="19">
@@ -6860,7 +6866,7 @@
         <v>15</v>
       </c>
       <c r="H32" s="40">
-        <f>I32*G32/60</f>
+        <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
       <c r="I32" s="18">
@@ -6875,7 +6881,7 @@
         <v>60</v>
       </c>
       <c r="H33" s="1">
-        <f>I33*G33/60</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="I33" s="19">
@@ -6890,7 +6896,7 @@
         <v>15</v>
       </c>
       <c r="H34" s="40">
-        <f>I34*G34/60</f>
+        <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
       <c r="I34" s="18">
@@ -6943,13 +6949,13 @@
   <sheetPr published="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I322"/>
+  <dimension ref="A1:I325"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6990,202 +6996,190 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="78"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F2" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G2" s="78"/>
+      <c r="H2" s="134"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="78" t="s">
+        <v>887</v>
+      </c>
+      <c r="B3" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="137">
+        <v>44343</v>
+      </c>
+      <c r="D3" s="133">
+        <v>1</v>
+      </c>
+      <c r="E3" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F3" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G3" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="H3" s="134" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="78" t="s">
+        <v>887</v>
+      </c>
+      <c r="B4" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="137">
+        <v>44333</v>
+      </c>
+      <c r="D4" s="133">
+        <v>2</v>
+      </c>
+      <c r="E4" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>10</v>
+      </c>
+      <c r="F4" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>10</v>
+      </c>
+      <c r="G4" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="H4" s="134" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="159" t="s">
         <v>891</v>
       </c>
-      <c r="B2" s="160" t="s">
+      <c r="B5" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="161">
+      <c r="C5" s="161">
         <v>44302</v>
       </c>
-      <c r="D2" s="160">
-        <v>1</v>
-      </c>
-      <c r="E2" s="160">
+      <c r="D5" s="160">
+        <v>1</v>
+      </c>
+      <c r="E5" s="160">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>30</v>
       </c>
-      <c r="F2" s="160">
+      <c r="F5" s="160">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>15</v>
       </c>
-      <c r="G2" s="159" t="s">
+      <c r="G5" s="159" t="s">
         <v>498</v>
       </c>
-      <c r="H2" s="162" t="s">
+      <c r="H5" s="162" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="159" t="s">
+    <row r="6" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="159" t="s">
         <v>885</v>
       </c>
-      <c r="B3" s="160" t="s">
+      <c r="B6" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="161">
+      <c r="C6" s="161">
         <v>44302</v>
       </c>
-      <c r="D3" s="160">
-        <v>1</v>
-      </c>
-      <c r="E3" s="160">
+      <c r="D6" s="160">
+        <v>1</v>
+      </c>
+      <c r="E6" s="160">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>180</v>
       </c>
-      <c r="F3" s="160">
+      <c r="F6" s="160">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>90</v>
       </c>
-      <c r="G3" s="159" t="s">
+      <c r="G6" s="159" t="s">
         <v>900</v>
       </c>
-      <c r="H3" s="162" t="s">
+      <c r="H6" s="162" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="159" t="s">
+    <row r="7" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="159" t="s">
         <v>879</v>
       </c>
-      <c r="B4" s="160" t="s">
+      <c r="B7" s="160" t="s">
         <v>633</v>
       </c>
-      <c r="C4" s="161">
+      <c r="C7" s="161">
         <v>44302</v>
       </c>
-      <c r="D4" s="160">
+      <c r="D7" s="160">
         <v>2</v>
       </c>
-      <c r="E4" s="160">
+      <c r="E7" s="160">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>60</v>
       </c>
-      <c r="F4" s="160">
+      <c r="F7" s="160">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>60</v>
       </c>
-      <c r="G4" s="159" t="s">
+      <c r="G7" s="159" t="s">
         <v>900</v>
       </c>
-      <c r="H4" s="162" t="s">
+      <c r="H7" s="162" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="78" t="s">
+    <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="78" t="s">
         <v>887</v>
       </c>
-      <c r="B5" s="133" t="s">
+      <c r="B8" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="137">
+      <c r="C8" s="137">
         <v>44301</v>
       </c>
-      <c r="D5" s="133">
+      <c r="D8" s="133">
         <v>4</v>
       </c>
-      <c r="E5" s="133">
+      <c r="E8" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>5</v>
       </c>
-      <c r="F5" s="133">
+      <c r="F8" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>10</v>
       </c>
-      <c r="G5" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H5" s="134"/>
-    </row>
-    <row r="6" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="78" t="s">
-        <v>887</v>
-      </c>
-      <c r="B6" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="137">
-        <v>44301</v>
-      </c>
-      <c r="D6" s="133">
-        <v>1</v>
-      </c>
-      <c r="E6" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
-      </c>
-      <c r="F6" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
-      </c>
-      <c r="G6" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H6" s="134" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="78" t="s">
-        <v>887</v>
-      </c>
-      <c r="B7" s="133" t="s">
-        <v>523</v>
-      </c>
-      <c r="C7" s="137">
-        <v>44301</v>
-      </c>
-      <c r="D7" s="133">
-        <v>10</v>
-      </c>
-      <c r="E7" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
-      </c>
-      <c r="F7" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>300</v>
-      </c>
-      <c r="G7" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H7" s="134" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="78" t="s">
-        <v>891</v>
-      </c>
-      <c r="B8" s="133" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="137">
-        <v>44301</v>
-      </c>
-      <c r="D8" s="133">
-        <v>1</v>
-      </c>
-      <c r="E8" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
-      </c>
-      <c r="F8" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
-      </c>
       <c r="G8" s="78" t="s">
         <v>494</v>
       </c>
-      <c r="H8" s="134" t="s">
-        <v>892</v>
-      </c>
+      <c r="H8" s="134"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="B9" s="133" t="s">
         <v>1</v>
@@ -7194,7 +7188,7 @@
         <v>44301</v>
       </c>
       <c r="D9" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -7202,73 +7196,77 @@
       </c>
       <c r="F9" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G9" s="78" t="s">
         <v>494</v>
       </c>
       <c r="H9" s="134" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
-        <v>102</v>
+        <v>887</v>
       </c>
       <c r="B10" s="133" t="s">
-        <v>207</v>
+        <v>523</v>
       </c>
       <c r="C10" s="137">
         <v>44301</v>
       </c>
       <c r="D10" s="133">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E10" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F10" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="G10" s="78" t="s">
         <v>494</v>
       </c>
-      <c r="H10" s="134"/>
+      <c r="H10" s="134" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="78" t="s">
-        <v>102</v>
+        <v>891</v>
       </c>
       <c r="B11" s="133" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C11" s="137">
         <v>44301</v>
       </c>
       <c r="D11" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F11" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>7.5</v>
       </c>
       <c r="G11" s="78" t="s">
         <v>494</v>
       </c>
-      <c r="H11" s="134"/>
+      <c r="H11" s="134" t="s">
+        <v>892</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="78" t="s">
-        <v>734</v>
+        <v>883</v>
       </c>
       <c r="B12" s="133" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C12" s="137">
         <v>44301</v>
@@ -7278,85 +7276,83 @@
       </c>
       <c r="E12" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F12" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G12" s="78" t="s">
         <v>494</v>
       </c>
-      <c r="H12" s="134"/>
+      <c r="H12" s="134" t="s">
+        <v>884</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="78" t="s">
-        <v>883</v>
+        <v>102</v>
       </c>
       <c r="B13" s="133" t="s">
-        <v>1</v>
+        <v>207</v>
       </c>
       <c r="C13" s="137">
         <v>44301</v>
       </c>
       <c r="D13" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F13" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G13" s="78" t="s">
         <v>494</v>
       </c>
-      <c r="H13" s="134" t="s">
-        <v>905</v>
-      </c>
+      <c r="H13" s="134"/>
     </row>
     <row r="14" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="78" t="s">
-        <v>891</v>
+        <v>102</v>
       </c>
       <c r="B14" s="133" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C14" s="137">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="D14" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F14" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="G14" s="78" t="s">
         <v>494</v>
       </c>
-      <c r="H14" s="134" t="s">
-        <v>890</v>
-      </c>
+      <c r="H14" s="134"/>
     </row>
     <row r="15" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78" t="s">
-        <v>877</v>
+        <v>734</v>
       </c>
       <c r="B15" s="133" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="C15" s="137">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="D15" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -7364,7 +7360,7 @@
       </c>
       <c r="F15" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G15" s="78" t="s">
         <v>494</v>
@@ -7373,41 +7369,41 @@
     </row>
     <row r="16" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78" t="s">
-        <v>899</v>
+        <v>883</v>
       </c>
       <c r="B16" s="133" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C16" s="137">
-        <v>44294</v>
+        <v>44301</v>
       </c>
       <c r="D16" s="133">
         <v>1</v>
       </c>
       <c r="E16" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F16" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="G16" s="78" t="s">
         <v>494</v>
       </c>
       <c r="H16" s="134" t="s">
-        <v>893</v>
+        <v>905</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="78" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="B17" s="133" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C17" s="137">
-        <v>44294</v>
+        <v>44300</v>
       </c>
       <c r="D17" s="133">
         <v>1</v>
@@ -7429,72 +7425,70 @@
     </row>
     <row r="18" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="78" t="s">
-        <v>509</v>
+        <v>877</v>
       </c>
       <c r="B18" s="133" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C18" s="137">
-        <v>44294</v>
+        <v>44300</v>
       </c>
       <c r="D18" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F18" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G18" s="78" t="s">
         <v>494</v>
       </c>
-      <c r="H18" s="134" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="134"/>
+    </row>
+    <row r="19" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="78" t="s">
-        <v>879</v>
+        <v>899</v>
       </c>
       <c r="B19" s="133" t="s">
-        <v>487</v>
+        <v>50</v>
       </c>
       <c r="C19" s="137">
         <v>44294</v>
       </c>
       <c r="D19" s="133">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E19" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="F19" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>120</v>
+        <v>2.5</v>
       </c>
       <c r="G19" s="78" t="s">
         <v>494</v>
       </c>
       <c r="H19" s="134" t="s">
-        <v>871</v>
+        <v>893</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="78" t="s">
-        <v>879</v>
+        <v>899</v>
       </c>
       <c r="B20" s="133" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C20" s="137">
         <v>44294</v>
       </c>
       <c r="D20" s="133">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E20" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -7502,27 +7496,27 @@
       </c>
       <c r="F20" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="G20" s="78" t="s">
         <v>494</v>
       </c>
       <c r="H20" s="134" t="s">
-        <v>870</v>
+        <v>890</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="78" t="s">
-        <v>886</v>
+        <v>509</v>
       </c>
       <c r="B21" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="137">
-        <v>44288</v>
+        <v>44294</v>
       </c>
       <c r="D21" s="133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -7530,102 +7524,102 @@
       </c>
       <c r="F21" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
+        <v>15</v>
       </c>
       <c r="G21" s="78" t="s">
         <v>494</v>
       </c>
       <c r="H21" s="134" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="78" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="B22" s="133" t="s">
-        <v>1</v>
+        <v>487</v>
       </c>
       <c r="C22" s="137">
-        <v>44288</v>
+        <v>44294</v>
       </c>
       <c r="D22" s="133">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E22" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F22" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="G22" s="78" t="s">
         <v>494</v>
       </c>
       <c r="H22" s="134" t="s">
-        <v>888</v>
+        <v>871</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="78" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="B23" s="133" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="C23" s="137">
-        <v>44288</v>
+        <v>44294</v>
       </c>
       <c r="D23" s="133">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E23" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F23" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="G23" s="78" t="s">
         <v>494</v>
       </c>
       <c r="H23" s="134" t="s">
-        <v>890</v>
+        <v>870</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78" t="s">
-        <v>879</v>
+        <v>886</v>
       </c>
       <c r="B24" s="133" t="s">
-        <v>633</v>
+        <v>48</v>
       </c>
       <c r="C24" s="137">
         <v>44288</v>
       </c>
       <c r="D24" s="133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F24" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>22.5</v>
       </c>
       <c r="G24" s="78" t="s">
         <v>494</v>
       </c>
       <c r="H24" s="134" t="s">
-        <v>880</v>
+        <v>889</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="78" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="B25" s="133" t="s">
         <v>1</v>
@@ -7634,7 +7628,7 @@
         <v>44288</v>
       </c>
       <c r="D25" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -7642,27 +7636,27 @@
       </c>
       <c r="F25" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G25" s="78" t="s">
         <v>494</v>
       </c>
       <c r="H25" s="134" t="s">
-        <v>905</v>
+        <v>888</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="78" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="B26" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="137">
-        <v>44284</v>
+        <v>44288</v>
       </c>
       <c r="D26" s="133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -7670,13 +7664,13 @@
       </c>
       <c r="F26" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
+        <v>15</v>
       </c>
       <c r="G26" s="78" t="s">
         <v>494</v>
       </c>
       <c r="H26" s="134" t="s">
-        <v>881</v>
+        <v>890</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7684,139 +7678,139 @@
         <v>879</v>
       </c>
       <c r="B27" s="133" t="s">
-        <v>1</v>
+        <v>633</v>
       </c>
       <c r="C27" s="137">
-        <v>44275</v>
+        <v>44288</v>
       </c>
       <c r="D27" s="133">
         <v>2</v>
       </c>
       <c r="E27" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F27" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G27" s="78" t="s">
         <v>494</v>
       </c>
       <c r="H27" s="134" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="78" t="s">
-        <v>830</v>
+        <v>883</v>
       </c>
       <c r="B28" s="133" t="s">
-        <v>903</v>
+        <v>1</v>
       </c>
       <c r="C28" s="137">
-        <v>44270</v>
+        <v>44288</v>
       </c>
       <c r="D28" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F28" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G28" s="78" t="s">
         <v>494</v>
       </c>
       <c r="H28" s="134" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="78" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="B29" s="133" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C29" s="137">
-        <v>44264</v>
+        <v>44284</v>
       </c>
       <c r="D29" s="133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E29" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="F29" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>22.5</v>
       </c>
       <c r="G29" s="78" t="s">
-        <v>878</v>
+        <v>494</v>
       </c>
       <c r="H29" s="134" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="78" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="B30" s="133" t="s">
-        <v>487</v>
+        <v>1</v>
       </c>
       <c r="C30" s="137">
-        <v>44264</v>
+        <v>44275</v>
       </c>
       <c r="D30" s="133">
         <v>2</v>
       </c>
       <c r="E30" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F30" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G30" s="78" t="s">
-        <v>878</v>
+        <v>494</v>
       </c>
       <c r="H30" s="134" t="s">
-        <v>874</v>
+        <v>882</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="78" t="s">
-        <v>873</v>
+        <v>830</v>
       </c>
       <c r="B31" s="133" t="s">
-        <v>140</v>
+        <v>903</v>
       </c>
       <c r="C31" s="137">
-        <v>44264</v>
+        <v>44270</v>
       </c>
       <c r="D31" s="133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F31" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>60</v>
       </c>
       <c r="G31" s="78" t="s">
-        <v>878</v>
+        <v>494</v>
       </c>
       <c r="H31" s="134" t="s">
-        <v>832</v>
+        <v>901</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7824,146 +7818,150 @@
         <v>873</v>
       </c>
       <c r="B32" s="133" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C32" s="137">
-        <v>44259</v>
+        <v>44264</v>
       </c>
       <c r="D32" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="F32" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="G32" s="78" t="s">
         <v>878</v>
       </c>
       <c r="H32" s="134" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="78" t="s">
-        <v>830</v>
+        <v>873</v>
       </c>
       <c r="B33" s="133" t="s">
-        <v>140</v>
+        <v>487</v>
       </c>
       <c r="C33" s="137">
-        <v>44256</v>
+        <v>44264</v>
       </c>
       <c r="D33" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F33" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>2.5</v>
+        <v>60</v>
       </c>
       <c r="G33" s="78" t="s">
-        <v>494</v>
+        <v>878</v>
       </c>
       <c r="H33" s="134" t="s">
-        <v>904</v>
+        <v>874</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="78" t="s">
-        <v>830</v>
+        <v>873</v>
       </c>
       <c r="B34" s="133" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="C34" s="137">
-        <v>44250</v>
+        <v>44264</v>
       </c>
       <c r="D34" s="133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E34" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F34" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>7.5</v>
       </c>
       <c r="G34" s="78" t="s">
-        <v>494</v>
+        <v>878</v>
       </c>
       <c r="H34" s="134" t="s">
-        <v>902</v>
+        <v>832</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="78" t="s">
-        <v>102</v>
+        <v>873</v>
       </c>
       <c r="B35" s="133" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C35" s="137">
-        <v>44244</v>
+        <v>44259</v>
       </c>
       <c r="D35" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F35" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G35" s="78" t="s">
-        <v>661</v>
-      </c>
-      <c r="H35" s="134"/>
+        <v>878</v>
+      </c>
+      <c r="H35" s="134" t="s">
+        <v>876</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="78" t="s">
-        <v>734</v>
+        <v>830</v>
       </c>
       <c r="B36" s="133" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="C36" s="137">
-        <v>44244</v>
+        <v>44256</v>
       </c>
       <c r="D36" s="133">
         <v>1</v>
       </c>
       <c r="E36" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="F36" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>2.5</v>
       </c>
       <c r="G36" s="78" t="s">
-        <v>661</v>
-      </c>
-      <c r="H36" s="134"/>
+        <v>494</v>
+      </c>
+      <c r="H36" s="134" t="s">
+        <v>904</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="78" t="s">
-        <v>845</v>
+        <v>830</v>
       </c>
       <c r="B37" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C37" s="137">
-        <v>44244</v>
+        <v>44250</v>
       </c>
       <c r="D37" s="133">
         <v>1</v>
@@ -7977,52 +7975,50 @@
         <v>7.5</v>
       </c>
       <c r="G37" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H37" s="134" t="s">
-        <v>861</v>
+        <v>902</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="78" t="s">
-        <v>866</v>
+        <v>102</v>
       </c>
       <c r="B38" s="133" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C38" s="137">
-        <v>44242</v>
+        <v>44244</v>
       </c>
       <c r="D38" s="133">
         <v>1</v>
       </c>
       <c r="E38" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F38" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G38" s="78" t="s">
         <v>661</v>
       </c>
-      <c r="H38" s="134" t="s">
-        <v>868</v>
-      </c>
+      <c r="H38" s="134"/>
     </row>
     <row r="39" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="78" t="s">
-        <v>866</v>
+        <v>734</v>
       </c>
       <c r="B39" s="133" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C39" s="137">
-        <v>44242</v>
+        <v>44244</v>
       </c>
       <c r="D39" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8030,41 +8026,39 @@
       </c>
       <c r="F39" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G39" s="78" t="s">
         <v>661</v>
       </c>
-      <c r="H39" s="134" t="s">
-        <v>871</v>
-      </c>
+      <c r="H39" s="134"/>
     </row>
     <row r="40" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="78" t="s">
-        <v>866</v>
+        <v>845</v>
       </c>
       <c r="B40" s="133" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C40" s="137">
-        <v>44242</v>
+        <v>44244</v>
       </c>
       <c r="D40" s="133">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E40" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F40" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>45</v>
+        <v>7.5</v>
       </c>
       <c r="G40" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H40" s="134" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -8072,223 +8066,223 @@
         <v>866</v>
       </c>
       <c r="B41" s="133" t="s">
-        <v>487</v>
+        <v>49</v>
       </c>
       <c r="C41" s="137">
         <v>44242</v>
       </c>
       <c r="D41" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F41" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="G41" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H41" s="134" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="78" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B42" s="133" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C42" s="137">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="D42" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F42" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G42" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H42" s="134" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="78" t="s">
-        <v>862</v>
-      </c>
-      <c r="B43" s="132" t="s">
-        <v>8</v>
+        <v>866</v>
+      </c>
+      <c r="B43" s="133" t="s">
+        <v>2</v>
       </c>
       <c r="C43" s="137">
-        <v>44232</v>
+        <v>44242</v>
       </c>
       <c r="D43" s="133">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E43" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="F43" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="G43" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H43" s="134" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="78" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="B44" s="133" t="s">
-        <v>1</v>
+        <v>487</v>
       </c>
       <c r="C44" s="137">
-        <v>44225</v>
+        <v>44242</v>
       </c>
       <c r="D44" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F44" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="G44" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H44" s="134" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="78" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
       <c r="B45" s="133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" s="137">
-        <v>44224</v>
+        <v>44239</v>
       </c>
       <c r="D45" s="133">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E45" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F45" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>37.5</v>
+        <v>15</v>
       </c>
       <c r="G45" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H45" s="134" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="78" t="s">
-        <v>845</v>
-      </c>
-      <c r="B46" s="133" t="s">
-        <v>48</v>
+        <v>862</v>
+      </c>
+      <c r="B46" s="132" t="s">
+        <v>8</v>
       </c>
       <c r="C46" s="137">
-        <v>44218</v>
+        <v>44232</v>
       </c>
       <c r="D46" s="133">
         <v>1</v>
       </c>
       <c r="E46" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="F46" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>90</v>
       </c>
       <c r="G46" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H46" s="134" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="78" t="s">
-        <v>845</v>
+        <v>862</v>
       </c>
       <c r="B47" s="133" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C47" s="137">
-        <v>44218</v>
+        <v>44225</v>
       </c>
       <c r="D47" s="133">
         <v>1</v>
       </c>
       <c r="E47" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="F47" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="G47" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H47" s="134" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="78" t="s">
-        <v>845</v>
+        <v>862</v>
       </c>
       <c r="B48" s="133" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C48" s="137">
-        <v>44210</v>
+        <v>44224</v>
       </c>
       <c r="D48" s="133">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E48" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F48" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>37.5</v>
       </c>
       <c r="G48" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H48" s="134" t="s">
-        <v>848</v>
+        <v>865</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -8296,83 +8290,83 @@
         <v>845</v>
       </c>
       <c r="B49" s="133" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C49" s="137">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="D49" s="133">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E49" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F49" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="G49" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H49" s="134" t="s">
-        <v>849</v>
+        <v>860</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="78" t="s">
-        <v>830</v>
+        <v>845</v>
       </c>
       <c r="B50" s="133" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C50" s="137">
-        <v>44209</v>
+        <v>44218</v>
       </c>
       <c r="D50" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="F50" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="G50" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H50" s="134" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="78" t="s">
-        <v>830</v>
+        <v>845</v>
       </c>
       <c r="B51" s="133" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C51" s="137">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="D51" s="133">
         <v>1</v>
       </c>
       <c r="E51" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F51" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>30</v>
       </c>
       <c r="G51" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H51" s="134" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -8380,60 +8374,60 @@
         <v>845</v>
       </c>
       <c r="B52" s="133" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="C52" s="137">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="D52" s="133">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E52" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F52" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G52" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H52" s="134" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="78" t="s">
-        <v>727</v>
+        <v>830</v>
       </c>
       <c r="B53" s="133" t="s">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="C53" s="137">
         <v>44209</v>
       </c>
       <c r="D53" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F53" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>2.5</v>
+        <v>15</v>
       </c>
       <c r="G53" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H53" s="134" t="s">
-        <v>850</v>
+        <v>858</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="78" t="s">
-        <v>727</v>
+        <v>830</v>
       </c>
       <c r="B54" s="133" t="s">
         <v>48</v>
@@ -8456,102 +8450,102 @@
         <v>661</v>
       </c>
       <c r="H54" s="134" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="78" t="s">
-        <v>816</v>
+        <v>845</v>
       </c>
       <c r="B55" s="133" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="C55" s="137">
         <v>44209</v>
       </c>
       <c r="D55" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F55" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="G55" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H55" s="134" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="78" t="s">
-        <v>845</v>
+        <v>727</v>
       </c>
       <c r="B56" s="133" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="C56" s="137">
-        <v>44208</v>
+        <v>44209</v>
       </c>
       <c r="D56" s="133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E56" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F56" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
+        <v>2.5</v>
       </c>
       <c r="G56" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H56" s="134" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="78" t="s">
-        <v>102</v>
+        <v>727</v>
       </c>
       <c r="B57" s="133" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C57" s="137">
-        <v>44208</v>
+        <v>44209</v>
       </c>
       <c r="D57" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F57" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>7.5</v>
       </c>
       <c r="G57" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H57" s="134" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="78" t="s">
-        <v>841</v>
+        <v>816</v>
       </c>
       <c r="B58" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C58" s="137">
-        <v>44203</v>
+        <v>44209</v>
       </c>
       <c r="D58" s="133">
         <v>1</v>
@@ -8568,70 +8562,70 @@
         <v>661</v>
       </c>
       <c r="H58" s="134" t="s">
-        <v>844</v>
+        <v>853</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="78" t="s">
-        <v>780</v>
-      </c>
-      <c r="B59" s="132" t="s">
-        <v>1</v>
+        <v>845</v>
+      </c>
+      <c r="B59" s="133" t="s">
+        <v>48</v>
       </c>
       <c r="C59" s="137">
-        <v>44203</v>
+        <v>44208</v>
       </c>
       <c r="D59" s="133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E59" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F59" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>22.5</v>
       </c>
       <c r="G59" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H59" s="134" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="78" t="s">
-        <v>816</v>
-      </c>
-      <c r="B60" s="132" t="s">
-        <v>1</v>
+        <v>102</v>
+      </c>
+      <c r="B60" s="133" t="s">
+        <v>22</v>
       </c>
       <c r="C60" s="137">
-        <v>44203</v>
+        <v>44208</v>
       </c>
       <c r="D60" s="133">
         <v>2</v>
       </c>
       <c r="E60" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F60" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G60" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H60" s="134" t="s">
-        <v>839</v>
+        <v>854</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="78" t="s">
-        <v>781</v>
-      </c>
-      <c r="B61" s="132" t="s">
+        <v>841</v>
+      </c>
+      <c r="B61" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C61" s="137">
@@ -8652,15 +8646,15 @@
         <v>661</v>
       </c>
       <c r="H61" s="134" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="78" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
       <c r="B62" s="132" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C62" s="137">
         <v>44203</v>
@@ -8670,17 +8664,17 @@
       </c>
       <c r="E62" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F62" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="G62" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H62" s="134" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -8688,38 +8682,38 @@
         <v>816</v>
       </c>
       <c r="B63" s="132" t="s">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="C63" s="137">
-        <v>44201</v>
+        <v>44203</v>
       </c>
       <c r="D63" s="133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E63" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F63" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="G63" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H63" s="134" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="78" t="s">
-        <v>830</v>
+        <v>781</v>
       </c>
       <c r="B64" s="132" t="s">
         <v>48</v>
       </c>
       <c r="C64" s="137">
-        <v>44201</v>
+        <v>44203</v>
       </c>
       <c r="D64" s="133">
         <v>1</v>
@@ -8736,38 +8730,113 @@
         <v>661</v>
       </c>
       <c r="H64" s="134" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="78" t="s">
+        <v>767</v>
+      </c>
+      <c r="B65" s="132" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D65" s="133">
+        <v>1</v>
+      </c>
+      <c r="E65" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F65" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G65" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H65" s="134" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="78" t="s">
+        <v>816</v>
+      </c>
+      <c r="B66" s="132" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" s="137">
+        <v>44201</v>
+      </c>
+      <c r="D66" s="133">
+        <v>3</v>
+      </c>
+      <c r="E66" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>5</v>
+      </c>
+      <c r="F66" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G66" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H66" s="134" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="78" t="s">
+        <v>830</v>
+      </c>
+      <c r="B67" s="132" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" s="137">
+        <v>44201</v>
+      </c>
+      <c r="D67" s="133">
+        <v>1</v>
+      </c>
+      <c r="E67" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F67" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G67" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H67" s="134" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="153" t="s">
+    <row r="68" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="153" t="s">
         <v>491</v>
       </c>
-      <c r="B65" s="154">
+      <c r="B68" s="154">
         <f>SUBTOTAL(5,TAB_Doku_201910[Datum])</f>
         <v>44201</v>
       </c>
-      <c r="C65" s="155">
+      <c r="C68" s="155">
         <f>SUBTOTAL(4,TAB_Doku_201910[Datum])</f>
-        <v>44302</v>
-      </c>
-      <c r="D65" s="156"/>
-      <c r="E65" s="156"/>
-      <c r="F65" s="157">
+        <v>44343</v>
+      </c>
+      <c r="D68" s="156"/>
+      <c r="E68" s="156"/>
+      <c r="F68" s="157" t="e">
         <f>SUBTOTAL(9,TAB_Doku_201910[[Kosten ]])</f>
-        <v>1990</v>
-      </c>
-      <c r="G65" s="153"/>
-      <c r="H65" s="158"/>
-    </row>
-    <row r="66" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66"/>
-    </row>
-    <row r="67" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C67"/>
-    </row>
-    <row r="68" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G68" s="153"/>
+      <c r="H68" s="158"/>
     </row>
     <row r="69" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69"/>
@@ -8820,13 +8889,13 @@
     <row r="85" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85"/>
     </row>
-    <row r="86" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86"/>
     </row>
-    <row r="87" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87"/>
     </row>
-    <row r="88" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88"/>
     </row>
     <row r="89" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -8867,9 +8936,6 @@
     </row>
     <row r="101" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C101"/>
-      <c r="I101" t="s">
-        <v>546</v>
-      </c>
     </row>
     <row r="102" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C102"/>
@@ -8879,6 +8945,9 @@
     </row>
     <row r="104" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C104"/>
+      <c r="I104" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="105" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C105"/>
@@ -8952,79 +9021,72 @@
     <row r="128" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C128"/>
     </row>
-    <row r="129" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C129"/>
     </row>
-    <row r="130" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C130"/>
     </row>
-    <row r="131" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C131"/>
     </row>
-    <row r="132" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C132"/>
     </row>
-    <row r="133" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C133"/>
     </row>
-    <row r="134" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C134"/>
     </row>
-    <row r="135" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C135"/>
     </row>
-    <row r="136" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C136"/>
     </row>
-    <row r="137" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C137"/>
     </row>
-    <row r="138" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C138"/>
     </row>
-    <row r="139" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C139"/>
     </row>
-    <row r="140" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C140"/>
     </row>
-    <row r="141" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C141"/>
     </row>
-    <row r="142" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C142"/>
     </row>
-    <row r="143" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A143"/>
-      <c r="B143"/>
+    <row r="143" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C143"/>
-      <c r="D143"/>
-      <c r="E143"/>
-      <c r="F143"/>
-      <c r="G143"/>
-      <c r="H143"/>
-    </row>
-    <row r="144" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C144"/>
     </row>
     <row r="145" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C145"/>
     </row>
-    <row r="146" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A146"/>
+      <c r="B146"/>
       <c r="C146"/>
+      <c r="D146"/>
+      <c r="E146"/>
+      <c r="F146"/>
+      <c r="G146"/>
+      <c r="H146"/>
     </row>
     <row r="147" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C147"/>
     </row>
-    <row r="148" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A148"/>
-      <c r="B148"/>
+    <row r="148" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C148"/>
-      <c r="D148"/>
-      <c r="E148"/>
-      <c r="F148"/>
-      <c r="G148"/>
-      <c r="H148"/>
     </row>
     <row r="149" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C149"/>
@@ -9032,8 +9094,15 @@
     <row r="150" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C150"/>
     </row>
-    <row r="151" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A151"/>
+      <c r="B151"/>
       <c r="C151"/>
+      <c r="D151"/>
+      <c r="E151"/>
+      <c r="F151"/>
+      <c r="G151"/>
+      <c r="H151"/>
     </row>
     <row r="152" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C152"/>
@@ -9062,7 +9131,7 @@
     <row r="160" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C160"/>
     </row>
-    <row r="161" spans="3:3" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C161"/>
     </row>
     <row r="162" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -9071,7 +9140,7 @@
     <row r="163" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C163"/>
     </row>
-    <row r="164" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:3" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C164"/>
     </row>
     <row r="165" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -9104,7 +9173,7 @@
     <row r="174" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C174"/>
     </row>
-    <row r="175" spans="3:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C175"/>
     </row>
     <row r="176" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -9113,7 +9182,7 @@
     <row r="177" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C177"/>
     </row>
-    <row r="178" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C178"/>
     </row>
     <row r="179" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -9542,11 +9611,20 @@
     <row r="320" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C320"/>
     </row>
-    <row r="321" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C321"/>
     </row>
-    <row r="322" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C322"/>
+    </row>
+    <row r="323" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C323"/>
+    </row>
+    <row r="324" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C324"/>
+    </row>
+    <row r="325" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C325"/>
     </row>
   </sheetData>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.47244094488188981" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9565,7 +9643,7 @@
           <x14:formula1>
             <xm:f>'Leistungen-Liste'!$F$1:$F$35</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B64</xm:sqref>
+          <xm:sqref>B2:B67</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -24377,122 +24455,122 @@
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0"/>
   <conditionalFormatting sqref="C2:C90 C94:C123">
-    <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="23" priority="33" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C15">
-    <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="22" priority="32" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="21" priority="31" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C43 C45:C46">
-    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="20" priority="30" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C34">
-    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="19" priority="29" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="18" priority="27" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73:D76 D2:D71">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79">
-    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77:D78">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81">
-    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81">
-    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82">
-    <cfRule type="containsText" dxfId="20" priority="14" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="containsText" dxfId="19" priority="12" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C89:C90">
-    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C89)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92">
-    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91">
-    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93">
-    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C125:C126">
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C127">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C127)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C124">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C128">
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C128)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C129)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/trailtech/Leistungen-KC-Trailtech.xlsx
+++ b/trailtech/Leistungen-KC-Trailtech.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="933">
   <si>
     <t>Tätigkeit</t>
   </si>
@@ -2814,15 +2814,9 @@
     <t>Telefonat Absprache Umweltbüro wegen Hangwasser</t>
   </si>
   <si>
-    <t>!! OFFEN !! Vorab Infos Pumptrack Konzeptphase</t>
-  </si>
-  <si>
     <t>!! OFFEN !! Mod PT Angebot</t>
   </si>
   <si>
-    <t>!! OFFEN !! Begehungsprotokoll schreiben</t>
-  </si>
-  <si>
     <t>TVB Pillerseetal</t>
   </si>
   <si>
@@ -2848,6 +2842,87 @@
   </si>
   <si>
     <t>Übermittlung Datensatz Umweltbüro</t>
+  </si>
+  <si>
+    <t>VS Neunkirchen</t>
+  </si>
+  <si>
+    <t>Absprachen David Seifried und Thomas Breitenecker</t>
+  </si>
+  <si>
+    <t>Begehungsprotokoll schreiben</t>
+  </si>
+  <si>
+    <t>Honorarnote schreiben</t>
+  </si>
+  <si>
+    <t>Präsentation</t>
+  </si>
+  <si>
+    <t>Anreise Präsentation</t>
+  </si>
+  <si>
+    <t>Angebot verfassen</t>
+  </si>
+  <si>
+    <t>Absprachen Angebot / Planung</t>
+  </si>
+  <si>
+    <t>VS Wals Siezenheim</t>
+  </si>
+  <si>
+    <t>Wartungsinfos</t>
+  </si>
+  <si>
+    <t>VS St.Veit Gölsen</t>
+  </si>
+  <si>
+    <t>Inserate Angebote</t>
+  </si>
+  <si>
+    <t>VS Mountain Manager Magazin</t>
+  </si>
+  <si>
+    <t>Janis Jansons, Santa Jonante Online Conference call and Prize Lists</t>
+  </si>
+  <si>
+    <t>VS Velo Features Recap Call</t>
+  </si>
+  <si>
+    <t>VS Bruck a.d.Mur</t>
+  </si>
+  <si>
+    <t>Absprachen Daniel Schemel und Parkitect</t>
+  </si>
+  <si>
+    <t>Angebote Asphalt PT Planung und Modularer Pumptrack</t>
+  </si>
+  <si>
+    <t>VS Wagrain</t>
+  </si>
+  <si>
+    <t>Treffen und Begehung Wagrain</t>
+  </si>
+  <si>
+    <t>Taxi Flachau-Radstadt</t>
+  </si>
+  <si>
+    <t>Fahrtkosten Zug/Bus Aldrans-Radstadt</t>
+  </si>
+  <si>
+    <t>Markus Pekoll, Akkordierung Ausschreibung und Kostenschätzungen</t>
+  </si>
+  <si>
+    <t>2 Perioden</t>
+  </si>
+  <si>
+    <t>Uli Absprachen, verschiedene Projekte, 2 perioden</t>
+  </si>
+  <si>
+    <t>David Messner Absprachen wegen Rossau Budgetierung..</t>
+  </si>
+  <si>
+    <t>Vorab Infos Pumptrack Konzeptphase, Planungskosten, Prozess, etc.</t>
   </si>
 </sst>
 </file>
@@ -3236,7 +3311,7 @@
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3686,6 +3761,23 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink 2" xfId="2"/>
@@ -3694,246 +3786,6 @@
     <cellStyle name="Währung" xfId="3" builtinId="4"/>
   </cellStyles>
   <dxfs count="107">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4203,6 +4055,246 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -5564,29 +5656,35 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="TAB_Doku_201910" displayName="TAB_Doku_201910" ref="A1:H68" totalsRowCount="1" headerRowDxfId="97" dataDxfId="96" totalsRowDxfId="94" tableBorderDxfId="95">
-  <autoFilter ref="A1:H67"/>
-  <sortState ref="A2:H64">
-    <sortCondition descending="1" ref="C1:C64"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="TAB_Doku_201910" displayName="TAB_Doku_201910" ref="A1:H90" totalsRowCount="1" headerRowDxfId="97" dataDxfId="96" totalsRowDxfId="94" tableBorderDxfId="95">
+  <autoFilter ref="A1:H89">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="nächste"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A2:H29">
+    <sortCondition descending="1" ref="C1:C89"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="93" totalsRowDxfId="31"/>
-    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="92" totalsRowDxfId="30">
+    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="93" totalsRowDxfId="7"/>
+    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="92" totalsRowDxfId="6">
       <totalsRowFormula>SUBTOTAL(5,TAB_Doku_201910[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="29">
+    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="5">
       <totalsRowFormula>SUBTOTAL(4,TAB_Doku_201910[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Stk." dataDxfId="90" totalsRowDxfId="28"/>
-    <tableColumn id="5" name="Zeitaufwand" dataDxfId="89" totalsRowDxfId="27">
+    <tableColumn id="4" name="Stk." dataDxfId="90" totalsRowDxfId="4"/>
+    <tableColumn id="5" name="Zeitaufwand" dataDxfId="89" totalsRowDxfId="3">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="26">
+    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="2">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,TAB_Doku_201910[[Kosten ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Abrechnung" dataDxfId="87" totalsRowDxfId="25"/>
-    <tableColumn id="8" name="Notiz" dataDxfId="86" totalsRowDxfId="24"/>
+    <tableColumn id="7" name="Abrechnung" dataDxfId="87" totalsRowDxfId="1"/>
+    <tableColumn id="8" name="Notiz" dataDxfId="86" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6609,7 +6707,7 @@
         <v>25</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="G22" s="29">
         <v>60</v>
@@ -6949,18 +7047,18 @@
   <sheetPr published="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I325"/>
+  <dimension ref="A1:I347"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.77734375" customWidth="1"/>
     <col min="2" max="2" width="40.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" style="5" customWidth="1"/>
     <col min="4" max="4" width="13.21875" customWidth="1"/>
@@ -6996,227 +7094,241 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="78"/>
-      <c r="B2" s="133"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133" t="e">
+      <c r="A2" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="133" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="137">
+        <v>44400</v>
+      </c>
+      <c r="D2" s="133">
+        <v>2</v>
+      </c>
+      <c r="E2" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F2" s="133" t="e">
+        <v>0</v>
+      </c>
+      <c r="F2" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G2" s="78"/>
-      <c r="H2" s="134"/>
+        <v>10</v>
+      </c>
+      <c r="G2" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="H2" s="134" t="s">
+        <v>929</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="78" t="s">
-        <v>887</v>
+        <v>102</v>
       </c>
       <c r="B3" s="133" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C3" s="137">
-        <v>44343</v>
+        <v>44400</v>
       </c>
       <c r="D3" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F3" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>60</v>
       </c>
       <c r="G3" s="78" t="s">
         <v>498</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>907</v>
+        <v>929</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="78" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C4" s="137">
-        <v>44333</v>
+        <v>44400</v>
       </c>
       <c r="D4" s="133">
         <v>2</v>
       </c>
       <c r="E4" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F4" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G4" s="78" t="s">
         <v>498</v>
       </c>
       <c r="H4" s="134" t="s">
-        <v>906</v>
+        <v>928</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="159" t="s">
-        <v>891</v>
-      </c>
-      <c r="B5" s="160" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="161">
-        <v>44302</v>
-      </c>
-      <c r="D5" s="160">
-        <v>1</v>
-      </c>
-      <c r="E5" s="160">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>30</v>
-      </c>
-      <c r="F5" s="160">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
-      </c>
-      <c r="G5" s="159" t="s">
-        <v>498</v>
-      </c>
-      <c r="H5" s="162" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="159" t="s">
-        <v>885</v>
-      </c>
-      <c r="B6" s="160" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="161">
-        <v>44302</v>
-      </c>
-      <c r="D6" s="160">
-        <v>1</v>
-      </c>
-      <c r="E6" s="160">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>180</v>
-      </c>
-      <c r="F6" s="160">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
-      </c>
-      <c r="G6" s="159" t="s">
-        <v>900</v>
-      </c>
-      <c r="H6" s="162" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="159" t="s">
-        <v>879</v>
-      </c>
-      <c r="B7" s="160" t="s">
-        <v>633</v>
-      </c>
-      <c r="C7" s="161">
-        <v>44302</v>
-      </c>
-      <c r="D7" s="160">
+      <c r="A5" s="78" t="s">
+        <v>734</v>
+      </c>
+      <c r="B5" s="133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="137">
+        <v>44400</v>
+      </c>
+      <c r="D5" s="133">
         <v>2</v>
       </c>
-      <c r="E7" s="160">
+      <c r="E5" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>60</v>
       </c>
-      <c r="F7" s="160">
+      <c r="F5" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>60</v>
       </c>
-      <c r="G7" s="159" t="s">
-        <v>900</v>
-      </c>
-      <c r="H7" s="162" t="s">
-        <v>898</v>
+      <c r="G5" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="H5" s="134" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="78" t="s">
+        <v>906</v>
+      </c>
+      <c r="B6" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="137">
+        <v>44396</v>
+      </c>
+      <c r="D6" s="133">
+        <v>1</v>
+      </c>
+      <c r="E6" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>10</v>
+      </c>
+      <c r="F6" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>5</v>
+      </c>
+      <c r="G6" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="H6" s="134" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="78" t="s">
+        <v>906</v>
+      </c>
+      <c r="B7" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="137">
+        <v>44396</v>
+      </c>
+      <c r="D7" s="133">
+        <v>4</v>
+      </c>
+      <c r="E7" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F7" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>30</v>
+      </c>
+      <c r="G7" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="H7" s="134" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="78" t="s">
-        <v>887</v>
+        <v>924</v>
       </c>
       <c r="B8" s="133" t="s">
-        <v>50</v>
+        <v>255</v>
       </c>
       <c r="C8" s="137">
-        <v>44301</v>
+        <v>44395</v>
       </c>
       <c r="D8" s="133">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="E8" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F8" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G8" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H8" s="134"/>
+        <v>498</v>
+      </c>
+      <c r="H8" s="134" t="s">
+        <v>926</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
-        <v>887</v>
+        <v>924</v>
       </c>
       <c r="B9" s="133" t="s">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="C9" s="137">
-        <v>44301</v>
+        <v>44395</v>
       </c>
       <c r="D9" s="133">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="E9" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F9" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="G9" s="78" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="H9" s="134" t="s">
-        <v>895</v>
+        <v>927</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
-        <v>887</v>
+        <v>924</v>
       </c>
       <c r="B10" s="133" t="s">
-        <v>523</v>
+        <v>35</v>
       </c>
       <c r="C10" s="137">
-        <v>44301</v>
+        <v>44395</v>
       </c>
       <c r="D10" s="133">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E10" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -7224,383 +7336,373 @@
       </c>
       <c r="F10" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="G10" s="78" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="H10" s="134" t="s">
-        <v>894</v>
+        <v>925</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="78" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="B11" s="133" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C11" s="137">
-        <v>44301</v>
+        <v>44384</v>
       </c>
       <c r="D11" s="133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F11" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="G11" s="78" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="H11" s="134" t="s">
-        <v>892</v>
+        <v>931</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="78" t="s">
-        <v>883</v>
+        <v>738</v>
       </c>
       <c r="B12" s="133" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C12" s="137">
-        <v>44301</v>
+        <v>44384</v>
       </c>
       <c r="D12" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="F12" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="G12" s="78" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="H12" s="134" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="78" t="s">
-        <v>102</v>
+        <v>738</v>
       </c>
       <c r="B13" s="133" t="s">
-        <v>207</v>
+        <v>48</v>
       </c>
       <c r="C13" s="137">
-        <v>44301</v>
+        <v>44379</v>
       </c>
       <c r="D13" s="133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F13" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>22.5</v>
+      </c>
+      <c r="G13" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="H13" s="134" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="132" t="s">
+        <v>738</v>
+      </c>
+      <c r="B14" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="131">
+        <v>44377</v>
+      </c>
+      <c r="D14" s="132">
+        <v>3</v>
+      </c>
+      <c r="E14" s="132">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>10</v>
       </c>
-      <c r="G13" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H13" s="134"/>
-    </row>
-    <row r="14" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="133" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="137">
-        <v>44301</v>
-      </c>
-      <c r="D14" s="133">
-        <v>2</v>
-      </c>
-      <c r="E14" s="133">
+      <c r="F14" s="132">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>15</v>
+      </c>
+      <c r="G14" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="H14" s="132" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="132" t="s">
+        <v>914</v>
+      </c>
+      <c r="B15" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="131">
+        <v>44362</v>
+      </c>
+      <c r="D15" s="132">
+        <v>1</v>
+      </c>
+      <c r="E15" s="132">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
-      </c>
-      <c r="F14" s="133">
+        <v>10</v>
+      </c>
+      <c r="F15" s="132">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
-      </c>
-      <c r="G14" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H14" s="134"/>
-    </row>
-    <row r="15" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="78" t="s">
-        <v>734</v>
-      </c>
-      <c r="B15" s="133" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="137">
-        <v>44301</v>
-      </c>
-      <c r="D15" s="133">
-        <v>2</v>
-      </c>
-      <c r="E15" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
-      </c>
-      <c r="F15" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G15" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H15" s="134"/>
+        <v>498</v>
+      </c>
+      <c r="H15" s="132" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="16" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78" t="s">
-        <v>883</v>
+        <v>914</v>
       </c>
       <c r="B16" s="133" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C16" s="137">
-        <v>44301</v>
+        <v>44362</v>
       </c>
       <c r="D16" s="133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F16" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>22.5</v>
       </c>
       <c r="G16" s="78" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="H16" s="134" t="s">
-        <v>905</v>
+        <v>915</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="78" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="B17" s="133" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C17" s="137">
-        <v>44300</v>
+        <v>44343</v>
       </c>
       <c r="D17" s="133">
         <v>1</v>
       </c>
       <c r="E17" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F17" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="G17" s="78" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="H17" s="134" t="s">
-        <v>890</v>
+        <v>905</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="78" t="s">
-        <v>877</v>
+        <v>887</v>
       </c>
       <c r="B18" s="133" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="C18" s="137">
-        <v>44300</v>
+        <v>44333</v>
       </c>
       <c r="D18" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F18" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G18" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H18" s="134"/>
-    </row>
-    <row r="19" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+      <c r="H18" s="134" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="78" t="s">
-        <v>899</v>
+        <v>918</v>
       </c>
       <c r="B19" s="133" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" s="137">
-        <v>44294</v>
+        <v>44326</v>
       </c>
       <c r="D19" s="133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F19" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>2.5</v>
+        <v>22.5</v>
       </c>
       <c r="G19" s="78" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="H19" s="134" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="78" t="s">
-        <v>899</v>
-      </c>
-      <c r="B20" s="133" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="137">
-        <v>44294</v>
-      </c>
-      <c r="D20" s="133">
-        <v>1</v>
-      </c>
-      <c r="E20" s="133">
+        <v>879</v>
+      </c>
+      <c r="B20" s="133"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="133" t="e">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
-      </c>
-      <c r="F20" s="133">
+        <v>#N/A</v>
+      </c>
+      <c r="F20" s="133" t="e">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="G20" s="78" t="s">
-        <v>494</v>
+        <v>898</v>
       </c>
       <c r="H20" s="134" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="78" t="s">
-        <v>509</v>
-      </c>
-      <c r="B21" s="133" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="137">
-        <v>44294</v>
-      </c>
-      <c r="D21" s="133">
-        <v>2</v>
-      </c>
-      <c r="E21" s="133">
+        <v>879</v>
+      </c>
+      <c r="B21" s="133"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133" t="e">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
-      </c>
-      <c r="F21" s="133">
+        <v>#N/A</v>
+      </c>
+      <c r="F21" s="133" t="e">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>#N/A</v>
       </c>
       <c r="G21" s="78" t="s">
-        <v>494</v>
+        <v>898</v>
       </c>
       <c r="H21" s="134" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="78" t="s">
         <v>879</v>
       </c>
-      <c r="B22" s="133" t="s">
-        <v>487</v>
-      </c>
-      <c r="C22" s="137">
-        <v>44294</v>
-      </c>
-      <c r="D22" s="133">
-        <v>4</v>
-      </c>
-      <c r="E22" s="133">
+      <c r="B22" s="133"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133" t="e">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
-      </c>
-      <c r="F22" s="133">
+        <v>#N/A</v>
+      </c>
+      <c r="F22" s="133" t="e">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>120</v>
+        <v>#N/A</v>
       </c>
       <c r="G22" s="78" t="s">
-        <v>494</v>
+        <v>898</v>
       </c>
       <c r="H22" s="134" t="s">
-        <v>871</v>
+        <v>909</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="78" t="s">
-        <v>879</v>
+        <v>921</v>
       </c>
       <c r="B23" s="133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="137">
+        <v>44320</v>
+      </c>
+      <c r="D23" s="133">
         <v>2</v>
-      </c>
-      <c r="C23" s="137">
-        <v>44294</v>
-      </c>
-      <c r="D23" s="133">
-        <v>32</v>
       </c>
       <c r="E23" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="F23" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="G23" s="78" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="H23" s="134" t="s">
-        <v>870</v>
+        <v>923</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78" t="s">
-        <v>886</v>
+        <v>921</v>
       </c>
       <c r="B24" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C24" s="137">
-        <v>44288</v>
+        <v>44320</v>
       </c>
       <c r="D24" s="133">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -7608,171 +7710,171 @@
       </c>
       <c r="F24" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
+        <v>30</v>
       </c>
       <c r="G24" s="78" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="H24" s="134" t="s">
-        <v>889</v>
+        <v>922</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="78" t="s">
-        <v>886</v>
+        <v>920</v>
       </c>
       <c r="B25" s="133" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C25" s="137">
-        <v>44288</v>
+        <v>44316</v>
       </c>
       <c r="D25" s="133">
         <v>2</v>
       </c>
       <c r="E25" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F25" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G25" s="78" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="H25" s="134" t="s">
-        <v>888</v>
+        <v>919</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="78" t="s">
-        <v>885</v>
-      </c>
-      <c r="B26" s="133" t="s">
+      <c r="A26" s="163" t="s">
+        <v>879</v>
+      </c>
+      <c r="B26" s="164" t="s">
+        <v>633</v>
+      </c>
+      <c r="C26" s="165">
+        <v>44316</v>
+      </c>
+      <c r="D26" s="164">
+        <v>2</v>
+      </c>
+      <c r="E26" s="164">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>60</v>
+      </c>
+      <c r="F26" s="164">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>60</v>
+      </c>
+      <c r="G26" s="163" t="s">
+        <v>498</v>
+      </c>
+      <c r="H26" s="166" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="167" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="78" t="s">
+        <v>916</v>
+      </c>
+      <c r="B27" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="137">
-        <v>44288</v>
-      </c>
-      <c r="D26" s="133">
-        <v>2</v>
-      </c>
-      <c r="E26" s="133">
+      <c r="C27" s="137">
+        <v>44304</v>
+      </c>
+      <c r="D27" s="133">
+        <v>5</v>
+      </c>
+      <c r="E27" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>15</v>
       </c>
-      <c r="F26" s="133">
+      <c r="F27" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>37.5</v>
+      </c>
+      <c r="G27" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="H27" s="134" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="159" t="s">
+        <v>885</v>
+      </c>
+      <c r="B28" s="160" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="161">
+        <v>44302</v>
+      </c>
+      <c r="D28" s="160">
+        <v>1</v>
+      </c>
+      <c r="E28" s="160">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>180</v>
+      </c>
+      <c r="F28" s="160">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>90</v>
+      </c>
+      <c r="G28" s="159" t="s">
+        <v>898</v>
+      </c>
+      <c r="H28" s="162" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="167" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="163" t="s">
+        <v>891</v>
+      </c>
+      <c r="B29" s="164" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="165">
+        <v>44302</v>
+      </c>
+      <c r="D29" s="164">
+        <v>1</v>
+      </c>
+      <c r="E29" s="164">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>30</v>
+      </c>
+      <c r="F29" s="164">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>15</v>
       </c>
-      <c r="G26" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H26" s="134" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="78" t="s">
-        <v>879</v>
-      </c>
-      <c r="B27" s="133" t="s">
-        <v>633</v>
-      </c>
-      <c r="C27" s="137">
-        <v>44288</v>
-      </c>
-      <c r="D27" s="133">
-        <v>2</v>
-      </c>
-      <c r="E27" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
-      </c>
-      <c r="F27" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
-      </c>
-      <c r="G27" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H27" s="134" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="78" t="s">
-        <v>883</v>
-      </c>
-      <c r="B28" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="137">
-        <v>44288</v>
-      </c>
-      <c r="D28" s="133">
-        <v>1</v>
-      </c>
-      <c r="E28" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
-      </c>
-      <c r="F28" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
-      </c>
-      <c r="G28" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H28" s="134" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="78" t="s">
-        <v>879</v>
-      </c>
-      <c r="B29" s="133" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="137">
-        <v>44284</v>
-      </c>
-      <c r="D29" s="133">
-        <v>3</v>
-      </c>
-      <c r="E29" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
-      </c>
-      <c r="F29" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
-      </c>
-      <c r="G29" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H29" s="134" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="163" t="s">
+        <v>498</v>
+      </c>
+      <c r="H29" s="166" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="78" t="s">
-        <v>879</v>
+        <v>887</v>
       </c>
       <c r="B30" s="133" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C30" s="137">
-        <v>44275</v>
+        <v>44301</v>
       </c>
       <c r="D30" s="133">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E30" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F30" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
@@ -7781,382 +7883,376 @@
       <c r="G30" s="78" t="s">
         <v>494</v>
       </c>
-      <c r="H30" s="134" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="134"/>
+    </row>
+    <row r="31" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="78" t="s">
-        <v>830</v>
+        <v>887</v>
       </c>
       <c r="B31" s="133" t="s">
-        <v>903</v>
+        <v>1</v>
       </c>
       <c r="C31" s="137">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="D31" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F31" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G31" s="78" t="s">
         <v>494</v>
       </c>
       <c r="H31" s="134" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="78" t="s">
-        <v>873</v>
+        <v>887</v>
       </c>
       <c r="B32" s="133" t="s">
-        <v>8</v>
+        <v>523</v>
       </c>
       <c r="C32" s="137">
-        <v>44264</v>
+        <v>44301</v>
       </c>
       <c r="D32" s="133">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E32" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="F32" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="G32" s="78" t="s">
-        <v>878</v>
+        <v>494</v>
       </c>
       <c r="H32" s="134" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="78" t="s">
-        <v>873</v>
+        <v>891</v>
       </c>
       <c r="B33" s="133" t="s">
-        <v>487</v>
+        <v>48</v>
       </c>
       <c r="C33" s="137">
-        <v>44264</v>
+        <v>44301</v>
       </c>
       <c r="D33" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F33" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>7.5</v>
       </c>
       <c r="G33" s="78" t="s">
-        <v>878</v>
+        <v>494</v>
       </c>
       <c r="H33" s="134" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="29" customFormat="1" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="78" t="s">
-        <v>873</v>
+        <v>883</v>
       </c>
       <c r="B34" s="133" t="s">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="C34" s="137">
-        <v>44264</v>
+        <v>44301</v>
       </c>
       <c r="D34" s="133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F34" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="G34" s="78" t="s">
-        <v>878</v>
+        <v>494</v>
       </c>
       <c r="H34" s="134" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="78" t="s">
-        <v>873</v>
+        <v>102</v>
       </c>
       <c r="B35" s="133" t="s">
-        <v>1</v>
+        <v>207</v>
       </c>
       <c r="C35" s="137">
-        <v>44259</v>
+        <v>44301</v>
       </c>
       <c r="D35" s="133">
         <v>2</v>
       </c>
       <c r="E35" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F35" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>10</v>
       </c>
       <c r="G35" s="78" t="s">
-        <v>878</v>
-      </c>
-      <c r="H35" s="134" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+      <c r="H35" s="134"/>
+    </row>
+    <row r="36" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="78" t="s">
-        <v>830</v>
+        <v>102</v>
       </c>
       <c r="B36" s="133" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="C36" s="137">
-        <v>44256</v>
+        <v>44301</v>
       </c>
       <c r="D36" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F36" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>2.5</v>
+        <v>60</v>
       </c>
       <c r="G36" s="78" t="s">
         <v>494</v>
       </c>
-      <c r="H36" s="134" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="134"/>
+    </row>
+    <row r="37" spans="1:8" s="29" customFormat="1" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="78" t="s">
-        <v>830</v>
+        <v>734</v>
       </c>
       <c r="B37" s="133" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C37" s="137">
-        <v>44250</v>
+        <v>44301</v>
       </c>
       <c r="D37" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F37" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>60</v>
       </c>
       <c r="G37" s="78" t="s">
         <v>494</v>
       </c>
-      <c r="H37" s="134" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="134"/>
+    </row>
+    <row r="38" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="78" t="s">
-        <v>102</v>
+        <v>883</v>
       </c>
       <c r="B38" s="133" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C38" s="137">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="D38" s="133">
         <v>1</v>
       </c>
       <c r="E38" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F38" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G38" s="78" t="s">
-        <v>661</v>
-      </c>
-      <c r="H38" s="134"/>
-    </row>
-    <row r="39" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+      <c r="H38" s="134" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="78" t="s">
-        <v>734</v>
+        <v>891</v>
       </c>
       <c r="B39" s="133" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C39" s="137">
-        <v>44244</v>
+        <v>44300</v>
       </c>
       <c r="D39" s="133">
         <v>1</v>
       </c>
       <c r="E39" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F39" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G39" s="78" t="s">
-        <v>661</v>
-      </c>
-      <c r="H39" s="134"/>
-    </row>
-    <row r="40" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+      <c r="H39" s="134" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="29" customFormat="1" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="78" t="s">
-        <v>845</v>
+        <v>877</v>
       </c>
       <c r="B40" s="133" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C40" s="137">
-        <v>44244</v>
+        <v>44300</v>
       </c>
       <c r="D40" s="133">
         <v>1</v>
       </c>
       <c r="E40" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F40" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>30</v>
       </c>
       <c r="G40" s="78" t="s">
-        <v>661</v>
-      </c>
-      <c r="H40" s="134" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+      <c r="H40" s="134"/>
+    </row>
+    <row r="41" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="78" t="s">
-        <v>866</v>
+        <v>897</v>
       </c>
       <c r="B41" s="133" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C41" s="137">
-        <v>44242</v>
+        <v>44294</v>
       </c>
       <c r="D41" s="133">
         <v>1</v>
       </c>
       <c r="E41" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F41" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>2.5</v>
       </c>
       <c r="G41" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H41" s="134" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="78" t="s">
-        <v>866</v>
+        <v>897</v>
       </c>
       <c r="B42" s="133" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C42" s="137">
-        <v>44242</v>
+        <v>44294</v>
       </c>
       <c r="D42" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F42" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G42" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H42" s="134" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="78" t="s">
-        <v>866</v>
+        <v>509</v>
       </c>
       <c r="B43" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="137">
+        <v>44294</v>
+      </c>
+      <c r="D43" s="133">
         <v>2</v>
-      </c>
-      <c r="C43" s="137">
-        <v>44242</v>
-      </c>
-      <c r="D43" s="133">
-        <v>18</v>
       </c>
       <c r="E43" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F43" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G43" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H43" s="134" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="78" t="s">
-        <v>866</v>
+        <v>879</v>
       </c>
       <c r="B44" s="133" t="s">
         <v>487</v>
       </c>
       <c r="C44" s="137">
-        <v>44242</v>
+        <v>44294</v>
       </c>
       <c r="D44" s="133">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E44" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8164,83 +8260,83 @@
       </c>
       <c r="F44" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G44" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H44" s="134" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="78" t="s">
-        <v>869</v>
+        <v>879</v>
       </c>
       <c r="B45" s="133" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="C45" s="137">
-        <v>44239</v>
+        <v>44294</v>
       </c>
       <c r="D45" s="133">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E45" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F45" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="G45" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H45" s="134" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="78" t="s">
-        <v>862</v>
-      </c>
-      <c r="B46" s="132" t="s">
-        <v>8</v>
+        <v>886</v>
+      </c>
+      <c r="B46" s="133" t="s">
+        <v>48</v>
       </c>
       <c r="C46" s="137">
-        <v>44232</v>
+        <v>44288</v>
       </c>
       <c r="D46" s="133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E46" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="F46" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>22.5</v>
       </c>
       <c r="G46" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H46" s="134" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="78" t="s">
-        <v>862</v>
+        <v>886</v>
       </c>
       <c r="B47" s="133" t="s">
         <v>1</v>
       </c>
       <c r="C47" s="137">
-        <v>44225</v>
+        <v>44288</v>
       </c>
       <c r="D47" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8248,27 +8344,27 @@
       </c>
       <c r="F47" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G47" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H47" s="134" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="78" t="s">
-        <v>862</v>
+        <v>885</v>
       </c>
       <c r="B48" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C48" s="137">
-        <v>44224</v>
+        <v>44288</v>
       </c>
       <c r="D48" s="133">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E48" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8276,223 +8372,223 @@
       </c>
       <c r="F48" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>37.5</v>
+        <v>15</v>
       </c>
       <c r="G48" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H48" s="134" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="78" t="s">
-        <v>845</v>
+        <v>879</v>
       </c>
       <c r="B49" s="133" t="s">
-        <v>48</v>
+        <v>633</v>
       </c>
       <c r="C49" s="137">
-        <v>44218</v>
+        <v>44288</v>
       </c>
       <c r="D49" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F49" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>60</v>
       </c>
       <c r="G49" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H49" s="134" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="78" t="s">
-        <v>845</v>
+        <v>883</v>
       </c>
       <c r="B50" s="133" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C50" s="137">
-        <v>44218</v>
+        <v>44288</v>
       </c>
       <c r="D50" s="133">
         <v>1</v>
       </c>
       <c r="E50" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="F50" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="G50" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H50" s="134" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="78" t="s">
-        <v>845</v>
+        <v>879</v>
       </c>
       <c r="B51" s="133" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C51" s="137">
-        <v>44210</v>
+        <v>44284</v>
       </c>
       <c r="D51" s="133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E51" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F51" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>22.5</v>
       </c>
       <c r="G51" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H51" s="134" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="78" t="s">
-        <v>845</v>
+        <v>879</v>
       </c>
       <c r="B52" s="133" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C52" s="137">
-        <v>44210</v>
+        <v>44275</v>
       </c>
       <c r="D52" s="133">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E52" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F52" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G52" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H52" s="134" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="78" t="s">
         <v>830</v>
       </c>
       <c r="B53" s="133" t="s">
-        <v>48</v>
+        <v>901</v>
       </c>
       <c r="C53" s="137">
-        <v>44209</v>
+        <v>44270</v>
       </c>
       <c r="D53" s="133">
         <v>2</v>
       </c>
       <c r="E53" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F53" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G53" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H53" s="134" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="78" t="s">
-        <v>830</v>
+        <v>873</v>
       </c>
       <c r="B54" s="133" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C54" s="137">
-        <v>44209</v>
+        <v>44264</v>
       </c>
       <c r="D54" s="133">
         <v>1</v>
       </c>
       <c r="E54" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="F54" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>90</v>
       </c>
       <c r="G54" s="78" t="s">
-        <v>661</v>
+        <v>878</v>
       </c>
       <c r="H54" s="134" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="78" t="s">
-        <v>845</v>
+        <v>873</v>
       </c>
       <c r="B55" s="133" t="s">
-        <v>140</v>
+        <v>487</v>
       </c>
       <c r="C55" s="137">
-        <v>44209</v>
+        <v>44264</v>
       </c>
       <c r="D55" s="133">
         <v>2</v>
       </c>
       <c r="E55" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F55" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="G55" s="78" t="s">
-        <v>661</v>
+        <v>878</v>
       </c>
       <c r="H55" s="134" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="78" t="s">
-        <v>727</v>
+        <v>873</v>
       </c>
       <c r="B56" s="133" t="s">
         <v>140</v>
       </c>
       <c r="C56" s="137">
-        <v>44209</v>
+        <v>44264</v>
       </c>
       <c r="D56" s="133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E56" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8500,83 +8596,83 @@
       </c>
       <c r="F56" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="G56" s="78" t="s">
-        <v>661</v>
+        <v>878</v>
       </c>
       <c r="H56" s="134" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="78" t="s">
-        <v>727</v>
+        <v>873</v>
       </c>
       <c r="B57" s="133" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C57" s="137">
-        <v>44209</v>
+        <v>44259</v>
       </c>
       <c r="D57" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F57" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="G57" s="78" t="s">
-        <v>661</v>
+        <v>878</v>
       </c>
       <c r="H57" s="134" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="78" t="s">
-        <v>816</v>
+        <v>830</v>
       </c>
       <c r="B58" s="133" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="C58" s="137">
-        <v>44209</v>
+        <v>44256</v>
       </c>
       <c r="D58" s="133">
         <v>1</v>
       </c>
       <c r="E58" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F58" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="G58" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H58" s="134" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="78" t="s">
-        <v>845</v>
+        <v>830</v>
       </c>
       <c r="B59" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C59" s="137">
-        <v>44208</v>
+        <v>44250</v>
       </c>
       <c r="D59" s="133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E59" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8584,27 +8680,27 @@
       </c>
       <c r="F59" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
+        <v>7.5</v>
       </c>
       <c r="G59" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H59" s="134" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="78" t="s">
         <v>102</v>
       </c>
       <c r="B60" s="133" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C60" s="137">
-        <v>44208</v>
+        <v>44244</v>
       </c>
       <c r="D60" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8612,413 +8708,959 @@
       </c>
       <c r="F60" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G60" s="78" t="s">
         <v>661</v>
       </c>
-      <c r="H60" s="134" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H60" s="134"/>
+    </row>
+    <row r="61" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="78" t="s">
-        <v>841</v>
+        <v>734</v>
       </c>
       <c r="B61" s="133" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C61" s="137">
-        <v>44203</v>
+        <v>44244</v>
       </c>
       <c r="D61" s="133">
         <v>1</v>
       </c>
       <c r="E61" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F61" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>30</v>
       </c>
       <c r="G61" s="78" t="s">
         <v>661</v>
       </c>
-      <c r="H61" s="134" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H61" s="134"/>
+    </row>
+    <row r="62" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="78" t="s">
-        <v>780</v>
-      </c>
-      <c r="B62" s="132" t="s">
-        <v>1</v>
+        <v>845</v>
+      </c>
+      <c r="B62" s="133" t="s">
+        <v>48</v>
       </c>
       <c r="C62" s="137">
-        <v>44203</v>
+        <v>44244</v>
       </c>
       <c r="D62" s="133">
         <v>1</v>
       </c>
       <c r="E62" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F62" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="G62" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H62" s="134" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="78" t="s">
-        <v>816</v>
-      </c>
-      <c r="B63" s="132" t="s">
-        <v>1</v>
+        <v>866</v>
+      </c>
+      <c r="B63" s="133" t="s">
+        <v>49</v>
       </c>
       <c r="C63" s="137">
-        <v>44203</v>
+        <v>44242</v>
       </c>
       <c r="D63" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F63" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G63" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H63" s="134" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="78" t="s">
-        <v>781</v>
-      </c>
-      <c r="B64" s="132" t="s">
-        <v>48</v>
+        <v>866</v>
+      </c>
+      <c r="B64" s="133" t="s">
+        <v>35</v>
       </c>
       <c r="C64" s="137">
-        <v>44203</v>
+        <v>44242</v>
       </c>
       <c r="D64" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F64" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>60</v>
       </c>
       <c r="G64" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H64" s="134" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="78" t="s">
-        <v>767</v>
-      </c>
-      <c r="B65" s="132" t="s">
-        <v>48</v>
+        <v>866</v>
+      </c>
+      <c r="B65" s="133" t="s">
+        <v>2</v>
       </c>
       <c r="C65" s="137">
-        <v>44203</v>
+        <v>44242</v>
       </c>
       <c r="D65" s="133">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E65" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F65" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>45</v>
       </c>
       <c r="G65" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H65" s="134" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="78" t="s">
-        <v>816</v>
-      </c>
-      <c r="B66" s="132" t="s">
-        <v>140</v>
+        <v>866</v>
+      </c>
+      <c r="B66" s="133" t="s">
+        <v>487</v>
       </c>
       <c r="C66" s="137">
-        <v>44201</v>
+        <v>44242</v>
       </c>
       <c r="D66" s="133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E66" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F66" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>60</v>
       </c>
       <c r="G66" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H66" s="134" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="78" t="s">
-        <v>830</v>
-      </c>
-      <c r="B67" s="132" t="s">
-        <v>48</v>
+        <v>869</v>
+      </c>
+      <c r="B67" s="133" t="s">
+        <v>49</v>
       </c>
       <c r="C67" s="137">
-        <v>44201</v>
+        <v>44239</v>
       </c>
       <c r="D67" s="133">
         <v>1</v>
       </c>
       <c r="E67" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F67" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="G67" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H67" s="134" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="78" t="s">
+        <v>862</v>
+      </c>
+      <c r="B68" s="132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="137">
+        <v>44232</v>
+      </c>
+      <c r="D68" s="133">
+        <v>1</v>
+      </c>
+      <c r="E68" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>180</v>
+      </c>
+      <c r="F68" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>90</v>
+      </c>
+      <c r="G68" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H68" s="134" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="78" t="s">
+        <v>862</v>
+      </c>
+      <c r="B69" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="137">
+        <v>44225</v>
+      </c>
+      <c r="D69" s="133">
+        <v>1</v>
+      </c>
+      <c r="E69" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>10</v>
+      </c>
+      <c r="F69" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>5</v>
+      </c>
+      <c r="G69" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H69" s="134" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="78" t="s">
+        <v>862</v>
+      </c>
+      <c r="B70" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="137">
+        <v>44224</v>
+      </c>
+      <c r="D70" s="133">
+        <v>5</v>
+      </c>
+      <c r="E70" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F70" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>37.5</v>
+      </c>
+      <c r="G70" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H70" s="134" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="78" t="s">
+        <v>845</v>
+      </c>
+      <c r="B71" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71" s="137">
+        <v>44218</v>
+      </c>
+      <c r="D71" s="133">
+        <v>1</v>
+      </c>
+      <c r="E71" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F71" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G71" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H71" s="134" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="78" t="s">
+        <v>845</v>
+      </c>
+      <c r="B72" s="133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="137">
+        <v>44218</v>
+      </c>
+      <c r="D72" s="133">
+        <v>1</v>
+      </c>
+      <c r="E72" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>180</v>
+      </c>
+      <c r="F72" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>90</v>
+      </c>
+      <c r="G72" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H72" s="134" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="78" t="s">
+        <v>845</v>
+      </c>
+      <c r="B73" s="133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="137">
+        <v>44210</v>
+      </c>
+      <c r="D73" s="133">
+        <v>1</v>
+      </c>
+      <c r="E73" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>60</v>
+      </c>
+      <c r="F73" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>30</v>
+      </c>
+      <c r="G73" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H73" s="134" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="78" t="s">
+        <v>845</v>
+      </c>
+      <c r="B74" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="137">
+        <v>44210</v>
+      </c>
+      <c r="D74" s="133">
+        <v>0.5</v>
+      </c>
+      <c r="E74" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>60</v>
+      </c>
+      <c r="F74" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>15</v>
+      </c>
+      <c r="G74" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H74" s="134" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="78" t="s">
+        <v>830</v>
+      </c>
+      <c r="B75" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" s="137">
+        <v>44209</v>
+      </c>
+      <c r="D75" s="133">
+        <v>2</v>
+      </c>
+      <c r="E75" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F75" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>15</v>
+      </c>
+      <c r="G75" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H75" s="134" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="78" t="s">
+        <v>830</v>
+      </c>
+      <c r="B76" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C76" s="137">
+        <v>44209</v>
+      </c>
+      <c r="D76" s="133">
+        <v>1</v>
+      </c>
+      <c r="E76" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F76" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G76" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H76" s="134" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="78" t="s">
+        <v>845</v>
+      </c>
+      <c r="B77" s="133" t="s">
+        <v>140</v>
+      </c>
+      <c r="C77" s="137">
+        <v>44209</v>
+      </c>
+      <c r="D77" s="133">
+        <v>2</v>
+      </c>
+      <c r="E77" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>5</v>
+      </c>
+      <c r="F77" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>5</v>
+      </c>
+      <c r="G77" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H77" s="134" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="78" t="s">
+        <v>727</v>
+      </c>
+      <c r="B78" s="133" t="s">
+        <v>140</v>
+      </c>
+      <c r="C78" s="137">
+        <v>44209</v>
+      </c>
+      <c r="D78" s="133">
+        <v>1</v>
+      </c>
+      <c r="E78" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>5</v>
+      </c>
+      <c r="F78" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>2.5</v>
+      </c>
+      <c r="G78" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H78" s="134" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="78" t="s">
+        <v>727</v>
+      </c>
+      <c r="B79" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="137">
+        <v>44209</v>
+      </c>
+      <c r="D79" s="133">
+        <v>1</v>
+      </c>
+      <c r="E79" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F79" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G79" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H79" s="134" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="78" t="s">
+        <v>816</v>
+      </c>
+      <c r="B80" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80" s="137">
+        <v>44209</v>
+      </c>
+      <c r="D80" s="133">
+        <v>1</v>
+      </c>
+      <c r="E80" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F80" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G80" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H80" s="134" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="78" t="s">
+        <v>845</v>
+      </c>
+      <c r="B81" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81" s="137">
+        <v>44208</v>
+      </c>
+      <c r="D81" s="133">
+        <v>3</v>
+      </c>
+      <c r="E81" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F81" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>22.5</v>
+      </c>
+      <c r="G81" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H81" s="134" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="B82" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="137">
+        <v>44208</v>
+      </c>
+      <c r="D82" s="133">
+        <v>2</v>
+      </c>
+      <c r="E82" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>60</v>
+      </c>
+      <c r="F82" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>60</v>
+      </c>
+      <c r="G82" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H82" s="134" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="78" t="s">
+        <v>841</v>
+      </c>
+      <c r="B83" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C83" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D83" s="133">
+        <v>1</v>
+      </c>
+      <c r="E83" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F83" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G83" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H83" s="134" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="78" t="s">
+        <v>780</v>
+      </c>
+      <c r="B84" s="132" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D84" s="133">
+        <v>1</v>
+      </c>
+      <c r="E84" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>10</v>
+      </c>
+      <c r="F84" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>5</v>
+      </c>
+      <c r="G84" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H84" s="134" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="78" t="s">
+        <v>816</v>
+      </c>
+      <c r="B85" s="132" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D85" s="133">
+        <v>2</v>
+      </c>
+      <c r="E85" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>10</v>
+      </c>
+      <c r="F85" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>10</v>
+      </c>
+      <c r="G85" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H85" s="134" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="78" t="s">
+        <v>781</v>
+      </c>
+      <c r="B86" s="132" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D86" s="133">
+        <v>1</v>
+      </c>
+      <c r="E86" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F86" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G86" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H86" s="134" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="78" t="s">
+        <v>767</v>
+      </c>
+      <c r="B87" s="132" t="s">
+        <v>48</v>
+      </c>
+      <c r="C87" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D87" s="133">
+        <v>1</v>
+      </c>
+      <c r="E87" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F87" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G87" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H87" s="134" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="78" t="s">
+        <v>816</v>
+      </c>
+      <c r="B88" s="132" t="s">
+        <v>140</v>
+      </c>
+      <c r="C88" s="137">
+        <v>44201</v>
+      </c>
+      <c r="D88" s="133">
+        <v>3</v>
+      </c>
+      <c r="E88" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>5</v>
+      </c>
+      <c r="F88" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G88" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H88" s="134" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="78" t="s">
+        <v>830</v>
+      </c>
+      <c r="B89" s="132" t="s">
+        <v>48</v>
+      </c>
+      <c r="C89" s="137">
+        <v>44201</v>
+      </c>
+      <c r="D89" s="133">
+        <v>1</v>
+      </c>
+      <c r="E89" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F89" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G89" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H89" s="134" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="153" t="s">
+    <row r="90" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="153" t="s">
         <v>491</v>
       </c>
-      <c r="B68" s="154">
+      <c r="B90" s="154">
         <f>SUBTOTAL(5,TAB_Doku_201910[Datum])</f>
-        <v>44201</v>
-      </c>
-      <c r="C68" s="155">
+        <v>44302</v>
+      </c>
+      <c r="C90" s="155">
         <f>SUBTOTAL(4,TAB_Doku_201910[Datum])</f>
-        <v>44343</v>
-      </c>
-      <c r="D68" s="156"/>
-      <c r="E68" s="156"/>
-      <c r="F68" s="157" t="e">
+        <v>44400</v>
+      </c>
+      <c r="D90" s="156"/>
+      <c r="E90" s="156"/>
+      <c r="F90" s="157">
         <f>SUBTOTAL(9,TAB_Doku_201910[[Kosten ]])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G68" s="153"/>
-      <c r="H68" s="158"/>
-    </row>
-    <row r="69" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C69"/>
-    </row>
-    <row r="70" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C70"/>
-    </row>
-    <row r="71" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C71"/>
-    </row>
-    <row r="72" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C72"/>
-    </row>
-    <row r="73" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C73"/>
-    </row>
-    <row r="74" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C74"/>
-    </row>
-    <row r="75" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C75"/>
-    </row>
-    <row r="76" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C76"/>
-    </row>
-    <row r="77" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C77"/>
-    </row>
-    <row r="78" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C78"/>
-    </row>
-    <row r="79" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C79"/>
-    </row>
-    <row r="80" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C80"/>
-    </row>
-    <row r="81" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C81"/>
-    </row>
-    <row r="82" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C82"/>
-    </row>
-    <row r="83" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C83"/>
-    </row>
-    <row r="84" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C84"/>
-    </row>
-    <row r="85" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C85"/>
-    </row>
-    <row r="86" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C86"/>
-    </row>
-    <row r="87" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C87"/>
-    </row>
-    <row r="88" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C88"/>
-    </row>
-    <row r="89" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C89"/>
-    </row>
-    <row r="90" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C90"/>
-    </row>
-    <row r="91" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+        <v>1008.6</v>
+      </c>
+      <c r="G90" s="153"/>
+      <c r="H90" s="158"/>
+    </row>
+    <row r="91" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91"/>
     </row>
-    <row r="92" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92"/>
     </row>
-    <row r="93" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93"/>
     </row>
-    <row r="94" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94"/>
     </row>
-    <row r="95" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95"/>
     </row>
-    <row r="96" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96"/>
     </row>
-    <row r="97" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97"/>
     </row>
-    <row r="98" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C98"/>
     </row>
-    <row r="99" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C99"/>
     </row>
-    <row r="100" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C100"/>
     </row>
-    <row r="101" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C101"/>
     </row>
-    <row r="102" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C102"/>
     </row>
-    <row r="103" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C103"/>
     </row>
-    <row r="104" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C104"/>
-      <c r="I104" t="s">
+    </row>
+    <row r="105" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C105"/>
+    </row>
+    <row r="106" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C106"/>
+    </row>
+    <row r="107" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C107"/>
+    </row>
+    <row r="108" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C108"/>
+    </row>
+    <row r="109" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C109"/>
+    </row>
+    <row r="110" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C110"/>
+    </row>
+    <row r="111" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C111"/>
+    </row>
+    <row r="112" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C112"/>
+    </row>
+    <row r="113" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C113"/>
+    </row>
+    <row r="114" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C114"/>
+    </row>
+    <row r="115" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C115"/>
+    </row>
+    <row r="116" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C116"/>
+    </row>
+    <row r="117" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C117"/>
+    </row>
+    <row r="118" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C118"/>
+    </row>
+    <row r="119" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C119"/>
+    </row>
+    <row r="120" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C120"/>
+    </row>
+    <row r="121" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C121"/>
+    </row>
+    <row r="122" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C122"/>
+    </row>
+    <row r="123" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C123"/>
+    </row>
+    <row r="124" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C124"/>
+    </row>
+    <row r="125" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C125"/>
+      <c r="I125" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="105" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C105"/>
-    </row>
-    <row r="106" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C106"/>
-    </row>
-    <row r="107" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C107"/>
-    </row>
-    <row r="108" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C108"/>
-    </row>
-    <row r="109" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C109"/>
-    </row>
-    <row r="110" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C110"/>
-    </row>
-    <row r="111" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C111"/>
-    </row>
-    <row r="112" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C112"/>
-    </row>
-    <row r="113" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C113"/>
-    </row>
-    <row r="114" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C114"/>
-    </row>
-    <row r="115" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C115"/>
-    </row>
-    <row r="116" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C116"/>
-    </row>
-    <row r="117" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C117"/>
-    </row>
-    <row r="118" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C118"/>
-    </row>
-    <row r="119" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C119"/>
-    </row>
-    <row r="120" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C120"/>
-    </row>
-    <row r="121" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C121"/>
-    </row>
-    <row r="122" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C122"/>
-    </row>
-    <row r="123" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C123"/>
-    </row>
-    <row r="124" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C124"/>
-    </row>
-    <row r="125" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C125"/>
-    </row>
-    <row r="126" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C126"/>
     </row>
-    <row r="127" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C127"/>
     </row>
-    <row r="128" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C128"/>
     </row>
     <row r="129" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -9069,120 +9711,120 @@
     <row r="144" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C144"/>
     </row>
-    <row r="145" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C145"/>
     </row>
-    <row r="146" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A146"/>
-      <c r="B146"/>
+    <row r="146" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C146"/>
-      <c r="D146"/>
-      <c r="E146"/>
-      <c r="F146"/>
-      <c r="G146"/>
-      <c r="H146"/>
-    </row>
-    <row r="147" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C147"/>
     </row>
-    <row r="148" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C148"/>
     </row>
-    <row r="149" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C149"/>
     </row>
-    <row r="150" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C150"/>
     </row>
-    <row r="151" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A151"/>
-      <c r="B151"/>
+    <row r="151" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C151"/>
-      <c r="D151"/>
-      <c r="E151"/>
-      <c r="F151"/>
-      <c r="G151"/>
-      <c r="H151"/>
-    </row>
-    <row r="152" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C152"/>
     </row>
-    <row r="153" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C153"/>
     </row>
-    <row r="154" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C154"/>
     </row>
-    <row r="155" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C155"/>
     </row>
-    <row r="156" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C156"/>
     </row>
-    <row r="157" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C157"/>
     </row>
-    <row r="158" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C158"/>
     </row>
-    <row r="159" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C159"/>
     </row>
-    <row r="160" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C160"/>
     </row>
-    <row r="161" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C161"/>
     </row>
-    <row r="162" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C162"/>
     </row>
-    <row r="163" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C163"/>
     </row>
-    <row r="164" spans="3:3" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C164"/>
     </row>
-    <row r="165" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C165"/>
     </row>
-    <row r="166" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C166"/>
     </row>
-    <row r="167" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A167"/>
+      <c r="B167"/>
       <c r="C167"/>
-    </row>
-    <row r="168" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D167"/>
+      <c r="E167"/>
+      <c r="F167"/>
+      <c r="G167"/>
+      <c r="H167"/>
+    </row>
+    <row r="168" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C168"/>
     </row>
-    <row r="169" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C169"/>
     </row>
-    <row r="170" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C170"/>
     </row>
-    <row r="171" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C171"/>
     </row>
-    <row r="172" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A172"/>
+      <c r="B172"/>
       <c r="C172"/>
-    </row>
-    <row r="173" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D172"/>
+      <c r="E172"/>
+      <c r="F172"/>
+      <c r="G172"/>
+      <c r="H172"/>
+    </row>
+    <row r="173" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C173"/>
     </row>
-    <row r="174" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C174"/>
     </row>
-    <row r="175" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C175"/>
     </row>
-    <row r="176" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C176"/>
     </row>
     <row r="177" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C177"/>
     </row>
-    <row r="178" spans="3:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C178"/>
     </row>
     <row r="179" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -9203,7 +9845,7 @@
     <row r="184" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C184"/>
     </row>
-    <row r="185" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:3" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C185"/>
     </row>
     <row r="186" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -9245,7 +9887,7 @@
     <row r="198" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C198"/>
     </row>
-    <row r="199" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="199" spans="3:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C199"/>
     </row>
     <row r="200" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -9620,11 +10262,77 @@
     <row r="323" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C323"/>
     </row>
-    <row r="324" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C324"/>
     </row>
-    <row r="325" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C325"/>
+    </row>
+    <row r="326" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C326"/>
+    </row>
+    <row r="327" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C327"/>
+    </row>
+    <row r="328" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C328"/>
+    </row>
+    <row r="329" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C329"/>
+    </row>
+    <row r="330" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C330"/>
+    </row>
+    <row r="331" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C331"/>
+    </row>
+    <row r="332" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C332"/>
+    </row>
+    <row r="333" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C333"/>
+    </row>
+    <row r="334" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C334"/>
+    </row>
+    <row r="335" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C335"/>
+    </row>
+    <row r="336" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C336"/>
+    </row>
+    <row r="337" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C337"/>
+    </row>
+    <row r="338" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C338"/>
+    </row>
+    <row r="339" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C339"/>
+    </row>
+    <row r="340" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C340"/>
+    </row>
+    <row r="341" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C341"/>
+    </row>
+    <row r="342" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C342"/>
+    </row>
+    <row r="343" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C343"/>
+    </row>
+    <row r="344" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C344"/>
+    </row>
+    <row r="345" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C345"/>
+    </row>
+    <row r="346" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C346"/>
+    </row>
+    <row r="347" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C347"/>
     </row>
   </sheetData>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.47244094488188981" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9643,7 +10351,7 @@
           <x14:formula1>
             <xm:f>'Leistungen-Liste'!$F$1:$F$35</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B67</xm:sqref>
+          <xm:sqref>B2:B89</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -24455,122 +25163,122 @@
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0"/>
   <conditionalFormatting sqref="C2:C90 C94:C123">
-    <cfRule type="containsText" dxfId="23" priority="33" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C15">
-    <cfRule type="containsText" dxfId="22" priority="32" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="21" priority="31" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C43 C45:C46">
-    <cfRule type="containsText" dxfId="20" priority="30" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C34">
-    <cfRule type="containsText" dxfId="19" priority="29" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="containsText" dxfId="18" priority="27" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73:D76 D2:D71">
-    <cfRule type="cellIs" dxfId="17" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79">
-    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77:D78">
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81">
-    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81">
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82">
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="20" priority="14" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="19" priority="12" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C89:C90">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C89)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C125:C126">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C127">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C127)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C124">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C128">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C128)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C129)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24843,7 +25551,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A9" s="60" t="s">
         <v>338</v>
       </c>

--- a/trailtech/Leistungen-KC-Trailtech.xlsx
+++ b/trailtech/Leistungen-KC-Trailtech.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2513" uniqueCount="937">
   <si>
     <t>Tätigkeit</t>
   </si>
@@ -2924,6 +2924,18 @@
   <si>
     <t>Vorab Infos Pumptrack Konzeptphase, Planungskosten, Prozess, etc.</t>
   </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>Arlberg E-Bike Runde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absprache einer Trassenführung, Aufklärung , etc. Hinweis auf bauliche Erfodernisse, etc. </t>
+  </si>
+  <si>
+    <t>E-Mail Korrespondenz, Terminabsprache</t>
+  </si>
 </sst>
 </file>
 
@@ -2932,7 +2944,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3094,12 +3106,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3311,7 +3317,7 @@
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3725,24 +3731,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="24" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5656,17 +5644,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="TAB_Doku_201910" displayName="TAB_Doku_201910" ref="A1:H90" totalsRowCount="1" headerRowDxfId="97" dataDxfId="96" totalsRowDxfId="94" tableBorderDxfId="95">
-  <autoFilter ref="A1:H89">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="nächste"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState ref="A2:H29">
-    <sortCondition descending="1" ref="C1:C89"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="TAB_Doku_201910" displayName="TAB_Doku_201910" ref="A1:H92" totalsRowCount="1" headerRowDxfId="97" dataDxfId="96" totalsRowDxfId="94" tableBorderDxfId="95">
+  <autoFilter ref="A1:H91"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="93" totalsRowDxfId="7"/>
     <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="92" totalsRowDxfId="6">
@@ -7047,13 +7026,13 @@
   <sheetPr published="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I347"/>
+  <dimension ref="A1:I349"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7095,66 +7074,66 @@
     </row>
     <row r="2" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="78" t="s">
-        <v>102</v>
+        <v>934</v>
       </c>
       <c r="B2" s="133" t="s">
-        <v>207</v>
+        <v>48</v>
       </c>
       <c r="C2" s="137">
-        <v>44400</v>
+        <v>44412</v>
       </c>
       <c r="D2" s="133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F2" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>22.5</v>
       </c>
       <c r="G2" s="78" t="s">
         <v>498</v>
       </c>
       <c r="H2" s="134" t="s">
-        <v>929</v>
+        <v>936</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="78" t="s">
-        <v>102</v>
+        <v>934</v>
       </c>
       <c r="B3" s="133" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C3" s="137">
-        <v>44400</v>
+        <v>44411</v>
       </c>
       <c r="D3" s="133">
         <v>2</v>
       </c>
       <c r="E3" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F3" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G3" s="78" t="s">
         <v>498</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="78" t="s">
-        <v>886</v>
+        <v>102</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>13</v>
+        <v>207</v>
       </c>
       <c r="C4" s="137">
         <v>44400</v>
@@ -7164,22 +7143,22 @@
       </c>
       <c r="E4" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F4" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G4" s="78" t="s">
-        <v>498</v>
+        <v>933</v>
       </c>
       <c r="H4" s="134" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="78" t="s">
-        <v>734</v>
+        <v>102</v>
       </c>
       <c r="B5" s="133" t="s">
         <v>13</v>
@@ -7199,122 +7178,122 @@
         <v>60</v>
       </c>
       <c r="G5" s="78" t="s">
-        <v>498</v>
+        <v>933</v>
       </c>
       <c r="H5" s="134" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="78" t="s">
-        <v>906</v>
+        <v>886</v>
       </c>
       <c r="B6" s="133" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C6" s="137">
-        <v>44396</v>
+        <v>44400</v>
       </c>
       <c r="D6" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F6" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="G6" s="78" t="s">
-        <v>498</v>
+        <v>933</v>
       </c>
       <c r="H6" s="134" t="s">
-        <v>846</v>
+        <v>928</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="78" t="s">
-        <v>906</v>
+        <v>734</v>
       </c>
       <c r="B7" s="133" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C7" s="137">
-        <v>44396</v>
+        <v>44400</v>
       </c>
       <c r="D7" s="133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F7" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G7" s="78" t="s">
-        <v>498</v>
+        <v>933</v>
       </c>
       <c r="H7" s="134" t="s">
-        <v>907</v>
+        <v>930</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="78" t="s">
-        <v>924</v>
+        <v>906</v>
       </c>
       <c r="B8" s="133" t="s">
-        <v>255</v>
+        <v>1</v>
       </c>
       <c r="C8" s="137">
-        <v>44395</v>
+        <v>44396</v>
       </c>
       <c r="D8" s="133">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E8" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F8" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G8" s="78" t="s">
-        <v>498</v>
+        <v>933</v>
       </c>
       <c r="H8" s="134" t="s">
-        <v>926</v>
+        <v>846</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
-        <v>924</v>
+        <v>906</v>
       </c>
       <c r="B9" s="133" t="s">
-        <v>255</v>
+        <v>48</v>
       </c>
       <c r="C9" s="137">
-        <v>44395</v>
+        <v>44396</v>
       </c>
       <c r="D9" s="133">
-        <v>237</v>
+        <v>4</v>
       </c>
       <c r="E9" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F9" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>71.099999999999994</v>
+        <v>30</v>
       </c>
       <c r="G9" s="78" t="s">
-        <v>498</v>
+        <v>933</v>
       </c>
       <c r="H9" s="134" t="s">
-        <v>927</v>
+        <v>907</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7322,265 +7301,265 @@
         <v>924</v>
       </c>
       <c r="B10" s="133" t="s">
-        <v>35</v>
+        <v>255</v>
       </c>
       <c r="C10" s="137">
         <v>44395</v>
       </c>
       <c r="D10" s="133">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="E10" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F10" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="G10" s="78" t="s">
-        <v>498</v>
+        <v>933</v>
       </c>
       <c r="H10" s="134" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="78" t="s">
-        <v>883</v>
+        <v>924</v>
       </c>
       <c r="B11" s="133" t="s">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="C11" s="137">
-        <v>44384</v>
+        <v>44395</v>
       </c>
       <c r="D11" s="133">
-        <v>3</v>
+        <v>237</v>
       </c>
       <c r="E11" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F11" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="G11" s="78" t="s">
-        <v>498</v>
+        <v>933</v>
       </c>
       <c r="H11" s="134" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="78" t="s">
-        <v>738</v>
+        <v>924</v>
       </c>
       <c r="B12" s="133" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C12" s="137">
-        <v>44384</v>
+        <v>44395</v>
       </c>
       <c r="D12" s="133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="F12" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>90</v>
       </c>
       <c r="G12" s="78" t="s">
-        <v>498</v>
+        <v>933</v>
       </c>
       <c r="H12" s="134" t="s">
-        <v>912</v>
+        <v>925</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="78" t="s">
-        <v>738</v>
+        <v>883</v>
       </c>
       <c r="B13" s="133" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C13" s="137">
-        <v>44379</v>
+        <v>44384</v>
       </c>
       <c r="D13" s="133">
         <v>3</v>
       </c>
       <c r="E13" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F13" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>15</v>
+      </c>
+      <c r="G13" s="78" t="s">
+        <v>933</v>
+      </c>
+      <c r="H13" s="134" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="78" t="s">
+        <v>738</v>
+      </c>
+      <c r="B14" s="133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="137">
+        <v>44384</v>
+      </c>
+      <c r="D14" s="133">
+        <v>1</v>
+      </c>
+      <c r="E14" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>180</v>
+      </c>
+      <c r="F14" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>90</v>
+      </c>
+      <c r="G14" s="78" t="s">
+        <v>933</v>
+      </c>
+      <c r="H14" s="134" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="78" t="s">
+        <v>738</v>
+      </c>
+      <c r="B15" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="137">
+        <v>44379</v>
+      </c>
+      <c r="D15" s="133">
+        <v>3</v>
+      </c>
+      <c r="E15" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F15" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>22.5</v>
       </c>
-      <c r="G13" s="78" t="s">
-        <v>498</v>
-      </c>
-      <c r="H13" s="134" t="s">
+      <c r="G15" s="78" t="s">
+        <v>933</v>
+      </c>
+      <c r="H15" s="134" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="132" t="s">
+    <row r="16" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="132" t="s">
         <v>738</v>
       </c>
-      <c r="B14" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="131">
+      <c r="B16" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="131">
         <v>44377</v>
       </c>
-      <c r="D14" s="132">
+      <c r="D16" s="132">
         <v>3</v>
       </c>
-      <c r="E14" s="132">
+      <c r="E16" s="132">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>10</v>
       </c>
-      <c r="F14" s="132">
+      <c r="F16" s="132">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>15</v>
       </c>
-      <c r="G14" s="78" t="s">
-        <v>498</v>
-      </c>
-      <c r="H14" s="132" t="s">
+      <c r="G16" s="78" t="s">
+        <v>933</v>
+      </c>
+      <c r="H16" s="132" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="132" t="s">
+    <row r="17" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="132" t="s">
         <v>914</v>
       </c>
-      <c r="B15" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="131">
+      <c r="B17" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="131">
         <v>44362</v>
       </c>
-      <c r="D15" s="132">
-        <v>1</v>
-      </c>
-      <c r="E15" s="132">
+      <c r="D17" s="132">
+        <v>1</v>
+      </c>
+      <c r="E17" s="132">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>10</v>
       </c>
-      <c r="F15" s="132">
+      <c r="F17" s="132">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>5</v>
       </c>
-      <c r="G15" s="78" t="s">
-        <v>498</v>
-      </c>
-      <c r="H15" s="132" t="s">
+      <c r="G17" s="78" t="s">
+        <v>933</v>
+      </c>
+      <c r="H17" s="132" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="78" t="s">
+    <row r="18" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="78" t="s">
         <v>914</v>
       </c>
-      <c r="B16" s="133" t="s">
+      <c r="B18" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="137">
+      <c r="C18" s="137">
         <v>44362</v>
       </c>
-      <c r="D16" s="133">
+      <c r="D18" s="133">
         <v>3</v>
       </c>
-      <c r="E16" s="133">
+      <c r="E18" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>15</v>
       </c>
-      <c r="F16" s="133">
+      <c r="F18" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>22.5</v>
       </c>
-      <c r="G16" s="78" t="s">
-        <v>498</v>
-      </c>
-      <c r="H16" s="134" t="s">
+      <c r="G18" s="78" t="s">
+        <v>933</v>
+      </c>
+      <c r="H18" s="134" t="s">
         <v>915</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="78" t="s">
-        <v>887</v>
-      </c>
-      <c r="B17" s="133" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="137">
-        <v>44343</v>
-      </c>
-      <c r="D17" s="133">
-        <v>1</v>
-      </c>
-      <c r="E17" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
-      </c>
-      <c r="F17" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
-      </c>
-      <c r="G17" s="78" t="s">
-        <v>498</v>
-      </c>
-      <c r="H17" s="134" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="78" t="s">
-        <v>887</v>
-      </c>
-      <c r="B18" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="137">
-        <v>44333</v>
-      </c>
-      <c r="D18" s="133">
-        <v>2</v>
-      </c>
-      <c r="E18" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
-      </c>
-      <c r="F18" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
-      </c>
-      <c r="G18" s="78" t="s">
-        <v>498</v>
-      </c>
-      <c r="H18" s="134" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="78" t="s">
-        <v>918</v>
+        <v>887</v>
       </c>
       <c r="B19" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="137">
-        <v>44326</v>
+        <v>44343</v>
       </c>
       <c r="D19" s="133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -7588,60 +7567,72 @@
       </c>
       <c r="F19" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G19" s="78" t="s">
+        <v>933</v>
+      </c>
+      <c r="H19" s="134" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="78" t="s">
+        <v>887</v>
+      </c>
+      <c r="B20" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="137">
+        <v>44333</v>
+      </c>
+      <c r="D20" s="133">
+        <v>2</v>
+      </c>
+      <c r="E20" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>10</v>
+      </c>
+      <c r="F20" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>10</v>
+      </c>
+      <c r="G20" s="78" t="s">
+        <v>933</v>
+      </c>
+      <c r="H20" s="134" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="78" t="s">
+        <v>918</v>
+      </c>
+      <c r="B21" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="137">
+        <v>44326</v>
+      </c>
+      <c r="D21" s="133">
+        <v>3</v>
+      </c>
+      <c r="E21" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F21" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>22.5</v>
       </c>
-      <c r="G19" s="78" t="s">
-        <v>498</v>
-      </c>
-      <c r="H19" s="134" t="s">
+      <c r="G21" s="78" t="s">
+        <v>933</v>
+      </c>
+      <c r="H21" s="134" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="78" t="s">
-        <v>879</v>
-      </c>
-      <c r="B20" s="133"/>
-      <c r="C20" s="136"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F20" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G20" s="78" t="s">
-        <v>898</v>
-      </c>
-      <c r="H20" s="134" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="78" t="s">
-        <v>879</v>
-      </c>
-      <c r="B21" s="133"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F21" s="133" t="e">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G21" s="78" t="s">
-        <v>898</v>
-      </c>
-      <c r="H21" s="134" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="78" t="s">
         <v>879</v>
       </c>
@@ -7660,683 +7651,671 @@
         <v>898</v>
       </c>
       <c r="H22" s="134" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="78" t="s">
+        <v>879</v>
+      </c>
+      <c r="B23" s="133"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F23" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G23" s="78" t="s">
+        <v>898</v>
+      </c>
+      <c r="H23" s="134" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="78" t="s">
+        <v>879</v>
+      </c>
+      <c r="B24" s="133"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F24" s="133" t="e">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G24" s="78" t="s">
+        <v>898</v>
+      </c>
+      <c r="H24" s="134" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="78" t="s">
         <v>921</v>
       </c>
-      <c r="B23" s="133" t="s">
+      <c r="B25" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="137">
+      <c r="C25" s="137">
         <v>44320</v>
       </c>
-      <c r="D23" s="133">
+      <c r="D25" s="133">
         <v>2</v>
       </c>
-      <c r="E23" s="133">
+      <c r="E25" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>180</v>
       </c>
-      <c r="F23" s="133">
+      <c r="F25" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>180</v>
       </c>
-      <c r="G23" s="78" t="s">
-        <v>498</v>
-      </c>
-      <c r="H23" s="134" t="s">
+      <c r="G25" s="78" t="s">
+        <v>933</v>
+      </c>
+      <c r="H25" s="134" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="78" t="s">
+    <row r="26" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="78" t="s">
         <v>921</v>
       </c>
-      <c r="B24" s="133" t="s">
+      <c r="B26" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="137">
+      <c r="C26" s="137">
         <v>44320</v>
       </c>
-      <c r="D24" s="133">
+      <c r="D26" s="133">
         <v>4</v>
       </c>
-      <c r="E24" s="133">
+      <c r="E26" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>15</v>
       </c>
-      <c r="F24" s="133">
+      <c r="F26" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>30</v>
       </c>
-      <c r="G24" s="78" t="s">
-        <v>498</v>
-      </c>
-      <c r="H24" s="134" t="s">
+      <c r="G26" s="78" t="s">
+        <v>933</v>
+      </c>
+      <c r="H26" s="134" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="78" t="s">
+    <row r="27" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="78" t="s">
         <v>920</v>
       </c>
-      <c r="B25" s="133" t="s">
+      <c r="B27" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="137">
+      <c r="C27" s="137">
         <v>44316</v>
       </c>
-      <c r="D25" s="133">
+      <c r="D27" s="133">
         <v>2</v>
       </c>
-      <c r="E25" s="133">
+      <c r="E27" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>60</v>
       </c>
-      <c r="F25" s="133">
+      <c r="F27" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>60</v>
       </c>
-      <c r="G25" s="78" t="s">
-        <v>498</v>
-      </c>
-      <c r="H25" s="134" t="s">
+      <c r="G27" s="78" t="s">
+        <v>933</v>
+      </c>
+      <c r="H27" s="134" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="163" t="s">
+    <row r="28" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="157" t="s">
         <v>879</v>
       </c>
-      <c r="B26" s="164" t="s">
+      <c r="B28" s="158" t="s">
         <v>633</v>
       </c>
-      <c r="C26" s="165">
+      <c r="C28" s="159">
         <v>44316</v>
       </c>
-      <c r="D26" s="164">
+      <c r="D28" s="158">
         <v>2</v>
       </c>
-      <c r="E26" s="164">
+      <c r="E28" s="158">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>60</v>
       </c>
-      <c r="F26" s="164">
+      <c r="F28" s="158">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>60</v>
       </c>
-      <c r="G26" s="163" t="s">
-        <v>498</v>
-      </c>
-      <c r="H26" s="166" t="s">
+      <c r="G28" s="78" t="s">
+        <v>933</v>
+      </c>
+      <c r="H28" s="160" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="167" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="78" t="s">
+    <row r="29" spans="1:8" s="161" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="78" t="s">
         <v>916</v>
       </c>
-      <c r="B27" s="133" t="s">
+      <c r="B29" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="137">
+      <c r="C29" s="137">
         <v>44304</v>
       </c>
-      <c r="D27" s="133">
+      <c r="D29" s="133">
         <v>5</v>
       </c>
-      <c r="E27" s="133">
+      <c r="E29" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>15</v>
       </c>
-      <c r="F27" s="133">
+      <c r="F29" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>37.5</v>
       </c>
-      <c r="G27" s="78" t="s">
-        <v>498</v>
-      </c>
-      <c r="H27" s="134" t="s">
+      <c r="G29" s="78" t="s">
+        <v>933</v>
+      </c>
+      <c r="H29" s="134" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="159" t="s">
+    <row r="30" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="153" t="s">
         <v>885</v>
       </c>
-      <c r="B28" s="160" t="s">
+      <c r="B30" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="161">
+      <c r="C30" s="155">
         <v>44302</v>
       </c>
-      <c r="D28" s="160">
-        <v>1</v>
-      </c>
-      <c r="E28" s="160">
+      <c r="D30" s="154">
+        <v>1</v>
+      </c>
+      <c r="E30" s="154">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>180</v>
       </c>
-      <c r="F28" s="160">
+      <c r="F30" s="154">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>90</v>
       </c>
-      <c r="G28" s="159" t="s">
+      <c r="G30" s="153" t="s">
         <v>898</v>
       </c>
-      <c r="H28" s="162" t="s">
+      <c r="H30" s="156" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="167" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="163" t="s">
+    <row r="31" spans="1:8" s="161" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="157" t="s">
         <v>891</v>
       </c>
-      <c r="B29" s="164" t="s">
+      <c r="B31" s="158" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="165">
+      <c r="C31" s="159">
         <v>44302</v>
       </c>
-      <c r="D29" s="164">
-        <v>1</v>
-      </c>
-      <c r="E29" s="164">
+      <c r="D31" s="158">
+        <v>1</v>
+      </c>
+      <c r="E31" s="158">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>30</v>
       </c>
-      <c r="F29" s="164">
+      <c r="F31" s="158">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>15</v>
       </c>
-      <c r="G29" s="163" t="s">
-        <v>498</v>
-      </c>
-      <c r="H29" s="166" t="s">
+      <c r="G31" s="78" t="s">
+        <v>933</v>
+      </c>
+      <c r="H31" s="160" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="78" t="s">
+    <row r="32" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="78" t="s">
         <v>887</v>
       </c>
-      <c r="B30" s="133" t="s">
+      <c r="B32" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="137">
+      <c r="C32" s="137">
         <v>44301</v>
       </c>
-      <c r="D30" s="133">
+      <c r="D32" s="133">
         <v>4</v>
       </c>
-      <c r="E30" s="133">
+      <c r="E32" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>5</v>
       </c>
-      <c r="F30" s="133">
+      <c r="F32" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>10</v>
       </c>
-      <c r="G30" s="78" t="s">
+      <c r="G32" s="78" t="s">
         <v>494</v>
       </c>
-      <c r="H30" s="134"/>
-    </row>
-    <row r="31" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="78" t="s">
+      <c r="H32" s="134"/>
+    </row>
+    <row r="33" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="78" t="s">
         <v>887</v>
       </c>
-      <c r="B31" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="137">
+      <c r="B33" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="137">
         <v>44301</v>
       </c>
-      <c r="D31" s="133">
-        <v>1</v>
-      </c>
-      <c r="E31" s="133">
+      <c r="D33" s="133">
+        <v>1</v>
+      </c>
+      <c r="E33" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>10</v>
       </c>
-      <c r="F31" s="133">
+      <c r="F33" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>5</v>
       </c>
-      <c r="G31" s="78" t="s">
+      <c r="G33" s="78" t="s">
         <v>494</v>
       </c>
-      <c r="H31" s="134" t="s">
+      <c r="H33" s="134" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="78" t="s">
+    <row r="34" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="78" t="s">
         <v>887</v>
       </c>
-      <c r="B32" s="133" t="s">
+      <c r="B34" s="133" t="s">
         <v>523</v>
       </c>
-      <c r="C32" s="137">
+      <c r="C34" s="137">
         <v>44301</v>
       </c>
-      <c r="D32" s="133">
+      <c r="D34" s="133">
         <v>10</v>
       </c>
-      <c r="E32" s="133">
+      <c r="E34" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>60</v>
       </c>
-      <c r="F32" s="133">
+      <c r="F34" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>300</v>
       </c>
-      <c r="G32" s="78" t="s">
+      <c r="G34" s="78" t="s">
         <v>494</v>
       </c>
-      <c r="H32" s="134" t="s">
+      <c r="H34" s="134" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="78" t="s">
+    <row r="35" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="78" t="s">
         <v>891</v>
       </c>
-      <c r="B33" s="133" t="s">
+      <c r="B35" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="137">
+      <c r="C35" s="137">
         <v>44301</v>
       </c>
-      <c r="D33" s="133">
-        <v>1</v>
-      </c>
-      <c r="E33" s="133">
+      <c r="D35" s="133">
+        <v>1</v>
+      </c>
+      <c r="E35" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>15</v>
       </c>
-      <c r="F33" s="133">
+      <c r="F35" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>7.5</v>
       </c>
-      <c r="G33" s="78" t="s">
+      <c r="G35" s="78" t="s">
         <v>494</v>
       </c>
-      <c r="H33" s="134" t="s">
+      <c r="H35" s="134" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="29" customFormat="1" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="78" t="s">
+    <row r="36" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="78" t="s">
         <v>883</v>
       </c>
-      <c r="B34" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="137">
+      <c r="B36" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="137">
         <v>44301</v>
       </c>
-      <c r="D34" s="133">
+      <c r="D36" s="133">
         <v>2</v>
       </c>
-      <c r="E34" s="133">
+      <c r="E36" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>10</v>
       </c>
-      <c r="F34" s="133">
+      <c r="F36" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>10</v>
       </c>
-      <c r="G34" s="78" t="s">
+      <c r="G36" s="78" t="s">
         <v>494</v>
       </c>
-      <c r="H34" s="134" t="s">
+      <c r="H36" s="134" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="78" t="s">
+    <row r="37" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="133" t="s">
+      <c r="B37" s="133" t="s">
         <v>207</v>
       </c>
-      <c r="C35" s="137">
+      <c r="C37" s="137">
         <v>44301</v>
       </c>
-      <c r="D35" s="133">
+      <c r="D37" s="133">
         <v>2</v>
       </c>
-      <c r="E35" s="133">
+      <c r="E37" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>0</v>
       </c>
-      <c r="F35" s="133">
+      <c r="F37" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>10</v>
       </c>
-      <c r="G35" s="78" t="s">
+      <c r="G37" s="78" t="s">
         <v>494</v>
       </c>
-      <c r="H35" s="134"/>
-    </row>
-    <row r="36" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="78" t="s">
+      <c r="H37" s="134"/>
+    </row>
+    <row r="38" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="133" t="s">
+      <c r="B38" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="137">
+      <c r="C38" s="137">
         <v>44301</v>
       </c>
-      <c r="D36" s="133">
+      <c r="D38" s="133">
         <v>2</v>
       </c>
-      <c r="E36" s="133">
+      <c r="E38" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>60</v>
       </c>
-      <c r="F36" s="133">
+      <c r="F38" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>60</v>
       </c>
-      <c r="G36" s="78" t="s">
+      <c r="G38" s="78" t="s">
         <v>494</v>
       </c>
-      <c r="H36" s="134"/>
-    </row>
-    <row r="37" spans="1:8" s="29" customFormat="1" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="78" t="s">
+      <c r="H38" s="134"/>
+    </row>
+    <row r="39" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="78" t="s">
         <v>734</v>
       </c>
-      <c r="B37" s="133" t="s">
+      <c r="B39" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="137">
+      <c r="C39" s="137">
         <v>44301</v>
       </c>
-      <c r="D37" s="133">
+      <c r="D39" s="133">
         <v>2</v>
       </c>
-      <c r="E37" s="133">
+      <c r="E39" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>60</v>
       </c>
-      <c r="F37" s="133">
+      <c r="F39" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>60</v>
       </c>
-      <c r="G37" s="78" t="s">
+      <c r="G39" s="78" t="s">
         <v>494</v>
       </c>
-      <c r="H37" s="134"/>
-    </row>
-    <row r="38" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="78" t="s">
+      <c r="H39" s="134"/>
+    </row>
+    <row r="40" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="78" t="s">
         <v>883</v>
       </c>
-      <c r="B38" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="137">
+      <c r="B40" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="137">
         <v>44301</v>
       </c>
-      <c r="D38" s="133">
-        <v>1</v>
-      </c>
-      <c r="E38" s="133">
+      <c r="D40" s="133">
+        <v>1</v>
+      </c>
+      <c r="E40" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>10</v>
       </c>
-      <c r="F38" s="133">
+      <c r="F40" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>5</v>
       </c>
-      <c r="G38" s="78" t="s">
+      <c r="G40" s="78" t="s">
         <v>494</v>
       </c>
-      <c r="H38" s="134" t="s">
+      <c r="H40" s="134" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="78" t="s">
+    <row r="41" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="78" t="s">
         <v>891</v>
       </c>
-      <c r="B39" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="137">
+      <c r="B41" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="137">
         <v>44300</v>
       </c>
-      <c r="D39" s="133">
-        <v>1</v>
-      </c>
-      <c r="E39" s="133">
+      <c r="D41" s="133">
+        <v>1</v>
+      </c>
+      <c r="E41" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>10</v>
       </c>
-      <c r="F39" s="133">
+      <c r="F41" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>5</v>
       </c>
-      <c r="G39" s="78" t="s">
+      <c r="G41" s="78" t="s">
         <v>494</v>
       </c>
-      <c r="H39" s="134" t="s">
+      <c r="H41" s="134" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="29" customFormat="1" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="78" t="s">
+    <row r="42" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="78" t="s">
         <v>877</v>
       </c>
-      <c r="B40" s="133" t="s">
+      <c r="B42" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="137">
+      <c r="C42" s="137">
         <v>44300</v>
       </c>
-      <c r="D40" s="133">
-        <v>1</v>
-      </c>
-      <c r="E40" s="133">
+      <c r="D42" s="133">
+        <v>1</v>
+      </c>
+      <c r="E42" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>60</v>
       </c>
-      <c r="F40" s="133">
+      <c r="F42" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>30</v>
       </c>
-      <c r="G40" s="78" t="s">
+      <c r="G42" s="78" t="s">
         <v>494</v>
       </c>
-      <c r="H40" s="134"/>
-    </row>
-    <row r="41" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="78" t="s">
+      <c r="H42" s="134"/>
+    </row>
+    <row r="43" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="78" t="s">
         <v>897</v>
       </c>
-      <c r="B41" s="133" t="s">
+      <c r="B43" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="137">
+      <c r="C43" s="137">
         <v>44294</v>
       </c>
-      <c r="D41" s="133">
-        <v>1</v>
-      </c>
-      <c r="E41" s="133">
+      <c r="D43" s="133">
+        <v>1</v>
+      </c>
+      <c r="E43" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>5</v>
       </c>
-      <c r="F41" s="133">
+      <c r="F43" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>2.5</v>
       </c>
-      <c r="G41" s="78" t="s">
+      <c r="G43" s="78" t="s">
         <v>494</v>
       </c>
-      <c r="H41" s="134" t="s">
+      <c r="H43" s="134" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="78" t="s">
+    <row r="44" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="78" t="s">
         <v>897</v>
       </c>
-      <c r="B42" s="133" t="s">
+      <c r="B44" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="137">
+      <c r="C44" s="137">
         <v>44294</v>
       </c>
-      <c r="D42" s="133">
-        <v>1</v>
-      </c>
-      <c r="E42" s="133">
+      <c r="D44" s="133">
+        <v>1</v>
+      </c>
+      <c r="E44" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>10</v>
       </c>
-      <c r="F42" s="133">
+      <c r="F44" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>5</v>
       </c>
-      <c r="G42" s="78" t="s">
+      <c r="G44" s="78" t="s">
         <v>494</v>
       </c>
-      <c r="H42" s="134" t="s">
+      <c r="H44" s="134" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="78" t="s">
+    <row r="45" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="78" t="s">
         <v>509</v>
       </c>
-      <c r="B43" s="133" t="s">
+      <c r="B45" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="137">
+      <c r="C45" s="137">
         <v>44294</v>
       </c>
-      <c r="D43" s="133">
+      <c r="D45" s="133">
         <v>2</v>
       </c>
-      <c r="E43" s="133">
+      <c r="E45" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>15</v>
       </c>
-      <c r="F43" s="133">
+      <c r="F45" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>15</v>
       </c>
-      <c r="G43" s="78" t="s">
+      <c r="G45" s="78" t="s">
         <v>494</v>
       </c>
-      <c r="H43" s="134" t="s">
+      <c r="H45" s="134" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="78" t="s">
+    <row r="46" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="78" t="s">
         <v>879</v>
       </c>
-      <c r="B44" s="133" t="s">
+      <c r="B46" s="133" t="s">
         <v>487</v>
       </c>
-      <c r="C44" s="137">
+      <c r="C46" s="137">
         <v>44294</v>
       </c>
-      <c r="D44" s="133">
+      <c r="D46" s="133">
         <v>4</v>
       </c>
-      <c r="E44" s="133">
+      <c r="E46" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>60</v>
       </c>
-      <c r="F44" s="133">
+      <c r="F46" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>120</v>
       </c>
-      <c r="G44" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H44" s="134" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="78" t="s">
-        <v>879</v>
-      </c>
-      <c r="B45" s="133" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="137">
-        <v>44294</v>
-      </c>
-      <c r="D45" s="133">
-        <v>32</v>
-      </c>
-      <c r="E45" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
-      </c>
-      <c r="F45" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>80</v>
-      </c>
-      <c r="G45" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H45" s="134" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="78" t="s">
-        <v>886</v>
-      </c>
-      <c r="B46" s="133" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="137">
-        <v>44288</v>
-      </c>
-      <c r="D46" s="133">
-        <v>3</v>
-      </c>
-      <c r="E46" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
-      </c>
-      <c r="F46" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
-      </c>
       <c r="G46" s="78" t="s">
         <v>494</v>
       </c>
       <c r="H46" s="134" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="78" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="B47" s="133" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" s="137">
-        <v>44288</v>
+        <v>44294</v>
       </c>
       <c r="D47" s="133">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E47" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8344,18 +8323,18 @@
       </c>
       <c r="F47" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="G47" s="78" t="s">
         <v>494</v>
       </c>
       <c r="H47" s="134" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="78" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B48" s="133" t="s">
         <v>48</v>
@@ -8364,7 +8343,7 @@
         <v>44288</v>
       </c>
       <c r="D48" s="133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8372,21 +8351,21 @@
       </c>
       <c r="F48" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="G48" s="78" t="s">
         <v>494</v>
       </c>
       <c r="H48" s="134" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="78" t="s">
-        <v>879</v>
+        <v>886</v>
       </c>
       <c r="B49" s="133" t="s">
-        <v>633</v>
+        <v>1</v>
       </c>
       <c r="C49" s="137">
         <v>44288</v>
@@ -8396,87 +8375,87 @@
       </c>
       <c r="E49" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F49" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G49" s="78" t="s">
         <v>494</v>
       </c>
       <c r="H49" s="134" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="78" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B50" s="133" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C50" s="137">
         <v>44288</v>
       </c>
       <c r="D50" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F50" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G50" s="78" t="s">
         <v>494</v>
       </c>
       <c r="H50" s="134" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="78" t="s">
         <v>879</v>
       </c>
       <c r="B51" s="133" t="s">
-        <v>48</v>
+        <v>633</v>
       </c>
       <c r="C51" s="137">
-        <v>44284</v>
+        <v>44288</v>
       </c>
       <c r="D51" s="133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E51" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F51" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
+        <v>60</v>
       </c>
       <c r="G51" s="78" t="s">
         <v>494</v>
       </c>
       <c r="H51" s="134" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="78" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="B52" s="133" t="s">
         <v>1</v>
       </c>
       <c r="C52" s="137">
-        <v>44275</v>
+        <v>44288</v>
       </c>
       <c r="D52" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8484,80 +8463,80 @@
       </c>
       <c r="F52" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G52" s="78" t="s">
         <v>494</v>
       </c>
       <c r="H52" s="134" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="78" t="s">
-        <v>830</v>
+        <v>879</v>
       </c>
       <c r="B53" s="133" t="s">
-        <v>901</v>
+        <v>48</v>
       </c>
       <c r="C53" s="137">
-        <v>44270</v>
+        <v>44284</v>
       </c>
       <c r="D53" s="133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E53" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F53" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>22.5</v>
       </c>
       <c r="G53" s="78" t="s">
         <v>494</v>
       </c>
       <c r="H53" s="134" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="78" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="B54" s="133" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C54" s="137">
-        <v>44264</v>
+        <v>44275</v>
       </c>
       <c r="D54" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="F54" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G54" s="78" t="s">
-        <v>878</v>
+        <v>494</v>
       </c>
       <c r="H54" s="134" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="78" t="s">
-        <v>873</v>
+        <v>830</v>
       </c>
       <c r="B55" s="133" t="s">
-        <v>487</v>
+        <v>901</v>
       </c>
       <c r="C55" s="137">
-        <v>44264</v>
+        <v>44270</v>
       </c>
       <c r="D55" s="133">
         <v>2</v>
@@ -8571,80 +8550,80 @@
         <v>60</v>
       </c>
       <c r="G55" s="78" t="s">
-        <v>878</v>
+        <v>494</v>
       </c>
       <c r="H55" s="134" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="78" t="s">
         <v>873</v>
       </c>
       <c r="B56" s="133" t="s">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="C56" s="137">
         <v>44264</v>
       </c>
       <c r="D56" s="133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E56" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="F56" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>90</v>
       </c>
       <c r="G56" s="78" t="s">
         <v>878</v>
       </c>
       <c r="H56" s="134" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="78" t="s">
         <v>873</v>
       </c>
       <c r="B57" s="133" t="s">
-        <v>1</v>
+        <v>487</v>
       </c>
       <c r="C57" s="137">
-        <v>44259</v>
+        <v>44264</v>
       </c>
       <c r="D57" s="133">
         <v>2</v>
       </c>
       <c r="E57" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F57" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G57" s="78" t="s">
         <v>878</v>
       </c>
       <c r="H57" s="134" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="78" t="s">
-        <v>830</v>
+        <v>873</v>
       </c>
       <c r="B58" s="133" t="s">
         <v>140</v>
       </c>
       <c r="C58" s="137">
-        <v>44256</v>
+        <v>44264</v>
       </c>
       <c r="D58" s="133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E58" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8652,101 +8631,105 @@
       </c>
       <c r="F58" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="G58" s="78" t="s">
-        <v>494</v>
+        <v>878</v>
       </c>
       <c r="H58" s="134" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="78" t="s">
-        <v>830</v>
+        <v>873</v>
       </c>
       <c r="B59" s="133" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C59" s="137">
-        <v>44250</v>
+        <v>44259</v>
       </c>
       <c r="D59" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F59" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="G59" s="78" t="s">
-        <v>494</v>
+        <v>878</v>
       </c>
       <c r="H59" s="134" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="78" t="s">
-        <v>102</v>
+        <v>830</v>
       </c>
       <c r="B60" s="133" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="C60" s="137">
-        <v>44244</v>
+        <v>44256</v>
       </c>
       <c r="D60" s="133">
         <v>1</v>
       </c>
       <c r="E60" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="F60" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>2.5</v>
       </c>
       <c r="G60" s="78" t="s">
-        <v>661</v>
-      </c>
-      <c r="H60" s="134"/>
-    </row>
-    <row r="61" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+      <c r="H60" s="134" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="78" t="s">
-        <v>734</v>
+        <v>830</v>
       </c>
       <c r="B61" s="133" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C61" s="137">
-        <v>44244</v>
+        <v>44250</v>
       </c>
       <c r="D61" s="133">
         <v>1</v>
       </c>
       <c r="E61" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F61" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>7.5</v>
       </c>
       <c r="G61" s="78" t="s">
-        <v>661</v>
-      </c>
-      <c r="H61" s="134"/>
-    </row>
-    <row r="62" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+      <c r="H61" s="134" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="78" t="s">
-        <v>845</v>
+        <v>102</v>
       </c>
       <c r="B62" s="133" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C62" s="137">
         <v>44244</v>
@@ -8756,109 +8739,105 @@
       </c>
       <c r="E62" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F62" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>30</v>
       </c>
       <c r="G62" s="78" t="s">
         <v>661</v>
       </c>
-      <c r="H62" s="134" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H62" s="134"/>
+    </row>
+    <row r="63" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="78" t="s">
-        <v>866</v>
+        <v>734</v>
       </c>
       <c r="B63" s="133" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C63" s="137">
-        <v>44242</v>
+        <v>44244</v>
       </c>
       <c r="D63" s="133">
         <v>1</v>
       </c>
       <c r="E63" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F63" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G63" s="78" t="s">
         <v>661</v>
       </c>
-      <c r="H63" s="134" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H63" s="134"/>
+    </row>
+    <row r="64" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="78" t="s">
-        <v>866</v>
+        <v>845</v>
       </c>
       <c r="B64" s="133" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C64" s="137">
-        <v>44242</v>
+        <v>44244</v>
       </c>
       <c r="D64" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F64" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>7.5</v>
       </c>
       <c r="G64" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H64" s="134" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="78" t="s">
         <v>866</v>
       </c>
       <c r="B65" s="133" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="C65" s="137">
         <v>44242</v>
       </c>
       <c r="D65" s="133">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E65" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F65" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G65" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H65" s="134" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="78" t="s">
         <v>866</v>
       </c>
       <c r="B66" s="133" t="s">
-        <v>487</v>
+        <v>35</v>
       </c>
       <c r="C66" s="137">
         <v>44242</v>
@@ -8878,295 +8857,295 @@
         <v>661</v>
       </c>
       <c r="H66" s="134" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="78" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B67" s="133" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="C67" s="137">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="D67" s="133">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E67" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F67" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="G67" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H67" s="134" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="78" t="s">
-        <v>862</v>
-      </c>
-      <c r="B68" s="132" t="s">
-        <v>8</v>
+        <v>866</v>
+      </c>
+      <c r="B68" s="133" t="s">
+        <v>487</v>
       </c>
       <c r="C68" s="137">
-        <v>44232</v>
+        <v>44242</v>
       </c>
       <c r="D68" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="F68" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G68" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H68" s="134" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="78" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
       <c r="B69" s="133" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="C69" s="137">
-        <v>44225</v>
+        <v>44239</v>
       </c>
       <c r="D69" s="133">
         <v>1</v>
       </c>
       <c r="E69" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F69" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G69" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H69" s="134" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="78" t="s">
         <v>862</v>
       </c>
-      <c r="B70" s="133" t="s">
-        <v>48</v>
+      <c r="B70" s="132" t="s">
+        <v>8</v>
       </c>
       <c r="C70" s="137">
-        <v>44224</v>
+        <v>44232</v>
       </c>
       <c r="D70" s="133">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E70" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="F70" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>37.5</v>
+        <v>90</v>
       </c>
       <c r="G70" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H70" s="134" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="78" t="s">
-        <v>845</v>
+        <v>862</v>
       </c>
       <c r="B71" s="133" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C71" s="137">
-        <v>44218</v>
+        <v>44225</v>
       </c>
       <c r="D71" s="133">
         <v>1</v>
       </c>
       <c r="E71" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F71" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="G71" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H71" s="134" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="78" t="s">
-        <v>845</v>
+        <v>862</v>
       </c>
       <c r="B72" s="133" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C72" s="137">
-        <v>44218</v>
+        <v>44224</v>
       </c>
       <c r="D72" s="133">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E72" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="F72" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>37.5</v>
       </c>
       <c r="G72" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H72" s="134" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="78" t="s">
         <v>845</v>
       </c>
       <c r="B73" s="133" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C73" s="137">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="D73" s="133">
         <v>1</v>
       </c>
       <c r="E73" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F73" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>7.5</v>
       </c>
       <c r="G73" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H73" s="134" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="78" t="s">
         <v>845</v>
       </c>
       <c r="B74" s="133" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C74" s="137">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="D74" s="133">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E74" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="F74" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="G74" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H74" s="134" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="78" t="s">
-        <v>830</v>
+        <v>845</v>
       </c>
       <c r="B75" s="133" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C75" s="137">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="D75" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F75" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G75" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H75" s="134" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="78" t="s">
-        <v>830</v>
+        <v>845</v>
       </c>
       <c r="B76" s="133" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C76" s="137">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="D76" s="133">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E76" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F76" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="G76" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H76" s="134" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="78" t="s">
-        <v>845</v>
+        <v>830</v>
       </c>
       <c r="B77" s="133" t="s">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="C77" s="137">
         <v>44209</v>
@@ -9176,25 +9155,25 @@
       </c>
       <c r="E77" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F77" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G77" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H77" s="134" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="78" t="s">
-        <v>727</v>
+        <v>830</v>
       </c>
       <c r="B78" s="133" t="s">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="C78" s="137">
         <v>44209</v>
@@ -9204,53 +9183,53 @@
       </c>
       <c r="E78" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F78" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="G78" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H78" s="134" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="78" t="s">
-        <v>727</v>
+        <v>845</v>
       </c>
       <c r="B79" s="133" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="C79" s="137">
         <v>44209</v>
       </c>
       <c r="D79" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E79" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F79" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="G79" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H79" s="134" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="78" t="s">
-        <v>816</v>
+        <v>727</v>
       </c>
       <c r="B80" s="133" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="C80" s="137">
         <v>44209</v>
@@ -9260,31 +9239,31 @@
       </c>
       <c r="E80" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F80" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="G80" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H80" s="134" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="78" t="s">
-        <v>845</v>
+        <v>727</v>
       </c>
       <c r="B81" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C81" s="137">
-        <v>44208</v>
+        <v>44209</v>
       </c>
       <c r="D81" s="133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E81" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -9292,55 +9271,55 @@
       </c>
       <c r="F81" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
+        <v>7.5</v>
       </c>
       <c r="G81" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H81" s="134" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="78" t="s">
-        <v>102</v>
+        <v>816</v>
       </c>
       <c r="B82" s="133" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C82" s="137">
-        <v>44208</v>
+        <v>44209</v>
       </c>
       <c r="D82" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F82" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>7.5</v>
       </c>
       <c r="G82" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H82" s="134" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="78" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="B83" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C83" s="137">
-        <v>44203</v>
+        <v>44208</v>
       </c>
       <c r="D83" s="133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E83" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -9348,77 +9327,77 @@
       </c>
       <c r="F83" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>22.5</v>
       </c>
       <c r="G83" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H83" s="134" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="78" t="s">
-        <v>780</v>
-      </c>
-      <c r="B84" s="132" t="s">
-        <v>1</v>
+        <v>102</v>
+      </c>
+      <c r="B84" s="133" t="s">
+        <v>22</v>
       </c>
       <c r="C84" s="137">
-        <v>44203</v>
+        <v>44208</v>
       </c>
       <c r="D84" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E84" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F84" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="G84" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H84" s="134" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="78" t="s">
-        <v>816</v>
-      </c>
-      <c r="B85" s="132" t="s">
-        <v>1</v>
+        <v>841</v>
+      </c>
+      <c r="B85" s="133" t="s">
+        <v>48</v>
       </c>
       <c r="C85" s="137">
         <v>44203</v>
       </c>
       <c r="D85" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E85" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F85" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G85" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H85" s="134" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="78" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B86" s="132" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C86" s="137">
         <v>44203</v>
@@ -9428,63 +9407,63 @@
       </c>
       <c r="E86" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F86" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="G86" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H86" s="134" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="78" t="s">
-        <v>767</v>
+        <v>816</v>
       </c>
       <c r="B87" s="132" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C87" s="137">
         <v>44203</v>
       </c>
       <c r="D87" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E87" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F87" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="G87" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H87" s="134" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="78" t="s">
-        <v>816</v>
+        <v>781</v>
       </c>
       <c r="B88" s="132" t="s">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="C88" s="137">
-        <v>44201</v>
+        <v>44203</v>
       </c>
       <c r="D88" s="133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E88" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F88" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
@@ -9494,18 +9473,18 @@
         <v>661</v>
       </c>
       <c r="H88" s="134" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="78" t="s">
-        <v>830</v>
+        <v>767</v>
       </c>
       <c r="B89" s="132" t="s">
         <v>48</v>
       </c>
       <c r="C89" s="137">
-        <v>44201</v>
+        <v>44203</v>
       </c>
       <c r="D89" s="133">
         <v>1</v>
@@ -9522,35 +9501,85 @@
         <v>661</v>
       </c>
       <c r="H89" s="134" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="78" t="s">
+        <v>816</v>
+      </c>
+      <c r="B90" s="132" t="s">
+        <v>140</v>
+      </c>
+      <c r="C90" s="137">
+        <v>44201</v>
+      </c>
+      <c r="D90" s="133">
+        <v>3</v>
+      </c>
+      <c r="E90" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>5</v>
+      </c>
+      <c r="F90" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G90" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H90" s="134" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="78" t="s">
+        <v>830</v>
+      </c>
+      <c r="B91" s="132" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91" s="137">
+        <v>44201</v>
+      </c>
+      <c r="D91" s="133">
+        <v>1</v>
+      </c>
+      <c r="E91" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F91" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G91" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H91" s="134" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="153" t="s">
+    <row r="92" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="147" t="s">
         <v>491</v>
       </c>
-      <c r="B90" s="154">
+      <c r="B92" s="148">
         <f>SUBTOTAL(5,TAB_Doku_201910[Datum])</f>
-        <v>44302</v>
-      </c>
-      <c r="C90" s="155">
+        <v>44201</v>
+      </c>
+      <c r="C92" s="149">
         <f>SUBTOTAL(4,TAB_Doku_201910[Datum])</f>
-        <v>44400</v>
-      </c>
-      <c r="D90" s="156"/>
-      <c r="E90" s="156"/>
-      <c r="F90" s="157">
+        <v>44412</v>
+      </c>
+      <c r="D92" s="150"/>
+      <c r="E92" s="150"/>
+      <c r="F92" s="151" t="e">
         <f>SUBTOTAL(9,TAB_Doku_201910[[Kosten ]])</f>
-        <v>1008.6</v>
-      </c>
-      <c r="G90" s="153"/>
-      <c r="H90" s="158"/>
-    </row>
-    <row r="91" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C91"/>
-    </row>
-    <row r="92" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C92"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G92" s="147"/>
+      <c r="H92" s="152"/>
     </row>
     <row r="93" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93"/>
@@ -9603,10 +9632,10 @@
     <row r="109" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C109"/>
     </row>
-    <row r="110" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C110"/>
     </row>
-    <row r="111" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C111"/>
     </row>
     <row r="112" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -9650,15 +9679,15 @@
     </row>
     <row r="125" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C125"/>
-      <c r="I125" t="s">
-        <v>546</v>
-      </c>
     </row>
     <row r="126" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C126"/>
     </row>
     <row r="127" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C127"/>
+      <c r="I127" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="128" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C128"/>
@@ -9777,21 +9806,21 @@
     <row r="166" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C166"/>
     </row>
-    <row r="167" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A167"/>
-      <c r="B167"/>
+    <row r="167" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C167"/>
-      <c r="D167"/>
-      <c r="E167"/>
-      <c r="F167"/>
-      <c r="G167"/>
-      <c r="H167"/>
     </row>
     <row r="168" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C168"/>
     </row>
-    <row r="169" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A169"/>
+      <c r="B169"/>
       <c r="C169"/>
+      <c r="D169"/>
+      <c r="E169"/>
+      <c r="F169"/>
+      <c r="G169"/>
+      <c r="H169"/>
     </row>
     <row r="170" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C170"/>
@@ -9799,21 +9828,21 @@
     <row r="171" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C171"/>
     </row>
-    <row r="172" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A172"/>
-      <c r="B172"/>
+    <row r="172" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C172"/>
-      <c r="D172"/>
-      <c r="E172"/>
-      <c r="F172"/>
-      <c r="G172"/>
-      <c r="H172"/>
     </row>
     <row r="173" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C173"/>
     </row>
-    <row r="174" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A174"/>
+      <c r="B174"/>
       <c r="C174"/>
+      <c r="D174"/>
+      <c r="E174"/>
+      <c r="F174"/>
+      <c r="G174"/>
+      <c r="H174"/>
     </row>
     <row r="175" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C175"/>
@@ -9845,13 +9874,13 @@
     <row r="184" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C184"/>
     </row>
-    <row r="185" spans="3:3" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C185"/>
     </row>
     <row r="186" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C186"/>
     </row>
-    <row r="187" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:3" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C187"/>
     </row>
     <row r="188" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -9887,13 +9916,13 @@
     <row r="198" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C198"/>
     </row>
-    <row r="199" spans="3:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C199"/>
     </row>
     <row r="200" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C200"/>
     </row>
-    <row r="201" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="201" spans="3:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C201"/>
     </row>
     <row r="202" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -10325,18 +10354,24 @@
     <row r="344" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C344"/>
     </row>
-    <row r="345" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C345"/>
     </row>
-    <row r="346" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C346"/>
     </row>
     <row r="347" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C347"/>
     </row>
+    <row r="348" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C348"/>
+    </row>
+    <row r="349" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C349"/>
+    </row>
   </sheetData>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.47244094488188981" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L &amp;F&amp;C&amp;A&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P von &amp;N</oddFooter>
@@ -10351,7 +10386,7 @@
           <x14:formula1>
             <xm:f>'Leistungen-Liste'!$F$1:$F$35</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B89</xm:sqref>
+          <xm:sqref>B2:B91</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/trailtech/Leistungen-KC-Trailtech.xlsx
+++ b/trailtech/Leistungen-KC-Trailtech.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2513" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2608" uniqueCount="962">
   <si>
     <t>Tätigkeit</t>
   </si>
@@ -2829,9 +2829,6 @@
     <t>Konzept übermitteln</t>
   </si>
   <si>
-    <t>Machbarkeitsstudie Angebot (nach Aufwand)</t>
-  </si>
-  <si>
     <t>Follow up</t>
   </si>
   <si>
@@ -2853,15 +2850,6 @@
     <t>Begehungsprotokoll schreiben</t>
   </si>
   <si>
-    <t>Honorarnote schreiben</t>
-  </si>
-  <si>
-    <t>Präsentation</t>
-  </si>
-  <si>
-    <t>Anreise Präsentation</t>
-  </si>
-  <si>
     <t>Angebot verfassen</t>
   </si>
   <si>
@@ -2898,9 +2886,6 @@
     <t>Angebote Asphalt PT Planung und Modularer Pumptrack</t>
   </si>
   <si>
-    <t>VS Wagrain</t>
-  </si>
-  <si>
     <t>Treffen und Begehung Wagrain</t>
   </si>
   <si>
@@ -2935,6 +2920,96 @@
   </si>
   <si>
     <t>E-Mail Korrespondenz, Terminabsprache</t>
+  </si>
+  <si>
+    <t>Voraussichtliche Kostenänderung 2020 - 2022</t>
+  </si>
+  <si>
+    <t>Design Absprache</t>
+  </si>
+  <si>
+    <t>VS Vorchdorf</t>
+  </si>
+  <si>
+    <t>Fahrtkosten Zug/Bus Aldrans-Vorchdorf</t>
+  </si>
+  <si>
+    <t>Fahrtzeit Aldrans Vorchdorf</t>
+  </si>
+  <si>
+    <t>Fahrtzeit Vorchdorf - Flachau</t>
+  </si>
+  <si>
+    <t>Fahrtkosten Zug/Bus Vorchdorf - Flachau</t>
+  </si>
+  <si>
+    <t>Erstgespräch und Begehung Naturfreunde Vorchdorf, Kletterhalle, Thomas Haudum</t>
+  </si>
+  <si>
+    <t>Durchsicht altes Projekt, Bilder, Standort &amp; Bedingungen, Projekt Verantwortliche, etc.</t>
+  </si>
+  <si>
+    <t>E-Mail Absprachen mit Gemeinde Vorchdorf - Martin Fischer</t>
+  </si>
+  <si>
+    <t>Begehung Bikepark Betandstrecken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angebot Trail Assessment / Konzept </t>
+  </si>
+  <si>
+    <t>Rückfahrt Wagrain Aldrans</t>
+  </si>
+  <si>
+    <t>Aufbereitung Field Documents und GPX Daten für Begehung, Grundeigentümer Zonen, etc.</t>
+  </si>
+  <si>
+    <t>Wagrain</t>
+  </si>
+  <si>
+    <t>Konzept Begleit E-Mail. Aufwand dokumentieren vergessen bei letzter Abrechnung!</t>
+  </si>
+  <si>
+    <t>Angebot Konzept/ Machbarkeitsstudie (nach Aufwand)</t>
+  </si>
+  <si>
+    <t>Konzept Präsentation TVB Vorstand</t>
+  </si>
+  <si>
+    <t>Letzte Absprache wegen Design!</t>
+  </si>
+  <si>
+    <t>Letzte Absprache wegen Design / Gemeinde Ideen!</t>
+  </si>
+  <si>
+    <t>Bildmaterial und relevante Infos für Thomas Haudum vorbereitet</t>
+  </si>
+  <si>
+    <t>Bildmaterial und relevante Infos für Thomas Haudum verschickt</t>
+  </si>
+  <si>
+    <t>BP Arber Deutschland</t>
+  </si>
+  <si>
+    <t>Erstgespräch, Termin Absprache und weiteres Vorgehen..</t>
+  </si>
+  <si>
+    <t>Akkordierung Erstgespräch</t>
+  </si>
+  <si>
+    <t>Terminvorschläge für Begehung</t>
+  </si>
+  <si>
+    <t>Uli weiterleitung letzter Stand und Infos Kunde wegen Projektdesignwünsche, Vorgaben, etc.</t>
+  </si>
+  <si>
+    <t>VS Flachau</t>
+  </si>
+  <si>
+    <t>Update wegen möglicher Detailplanung Koppen/Sattelbauer und Bitte Evaluierung "gelber Flächen"</t>
+  </si>
+  <si>
+    <t>Konzept Angebot erstellen. Aufwand dokumentieren vergessen bei letzter Abrechnung!</t>
   </si>
 </sst>
 </file>
@@ -2944,7 +3019,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3106,6 +3181,12 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3317,7 +3398,7 @@
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3766,6 +3847,24 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink 2" xfId="2"/>
@@ -3773,7 +3872,7 @@
     <cellStyle name="Standard 2" xfId="1"/>
     <cellStyle name="Währung" xfId="3" builtinId="4"/>
   </cellStyles>
-  <dxfs count="107">
+  <dxfs count="110">
     <dxf>
       <font>
         <b val="0"/>
@@ -4271,6 +4370,36 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5611,13 +5740,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TAB_Leistungen" displayName="TAB_Leistungen" ref="A1:D29" totalsRowShown="0" headerRowDxfId="106" dataDxfId="105">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TAB_Leistungen" displayName="TAB_Leistungen" ref="A1:D29" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
   <autoFilter ref="A1:D29"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Tätigkeit" dataDxfId="104"/>
-    <tableColumn id="2" name="Zeitbedarf Min (pauschal)" dataDxfId="103"/>
+    <tableColumn id="1" name="Tätigkeit" dataDxfId="107"/>
+    <tableColumn id="2" name="Zeitbedarf Min (pauschal)" dataDxfId="106"/>
+    <tableColumn id="3" name="Stk.kosten/Kosten bei Stundensatz" dataDxfId="105">
+      <calculatedColumnFormula>$D$2*B2/60</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Stundensatz" dataDxfId="104"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="TAB_Leistungen_30" displayName="TAB_Leistungen_30" ref="F1:I35" totalsRowShown="0" headerRowDxfId="103">
+  <autoFilter ref="F1:I35"/>
+  <sortState ref="F2:I35">
+    <sortCondition ref="F2"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Tätigkeit"/>
+    <tableColumn id="2" name="Zeitbedarf Min (pauschal)"/>
     <tableColumn id="3" name="Stk.kosten/Kosten bei Stundensatz" dataDxfId="102">
-      <calculatedColumnFormula>$D$2*B2/60</calculatedColumnFormula>
+      <calculatedColumnFormula>$D$2*G2/60</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="Stundensatz" dataDxfId="101"/>
   </tableColumns>
@@ -5625,79 +5772,64 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="TAB_Leistungen_30" displayName="TAB_Leistungen_30" ref="F1:I35" totalsRowShown="0" headerRowDxfId="100">
-  <autoFilter ref="F1:I35"/>
-  <sortState ref="F2:I35">
-    <sortCondition ref="F2"/>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="TAB_Doku_201910" displayName="TAB_Doku_201910" ref="A1:H115" totalsRowCount="1" headerRowDxfId="100" dataDxfId="99" totalsRowDxfId="97" tableBorderDxfId="98">
+  <autoFilter ref="A1:H114"/>
+  <sortState ref="A2:H103">
+    <sortCondition descending="1" ref="C1:C103"/>
   </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Tätigkeit"/>
-    <tableColumn id="2" name="Zeitbedarf Min (pauschal)"/>
-    <tableColumn id="3" name="Stk.kosten/Kosten bei Stundensatz" dataDxfId="99">
-      <calculatedColumnFormula>$D$2*G2/60</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="Stundensatz" dataDxfId="98"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="TAB_Doku_201910" displayName="TAB_Doku_201910" ref="A1:H92" totalsRowCount="1" headerRowDxfId="97" dataDxfId="96" totalsRowDxfId="94" tableBorderDxfId="95">
-  <autoFilter ref="A1:H91"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="93" totalsRowDxfId="7"/>
-    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="92" totalsRowDxfId="6">
+    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="96" totalsRowDxfId="7"/>
+    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="95" totalsRowDxfId="6">
       <totalsRowFormula>SUBTOTAL(5,TAB_Doku_201910[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="5">
+    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="94" totalsRowDxfId="5">
       <totalsRowFormula>SUBTOTAL(4,TAB_Doku_201910[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Stk." dataDxfId="90" totalsRowDxfId="4"/>
-    <tableColumn id="5" name="Zeitaufwand" dataDxfId="89" totalsRowDxfId="3">
+    <tableColumn id="4" name="Stk." dataDxfId="93" totalsRowDxfId="4"/>
+    <tableColumn id="5" name="Zeitaufwand" dataDxfId="92" totalsRowDxfId="3">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="2">
+    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="2">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,TAB_Doku_201910[[Kosten ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Abrechnung" dataDxfId="87" totalsRowDxfId="1"/>
-    <tableColumn id="8" name="Notiz" dataDxfId="86" totalsRowDxfId="0"/>
+    <tableColumn id="7" name="Abrechnung" dataDxfId="90" totalsRowDxfId="1"/>
+    <tableColumn id="8" name="Notiz" dataDxfId="89" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TAB_Doku_2019" displayName="TAB_Doku_2019" ref="A1:H314" totalsRowCount="1" headerRowDxfId="85" dataDxfId="84" totalsRowDxfId="82" tableBorderDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TAB_Doku_2019" displayName="TAB_Doku_2019" ref="A1:H314" totalsRowCount="1" headerRowDxfId="88" dataDxfId="87" totalsRowDxfId="85" tableBorderDxfId="86">
   <autoFilter ref="A1:H313"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="81" totalsRowDxfId="80"/>
-    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="79" totalsRowDxfId="78">
+    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="84" totalsRowDxfId="83"/>
+    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="82" totalsRowDxfId="81">
       <totalsRowFormula>SUBTOTAL(5,TAB_Doku_2019[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="77" totalsRowDxfId="76">
+    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="80" totalsRowDxfId="79">
       <totalsRowFormula>SUBTOTAL(4,TAB_Doku_2019[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Stk." dataDxfId="75" totalsRowDxfId="74"/>
-    <tableColumn id="5" name="Zeitaufwand" totalsRowFunction="custom" dataDxfId="73" totalsRowDxfId="72">
+    <tableColumn id="4" name="Stk." dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="5" name="Zeitaufwand" totalsRowFunction="custom" dataDxfId="76" totalsRowDxfId="75">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_2019[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</calculatedColumnFormula>
       <totalsRowFormula>ROUND(SUBTOTAL(9,TAB_Doku_2019[Zeitaufwand])/60,0) &amp;" h"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="71" totalsRowDxfId="70">
+    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="74" totalsRowDxfId="73">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_2019[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_2019[[#This Row],[Stk.]]</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,TAB_Doku_2019[[Kosten ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Abrechnung" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="8" name="Notiz" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="7" name="Abrechnung" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="8" name="Notiz" dataDxfId="70" totalsRowDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TAB_Dokumentation" displayName="TAB_Dokumentation" ref="A1:H199" totalsRowCount="1" headerRowDxfId="65" dataDxfId="64" totalsRowDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TAB_Dokumentation" displayName="TAB_Dokumentation" ref="A1:H199" totalsRowCount="1" headerRowDxfId="68" dataDxfId="67" totalsRowDxfId="66">
   <autoFilter ref="A1:H198">
     <filterColumn colId="0">
       <filters>
@@ -5709,44 +5841,44 @@
     <sortCondition descending="1" ref="G1:G198"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="59">
+    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="63" totalsRowDxfId="62">
       <totalsRowFormula>SUBTOTAL(5,TAB_Dokumentation[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Datum" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="57">
+    <tableColumn id="7" name="Datum" totalsRowFunction="custom" dataDxfId="61" totalsRowDxfId="60">
       <totalsRowFormula>MAX(4,TAB_Dokumentation[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Stk." dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="4" name="Zeitaufwand" dataDxfId="54" totalsRowDxfId="53">
+    <tableColumn id="3" name="Stk." dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="4" name="Zeitaufwand" dataDxfId="57" totalsRowDxfId="56">
       <calculatedColumnFormula>INDEX(TAB_Leistungen[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Dokumentation[[#This Row],[Leistung]],TAB_Leistungen[Tätigkeit],0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Kosten " totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="51">
+    <tableColumn id="5" name="Kosten " totalsRowFunction="custom" dataDxfId="55" totalsRowDxfId="54">
       <calculatedColumnFormula>INDEX(TAB_Leistungen[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Dokumentation[[#This Row],[Leistung]],TAB_Leistungen[Tätigkeit],0),3)*TAB_Dokumentation[[#This Row],[Stk.]]</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,TAB_Dokumentation[[Kosten ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Abrechnung" totalsRowDxfId="50"/>
-    <tableColumn id="8" name="Notiz" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="6" name="Abrechnung" totalsRowDxfId="53"/>
+    <tableColumn id="8" name="Notiz" dataDxfId="52" totalsRowDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle1" displayName="Tabelle1" ref="A1:I40" totalsRowShown="0" headerRowDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle1" displayName="Tabelle1" ref="A1:I40" totalsRowShown="0" headerRowDxfId="50">
   <autoFilter ref="A1:I40"/>
   <sortState ref="A2:I35">
     <sortCondition descending="1" ref="D1:D35"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="Name" dataDxfId="46"/>
-    <tableColumn id="2" name="Zusatz" dataDxfId="45"/>
-    <tableColumn id="3" name="Adresse" dataDxfId="44"/>
-    <tableColumn id="4" name="PLZ" dataDxfId="43"/>
-    <tableColumn id="5" name="Ort" dataDxfId="42"/>
-    <tableColumn id="6" name="Spalte1" dataDxfId="41"/>
-    <tableColumn id="7" name="Telefon" dataDxfId="40"/>
-    <tableColumn id="8" name="Spalte2" dataDxfId="39"/>
-    <tableColumn id="9" name="Notiz" dataDxfId="38"/>
+    <tableColumn id="1" name="Name" dataDxfId="49"/>
+    <tableColumn id="2" name="Zusatz" dataDxfId="48"/>
+    <tableColumn id="3" name="Adresse" dataDxfId="47"/>
+    <tableColumn id="4" name="PLZ" dataDxfId="46"/>
+    <tableColumn id="5" name="Ort" dataDxfId="45"/>
+    <tableColumn id="6" name="Spalte1" dataDxfId="44"/>
+    <tableColumn id="7" name="Telefon" dataDxfId="43"/>
+    <tableColumn id="8" name="Spalte2" dataDxfId="42"/>
+    <tableColumn id="9" name="Notiz" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5757,9 +5889,9 @@
   <autoFilter ref="C4:F8"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Position"/>
-    <tableColumn id="2" name="Stk/Std" dataDxfId="37"/>
-    <tableColumn id="3" name="Stk/Std-Preis" dataDxfId="36"/>
-    <tableColumn id="4" name="Summe:" dataDxfId="35" dataCellStyle="Währung"/>
+    <tableColumn id="2" name="Stk/Std" dataDxfId="40"/>
+    <tableColumn id="3" name="Stk/Std-Preis" dataDxfId="39"/>
+    <tableColumn id="4" name="Summe:" dataDxfId="38" dataCellStyle="Währung"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5781,9 +5913,9 @@
   <autoFilter ref="H4:K7"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Position"/>
-    <tableColumn id="2" name="Stk/Std" dataDxfId="34"/>
-    <tableColumn id="3" name="Stk/Std-Preis" dataDxfId="33"/>
-    <tableColumn id="4" name="Summe:" dataDxfId="32" dataCellStyle="Währung"/>
+    <tableColumn id="2" name="Stk/Std" dataDxfId="37"/>
+    <tableColumn id="3" name="Stk/Std-Preis" dataDxfId="36"/>
+    <tableColumn id="4" name="Summe:" dataDxfId="35" dataCellStyle="Währung"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6077,10 +6209,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6528,7 +6660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="84" t="s">
         <v>94</v>
       </c>
@@ -6556,7 +6688,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="84" t="s">
         <v>2</v>
       </c>
@@ -6583,16 +6715,8 @@
       <c r="I18" s="18">
         <v>30</v>
       </c>
-      <c r="K18">
-        <f>TAB_Leistungen_30[[#This Row],[Zeitbedarf Min (pauschal)]]/60</f>
-        <v>0.25</v>
-      </c>
-      <c r="L18">
-        <f>K18/8</f>
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="84" t="s">
         <v>4</v>
       </c>
@@ -6619,7 +6743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="84" t="s">
         <v>15</v>
       </c>
@@ -6642,7 +6766,7 @@
       </c>
       <c r="I20" s="31"/>
     </row>
-    <row r="21" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="84" t="s">
         <v>16</v>
       </c>
@@ -6671,7 +6795,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="84" t="s">
         <v>5</v>
       </c>
@@ -6686,7 +6810,7 @@
         <v>25</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>901</v>
+        <v>948</v>
       </c>
       <c r="G22" s="29">
         <v>60</v>
@@ -6699,7 +6823,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="84" t="s">
         <v>7</v>
       </c>
@@ -6727,12 +6851,8 @@
       <c r="I23" s="90">
         <v>30</v>
       </c>
-      <c r="K23">
-        <f>TAB_Leistungen_30[[#This Row],[Zeitbedarf Min (pauschal)]]/60</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="84" t="s">
         <v>6</v>
       </c>
@@ -6761,7 +6881,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="84" t="s">
         <v>8</v>
       </c>
@@ -6790,7 +6910,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="84" t="s">
         <v>9</v>
       </c>
@@ -6819,7 +6939,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="84" t="s">
         <v>10</v>
       </c>
@@ -6848,7 +6968,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="84" t="s">
         <v>13</v>
       </c>
@@ -6877,7 +6997,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="84" t="s">
         <v>487</v>
       </c>
@@ -6905,7 +7025,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F30" t="s">
         <v>6</v>
       </c>
@@ -6920,7 +7040,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F31" t="s">
         <v>7</v>
       </c>
@@ -6935,7 +7055,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F32" s="4" t="s">
         <v>247</v>
       </c>
@@ -7009,6 +7129,33 @@
       </c>
       <c r="B38" s="27" t="s">
         <v>578</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>9880</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <f>F41-F42</f>
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <f>F43-F44</f>
+        <v>1880</v>
       </c>
     </row>
   </sheetData>
@@ -7026,19 +7173,19 @@
   <sheetPr published="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I349"/>
+  <dimension ref="A1:I372"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.77734375" customWidth="1"/>
-    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="2" max="2" width="49" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" style="5" customWidth="1"/>
     <col min="4" max="4" width="13.21875" customWidth="1"/>
     <col min="5" max="5" width="17.88671875" customWidth="1"/>
@@ -7074,16 +7221,16 @@
     </row>
     <row r="2" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="78" t="s">
-        <v>934</v>
+        <v>954</v>
       </c>
       <c r="B2" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="137">
-        <v>44412</v>
+        <v>44433</v>
       </c>
       <c r="D2" s="133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -7091,139 +7238,139 @@
       </c>
       <c r="F2" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
+        <v>7.5</v>
       </c>
       <c r="G2" s="78" t="s">
-        <v>498</v>
+        <v>898</v>
       </c>
       <c r="H2" s="134" t="s">
-        <v>936</v>
+        <v>957</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="78" t="s">
-        <v>934</v>
+        <v>959</v>
       </c>
       <c r="B3" s="133" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C3" s="137">
-        <v>44411</v>
+        <v>44430</v>
       </c>
       <c r="D3" s="133">
         <v>2</v>
       </c>
       <c r="E3" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G3" s="78" t="s">
         <v>498</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>935</v>
+        <v>960</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="78" t="s">
-        <v>102</v>
+        <v>954</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>207</v>
+        <v>140</v>
       </c>
       <c r="C4" s="137">
-        <v>44400</v>
+        <v>44431</v>
       </c>
       <c r="D4" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F4" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="G4" s="78" t="s">
-        <v>933</v>
+        <v>498</v>
       </c>
       <c r="H4" s="134" t="s">
-        <v>929</v>
+        <v>956</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="78" t="s">
-        <v>102</v>
+        <v>954</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C5" s="137">
-        <v>44400</v>
+        <v>44432</v>
       </c>
       <c r="D5" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F5" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G5" s="78" t="s">
-        <v>933</v>
+        <v>498</v>
       </c>
       <c r="H5" s="134" t="s">
-        <v>929</v>
+        <v>955</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="78" t="s">
-        <v>886</v>
+        <v>934</v>
       </c>
       <c r="B6" s="133" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C6" s="137">
-        <v>44400</v>
+        <v>44427</v>
       </c>
       <c r="D6" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F6" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>7.5</v>
       </c>
       <c r="G6" s="78" t="s">
-        <v>933</v>
+        <v>498</v>
       </c>
       <c r="H6" s="134" t="s">
-        <v>928</v>
+        <v>953</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="78" t="s">
-        <v>734</v>
+        <v>934</v>
       </c>
       <c r="B7" s="133" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C7" s="137">
-        <v>44400</v>
+        <v>44427</v>
       </c>
       <c r="D7" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -7231,27 +7378,27 @@
       </c>
       <c r="F7" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G7" s="78" t="s">
-        <v>933</v>
+        <v>498</v>
       </c>
       <c r="H7" s="134" t="s">
-        <v>930</v>
+        <v>952</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="78" t="s">
-        <v>906</v>
+        <v>934</v>
       </c>
       <c r="B8" s="133" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="137">
-        <v>44396</v>
+        <v>44426</v>
       </c>
       <c r="D8" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -7259,735 +7406,755 @@
       </c>
       <c r="F8" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G8" s="78" t="s">
-        <v>933</v>
+        <v>498</v>
       </c>
       <c r="H8" s="134" t="s">
-        <v>846</v>
+        <v>951</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B9" s="133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="137">
-        <v>44396</v>
+        <v>44428</v>
       </c>
       <c r="D9" s="133">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F9" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G9" s="78" t="s">
-        <v>933</v>
+        <v>498</v>
       </c>
       <c r="H9" s="134" t="s">
-        <v>907</v>
+        <v>958</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
-        <v>924</v>
+        <v>905</v>
       </c>
       <c r="B10" s="133" t="s">
-        <v>255</v>
+        <v>1</v>
       </c>
       <c r="C10" s="137">
-        <v>44395</v>
+        <v>44427</v>
       </c>
       <c r="D10" s="133">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="E10" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F10" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G10" s="78" t="s">
-        <v>933</v>
+        <v>498</v>
       </c>
       <c r="H10" s="134" t="s">
-        <v>926</v>
+        <v>950</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="78" t="s">
-        <v>924</v>
+        <v>509</v>
       </c>
       <c r="B11" s="133" t="s">
-        <v>255</v>
+        <v>140</v>
       </c>
       <c r="C11" s="137">
-        <v>44395</v>
+        <v>44426</v>
       </c>
       <c r="D11" s="133">
-        <v>237</v>
+        <v>1</v>
       </c>
       <c r="E11" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F11" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>71.099999999999994</v>
+        <v>2.5</v>
       </c>
       <c r="G11" s="78" t="s">
-        <v>933</v>
+        <v>498</v>
       </c>
       <c r="H11" s="134" t="s">
-        <v>927</v>
+        <v>932</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="78" t="s">
-        <v>924</v>
+        <v>509</v>
       </c>
       <c r="B12" s="133" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C12" s="137">
-        <v>44395</v>
+        <v>44426</v>
       </c>
       <c r="D12" s="133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F12" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>7.5</v>
       </c>
       <c r="G12" s="78" t="s">
-        <v>933</v>
+        <v>498</v>
       </c>
       <c r="H12" s="134" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="78" t="s">
-        <v>883</v>
-      </c>
-      <c r="B13" s="133" t="s">
-        <v>1</v>
+        <v>934</v>
+      </c>
+      <c r="B13" s="78" t="s">
+        <v>48</v>
       </c>
       <c r="C13" s="137">
-        <v>44384</v>
+        <v>44426</v>
       </c>
       <c r="D13" s="133">
         <v>3</v>
       </c>
       <c r="E13" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F13" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="G13" s="78" t="s">
-        <v>933</v>
+        <v>498</v>
       </c>
       <c r="H13" s="134" t="s">
-        <v>931</v>
+        <v>941</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="78" t="s">
-        <v>738</v>
+        <v>905</v>
       </c>
       <c r="B14" s="133" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C14" s="137">
-        <v>44384</v>
+        <v>44426</v>
       </c>
       <c r="D14" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="F14" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G14" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="H14" s="134" t="s">
         <v>933</v>
-      </c>
-      <c r="H14" s="134" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78" t="s">
-        <v>738</v>
-      </c>
-      <c r="B15" s="133" t="s">
-        <v>48</v>
+        <v>946</v>
+      </c>
+      <c r="B15" s="78" t="s">
+        <v>2</v>
       </c>
       <c r="C15" s="137">
-        <v>44379</v>
+        <v>44420</v>
       </c>
       <c r="D15" s="133">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E15" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F15" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
+        <v>60</v>
       </c>
       <c r="G15" s="78" t="s">
-        <v>933</v>
+        <v>498</v>
       </c>
       <c r="H15" s="134" t="s">
-        <v>913</v>
+        <v>944</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="132" t="s">
-        <v>738</v>
+      <c r="A16" s="78" t="s">
+        <v>946</v>
       </c>
       <c r="B16" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="131">
-        <v>44377</v>
-      </c>
-      <c r="D16" s="132">
+        <v>487</v>
+      </c>
+      <c r="C16" s="137">
+        <v>44420</v>
+      </c>
+      <c r="D16" s="133">
+        <v>10</v>
+      </c>
+      <c r="E16" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>60</v>
+      </c>
+      <c r="F16" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>300</v>
+      </c>
+      <c r="G16" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="H16" s="134" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="78" t="s">
+        <v>946</v>
+      </c>
+      <c r="B17" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="137">
+        <v>44410</v>
+      </c>
+      <c r="D17" s="133">
         <v>3</v>
       </c>
-      <c r="E16" s="132">
+      <c r="E17" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
-      </c>
-      <c r="F16" s="132">
+        <v>60</v>
+      </c>
+      <c r="F17" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
-      </c>
-      <c r="G16" s="78" t="s">
-        <v>933</v>
-      </c>
-      <c r="H16" s="132" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="132" t="s">
-        <v>914</v>
-      </c>
-      <c r="B17" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="131">
-        <v>44362</v>
-      </c>
-      <c r="D17" s="132">
-        <v>1</v>
-      </c>
-      <c r="E17" s="132">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
-      </c>
-      <c r="F17" s="132">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="G17" s="78" t="s">
-        <v>933</v>
-      </c>
-      <c r="H17" s="132" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+      <c r="H17" s="134" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="78" t="s">
-        <v>914</v>
+        <v>934</v>
       </c>
       <c r="B18" s="133" t="s">
-        <v>48</v>
+        <v>487</v>
       </c>
       <c r="C18" s="137">
-        <v>44362</v>
+        <v>44418</v>
       </c>
       <c r="D18" s="133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F18" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
+        <v>60</v>
       </c>
       <c r="G18" s="78" t="s">
-        <v>933</v>
+        <v>498</v>
       </c>
       <c r="H18" s="134" t="s">
-        <v>915</v>
+        <v>939</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="78" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="B19" s="133" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C19" s="137">
-        <v>44343</v>
+        <v>44419</v>
       </c>
       <c r="D19" s="133">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E19" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="F19" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>90</v>
       </c>
       <c r="G19" s="78" t="s">
-        <v>933</v>
-      </c>
-      <c r="H19" s="134" t="s">
-        <v>905</v>
+        <v>498</v>
+      </c>
+      <c r="H19" s="132" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="78" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="B20" s="133" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C20" s="137">
-        <v>44333</v>
+        <v>44323</v>
       </c>
       <c r="D20" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F20" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G20" s="78" t="s">
-        <v>933</v>
-      </c>
-      <c r="H20" s="134" t="s">
-        <v>904</v>
+        <v>498</v>
+      </c>
+      <c r="H20" s="132" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="78" t="s">
-        <v>918</v>
+        <v>879</v>
       </c>
       <c r="B21" s="133" t="s">
-        <v>48</v>
+        <v>948</v>
       </c>
       <c r="C21" s="137">
-        <v>44326</v>
+        <v>44323</v>
       </c>
       <c r="D21" s="133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F21" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
+        <v>60</v>
       </c>
       <c r="G21" s="78" t="s">
-        <v>933</v>
+        <v>498</v>
       </c>
       <c r="H21" s="134" t="s">
-        <v>917</v>
+        <v>961</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="78" t="s">
         <v>879</v>
       </c>
-      <c r="B22" s="133"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133" t="e">
+      <c r="B22" s="133" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="137">
+        <v>44418</v>
+      </c>
+      <c r="D22" s="133">
+        <v>16</v>
+      </c>
+      <c r="E22" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F22" s="133" t="e">
+        <v>10</v>
+      </c>
+      <c r="F22" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
+        <v>40</v>
       </c>
       <c r="G22" s="78" t="s">
-        <v>898</v>
+        <v>498</v>
       </c>
       <c r="H22" s="134" t="s">
-        <v>911</v>
+        <v>937</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="78" t="s">
         <v>879</v>
       </c>
-      <c r="B23" s="133"/>
-      <c r="C23" s="136"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="133" t="e">
+      <c r="B23" s="133" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="137">
+        <v>44418</v>
+      </c>
+      <c r="D23" s="133">
+        <v>161</v>
+      </c>
+      <c r="E23" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F23" s="133" t="e">
+        <v>0</v>
+      </c>
+      <c r="F23" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
+        <v>48.3</v>
       </c>
       <c r="G23" s="78" t="s">
-        <v>898</v>
+        <v>498</v>
       </c>
       <c r="H23" s="134" t="s">
-        <v>910</v>
+        <v>938</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78" t="s">
-        <v>879</v>
-      </c>
-      <c r="B24" s="133"/>
-      <c r="C24" s="136"/>
-      <c r="D24" s="133"/>
-      <c r="E24" s="133" t="e">
+        <v>934</v>
+      </c>
+      <c r="B24" s="133" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="137">
+        <v>44418</v>
+      </c>
+      <c r="D24" s="133">
+        <v>26</v>
+      </c>
+      <c r="E24" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F24" s="133" t="e">
+        <v>10</v>
+      </c>
+      <c r="F24" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>#N/A</v>
+        <v>65</v>
       </c>
       <c r="G24" s="78" t="s">
-        <v>898</v>
+        <v>498</v>
       </c>
       <c r="H24" s="134" t="s">
-        <v>909</v>
+        <v>936</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="78" t="s">
-        <v>921</v>
+        <v>934</v>
       </c>
       <c r="B25" s="133" t="s">
-        <v>8</v>
+        <v>255</v>
       </c>
       <c r="C25" s="137">
-        <v>44320</v>
+        <v>44418</v>
       </c>
       <c r="D25" s="133">
-        <v>2</v>
+        <v>265</v>
       </c>
       <c r="E25" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F25" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>180</v>
+        <v>79.5</v>
       </c>
       <c r="G25" s="78" t="s">
-        <v>933</v>
+        <v>498</v>
       </c>
       <c r="H25" s="134" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="78" t="s">
-        <v>921</v>
+        <v>905</v>
       </c>
       <c r="B26" s="133" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C26" s="137">
-        <v>44320</v>
+        <v>44417</v>
       </c>
       <c r="D26" s="133">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E26" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F26" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>30</v>
       </c>
       <c r="G26" s="78" t="s">
-        <v>933</v>
+        <v>498</v>
       </c>
       <c r="H26" s="134" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="78" t="s">
-        <v>920</v>
+        <v>929</v>
       </c>
       <c r="B27" s="133" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C27" s="137">
-        <v>44316</v>
+        <v>44412</v>
       </c>
       <c r="D27" s="133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F27" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>22.5</v>
       </c>
       <c r="G27" s="78" t="s">
-        <v>933</v>
+        <v>498</v>
       </c>
       <c r="H27" s="134" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="157" t="s">
-        <v>879</v>
-      </c>
-      <c r="B28" s="158" t="s">
-        <v>633</v>
-      </c>
-      <c r="C28" s="159">
-        <v>44316</v>
-      </c>
-      <c r="D28" s="158">
+      <c r="A28" s="78" t="s">
+        <v>929</v>
+      </c>
+      <c r="B28" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="137">
+        <v>44411</v>
+      </c>
+      <c r="D28" s="133">
         <v>2</v>
       </c>
-      <c r="E28" s="158">
+      <c r="E28" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>10</v>
+      </c>
+      <c r="F28" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>10</v>
+      </c>
+      <c r="G28" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="H28" s="134" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="78" t="s">
+        <v>946</v>
+      </c>
+      <c r="B29" s="133" t="s">
+        <v>948</v>
+      </c>
+      <c r="C29" s="137">
+        <v>44383</v>
+      </c>
+      <c r="D29" s="133">
+        <v>2</v>
+      </c>
+      <c r="E29" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>60</v>
       </c>
-      <c r="F28" s="158">
+      <c r="F29" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>60</v>
       </c>
-      <c r="G28" s="78" t="s">
-        <v>933</v>
-      </c>
-      <c r="H28" s="160" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="161" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="78" t="s">
-        <v>916</v>
-      </c>
-      <c r="B29" s="133" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="137">
-        <v>44304</v>
-      </c>
-      <c r="D29" s="133">
-        <v>5</v>
-      </c>
-      <c r="E29" s="133">
+      <c r="G29" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="H29" s="134" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="133" t="s">
+        <v>207</v>
+      </c>
+      <c r="C30" s="137">
+        <v>44400</v>
+      </c>
+      <c r="D30" s="133">
+        <v>2</v>
+      </c>
+      <c r="E30" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
-      </c>
-      <c r="F29" s="133">
+        <v>0</v>
+      </c>
+      <c r="F30" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>37.5</v>
-      </c>
-      <c r="G29" s="78" t="s">
-        <v>933</v>
-      </c>
-      <c r="H29" s="134" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="153" t="s">
-        <v>885</v>
-      </c>
-      <c r="B30" s="154" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="155">
-        <v>44302</v>
-      </c>
-      <c r="D30" s="154">
-        <v>1</v>
-      </c>
-      <c r="E30" s="154">
+        <v>10</v>
+      </c>
+      <c r="G30" s="78" t="s">
+        <v>928</v>
+      </c>
+      <c r="H30" s="134" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="137">
+        <v>44400</v>
+      </c>
+      <c r="D31" s="133">
+        <v>2</v>
+      </c>
+      <c r="E31" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>180</v>
-      </c>
-      <c r="F30" s="154">
+        <v>60</v>
+      </c>
+      <c r="F31" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
-      </c>
-      <c r="G30" s="153" t="s">
-        <v>898</v>
-      </c>
-      <c r="H30" s="156" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="161" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="157" t="s">
-        <v>891</v>
-      </c>
-      <c r="B31" s="158" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="159">
-        <v>44302</v>
-      </c>
-      <c r="D31" s="158">
-        <v>1</v>
-      </c>
-      <c r="E31" s="158">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>30</v>
-      </c>
-      <c r="F31" s="158">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G31" s="78" t="s">
-        <v>933</v>
-      </c>
-      <c r="H31" s="160" t="s">
-        <v>932</v>
+        <v>928</v>
+      </c>
+      <c r="H31" s="134" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="78" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B32" s="133" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C32" s="137">
-        <v>44301</v>
+        <v>44400</v>
       </c>
       <c r="D32" s="133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E32" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F32" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G32" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H32" s="134"/>
+        <v>928</v>
+      </c>
+      <c r="H32" s="134" t="s">
+        <v>923</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="78" t="s">
-        <v>887</v>
+        <v>734</v>
       </c>
       <c r="B33" s="133" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C33" s="137">
-        <v>44301</v>
+        <v>44400</v>
       </c>
       <c r="D33" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F33" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="G33" s="78" t="s">
-        <v>494</v>
+        <v>928</v>
       </c>
       <c r="H33" s="134" t="s">
-        <v>895</v>
+        <v>925</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="78" t="s">
-        <v>887</v>
+        <v>905</v>
       </c>
       <c r="B34" s="133" t="s">
-        <v>523</v>
+        <v>1</v>
       </c>
       <c r="C34" s="137">
-        <v>44301</v>
+        <v>44396</v>
       </c>
       <c r="D34" s="133">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E34" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F34" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="G34" s="78" t="s">
-        <v>494</v>
+        <v>928</v>
       </c>
       <c r="H34" s="134" t="s">
-        <v>894</v>
+        <v>846</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="78" t="s">
-        <v>891</v>
+        <v>905</v>
       </c>
       <c r="B35" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C35" s="137">
-        <v>44301</v>
+        <v>44396</v>
       </c>
       <c r="D35" s="133">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E35" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -7995,55 +8162,55 @@
       </c>
       <c r="F35" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>30</v>
       </c>
       <c r="G35" s="78" t="s">
-        <v>494</v>
+        <v>928</v>
       </c>
       <c r="H35" s="134" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="78" t="s">
-        <v>883</v>
+        <v>946</v>
       </c>
       <c r="B36" s="133" t="s">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="C36" s="137">
-        <v>44301</v>
+        <v>44395</v>
       </c>
       <c r="D36" s="133">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E36" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F36" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G36" s="78" t="s">
-        <v>494</v>
+        <v>928</v>
       </c>
       <c r="H36" s="134" t="s">
-        <v>884</v>
+        <v>921</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="78" t="s">
-        <v>102</v>
+        <v>946</v>
       </c>
       <c r="B37" s="133" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="C37" s="137">
-        <v>44301</v>
+        <v>44395</v>
       </c>
       <c r="D37" s="133">
-        <v>2</v>
+        <v>237</v>
       </c>
       <c r="E37" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8051,25 +8218,27 @@
       </c>
       <c r="F37" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="G37" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H37" s="134"/>
+        <v>928</v>
+      </c>
+      <c r="H37" s="134" t="s">
+        <v>922</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="78" t="s">
-        <v>102</v>
+        <v>946</v>
       </c>
       <c r="B38" s="133" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C38" s="137">
-        <v>44301</v>
+        <v>44395</v>
       </c>
       <c r="D38" s="133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8077,189 +8246,195 @@
       </c>
       <c r="F38" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G38" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H38" s="134"/>
-    </row>
-    <row r="39" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>928</v>
+      </c>
+      <c r="H38" s="134" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="78" t="s">
-        <v>734</v>
+        <v>883</v>
       </c>
       <c r="B39" s="133" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C39" s="137">
-        <v>44301</v>
+        <v>44384</v>
       </c>
       <c r="D39" s="133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F39" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="G39" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H39" s="134"/>
+        <v>928</v>
+      </c>
+      <c r="H39" s="134" t="s">
+        <v>926</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="78" t="s">
-        <v>883</v>
+        <v>738</v>
       </c>
       <c r="B40" s="133" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C40" s="137">
-        <v>44301</v>
+        <v>44384</v>
       </c>
       <c r="D40" s="133">
         <v>1</v>
       </c>
       <c r="E40" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="F40" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="G40" s="78" t="s">
-        <v>494</v>
+        <v>928</v>
       </c>
       <c r="H40" s="134" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="78" t="s">
-        <v>891</v>
+        <v>738</v>
       </c>
       <c r="B41" s="133" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C41" s="137">
-        <v>44300</v>
+        <v>44379</v>
       </c>
       <c r="D41" s="133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E41" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F41" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>22.5</v>
+      </c>
+      <c r="G41" s="78" t="s">
+        <v>928</v>
+      </c>
+      <c r="H41" s="134" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="132" t="s">
+        <v>738</v>
+      </c>
+      <c r="B42" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="131">
+        <v>44377</v>
+      </c>
+      <c r="D42" s="132">
+        <v>3</v>
+      </c>
+      <c r="E42" s="132">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>10</v>
+      </c>
+      <c r="F42" s="132">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>15</v>
+      </c>
+      <c r="G42" s="78" t="s">
+        <v>928</v>
+      </c>
+      <c r="H42" s="132" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="132" t="s">
+        <v>910</v>
+      </c>
+      <c r="B43" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="131">
+        <v>44362</v>
+      </c>
+      <c r="D43" s="132">
+        <v>1</v>
+      </c>
+      <c r="E43" s="132">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>10</v>
+      </c>
+      <c r="F43" s="132">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>5</v>
       </c>
-      <c r="G41" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H41" s="134" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="78" t="s">
-        <v>877</v>
-      </c>
-      <c r="B42" s="133" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="137">
-        <v>44300</v>
-      </c>
-      <c r="D42" s="133">
-        <v>1</v>
-      </c>
-      <c r="E42" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
-      </c>
-      <c r="F42" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
-      </c>
-      <c r="G42" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H42" s="134"/>
-    </row>
-    <row r="43" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="78" t="s">
-        <v>897</v>
-      </c>
-      <c r="B43" s="133" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="137">
-        <v>44294</v>
-      </c>
-      <c r="D43" s="133">
-        <v>1</v>
-      </c>
-      <c r="E43" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
-      </c>
-      <c r="F43" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>2.5</v>
-      </c>
       <c r="G43" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H43" s="134" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>928</v>
+      </c>
+      <c r="H43" s="132" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="78" t="s">
-        <v>897</v>
+        <v>910</v>
       </c>
       <c r="B44" s="133" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C44" s="137">
-        <v>44294</v>
+        <v>44362</v>
       </c>
       <c r="D44" s="133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E44" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F44" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>22.5</v>
       </c>
       <c r="G44" s="78" t="s">
-        <v>494</v>
+        <v>928</v>
       </c>
       <c r="H44" s="134" t="s">
-        <v>890</v>
+        <v>911</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="78" t="s">
-        <v>509</v>
+        <v>887</v>
       </c>
       <c r="B45" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C45" s="137">
-        <v>44294</v>
+        <v>44343</v>
       </c>
       <c r="D45" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8267,335 +8442,333 @@
       </c>
       <c r="F45" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="G45" s="78" t="s">
-        <v>494</v>
+        <v>928</v>
       </c>
       <c r="H45" s="134" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="78" t="s">
-        <v>879</v>
+        <v>887</v>
       </c>
       <c r="B46" s="133" t="s">
-        <v>487</v>
+        <v>1</v>
       </c>
       <c r="C46" s="137">
-        <v>44294</v>
+        <v>44333</v>
       </c>
       <c r="D46" s="133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E46" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F46" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="G46" s="78" t="s">
-        <v>494</v>
+        <v>928</v>
       </c>
       <c r="H46" s="134" t="s">
-        <v>871</v>
+        <v>903</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="78" t="s">
-        <v>879</v>
+        <v>914</v>
       </c>
       <c r="B47" s="133" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C47" s="137">
-        <v>44294</v>
+        <v>44326</v>
       </c>
       <c r="D47" s="133">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E47" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F47" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>80</v>
+        <v>22.5</v>
       </c>
       <c r="G47" s="78" t="s">
-        <v>494</v>
+        <v>928</v>
       </c>
       <c r="H47" s="134" t="s">
-        <v>870</v>
+        <v>913</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="78" t="s">
-        <v>886</v>
+        <v>917</v>
       </c>
       <c r="B48" s="133" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C48" s="137">
-        <v>44288</v>
+        <v>44320</v>
       </c>
       <c r="D48" s="133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="F48" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
+        <v>180</v>
       </c>
       <c r="G48" s="78" t="s">
-        <v>494</v>
+        <v>928</v>
       </c>
       <c r="H48" s="134" t="s">
-        <v>889</v>
+        <v>919</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="78" t="s">
-        <v>886</v>
+        <v>917</v>
       </c>
       <c r="B49" s="133" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C49" s="137">
-        <v>44288</v>
+        <v>44320</v>
       </c>
       <c r="D49" s="133">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E49" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F49" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G49" s="78" t="s">
-        <v>494</v>
+        <v>928</v>
       </c>
       <c r="H49" s="134" t="s">
-        <v>888</v>
+        <v>918</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="78" t="s">
-        <v>885</v>
+        <v>916</v>
       </c>
       <c r="B50" s="133" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C50" s="137">
-        <v>44288</v>
+        <v>44316</v>
       </c>
       <c r="D50" s="133">
         <v>2</v>
       </c>
       <c r="E50" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F50" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G50" s="78" t="s">
-        <v>494</v>
+        <v>928</v>
       </c>
       <c r="H50" s="134" t="s">
-        <v>890</v>
+        <v>915</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="78" t="s">
+      <c r="A51" s="157" t="s">
         <v>879</v>
       </c>
-      <c r="B51" s="133" t="s">
+      <c r="B51" s="158" t="s">
         <v>633</v>
       </c>
-      <c r="C51" s="137">
-        <v>44288</v>
-      </c>
-      <c r="D51" s="133">
+      <c r="C51" s="159">
+        <v>44316</v>
+      </c>
+      <c r="D51" s="158">
         <v>2</v>
       </c>
-      <c r="E51" s="133">
+      <c r="E51" s="158">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>60</v>
       </c>
-      <c r="F51" s="133">
+      <c r="F51" s="158">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>60</v>
       </c>
       <c r="G51" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H51" s="134" t="s">
-        <v>880</v>
+        <v>928</v>
+      </c>
+      <c r="H51" s="160" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="78" t="s">
-        <v>883</v>
+        <v>912</v>
       </c>
       <c r="B52" s="133" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C52" s="137">
-        <v>44288</v>
+        <v>44304</v>
       </c>
       <c r="D52" s="133">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E52" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F52" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>37.5</v>
+      </c>
+      <c r="G52" s="78" t="s">
+        <v>928</v>
+      </c>
+      <c r="H52" s="134" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="153" t="s">
+        <v>885</v>
+      </c>
+      <c r="B53" s="154" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="155">
+        <v>44302</v>
+      </c>
+      <c r="D53" s="154">
+        <v>1</v>
+      </c>
+      <c r="E53" s="154">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>180</v>
+      </c>
+      <c r="F53" s="154">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>90</v>
+      </c>
+      <c r="G53" s="153" t="s">
+        <v>898</v>
+      </c>
+      <c r="H53" s="156" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="157" t="s">
+        <v>891</v>
+      </c>
+      <c r="B54" s="158" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="159">
+        <v>44302</v>
+      </c>
+      <c r="D54" s="158">
+        <v>1</v>
+      </c>
+      <c r="E54" s="158">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>30</v>
+      </c>
+      <c r="F54" s="158">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>15</v>
+      </c>
+      <c r="G54" s="78" t="s">
+        <v>928</v>
+      </c>
+      <c r="H54" s="160" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="161" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="78" t="s">
+        <v>887</v>
+      </c>
+      <c r="B55" s="133" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="137">
+        <v>44301</v>
+      </c>
+      <c r="D55" s="133">
+        <v>4</v>
+      </c>
+      <c r="E55" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>5</v>
       </c>
-      <c r="G52" s="78" t="s">
+      <c r="F55" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>10</v>
+      </c>
+      <c r="G55" s="78" t="s">
         <v>494</v>
       </c>
-      <c r="H52" s="134" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="78" t="s">
-        <v>879</v>
-      </c>
-      <c r="B53" s="133" t="s">
-        <v>48</v>
-      </c>
-      <c r="C53" s="137">
-        <v>44284</v>
-      </c>
-      <c r="D53" s="133">
-        <v>3</v>
-      </c>
-      <c r="E53" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
-      </c>
-      <c r="F53" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
-      </c>
-      <c r="G53" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H53" s="134" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="78" t="s">
-        <v>879</v>
-      </c>
-      <c r="B54" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="137">
-        <v>44275</v>
-      </c>
-      <c r="D54" s="133">
-        <v>2</v>
-      </c>
-      <c r="E54" s="133">
+      <c r="H55" s="134"/>
+    </row>
+    <row r="56" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="78" t="s">
+        <v>887</v>
+      </c>
+      <c r="B56" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="137">
+        <v>44301</v>
+      </c>
+      <c r="D56" s="133">
+        <v>1</v>
+      </c>
+      <c r="E56" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>10</v>
       </c>
-      <c r="F54" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
-      </c>
-      <c r="G54" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H54" s="134" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="78" t="s">
-        <v>830</v>
-      </c>
-      <c r="B55" s="133" t="s">
-        <v>901</v>
-      </c>
-      <c r="C55" s="137">
-        <v>44270</v>
-      </c>
-      <c r="D55" s="133">
-        <v>2</v>
-      </c>
-      <c r="E55" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
-      </c>
-      <c r="F55" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
-      </c>
-      <c r="G55" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H55" s="134" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="78" t="s">
-        <v>873</v>
-      </c>
-      <c r="B56" s="133" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="137">
-        <v>44264</v>
-      </c>
-      <c r="D56" s="133">
-        <v>1</v>
-      </c>
-      <c r="E56" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>180</v>
-      </c>
       <c r="F56" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="G56" s="78" t="s">
-        <v>878</v>
+        <v>494</v>
       </c>
       <c r="H56" s="134" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="161" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="78" t="s">
-        <v>873</v>
+        <v>887</v>
       </c>
       <c r="B57" s="133" t="s">
-        <v>487</v>
+        <v>523</v>
       </c>
       <c r="C57" s="137">
-        <v>44264</v>
+        <v>44301</v>
       </c>
       <c r="D57" s="133">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E57" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8603,52 +8776,52 @@
       </c>
       <c r="F57" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="G57" s="78" t="s">
-        <v>878</v>
+        <v>494</v>
       </c>
       <c r="H57" s="134" t="s">
-        <v>874</v>
+        <v>894</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="78" t="s">
-        <v>873</v>
+        <v>891</v>
       </c>
       <c r="B58" s="133" t="s">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="C58" s="137">
-        <v>44264</v>
+        <v>44301</v>
       </c>
       <c r="D58" s="133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E58" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F58" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>7.5</v>
       </c>
       <c r="G58" s="78" t="s">
-        <v>878</v>
+        <v>494</v>
       </c>
       <c r="H58" s="134" t="s">
-        <v>832</v>
+        <v>892</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="78" t="s">
-        <v>873</v>
+        <v>883</v>
       </c>
       <c r="B59" s="133" t="s">
         <v>1</v>
       </c>
       <c r="C59" s="137">
-        <v>44259</v>
+        <v>44301</v>
       </c>
       <c r="D59" s="133">
         <v>2</v>
@@ -8662,80 +8835,76 @@
         <v>10</v>
       </c>
       <c r="G59" s="78" t="s">
-        <v>878</v>
+        <v>494</v>
       </c>
       <c r="H59" s="134" t="s">
-        <v>876</v>
+        <v>884</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="78" t="s">
-        <v>830</v>
+        <v>102</v>
       </c>
       <c r="B60" s="133" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
       <c r="C60" s="137">
-        <v>44256</v>
+        <v>44301</v>
       </c>
       <c r="D60" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F60" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="G60" s="78" t="s">
         <v>494</v>
       </c>
-      <c r="H60" s="134" t="s">
-        <v>902</v>
-      </c>
+      <c r="H60" s="134"/>
     </row>
     <row r="61" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="78" t="s">
-        <v>830</v>
+        <v>102</v>
       </c>
       <c r="B61" s="133" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C61" s="137">
-        <v>44250</v>
+        <v>44301</v>
       </c>
       <c r="D61" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F61" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>60</v>
       </c>
       <c r="G61" s="78" t="s">
         <v>494</v>
       </c>
-      <c r="H61" s="134" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H61" s="134"/>
+    </row>
+    <row r="62" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="78" t="s">
-        <v>102</v>
+        <v>734</v>
       </c>
       <c r="B62" s="133" t="s">
         <v>13</v>
       </c>
       <c r="C62" s="137">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="D62" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8743,135 +8912,135 @@
       </c>
       <c r="F62" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G62" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H62" s="134"/>
     </row>
     <row r="63" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="78" t="s">
-        <v>734</v>
+        <v>883</v>
       </c>
       <c r="B63" s="133" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C63" s="137">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="D63" s="133">
         <v>1</v>
       </c>
       <c r="E63" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F63" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G63" s="78" t="s">
-        <v>661</v>
-      </c>
-      <c r="H63" s="134"/>
+        <v>494</v>
+      </c>
+      <c r="H63" s="134" t="s">
+        <v>902</v>
+      </c>
     </row>
     <row r="64" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="78" t="s">
-        <v>845</v>
+        <v>891</v>
       </c>
       <c r="B64" s="133" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C64" s="137">
-        <v>44244</v>
+        <v>44300</v>
       </c>
       <c r="D64" s="133">
         <v>1</v>
       </c>
       <c r="E64" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F64" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="G64" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H64" s="134" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="78" t="s">
-        <v>866</v>
+        <v>877</v>
       </c>
       <c r="B65" s="133" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C65" s="137">
-        <v>44242</v>
+        <v>44300</v>
       </c>
       <c r="D65" s="133">
         <v>1</v>
       </c>
       <c r="E65" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F65" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G65" s="78" t="s">
-        <v>661</v>
-      </c>
-      <c r="H65" s="134" t="s">
-        <v>868</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="H65" s="134"/>
     </row>
     <row r="66" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="78" t="s">
-        <v>866</v>
+        <v>897</v>
       </c>
       <c r="B66" s="133" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C66" s="137">
-        <v>44242</v>
+        <v>44294</v>
       </c>
       <c r="D66" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="F66" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>2.5</v>
       </c>
       <c r="G66" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H66" s="134" t="s">
-        <v>871</v>
+        <v>893</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="78" t="s">
-        <v>866</v>
+        <v>897</v>
       </c>
       <c r="B67" s="133" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C67" s="137">
-        <v>44242</v>
+        <v>44294</v>
       </c>
       <c r="D67" s="133">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E67" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8879,167 +9048,167 @@
       </c>
       <c r="F67" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="G67" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H67" s="134" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="78" t="s">
-        <v>866</v>
+        <v>509</v>
       </c>
       <c r="B68" s="133" t="s">
-        <v>487</v>
+        <v>48</v>
       </c>
       <c r="C68" s="137">
-        <v>44242</v>
+        <v>44294</v>
       </c>
       <c r="D68" s="133">
         <v>2</v>
       </c>
       <c r="E68" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F68" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="G68" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H68" s="134" t="s">
-        <v>867</v>
+        <v>893</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="78" t="s">
-        <v>869</v>
+        <v>879</v>
       </c>
       <c r="B69" s="133" t="s">
-        <v>49</v>
+        <v>487</v>
       </c>
       <c r="C69" s="137">
-        <v>44239</v>
+        <v>44294</v>
       </c>
       <c r="D69" s="133">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E69" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F69" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="G69" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H69" s="134" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="78" t="s">
-        <v>862</v>
-      </c>
-      <c r="B70" s="132" t="s">
-        <v>8</v>
+        <v>879</v>
+      </c>
+      <c r="B70" s="133" t="s">
+        <v>2</v>
       </c>
       <c r="C70" s="137">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="D70" s="133">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E70" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="F70" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G70" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H70" s="134" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="78" t="s">
-        <v>862</v>
+        <v>886</v>
       </c>
       <c r="B71" s="133" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C71" s="137">
-        <v>44225</v>
+        <v>44288</v>
       </c>
       <c r="D71" s="133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E71" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F71" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>22.5</v>
       </c>
       <c r="G71" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H71" s="134" t="s">
-        <v>864</v>
+        <v>889</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="78" t="s">
-        <v>862</v>
+        <v>886</v>
       </c>
       <c r="B72" s="133" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C72" s="137">
-        <v>44224</v>
+        <v>44288</v>
       </c>
       <c r="D72" s="133">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E72" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F72" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>37.5</v>
+        <v>10</v>
       </c>
       <c r="G72" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H72" s="134" t="s">
-        <v>865</v>
+        <v>888</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="78" t="s">
-        <v>845</v>
+        <v>885</v>
       </c>
       <c r="B73" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C73" s="137">
-        <v>44218</v>
+        <v>44288</v>
       </c>
       <c r="D73" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -9047,125 +9216,125 @@
       </c>
       <c r="F73" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="G73" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H73" s="134" t="s">
-        <v>860</v>
+        <v>890</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="78" t="s">
-        <v>845</v>
+        <v>879</v>
       </c>
       <c r="B74" s="133" t="s">
-        <v>8</v>
+        <v>633</v>
       </c>
       <c r="C74" s="137">
-        <v>44218</v>
+        <v>44288</v>
       </c>
       <c r="D74" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="F74" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G74" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H74" s="134" t="s">
-        <v>859</v>
+        <v>880</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="78" t="s">
-        <v>845</v>
+        <v>883</v>
       </c>
       <c r="B75" s="133" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C75" s="137">
-        <v>44210</v>
+        <v>44288</v>
       </c>
       <c r="D75" s="133">
         <v>1</v>
       </c>
       <c r="E75" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F75" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G75" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H75" s="134" t="s">
-        <v>848</v>
+        <v>902</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="78" t="s">
-        <v>845</v>
+        <v>879</v>
       </c>
       <c r="B76" s="133" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C76" s="137">
-        <v>44210</v>
+        <v>44284</v>
       </c>
       <c r="D76" s="133">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E76" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F76" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="G76" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H76" s="134" t="s">
-        <v>849</v>
+        <v>881</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="78" t="s">
-        <v>830</v>
+        <v>879</v>
       </c>
       <c r="B77" s="133" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C77" s="137">
-        <v>44209</v>
+        <v>44275</v>
       </c>
       <c r="D77" s="133">
         <v>2</v>
       </c>
       <c r="E77" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F77" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G77" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H77" s="134" t="s">
-        <v>858</v>
+        <v>882</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -9173,541 +9342,1109 @@
         <v>830</v>
       </c>
       <c r="B78" s="133" t="s">
-        <v>48</v>
+        <v>948</v>
       </c>
       <c r="C78" s="137">
-        <v>44209</v>
+        <v>44270</v>
       </c>
       <c r="D78" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F78" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>60</v>
       </c>
       <c r="G78" s="78" t="s">
-        <v>661</v>
+        <v>898</v>
       </c>
       <c r="H78" s="134" t="s">
-        <v>855</v>
+        <v>899</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="78" t="s">
-        <v>845</v>
+        <v>873</v>
       </c>
       <c r="B79" s="133" t="s">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="C79" s="137">
-        <v>44209</v>
+        <v>44264</v>
       </c>
       <c r="D79" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E79" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="F79" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="G79" s="78" t="s">
-        <v>661</v>
+        <v>878</v>
       </c>
       <c r="H79" s="134" t="s">
-        <v>846</v>
+        <v>875</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="78" t="s">
-        <v>727</v>
+        <v>873</v>
       </c>
       <c r="B80" s="133" t="s">
-        <v>140</v>
+        <v>487</v>
       </c>
       <c r="C80" s="137">
-        <v>44209</v>
+        <v>44264</v>
       </c>
       <c r="D80" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E80" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F80" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>2.5</v>
+        <v>60</v>
       </c>
       <c r="G80" s="78" t="s">
-        <v>661</v>
+        <v>878</v>
       </c>
       <c r="H80" s="134" t="s">
-        <v>850</v>
+        <v>874</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="78" t="s">
-        <v>727</v>
+        <v>873</v>
       </c>
       <c r="B81" s="133" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="C81" s="137">
-        <v>44209</v>
+        <v>44264</v>
       </c>
       <c r="D81" s="133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E81" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F81" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>7.5</v>
       </c>
       <c r="G81" s="78" t="s">
-        <v>661</v>
+        <v>878</v>
       </c>
       <c r="H81" s="134" t="s">
-        <v>851</v>
+        <v>832</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="78" t="s">
-        <v>816</v>
+        <v>873</v>
       </c>
       <c r="B82" s="133" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C82" s="137">
-        <v>44209</v>
+        <v>44259</v>
       </c>
       <c r="D82" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F82" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="G82" s="78" t="s">
-        <v>661</v>
+        <v>878</v>
       </c>
       <c r="H82" s="134" t="s">
-        <v>853</v>
+        <v>876</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="78" t="s">
-        <v>845</v>
+        <v>830</v>
       </c>
       <c r="B83" s="133" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="C83" s="137">
-        <v>44208</v>
+        <v>44256</v>
       </c>
       <c r="D83" s="133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E83" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F83" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
+        <v>2.5</v>
       </c>
       <c r="G83" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H83" s="134" t="s">
-        <v>847</v>
+        <v>901</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="78" t="s">
-        <v>102</v>
+        <v>830</v>
       </c>
       <c r="B84" s="133" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C84" s="137">
-        <v>44208</v>
+        <v>44250</v>
       </c>
       <c r="D84" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E84" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F84" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>7.5</v>
       </c>
       <c r="G84" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H84" s="134" t="s">
-        <v>854</v>
+        <v>900</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="78" t="s">
-        <v>841</v>
+        <v>102</v>
       </c>
       <c r="B85" s="133" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C85" s="137">
-        <v>44203</v>
+        <v>44244</v>
       </c>
       <c r="D85" s="133">
         <v>1</v>
       </c>
       <c r="E85" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F85" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>30</v>
       </c>
       <c r="G85" s="78" t="s">
         <v>661</v>
       </c>
-      <c r="H85" s="134" t="s">
-        <v>844</v>
-      </c>
+      <c r="H85" s="134"/>
     </row>
     <row r="86" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="78" t="s">
-        <v>780</v>
-      </c>
-      <c r="B86" s="132" t="s">
-        <v>1</v>
+        <v>734</v>
+      </c>
+      <c r="B86" s="133" t="s">
+        <v>13</v>
       </c>
       <c r="C86" s="137">
-        <v>44203</v>
+        <v>44244</v>
       </c>
       <c r="D86" s="133">
         <v>1</v>
       </c>
       <c r="E86" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F86" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G86" s="78" t="s">
         <v>661</v>
       </c>
-      <c r="H86" s="134" t="s">
-        <v>852</v>
-      </c>
+      <c r="H86" s="134"/>
     </row>
     <row r="87" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="78" t="s">
-        <v>816</v>
-      </c>
-      <c r="B87" s="132" t="s">
-        <v>1</v>
+        <v>845</v>
+      </c>
+      <c r="B87" s="133" t="s">
+        <v>48</v>
       </c>
       <c r="C87" s="137">
-        <v>44203</v>
+        <v>44244</v>
       </c>
       <c r="D87" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E87" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F87" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G87" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H87" s="134" t="s">
-        <v>839</v>
+        <v>861</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="78" t="s">
-        <v>781</v>
-      </c>
-      <c r="B88" s="132" t="s">
-        <v>48</v>
+        <v>866</v>
+      </c>
+      <c r="B88" s="133" t="s">
+        <v>49</v>
       </c>
       <c r="C88" s="137">
-        <v>44203</v>
+        <v>44242</v>
       </c>
       <c r="D88" s="133">
         <v>1</v>
       </c>
       <c r="E88" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F88" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="G88" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H88" s="134" t="s">
-        <v>842</v>
+        <v>868</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="78" t="s">
-        <v>767</v>
-      </c>
-      <c r="B89" s="132" t="s">
-        <v>48</v>
+        <v>866</v>
+      </c>
+      <c r="B89" s="133" t="s">
+        <v>35</v>
       </c>
       <c r="C89" s="137">
-        <v>44203</v>
+        <v>44242</v>
       </c>
       <c r="D89" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E89" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F89" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>60</v>
       </c>
       <c r="G89" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H89" s="134" t="s">
-        <v>842</v>
+        <v>871</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="78" t="s">
-        <v>816</v>
-      </c>
-      <c r="B90" s="132" t="s">
-        <v>140</v>
+        <v>866</v>
+      </c>
+      <c r="B90" s="133" t="s">
+        <v>2</v>
       </c>
       <c r="C90" s="137">
-        <v>44201</v>
+        <v>44242</v>
       </c>
       <c r="D90" s="133">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E90" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F90" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>45</v>
       </c>
       <c r="G90" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H90" s="134" t="s">
-        <v>840</v>
+        <v>870</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="78" t="s">
-        <v>830</v>
-      </c>
-      <c r="B91" s="132" t="s">
-        <v>48</v>
+        <v>866</v>
+      </c>
+      <c r="B91" s="133" t="s">
+        <v>487</v>
       </c>
       <c r="C91" s="137">
-        <v>44201</v>
+        <v>44242</v>
       </c>
       <c r="D91" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E91" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F91" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>60</v>
       </c>
       <c r="G91" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H91" s="134" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="78" t="s">
+        <v>869</v>
+      </c>
+      <c r="B92" s="133" t="s">
+        <v>49</v>
+      </c>
+      <c r="C92" s="137">
+        <v>44239</v>
+      </c>
+      <c r="D92" s="133">
+        <v>1</v>
+      </c>
+      <c r="E92" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>30</v>
+      </c>
+      <c r="F92" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>15</v>
+      </c>
+      <c r="G92" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H92" s="134" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="78" t="s">
+        <v>862</v>
+      </c>
+      <c r="B93" s="133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="137">
+        <v>44232</v>
+      </c>
+      <c r="D93" s="133">
+        <v>1</v>
+      </c>
+      <c r="E93" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>180</v>
+      </c>
+      <c r="F93" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>90</v>
+      </c>
+      <c r="G93" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H93" s="134" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="78" t="s">
+        <v>862</v>
+      </c>
+      <c r="B94" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="137">
+        <v>44225</v>
+      </c>
+      <c r="D94" s="133">
+        <v>1</v>
+      </c>
+      <c r="E94" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>10</v>
+      </c>
+      <c r="F94" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>5</v>
+      </c>
+      <c r="G94" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H94" s="134" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="78" t="s">
+        <v>862</v>
+      </c>
+      <c r="B95" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C95" s="137">
+        <v>44224</v>
+      </c>
+      <c r="D95" s="133">
+        <v>5</v>
+      </c>
+      <c r="E95" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F95" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>37.5</v>
+      </c>
+      <c r="G95" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H95" s="134" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="78" t="s">
+        <v>845</v>
+      </c>
+      <c r="B96" s="132" t="s">
+        <v>48</v>
+      </c>
+      <c r="C96" s="137">
+        <v>44218</v>
+      </c>
+      <c r="D96" s="133">
+        <v>1</v>
+      </c>
+      <c r="E96" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F96" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G96" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H96" s="134" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="78" t="s">
+        <v>845</v>
+      </c>
+      <c r="B97" s="133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="137">
+        <v>44218</v>
+      </c>
+      <c r="D97" s="133">
+        <v>1</v>
+      </c>
+      <c r="E97" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>180</v>
+      </c>
+      <c r="F97" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>90</v>
+      </c>
+      <c r="G97" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H97" s="134" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="78" t="s">
+        <v>845</v>
+      </c>
+      <c r="B98" s="133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="137">
+        <v>44210</v>
+      </c>
+      <c r="D98" s="133">
+        <v>1</v>
+      </c>
+      <c r="E98" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>60</v>
+      </c>
+      <c r="F98" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>30</v>
+      </c>
+      <c r="G98" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H98" s="134" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="78" t="s">
+        <v>845</v>
+      </c>
+      <c r="B99" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" s="137">
+        <v>44210</v>
+      </c>
+      <c r="D99" s="133">
+        <v>0.5</v>
+      </c>
+      <c r="E99" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>60</v>
+      </c>
+      <c r="F99" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>15</v>
+      </c>
+      <c r="G99" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H99" s="134" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="78" t="s">
+        <v>830</v>
+      </c>
+      <c r="B100" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C100" s="137">
+        <v>44209</v>
+      </c>
+      <c r="D100" s="133">
+        <v>2</v>
+      </c>
+      <c r="E100" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F100" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>15</v>
+      </c>
+      <c r="G100" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H100" s="134" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="78" t="s">
+        <v>830</v>
+      </c>
+      <c r="B101" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C101" s="137">
+        <v>44209</v>
+      </c>
+      <c r="D101" s="133">
+        <v>1</v>
+      </c>
+      <c r="E101" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F101" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G101" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H101" s="134" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="78" t="s">
+        <v>845</v>
+      </c>
+      <c r="B102" s="133" t="s">
+        <v>140</v>
+      </c>
+      <c r="C102" s="137">
+        <v>44209</v>
+      </c>
+      <c r="D102" s="133">
+        <v>2</v>
+      </c>
+      <c r="E102" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>5</v>
+      </c>
+      <c r="F102" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>5</v>
+      </c>
+      <c r="G102" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H102" s="134" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="78" t="s">
+        <v>727</v>
+      </c>
+      <c r="B103" s="133" t="s">
+        <v>140</v>
+      </c>
+      <c r="C103" s="137">
+        <v>44209</v>
+      </c>
+      <c r="D103" s="133">
+        <v>1</v>
+      </c>
+      <c r="E103" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>5</v>
+      </c>
+      <c r="F103" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>2.5</v>
+      </c>
+      <c r="G103" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H103" s="134" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="78" t="s">
+        <v>727</v>
+      </c>
+      <c r="B104" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C104" s="137">
+        <v>44209</v>
+      </c>
+      <c r="D104" s="133">
+        <v>1</v>
+      </c>
+      <c r="E104" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F104" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G104" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H104" s="134" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="78" t="s">
+        <v>816</v>
+      </c>
+      <c r="B105" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C105" s="137">
+        <v>44209</v>
+      </c>
+      <c r="D105" s="133">
+        <v>1</v>
+      </c>
+      <c r="E105" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F105" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G105" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H105" s="134" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="78" t="s">
+        <v>845</v>
+      </c>
+      <c r="B106" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C106" s="137">
+        <v>44208</v>
+      </c>
+      <c r="D106" s="133">
+        <v>3</v>
+      </c>
+      <c r="E106" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F106" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>22.5</v>
+      </c>
+      <c r="G106" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H106" s="134" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="B107" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107" s="137">
+        <v>44208</v>
+      </c>
+      <c r="D107" s="133">
+        <v>2</v>
+      </c>
+      <c r="E107" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>60</v>
+      </c>
+      <c r="F107" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>60</v>
+      </c>
+      <c r="G107" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H107" s="134" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="78" t="s">
+        <v>841</v>
+      </c>
+      <c r="B108" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C108" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D108" s="133">
+        <v>1</v>
+      </c>
+      <c r="E108" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F108" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G108" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H108" s="134" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="78" t="s">
+        <v>780</v>
+      </c>
+      <c r="B109" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D109" s="133">
+        <v>1</v>
+      </c>
+      <c r="E109" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>10</v>
+      </c>
+      <c r="F109" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>5</v>
+      </c>
+      <c r="G109" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H109" s="134" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="78" t="s">
+        <v>816</v>
+      </c>
+      <c r="B110" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D110" s="133">
+        <v>2</v>
+      </c>
+      <c r="E110" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>10</v>
+      </c>
+      <c r="F110" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>10</v>
+      </c>
+      <c r="G110" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H110" s="134" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="78" t="s">
+        <v>781</v>
+      </c>
+      <c r="B111" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C111" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D111" s="133">
+        <v>1</v>
+      </c>
+      <c r="E111" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F111" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G111" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H111" s="134" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="78" t="s">
+        <v>767</v>
+      </c>
+      <c r="B112" s="132" t="s">
+        <v>48</v>
+      </c>
+      <c r="C112" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D112" s="133">
+        <v>1</v>
+      </c>
+      <c r="E112" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F112" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G112" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H112" s="134" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="78" t="s">
+        <v>816</v>
+      </c>
+      <c r="B113" s="132" t="s">
+        <v>140</v>
+      </c>
+      <c r="C113" s="137">
+        <v>44201</v>
+      </c>
+      <c r="D113" s="133">
+        <v>3</v>
+      </c>
+      <c r="E113" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>5</v>
+      </c>
+      <c r="F113" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G113" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H113" s="134" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="78" t="s">
+        <v>830</v>
+      </c>
+      <c r="B114" s="132" t="s">
+        <v>48</v>
+      </c>
+      <c r="C114" s="137">
+        <v>44201</v>
+      </c>
+      <c r="D114" s="133">
+        <v>1</v>
+      </c>
+      <c r="E114" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F114" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G114" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H114" s="134" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="147" t="s">
+    <row r="115" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="162" t="s">
         <v>491</v>
       </c>
-      <c r="B92" s="148">
+      <c r="B115" s="163">
         <f>SUBTOTAL(5,TAB_Doku_201910[Datum])</f>
         <v>44201</v>
       </c>
-      <c r="C92" s="149">
+      <c r="C115" s="164">
         <f>SUBTOTAL(4,TAB_Doku_201910[Datum])</f>
-        <v>44412</v>
-      </c>
-      <c r="D92" s="150"/>
-      <c r="E92" s="150"/>
-      <c r="F92" s="151" t="e">
+        <v>44433</v>
+      </c>
+      <c r="D115" s="165"/>
+      <c r="E115" s="165"/>
+      <c r="F115" s="166">
         <f>SUBTOTAL(9,TAB_Doku_201910[[Kosten ]])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G92" s="147"/>
-      <c r="H92" s="152"/>
-    </row>
-    <row r="93" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C93"/>
-    </row>
-    <row r="94" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C94"/>
-    </row>
-    <row r="95" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C95"/>
-    </row>
-    <row r="96" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C96"/>
-    </row>
-    <row r="97" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C97"/>
-    </row>
-    <row r="98" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C98"/>
-    </row>
-    <row r="99" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C99"/>
-    </row>
-    <row r="100" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C100"/>
-    </row>
-    <row r="101" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C101"/>
-    </row>
-    <row r="102" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C102"/>
-    </row>
-    <row r="103" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C103"/>
-    </row>
-    <row r="104" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C104"/>
-    </row>
-    <row r="105" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C105"/>
-    </row>
-    <row r="106" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C106"/>
-    </row>
-    <row r="107" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C107"/>
-    </row>
-    <row r="108" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C108"/>
-    </row>
-    <row r="109" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C109"/>
-    </row>
-    <row r="110" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C110"/>
-    </row>
-    <row r="111" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C111"/>
-    </row>
-    <row r="112" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C112"/>
-    </row>
-    <row r="113" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C113"/>
-    </row>
-    <row r="114" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C114"/>
-    </row>
-    <row r="115" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C115"/>
-    </row>
-    <row r="116" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+        <v>4096.3999999999996</v>
+      </c>
+      <c r="G115" s="162"/>
+      <c r="H115" s="167"/>
+    </row>
+    <row r="116" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C116"/>
     </row>
-    <row r="117" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C117"/>
     </row>
-    <row r="118" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C118"/>
     </row>
-    <row r="119" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C119"/>
     </row>
-    <row r="120" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C120"/>
     </row>
-    <row r="121" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C121"/>
     </row>
-    <row r="122" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C122"/>
     </row>
-    <row r="123" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C123"/>
     </row>
-    <row r="124" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C124"/>
     </row>
-    <row r="125" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C125"/>
     </row>
-    <row r="126" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C126"/>
     </row>
-    <row r="127" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C127"/>
-      <c r="I127" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="128" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C128"/>
     </row>
-    <row r="129" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C129"/>
     </row>
-    <row r="130" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C130"/>
     </row>
-    <row r="131" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C131"/>
     </row>
-    <row r="132" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C132"/>
     </row>
-    <row r="133" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C133"/>
     </row>
-    <row r="134" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C134"/>
     </row>
     <row r="135" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -9740,216 +10477,219 @@
     <row r="144" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C144"/>
     </row>
-    <row r="145" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C145"/>
     </row>
-    <row r="146" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C146"/>
     </row>
-    <row r="147" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C147"/>
     </row>
-    <row r="148" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C148"/>
     </row>
-    <row r="149" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C149"/>
     </row>
-    <row r="150" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C150"/>
-    </row>
-    <row r="151" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I150" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="151" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C151"/>
     </row>
-    <row r="152" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C152"/>
     </row>
-    <row r="153" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C153"/>
     </row>
-    <row r="154" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C154"/>
     </row>
-    <row r="155" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C155"/>
     </row>
-    <row r="156" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C156"/>
     </row>
-    <row r="157" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C157"/>
     </row>
-    <row r="158" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C158"/>
     </row>
-    <row r="159" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C159"/>
     </row>
-    <row r="160" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C160"/>
     </row>
-    <row r="161" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C161"/>
     </row>
-    <row r="162" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C162"/>
     </row>
-    <row r="163" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C163"/>
     </row>
-    <row r="164" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C164"/>
     </row>
-    <row r="165" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C165"/>
     </row>
-    <row r="166" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C166"/>
     </row>
-    <row r="167" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C167"/>
     </row>
-    <row r="168" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C168"/>
     </row>
-    <row r="169" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A169"/>
-      <c r="B169"/>
+    <row r="169" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C169"/>
-      <c r="D169"/>
-      <c r="E169"/>
-      <c r="F169"/>
-      <c r="G169"/>
-      <c r="H169"/>
-    </row>
-    <row r="170" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C170"/>
     </row>
-    <row r="171" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C171"/>
     </row>
-    <row r="172" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C172"/>
     </row>
-    <row r="173" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C173"/>
     </row>
-    <row r="174" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A174"/>
-      <c r="B174"/>
+    <row r="174" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C174"/>
-      <c r="D174"/>
-      <c r="E174"/>
-      <c r="F174"/>
-      <c r="G174"/>
-      <c r="H174"/>
-    </row>
-    <row r="175" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C175"/>
     </row>
-    <row r="176" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C176"/>
     </row>
-    <row r="177" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C177"/>
     </row>
-    <row r="178" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C178"/>
     </row>
-    <row r="179" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C179"/>
     </row>
-    <row r="180" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C180"/>
     </row>
-    <row r="181" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C181"/>
     </row>
-    <row r="182" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C182"/>
     </row>
-    <row r="183" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C183"/>
     </row>
-    <row r="184" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C184"/>
     </row>
-    <row r="185" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C185"/>
     </row>
-    <row r="186" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C186"/>
     </row>
-    <row r="187" spans="3:3" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C187"/>
     </row>
-    <row r="188" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C188"/>
     </row>
-    <row r="189" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C189"/>
     </row>
-    <row r="190" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C190"/>
     </row>
-    <row r="191" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C191"/>
     </row>
-    <row r="192" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A192"/>
+      <c r="B192"/>
       <c r="C192"/>
-    </row>
-    <row r="193" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D192"/>
+      <c r="E192"/>
+      <c r="F192"/>
+      <c r="G192"/>
+      <c r="H192"/>
+    </row>
+    <row r="193" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C193"/>
     </row>
-    <row r="194" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C194"/>
     </row>
-    <row r="195" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C195"/>
     </row>
-    <row r="196" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C196"/>
     </row>
-    <row r="197" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A197"/>
+      <c r="B197"/>
       <c r="C197"/>
-    </row>
-    <row r="198" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D197"/>
+      <c r="E197"/>
+      <c r="F197"/>
+      <c r="G197"/>
+      <c r="H197"/>
+    </row>
+    <row r="198" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C198"/>
     </row>
-    <row r="199" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C199"/>
     </row>
-    <row r="200" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C200"/>
     </row>
-    <row r="201" spans="3:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C201"/>
     </row>
-    <row r="202" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C202"/>
     </row>
-    <row r="203" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C203"/>
     </row>
-    <row r="204" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C204"/>
     </row>
-    <row r="205" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C205"/>
     </row>
-    <row r="206" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C206"/>
     </row>
-    <row r="207" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C207"/>
     </row>
-    <row r="208" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C208"/>
     </row>
     <row r="209" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C209"/>
     </row>
-    <row r="210" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="210" spans="3:3" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C210"/>
     </row>
     <row r="211" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -9991,7 +10731,7 @@
     <row r="223" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C223"/>
     </row>
-    <row r="224" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="224" spans="3:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C224"/>
     </row>
     <row r="225" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -10360,16 +11100,93 @@
     <row r="346" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C346"/>
     </row>
-    <row r="347" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C347"/>
     </row>
-    <row r="348" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C348"/>
     </row>
-    <row r="349" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C349"/>
     </row>
+    <row r="350" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C350"/>
+    </row>
+    <row r="351" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C351"/>
+    </row>
+    <row r="352" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C352"/>
+    </row>
+    <row r="353" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C353"/>
+    </row>
+    <row r="354" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C354"/>
+    </row>
+    <row r="355" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C355"/>
+    </row>
+    <row r="356" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C356"/>
+    </row>
+    <row r="357" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C357"/>
+    </row>
+    <row r="358" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C358"/>
+    </row>
+    <row r="359" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C359"/>
+    </row>
+    <row r="360" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C360"/>
+    </row>
+    <row r="361" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C361"/>
+    </row>
+    <row r="362" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C362"/>
+    </row>
+    <row r="363" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C363"/>
+    </row>
+    <row r="364" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C364"/>
+    </row>
+    <row r="365" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C365"/>
+    </row>
+    <row r="366" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C366"/>
+    </row>
+    <row r="367" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C367"/>
+    </row>
+    <row r="368" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C368"/>
+    </row>
+    <row r="369" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C369"/>
+    </row>
+    <row r="370" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C370"/>
+    </row>
+    <row r="371" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C371"/>
+    </row>
+    <row r="372" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C372"/>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="nächste">
+      <formula>NOT(ISERROR(SEARCH("nächste",G1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="2" operator="containsText" text="offen">
+      <formula>NOT(ISERROR(SEARCH("offen",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.47244094488188981" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -10386,7 +11203,7 @@
           <x14:formula1>
             <xm:f>'Leistungen-Liste'!$F$1:$F$35</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B91</xm:sqref>
+          <xm:sqref>B14 B16:B114 B6:B12 B2:B4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -25586,7 +26403,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A9" s="60" t="s">
         <v>338</v>
       </c>

--- a/trailtech/Leistungen-KC-Trailtech.xlsx
+++ b/trailtech/Leistungen-KC-Trailtech.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2608" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="967">
   <si>
     <t>Tätigkeit</t>
   </si>
@@ -2814,9 +2814,6 @@
     <t>Telefonat Absprache Umweltbüro wegen Hangwasser</t>
   </si>
   <si>
-    <t>!! OFFEN !! Mod PT Angebot</t>
-  </si>
-  <si>
     <t>TVB Pillerseetal</t>
   </si>
   <si>
@@ -3010,6 +3007,24 @@
   </si>
   <si>
     <t>Konzept Angebot erstellen. Aufwand dokumentieren vergessen bei letzter Abrechnung!</t>
+  </si>
+  <si>
+    <t>VS Oberndorf</t>
+  </si>
+  <si>
+    <t>Andreas Franze Vorab Infos</t>
+  </si>
+  <si>
+    <t>MTB Konzept und Planung Angebot</t>
+  </si>
+  <si>
+    <t>Erstgespräch mit Andreas Franze wegen PT in oberndorf</t>
+  </si>
+  <si>
+    <t>Periode Monat August</t>
+  </si>
+  <si>
+    <t>Gegenrechnung mit Flachau 3300.-</t>
   </si>
 </sst>
 </file>
@@ -3019,7 +3034,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3181,12 +3196,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3398,7 +3407,7 @@
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3814,22 +3823,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -3847,24 +3840,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="24" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink 2" xfId="2"/>
@@ -3872,7 +3847,7 @@
     <cellStyle name="Standard 2" xfId="1"/>
     <cellStyle name="Währung" xfId="3" builtinId="4"/>
   </cellStyles>
-  <dxfs count="110">
+  <dxfs count="133">
     <dxf>
       <font>
         <b val="0"/>
@@ -4155,6 +4130,49 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -4404,12 +4422,241 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5740,22 +5987,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TAB_Leistungen" displayName="TAB_Leistungen" ref="A1:D29" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TAB_Leistungen" displayName="TAB_Leistungen" ref="A1:D29" totalsRowShown="0" headerRowDxfId="132" dataDxfId="131">
   <autoFilter ref="A1:D29"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Tätigkeit" dataDxfId="107"/>
-    <tableColumn id="2" name="Zeitbedarf Min (pauschal)" dataDxfId="106"/>
-    <tableColumn id="3" name="Stk.kosten/Kosten bei Stundensatz" dataDxfId="105">
+    <tableColumn id="1" name="Tätigkeit" dataDxfId="130"/>
+    <tableColumn id="2" name="Zeitbedarf Min (pauschal)" dataDxfId="129"/>
+    <tableColumn id="3" name="Stk.kosten/Kosten bei Stundensatz" dataDxfId="128">
       <calculatedColumnFormula>$D$2*B2/60</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Stundensatz" dataDxfId="104"/>
+    <tableColumn id="4" name="Stundensatz" dataDxfId="127"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="TAB_Leistungen_30" displayName="TAB_Leistungen_30" ref="F1:I35" totalsRowShown="0" headerRowDxfId="103">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="TAB_Leistungen_30" displayName="TAB_Leistungen_30" ref="F1:I35" totalsRowShown="0" headerRowDxfId="126">
   <autoFilter ref="F1:I35"/>
   <sortState ref="F2:I35">
     <sortCondition ref="F2"/>
@@ -5763,73 +6010,73 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Tätigkeit"/>
     <tableColumn id="2" name="Zeitbedarf Min (pauschal)"/>
-    <tableColumn id="3" name="Stk.kosten/Kosten bei Stundensatz" dataDxfId="102">
+    <tableColumn id="3" name="Stk.kosten/Kosten bei Stundensatz" dataDxfId="125">
       <calculatedColumnFormula>$D$2*G2/60</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Stundensatz" dataDxfId="101"/>
+    <tableColumn id="4" name="Stundensatz" dataDxfId="124"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="TAB_Doku_201910" displayName="TAB_Doku_201910" ref="A1:H115" totalsRowCount="1" headerRowDxfId="100" dataDxfId="99" totalsRowDxfId="97" tableBorderDxfId="98">
-  <autoFilter ref="A1:H114"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="TAB_Doku_201910" displayName="TAB_Doku_201910" ref="A1:H120" totalsRowCount="1" headerRowDxfId="123" dataDxfId="122" totalsRowDxfId="120" tableBorderDxfId="121">
+  <autoFilter ref="A1:H119"/>
   <sortState ref="A2:H103">
     <sortCondition descending="1" ref="C1:C103"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="96" totalsRowDxfId="7"/>
-    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="95" totalsRowDxfId="6">
+    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="119" totalsRowDxfId="7"/>
+    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="118" totalsRowDxfId="6">
       <totalsRowFormula>SUBTOTAL(5,TAB_Doku_201910[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="94" totalsRowDxfId="5">
+    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="117" totalsRowDxfId="5">
       <totalsRowFormula>SUBTOTAL(4,TAB_Doku_201910[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Stk." dataDxfId="93" totalsRowDxfId="4"/>
-    <tableColumn id="5" name="Zeitaufwand" dataDxfId="92" totalsRowDxfId="3">
+    <tableColumn id="4" name="Stk." dataDxfId="116" totalsRowDxfId="4"/>
+    <tableColumn id="5" name="Zeitaufwand" dataDxfId="115" totalsRowDxfId="3">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="2">
+    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="114" totalsRowDxfId="2">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,TAB_Doku_201910[[Kosten ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Abrechnung" dataDxfId="90" totalsRowDxfId="1"/>
-    <tableColumn id="8" name="Notiz" dataDxfId="89" totalsRowDxfId="0"/>
+    <tableColumn id="7" name="Abrechnung" dataDxfId="113" totalsRowDxfId="1"/>
+    <tableColumn id="8" name="Notiz" dataDxfId="112" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TAB_Doku_2019" displayName="TAB_Doku_2019" ref="A1:H314" totalsRowCount="1" headerRowDxfId="88" dataDxfId="87" totalsRowDxfId="85" tableBorderDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TAB_Doku_2019" displayName="TAB_Doku_2019" ref="A1:H314" totalsRowCount="1" headerRowDxfId="111" dataDxfId="110" totalsRowDxfId="108" tableBorderDxfId="109">
   <autoFilter ref="A1:H313"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="84" totalsRowDxfId="83"/>
-    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="82" totalsRowDxfId="81">
+    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="107" totalsRowDxfId="106"/>
+    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="105" totalsRowDxfId="104">
       <totalsRowFormula>SUBTOTAL(5,TAB_Doku_2019[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="80" totalsRowDxfId="79">
+    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="103" totalsRowDxfId="102">
       <totalsRowFormula>SUBTOTAL(4,TAB_Doku_2019[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Stk." dataDxfId="78" totalsRowDxfId="77"/>
-    <tableColumn id="5" name="Zeitaufwand" totalsRowFunction="custom" dataDxfId="76" totalsRowDxfId="75">
+    <tableColumn id="4" name="Stk." dataDxfId="101" totalsRowDxfId="100"/>
+    <tableColumn id="5" name="Zeitaufwand" totalsRowFunction="custom" dataDxfId="99" totalsRowDxfId="98">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_2019[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</calculatedColumnFormula>
       <totalsRowFormula>ROUND(SUBTOTAL(9,TAB_Doku_2019[Zeitaufwand])/60,0) &amp;" h"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="74" totalsRowDxfId="73">
+    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="97" totalsRowDxfId="96">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_2019[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_2019[[#This Row],[Stk.]]</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,TAB_Doku_2019[[Kosten ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Abrechnung" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="8" name="Notiz" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="7" name="Abrechnung" dataDxfId="95" totalsRowDxfId="94"/>
+    <tableColumn id="8" name="Notiz" dataDxfId="93" totalsRowDxfId="92"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TAB_Dokumentation" displayName="TAB_Dokumentation" ref="A1:H199" totalsRowCount="1" headerRowDxfId="68" dataDxfId="67" totalsRowDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TAB_Dokumentation" displayName="TAB_Dokumentation" ref="A1:H199" totalsRowCount="1" headerRowDxfId="91" dataDxfId="90" totalsRowDxfId="89">
   <autoFilter ref="A1:H198">
     <filterColumn colId="0">
       <filters>
@@ -5841,44 +6088,44 @@
     <sortCondition descending="1" ref="G1:G198"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="63" totalsRowDxfId="62">
+    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="86" totalsRowDxfId="85">
       <totalsRowFormula>SUBTOTAL(5,TAB_Dokumentation[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Datum" totalsRowFunction="custom" dataDxfId="61" totalsRowDxfId="60">
+    <tableColumn id="7" name="Datum" totalsRowFunction="custom" dataDxfId="84" totalsRowDxfId="83">
       <totalsRowFormula>MAX(4,TAB_Dokumentation[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Stk." dataDxfId="59" totalsRowDxfId="58"/>
-    <tableColumn id="4" name="Zeitaufwand" dataDxfId="57" totalsRowDxfId="56">
+    <tableColumn id="3" name="Stk." dataDxfId="82" totalsRowDxfId="81"/>
+    <tableColumn id="4" name="Zeitaufwand" dataDxfId="80" totalsRowDxfId="79">
       <calculatedColumnFormula>INDEX(TAB_Leistungen[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Dokumentation[[#This Row],[Leistung]],TAB_Leistungen[Tätigkeit],0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Kosten " totalsRowFunction="custom" dataDxfId="55" totalsRowDxfId="54">
+    <tableColumn id="5" name="Kosten " totalsRowFunction="custom" dataDxfId="78" totalsRowDxfId="77">
       <calculatedColumnFormula>INDEX(TAB_Leistungen[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Dokumentation[[#This Row],[Leistung]],TAB_Leistungen[Tätigkeit],0),3)*TAB_Dokumentation[[#This Row],[Stk.]]</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,TAB_Dokumentation[[Kosten ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Abrechnung" totalsRowDxfId="53"/>
-    <tableColumn id="8" name="Notiz" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="6" name="Abrechnung" totalsRowDxfId="76"/>
+    <tableColumn id="8" name="Notiz" dataDxfId="75" totalsRowDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle1" displayName="Tabelle1" ref="A1:I40" totalsRowShown="0" headerRowDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle1" displayName="Tabelle1" ref="A1:I40" totalsRowShown="0" headerRowDxfId="73">
   <autoFilter ref="A1:I40"/>
   <sortState ref="A2:I35">
     <sortCondition descending="1" ref="D1:D35"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="Name" dataDxfId="49"/>
-    <tableColumn id="2" name="Zusatz" dataDxfId="48"/>
-    <tableColumn id="3" name="Adresse" dataDxfId="47"/>
-    <tableColumn id="4" name="PLZ" dataDxfId="46"/>
-    <tableColumn id="5" name="Ort" dataDxfId="45"/>
-    <tableColumn id="6" name="Spalte1" dataDxfId="44"/>
-    <tableColumn id="7" name="Telefon" dataDxfId="43"/>
-    <tableColumn id="8" name="Spalte2" dataDxfId="42"/>
-    <tableColumn id="9" name="Notiz" dataDxfId="41"/>
+    <tableColumn id="1" name="Name" dataDxfId="72"/>
+    <tableColumn id="2" name="Zusatz" dataDxfId="71"/>
+    <tableColumn id="3" name="Adresse" dataDxfId="70"/>
+    <tableColumn id="4" name="PLZ" dataDxfId="69"/>
+    <tableColumn id="5" name="Ort" dataDxfId="68"/>
+    <tableColumn id="6" name="Spalte1" dataDxfId="67"/>
+    <tableColumn id="7" name="Telefon" dataDxfId="66"/>
+    <tableColumn id="8" name="Spalte2" dataDxfId="65"/>
+    <tableColumn id="9" name="Notiz" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5889,9 +6136,9 @@
   <autoFilter ref="C4:F8"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Position"/>
-    <tableColumn id="2" name="Stk/Std" dataDxfId="40"/>
-    <tableColumn id="3" name="Stk/Std-Preis" dataDxfId="39"/>
-    <tableColumn id="4" name="Summe:" dataDxfId="38" dataCellStyle="Währung"/>
+    <tableColumn id="2" name="Stk/Std" dataDxfId="63"/>
+    <tableColumn id="3" name="Stk/Std-Preis" dataDxfId="62"/>
+    <tableColumn id="4" name="Summe:" dataDxfId="61" dataCellStyle="Währung"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5913,9 +6160,9 @@
   <autoFilter ref="H4:K7"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Position"/>
-    <tableColumn id="2" name="Stk/Std" dataDxfId="37"/>
-    <tableColumn id="3" name="Stk/Std-Preis" dataDxfId="36"/>
-    <tableColumn id="4" name="Summe:" dataDxfId="35" dataCellStyle="Währung"/>
+    <tableColumn id="2" name="Stk/Std" dataDxfId="60"/>
+    <tableColumn id="3" name="Stk/Std-Preis" dataDxfId="59"/>
+    <tableColumn id="4" name="Summe:" dataDxfId="58" dataCellStyle="Währung"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6810,7 +7057,7 @@
         <v>25</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="G22" s="29">
         <v>60</v>
@@ -7173,13 +7420,13 @@
   <sheetPr published="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I372"/>
+  <dimension ref="A1:I377"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7189,7 +7436,8 @@
     <col min="3" max="3" width="13.77734375" style="5" customWidth="1"/>
     <col min="4" max="4" width="13.21875" customWidth="1"/>
     <col min="5" max="5" width="17.88671875" customWidth="1"/>
-    <col min="6" max="7" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" customWidth="1"/>
     <col min="8" max="8" width="80.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7221,293 +7469,293 @@
     </row>
     <row r="2" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="78" t="s">
-        <v>954</v>
+        <v>102</v>
       </c>
       <c r="B2" s="133" t="s">
-        <v>48</v>
+        <v>207</v>
       </c>
       <c r="C2" s="137">
-        <v>44433</v>
+        <v>44400</v>
       </c>
       <c r="D2" s="133">
         <v>1</v>
       </c>
       <c r="E2" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F2" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="G2" s="78" t="s">
-        <v>898</v>
+        <v>966</v>
       </c>
       <c r="H2" s="134" t="s">
-        <v>957</v>
+        <v>965</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="78" t="s">
-        <v>959</v>
+        <v>102</v>
       </c>
       <c r="B3" s="133" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C3" s="137">
-        <v>44430</v>
+        <v>44400</v>
       </c>
       <c r="D3" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F3" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G3" s="78" t="s">
-        <v>498</v>
+        <v>966</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>960</v>
+        <v>965</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="78" t="s">
-        <v>954</v>
+        <v>933</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="C4" s="137">
-        <v>44431</v>
+        <v>44438</v>
       </c>
       <c r="D4" s="133">
         <v>1</v>
       </c>
       <c r="E4" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F4" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="G4" s="78" t="s">
-        <v>498</v>
+        <v>966</v>
       </c>
       <c r="H4" s="134" t="s">
-        <v>956</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="78" t="s">
-        <v>954</v>
+        <v>933</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>1</v>
+        <v>947</v>
       </c>
       <c r="C5" s="137">
-        <v>44432</v>
+        <v>44438</v>
       </c>
       <c r="D5" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F5" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="G5" s="78" t="s">
-        <v>498</v>
+        <v>966</v>
       </c>
       <c r="H5" s="134" t="s">
-        <v>955</v>
+        <v>963</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="78" t="s">
-        <v>934</v>
+        <v>961</v>
       </c>
       <c r="B6" s="133" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C6" s="137">
-        <v>44427</v>
+        <v>44435</v>
       </c>
       <c r="D6" s="133">
         <v>1</v>
       </c>
       <c r="E6" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F6" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="G6" s="78" t="s">
-        <v>498</v>
+        <v>966</v>
       </c>
       <c r="H6" s="134" t="s">
-        <v>953</v>
+        <v>964</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="78" t="s">
-        <v>934</v>
+        <v>961</v>
       </c>
       <c r="B7" s="133" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C7" s="137">
-        <v>44427</v>
+        <v>44438</v>
       </c>
       <c r="D7" s="133">
         <v>1</v>
       </c>
       <c r="E7" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F7" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G7" s="78" t="s">
-        <v>498</v>
+        <v>966</v>
       </c>
       <c r="H7" s="134" t="s">
-        <v>952</v>
+        <v>962</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="78" t="s">
-        <v>934</v>
+        <v>953</v>
       </c>
       <c r="B8" s="133" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C8" s="137">
-        <v>44426</v>
+        <v>44438</v>
       </c>
       <c r="D8" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F8" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G8" s="78" t="s">
-        <v>498</v>
+        <v>966</v>
       </c>
       <c r="H8" s="134" t="s">
-        <v>951</v>
+        <v>956</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
-        <v>905</v>
+        <v>958</v>
       </c>
       <c r="B9" s="133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="137">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="D9" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F9" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>15</v>
       </c>
       <c r="G9" s="78" t="s">
-        <v>498</v>
+        <v>966</v>
       </c>
       <c r="H9" s="134" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
-        <v>905</v>
+        <v>953</v>
       </c>
       <c r="B10" s="133" t="s">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="C10" s="137">
-        <v>44427</v>
+        <v>44431</v>
       </c>
       <c r="D10" s="133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F10" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>2.5</v>
       </c>
       <c r="G10" s="78" t="s">
-        <v>498</v>
+        <v>966</v>
       </c>
       <c r="H10" s="134" t="s">
-        <v>950</v>
+        <v>955</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="78" t="s">
-        <v>509</v>
+        <v>953</v>
       </c>
       <c r="B11" s="133" t="s">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="C11" s="137">
-        <v>44426</v>
+        <v>44432</v>
       </c>
       <c r="D11" s="133">
         <v>1</v>
       </c>
       <c r="E11" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F11" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="G11" s="78" t="s">
-        <v>498</v>
+        <v>966</v>
       </c>
       <c r="H11" s="134" t="s">
-        <v>932</v>
+        <v>954</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="78" t="s">
-        <v>509</v>
+        <v>933</v>
       </c>
       <c r="B12" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="137">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="D12" s="133">
         <v>1</v>
@@ -7521,43 +7769,43 @@
         <v>7.5</v>
       </c>
       <c r="G12" s="78" t="s">
-        <v>498</v>
+        <v>966</v>
       </c>
       <c r="H12" s="134" t="s">
-        <v>932</v>
+        <v>952</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="78" t="s">
-        <v>934</v>
-      </c>
-      <c r="B13" s="78" t="s">
-        <v>48</v>
+        <v>933</v>
+      </c>
+      <c r="B13" s="133" t="s">
+        <v>22</v>
       </c>
       <c r="C13" s="137">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="D13" s="133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F13" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
+        <v>30</v>
       </c>
       <c r="G13" s="78" t="s">
-        <v>498</v>
+        <v>966</v>
       </c>
       <c r="H13" s="134" t="s">
-        <v>941</v>
+        <v>951</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="78" t="s">
-        <v>905</v>
+        <v>933</v>
       </c>
       <c r="B14" s="133" t="s">
         <v>1</v>
@@ -7577,388 +7825,388 @@
         <v>10</v>
       </c>
       <c r="G14" s="78" t="s">
-        <v>498</v>
+        <v>966</v>
       </c>
       <c r="H14" s="134" t="s">
-        <v>933</v>
+        <v>950</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78" t="s">
-        <v>946</v>
-      </c>
-      <c r="B15" s="78" t="s">
-        <v>2</v>
+        <v>904</v>
+      </c>
+      <c r="B15" s="133" t="s">
+        <v>49</v>
       </c>
       <c r="C15" s="137">
-        <v>44420</v>
+        <v>44428</v>
       </c>
       <c r="D15" s="133">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E15" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F15" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="G15" s="78" t="s">
-        <v>498</v>
+        <v>966</v>
       </c>
       <c r="H15" s="134" t="s">
-        <v>944</v>
+        <v>957</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78" t="s">
-        <v>946</v>
+        <v>904</v>
       </c>
       <c r="B16" s="133" t="s">
-        <v>487</v>
+        <v>1</v>
       </c>
       <c r="C16" s="137">
-        <v>44420</v>
+        <v>44427</v>
       </c>
       <c r="D16" s="133">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E16" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F16" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="G16" s="78" t="s">
-        <v>498</v>
+        <v>966</v>
       </c>
       <c r="H16" s="134" t="s">
-        <v>942</v>
+        <v>949</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="78" t="s">
-        <v>946</v>
+        <v>509</v>
       </c>
       <c r="B17" s="133" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="C17" s="137">
-        <v>44410</v>
+        <v>44426</v>
       </c>
       <c r="D17" s="133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="F17" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>2.5</v>
       </c>
       <c r="G17" s="78" t="s">
-        <v>498</v>
+        <v>966</v>
       </c>
       <c r="H17" s="134" t="s">
-        <v>945</v>
+        <v>931</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="78" t="s">
-        <v>934</v>
+        <v>509</v>
       </c>
       <c r="B18" s="133" t="s">
-        <v>487</v>
+        <v>48</v>
       </c>
       <c r="C18" s="137">
-        <v>44418</v>
+        <v>44426</v>
       </c>
       <c r="D18" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F18" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>7.5</v>
       </c>
       <c r="G18" s="78" t="s">
-        <v>498</v>
+        <v>966</v>
       </c>
       <c r="H18" s="134" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="78" t="s">
-        <v>879</v>
-      </c>
-      <c r="B19" s="133" t="s">
-        <v>58</v>
+        <v>933</v>
+      </c>
+      <c r="B19" s="78" t="s">
+        <v>48</v>
       </c>
       <c r="C19" s="137">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="D19" s="133">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E19" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="F19" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>22.5</v>
       </c>
       <c r="G19" s="78" t="s">
-        <v>498</v>
-      </c>
-      <c r="H19" s="132" t="s">
-        <v>949</v>
+        <v>966</v>
+      </c>
+      <c r="H19" s="134" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="78" t="s">
-        <v>879</v>
+        <v>904</v>
       </c>
       <c r="B20" s="133" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C20" s="137">
-        <v>44323</v>
+        <v>44426</v>
       </c>
       <c r="D20" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F20" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="G20" s="78" t="s">
-        <v>498</v>
-      </c>
-      <c r="H20" s="132" t="s">
-        <v>947</v>
+        <v>966</v>
+      </c>
+      <c r="H20" s="134" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="78" t="s">
-        <v>879</v>
-      </c>
-      <c r="B21" s="133" t="s">
-        <v>948</v>
+        <v>945</v>
+      </c>
+      <c r="B21" s="78" t="s">
+        <v>2</v>
       </c>
       <c r="C21" s="137">
-        <v>44323</v>
+        <v>44420</v>
       </c>
       <c r="D21" s="133">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E21" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F21" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>60</v>
       </c>
       <c r="G21" s="78" t="s">
-        <v>498</v>
+        <v>966</v>
       </c>
       <c r="H21" s="134" t="s">
-        <v>961</v>
+        <v>943</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="78" t="s">
-        <v>879</v>
+        <v>945</v>
       </c>
       <c r="B22" s="133" t="s">
-        <v>2</v>
+        <v>487</v>
       </c>
       <c r="C22" s="137">
-        <v>44418</v>
+        <v>44420</v>
       </c>
       <c r="D22" s="133">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E22" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F22" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="G22" s="78" t="s">
-        <v>498</v>
+        <v>966</v>
       </c>
       <c r="H22" s="134" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="78" t="s">
-        <v>879</v>
+        <v>945</v>
       </c>
       <c r="B23" s="133" t="s">
-        <v>255</v>
+        <v>22</v>
       </c>
       <c r="C23" s="137">
-        <v>44418</v>
+        <v>44410</v>
       </c>
       <c r="D23" s="133">
-        <v>161</v>
+        <v>3</v>
       </c>
       <c r="E23" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F23" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>48.3</v>
+        <v>90</v>
       </c>
       <c r="G23" s="78" t="s">
-        <v>498</v>
+        <v>966</v>
       </c>
       <c r="H23" s="134" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B24" s="133" t="s">
-        <v>2</v>
+        <v>487</v>
       </c>
       <c r="C24" s="137">
         <v>44418</v>
       </c>
       <c r="D24" s="133">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E24" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F24" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G24" s="78" t="s">
-        <v>498</v>
+        <v>966</v>
       </c>
       <c r="H24" s="134" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="78" t="s">
-        <v>934</v>
+        <v>879</v>
       </c>
       <c r="B25" s="133" t="s">
-        <v>255</v>
+        <v>58</v>
       </c>
       <c r="C25" s="137">
-        <v>44418</v>
+        <v>44419</v>
       </c>
       <c r="D25" s="133">
-        <v>265</v>
+        <v>1.5</v>
       </c>
       <c r="E25" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F25" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>79.5</v>
+        <v>90</v>
       </c>
       <c r="G25" s="78" t="s">
-        <v>498</v>
-      </c>
-      <c r="H25" s="134" t="s">
-        <v>935</v>
+        <v>966</v>
+      </c>
+      <c r="H25" s="132" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="78" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="B26" s="133" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C26" s="137">
-        <v>44417</v>
+        <v>44323</v>
       </c>
       <c r="D26" s="133">
         <v>1</v>
       </c>
       <c r="E26" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F26" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>7.5</v>
       </c>
       <c r="G26" s="78" t="s">
-        <v>498</v>
-      </c>
-      <c r="H26" s="134" t="s">
-        <v>940</v>
+        <v>966</v>
+      </c>
+      <c r="H26" s="132" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="78" t="s">
-        <v>929</v>
+        <v>879</v>
       </c>
       <c r="B27" s="133" t="s">
-        <v>48</v>
+        <v>947</v>
       </c>
       <c r="C27" s="137">
-        <v>44412</v>
+        <v>44323</v>
       </c>
       <c r="D27" s="133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F27" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
+        <v>60</v>
       </c>
       <c r="G27" s="78" t="s">
-        <v>498</v>
+        <v>966</v>
       </c>
       <c r="H27" s="134" t="s">
-        <v>931</v>
+        <v>960</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="78" t="s">
-        <v>929</v>
+        <v>879</v>
       </c>
       <c r="B28" s="133" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="137">
-        <v>44411</v>
+        <v>44418</v>
       </c>
       <c r="D28" s="133">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E28" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -7966,111 +8214,111 @@
       </c>
       <c r="F28" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G28" s="78" t="s">
-        <v>498</v>
+        <v>966</v>
       </c>
       <c r="H28" s="134" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="78" t="s">
-        <v>946</v>
+        <v>879</v>
       </c>
       <c r="B29" s="133" t="s">
-        <v>948</v>
+        <v>255</v>
       </c>
       <c r="C29" s="137">
-        <v>44383</v>
+        <v>44418</v>
       </c>
       <c r="D29" s="133">
-        <v>2</v>
+        <v>161</v>
       </c>
       <c r="E29" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F29" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>48.3</v>
       </c>
       <c r="G29" s="78" t="s">
-        <v>498</v>
+        <v>966</v>
       </c>
       <c r="H29" s="134" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="78" t="s">
-        <v>102</v>
+        <v>933</v>
       </c>
       <c r="B30" s="133" t="s">
-        <v>207</v>
+        <v>2</v>
       </c>
       <c r="C30" s="137">
-        <v>44400</v>
+        <v>44418</v>
       </c>
       <c r="D30" s="133">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E30" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F30" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="G30" s="78" t="s">
-        <v>928</v>
+        <v>966</v>
       </c>
       <c r="H30" s="134" t="s">
-        <v>924</v>
+        <v>935</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="78" t="s">
-        <v>102</v>
+        <v>933</v>
       </c>
       <c r="B31" s="133" t="s">
-        <v>13</v>
+        <v>255</v>
       </c>
       <c r="C31" s="137">
-        <v>44400</v>
+        <v>44418</v>
       </c>
       <c r="D31" s="133">
-        <v>2</v>
+        <v>265</v>
       </c>
       <c r="E31" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F31" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>79.5</v>
       </c>
       <c r="G31" s="78" t="s">
-        <v>928</v>
+        <v>966</v>
       </c>
       <c r="H31" s="134" t="s">
-        <v>924</v>
+        <v>934</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="78" t="s">
-        <v>886</v>
+        <v>904</v>
       </c>
       <c r="B32" s="133" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C32" s="137">
-        <v>44400</v>
+        <v>44417</v>
       </c>
       <c r="D32" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8078,55 +8326,55 @@
       </c>
       <c r="F32" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G32" s="78" t="s">
-        <v>928</v>
+        <v>966</v>
       </c>
       <c r="H32" s="134" t="s">
-        <v>923</v>
+        <v>939</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="78" t="s">
-        <v>734</v>
+        <v>928</v>
       </c>
       <c r="B33" s="133" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C33" s="137">
-        <v>44400</v>
+        <v>44412</v>
       </c>
       <c r="D33" s="133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E33" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F33" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>22.5</v>
       </c>
       <c r="G33" s="78" t="s">
-        <v>928</v>
+        <v>966</v>
       </c>
       <c r="H33" s="134" t="s">
-        <v>925</v>
+        <v>930</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="78" t="s">
-        <v>905</v>
+        <v>928</v>
       </c>
       <c r="B34" s="133" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="137">
-        <v>44396</v>
+        <v>44411</v>
       </c>
       <c r="D34" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8134,55 +8382,55 @@
       </c>
       <c r="F34" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G34" s="78" t="s">
-        <v>928</v>
+        <v>966</v>
       </c>
       <c r="H34" s="134" t="s">
-        <v>846</v>
+        <v>929</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="78" t="s">
-        <v>905</v>
+        <v>945</v>
       </c>
       <c r="B35" s="133" t="s">
-        <v>48</v>
+        <v>947</v>
       </c>
       <c r="C35" s="137">
-        <v>44396</v>
+        <v>44383</v>
       </c>
       <c r="D35" s="133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E35" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F35" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G35" s="78" t="s">
-        <v>928</v>
+        <v>966</v>
       </c>
       <c r="H35" s="134" t="s">
-        <v>906</v>
+        <v>942</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="78" t="s">
-        <v>946</v>
+        <v>102</v>
       </c>
       <c r="B36" s="133" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="C36" s="137">
-        <v>44395</v>
+        <v>44400</v>
       </c>
       <c r="D36" s="133">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="E36" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8190,55 +8438,55 @@
       </c>
       <c r="F36" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G36" s="78" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H36" s="134" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="78" t="s">
-        <v>946</v>
+        <v>102</v>
       </c>
       <c r="B37" s="133" t="s">
-        <v>255</v>
+        <v>13</v>
       </c>
       <c r="C37" s="137">
-        <v>44395</v>
+        <v>44400</v>
       </c>
       <c r="D37" s="133">
-        <v>237</v>
+        <v>2</v>
       </c>
       <c r="E37" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F37" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>71.099999999999994</v>
+        <v>60</v>
       </c>
       <c r="G37" s="78" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H37" s="134" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="78" t="s">
-        <v>946</v>
+        <v>886</v>
       </c>
       <c r="B38" s="133" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C38" s="137">
-        <v>44395</v>
+        <v>44400</v>
       </c>
       <c r="D38" s="133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8246,83 +8494,83 @@
       </c>
       <c r="F38" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G38" s="78" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H38" s="134" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="78" t="s">
-        <v>883</v>
+        <v>734</v>
       </c>
       <c r="B39" s="133" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C39" s="137">
-        <v>44384</v>
+        <v>44400</v>
       </c>
       <c r="D39" s="133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F39" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G39" s="78" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H39" s="134" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="78" t="s">
-        <v>738</v>
+        <v>904</v>
       </c>
       <c r="B40" s="133" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C40" s="137">
-        <v>44384</v>
+        <v>44396</v>
       </c>
       <c r="D40" s="133">
         <v>1</v>
       </c>
       <c r="E40" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="F40" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="G40" s="78" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H40" s="134" t="s">
-        <v>908</v>
+        <v>846</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="78" t="s">
-        <v>738</v>
+        <v>904</v>
       </c>
       <c r="B41" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="137">
-        <v>44379</v>
+        <v>44396</v>
       </c>
       <c r="D41" s="133">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E41" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8330,164 +8578,164 @@
       </c>
       <c r="F41" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
+        <v>30</v>
       </c>
       <c r="G41" s="78" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H41" s="134" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="132" t="s">
-        <v>738</v>
+      <c r="A42" s="78" t="s">
+        <v>945</v>
       </c>
       <c r="B42" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="131">
-        <v>44377</v>
-      </c>
-      <c r="D42" s="132">
+        <v>255</v>
+      </c>
+      <c r="C42" s="137">
+        <v>44395</v>
+      </c>
+      <c r="D42" s="133">
+        <v>100</v>
+      </c>
+      <c r="E42" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>30</v>
+      </c>
+      <c r="G42" s="78" t="s">
+        <v>927</v>
+      </c>
+      <c r="H42" s="134" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="78" t="s">
+        <v>945</v>
+      </c>
+      <c r="B43" s="133" t="s">
+        <v>255</v>
+      </c>
+      <c r="C43" s="137">
+        <v>44395</v>
+      </c>
+      <c r="D43" s="133">
+        <v>237</v>
+      </c>
+      <c r="E43" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>71.099999999999994</v>
+      </c>
+      <c r="G43" s="78" t="s">
+        <v>927</v>
+      </c>
+      <c r="H43" s="134" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="78" t="s">
+        <v>945</v>
+      </c>
+      <c r="B44" s="133" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="137">
+        <v>44395</v>
+      </c>
+      <c r="D44" s="133">
         <v>3</v>
       </c>
-      <c r="E42" s="132">
+      <c r="E44" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>60</v>
+      </c>
+      <c r="F44" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>90</v>
+      </c>
+      <c r="G44" s="78" t="s">
+        <v>927</v>
+      </c>
+      <c r="H44" s="134" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="78" t="s">
+        <v>883</v>
+      </c>
+      <c r="B45" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="137">
+        <v>44384</v>
+      </c>
+      <c r="D45" s="133">
+        <v>3</v>
+      </c>
+      <c r="E45" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>10</v>
       </c>
-      <c r="F42" s="132">
+      <c r="F45" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>15</v>
       </c>
-      <c r="G42" s="78" t="s">
-        <v>928</v>
-      </c>
-      <c r="H42" s="132" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="132" t="s">
-        <v>910</v>
-      </c>
-      <c r="B43" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="131">
-        <v>44362</v>
-      </c>
-      <c r="D43" s="132">
-        <v>1</v>
-      </c>
-      <c r="E43" s="132">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
-      </c>
-      <c r="F43" s="132">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
-      </c>
-      <c r="G43" s="78" t="s">
-        <v>928</v>
-      </c>
-      <c r="H43" s="132" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="78" t="s">
-        <v>910</v>
-      </c>
-      <c r="B44" s="133" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="137">
-        <v>44362</v>
-      </c>
-      <c r="D44" s="133">
-        <v>3</v>
-      </c>
-      <c r="E44" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
-      </c>
-      <c r="F44" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
-      </c>
-      <c r="G44" s="78" t="s">
-        <v>928</v>
-      </c>
-      <c r="H44" s="134" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="78" t="s">
-        <v>887</v>
-      </c>
-      <c r="B45" s="133" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="137">
-        <v>44343</v>
-      </c>
-      <c r="D45" s="133">
-        <v>1</v>
-      </c>
-      <c r="E45" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
-      </c>
-      <c r="F45" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
-      </c>
       <c r="G45" s="78" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H45" s="134" t="s">
-        <v>904</v>
+        <v>925</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="78" t="s">
-        <v>887</v>
+        <v>738</v>
       </c>
       <c r="B46" s="133" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C46" s="137">
-        <v>44333</v>
+        <v>44384</v>
       </c>
       <c r="D46" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="F46" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="G46" s="78" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H46" s="134" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="78" t="s">
-        <v>914</v>
+        <v>738</v>
       </c>
       <c r="B47" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C47" s="137">
-        <v>44326</v>
+        <v>44379</v>
       </c>
       <c r="D47" s="133">
         <v>3</v>
@@ -8501,302 +8749,304 @@
         <v>22.5</v>
       </c>
       <c r="G47" s="78" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H47" s="134" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="132" t="s">
+        <v>738</v>
+      </c>
+      <c r="B48" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="131">
+        <v>44377</v>
+      </c>
+      <c r="D48" s="132">
+        <v>3</v>
+      </c>
+      <c r="E48" s="132">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>10</v>
+      </c>
+      <c r="F48" s="132">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>15</v>
+      </c>
+      <c r="G48" s="78" t="s">
+        <v>927</v>
+      </c>
+      <c r="H48" s="132" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="132" t="s">
+        <v>909</v>
+      </c>
+      <c r="B49" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="131">
+        <v>44362</v>
+      </c>
+      <c r="D49" s="132">
+        <v>1</v>
+      </c>
+      <c r="E49" s="132">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>10</v>
+      </c>
+      <c r="F49" s="132">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>5</v>
+      </c>
+      <c r="G49" s="78" t="s">
+        <v>927</v>
+      </c>
+      <c r="H49" s="132" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="78" t="s">
+        <v>909</v>
+      </c>
+      <c r="B50" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="137">
+        <v>44362</v>
+      </c>
+      <c r="D50" s="133">
+        <v>3</v>
+      </c>
+      <c r="E50" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F50" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>22.5</v>
+      </c>
+      <c r="G50" s="78" t="s">
+        <v>927</v>
+      </c>
+      <c r="H50" s="134" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="78" t="s">
+        <v>887</v>
+      </c>
+      <c r="B51" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="137">
+        <v>44343</v>
+      </c>
+      <c r="D51" s="133">
+        <v>1</v>
+      </c>
+      <c r="E51" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F51" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G51" s="78" t="s">
+        <v>927</v>
+      </c>
+      <c r="H51" s="134" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="78" t="s">
+        <v>887</v>
+      </c>
+      <c r="B52" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="137">
+        <v>44333</v>
+      </c>
+      <c r="D52" s="133">
+        <v>2</v>
+      </c>
+      <c r="E52" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>10</v>
+      </c>
+      <c r="F52" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>10</v>
+      </c>
+      <c r="G52" s="78" t="s">
+        <v>927</v>
+      </c>
+      <c r="H52" s="134" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="78" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="78" t="s">
-        <v>917</v>
-      </c>
-      <c r="B48" s="133" t="s">
+      <c r="B53" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="137">
+        <v>44326</v>
+      </c>
+      <c r="D53" s="133">
+        <v>3</v>
+      </c>
+      <c r="E53" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F53" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>22.5</v>
+      </c>
+      <c r="G53" s="78" t="s">
+        <v>927</v>
+      </c>
+      <c r="H53" s="134" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="78" t="s">
+        <v>916</v>
+      </c>
+      <c r="B54" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="137">
+      <c r="C54" s="137">
         <v>44320</v>
       </c>
-      <c r="D48" s="133">
+      <c r="D54" s="133">
         <v>2</v>
       </c>
-      <c r="E48" s="133">
+      <c r="E54" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>180</v>
       </c>
-      <c r="F48" s="133">
+      <c r="F54" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>180</v>
       </c>
-      <c r="G48" s="78" t="s">
-        <v>928</v>
-      </c>
-      <c r="H48" s="134" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="78" t="s">
-        <v>917</v>
-      </c>
-      <c r="B49" s="133" t="s">
+      <c r="G54" s="78" t="s">
+        <v>927</v>
+      </c>
+      <c r="H54" s="134" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="78" t="s">
+        <v>916</v>
+      </c>
+      <c r="B55" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="137">
+      <c r="C55" s="137">
         <v>44320</v>
       </c>
-      <c r="D49" s="133">
+      <c r="D55" s="133">
         <v>4</v>
       </c>
-      <c r="E49" s="133">
+      <c r="E55" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>15</v>
       </c>
-      <c r="F49" s="133">
+      <c r="F55" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>30</v>
       </c>
-      <c r="G49" s="78" t="s">
-        <v>928</v>
-      </c>
-      <c r="H49" s="134" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="78" t="s">
-        <v>916</v>
-      </c>
-      <c r="B50" s="133" t="s">
+      <c r="G55" s="78" t="s">
+        <v>927</v>
+      </c>
+      <c r="H55" s="134" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="78" t="s">
+        <v>915</v>
+      </c>
+      <c r="B56" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="137">
+      <c r="C56" s="137">
         <v>44316</v>
       </c>
-      <c r="D50" s="133">
+      <c r="D56" s="133">
         <v>2</v>
       </c>
-      <c r="E50" s="133">
+      <c r="E56" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>60</v>
       </c>
-      <c r="F50" s="133">
+      <c r="F56" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>60</v>
       </c>
-      <c r="G50" s="78" t="s">
-        <v>928</v>
-      </c>
-      <c r="H50" s="134" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="157" t="s">
+      <c r="G56" s="78" t="s">
+        <v>927</v>
+      </c>
+      <c r="H56" s="134" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="153" t="s">
         <v>879</v>
       </c>
-      <c r="B51" s="158" t="s">
+      <c r="B57" s="154" t="s">
         <v>633</v>
       </c>
-      <c r="C51" s="159">
+      <c r="C57" s="155">
         <v>44316</v>
       </c>
-      <c r="D51" s="158">
+      <c r="D57" s="154">
         <v>2</v>
       </c>
-      <c r="E51" s="158">
+      <c r="E57" s="154">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>60</v>
       </c>
-      <c r="F51" s="158">
+      <c r="F57" s="154">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>60</v>
       </c>
-      <c r="G51" s="78" t="s">
-        <v>928</v>
-      </c>
-      <c r="H51" s="160" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="78" t="s">
-        <v>912</v>
-      </c>
-      <c r="B52" s="133" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" s="137">
-        <v>44304</v>
-      </c>
-      <c r="D52" s="133">
-        <v>5</v>
-      </c>
-      <c r="E52" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
-      </c>
-      <c r="F52" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>37.5</v>
-      </c>
-      <c r="G52" s="78" t="s">
-        <v>928</v>
-      </c>
-      <c r="H52" s="134" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="153" t="s">
-        <v>885</v>
-      </c>
-      <c r="B53" s="154" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="155">
-        <v>44302</v>
-      </c>
-      <c r="D53" s="154">
-        <v>1</v>
-      </c>
-      <c r="E53" s="154">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>180</v>
-      </c>
-      <c r="F53" s="154">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
-      </c>
-      <c r="G53" s="153" t="s">
-        <v>898</v>
-      </c>
-      <c r="H53" s="156" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="157" t="s">
-        <v>891</v>
-      </c>
-      <c r="B54" s="158" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54" s="159">
-        <v>44302</v>
-      </c>
-      <c r="D54" s="158">
-        <v>1</v>
-      </c>
-      <c r="E54" s="158">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>30</v>
-      </c>
-      <c r="F54" s="158">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
-      </c>
-      <c r="G54" s="78" t="s">
-        <v>928</v>
-      </c>
-      <c r="H54" s="160" t="s">
+      <c r="G57" s="78" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" s="161" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="78" t="s">
-        <v>887</v>
-      </c>
-      <c r="B55" s="133" t="s">
-        <v>50</v>
-      </c>
-      <c r="C55" s="137">
-        <v>44301</v>
-      </c>
-      <c r="D55" s="133">
-        <v>4</v>
-      </c>
-      <c r="E55" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
-      </c>
-      <c r="F55" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
-      </c>
-      <c r="G55" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H55" s="134"/>
-    </row>
-    <row r="56" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="78" t="s">
-        <v>887</v>
-      </c>
-      <c r="B56" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" s="137">
-        <v>44301</v>
-      </c>
-      <c r="D56" s="133">
-        <v>1</v>
-      </c>
-      <c r="E56" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
-      </c>
-      <c r="F56" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
-      </c>
-      <c r="G56" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H56" s="134" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="161" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="78" t="s">
-        <v>887</v>
-      </c>
-      <c r="B57" s="133" t="s">
-        <v>523</v>
-      </c>
-      <c r="C57" s="137">
-        <v>44301</v>
-      </c>
-      <c r="D57" s="133">
-        <v>10</v>
-      </c>
-      <c r="E57" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
-      </c>
-      <c r="F57" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>300</v>
-      </c>
-      <c r="G57" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H57" s="134" t="s">
-        <v>894</v>
+      <c r="H57" s="156" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="78" t="s">
-        <v>891</v>
+        <v>911</v>
       </c>
       <c r="B58" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C58" s="137">
-        <v>44301</v>
+        <v>44304</v>
       </c>
       <c r="D58" s="133">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E58" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8804,59 +9054,59 @@
       </c>
       <c r="F58" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>37.5</v>
       </c>
       <c r="G58" s="78" t="s">
-        <v>494</v>
+        <v>927</v>
       </c>
       <c r="H58" s="134" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="78" t="s">
-        <v>883</v>
-      </c>
-      <c r="B59" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="137">
-        <v>44301</v>
-      </c>
-      <c r="D59" s="133">
-        <v>2</v>
-      </c>
-      <c r="E59" s="133">
+      <c r="A59" s="153" t="s">
+        <v>891</v>
+      </c>
+      <c r="B59" s="154" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="155">
+        <v>44302</v>
+      </c>
+      <c r="D59" s="154">
+        <v>1</v>
+      </c>
+      <c r="E59" s="154">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
-      </c>
-      <c r="F59" s="133">
+        <v>30</v>
+      </c>
+      <c r="F59" s="154">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G59" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H59" s="134" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>927</v>
+      </c>
+      <c r="H59" s="156" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="157" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="78" t="s">
-        <v>102</v>
+        <v>887</v>
       </c>
       <c r="B60" s="133" t="s">
-        <v>207</v>
+        <v>50</v>
       </c>
       <c r="C60" s="137">
         <v>44301</v>
       </c>
       <c r="D60" s="133">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E60" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F60" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
@@ -8869,42 +9119,44 @@
     </row>
     <row r="61" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="78" t="s">
-        <v>102</v>
+        <v>887</v>
       </c>
       <c r="B61" s="133" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C61" s="137">
         <v>44301</v>
       </c>
       <c r="D61" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F61" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G61" s="78" t="s">
         <v>494</v>
       </c>
-      <c r="H61" s="134"/>
-    </row>
-    <row r="62" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H61" s="134" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="157" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="78" t="s">
-        <v>734</v>
+        <v>887</v>
       </c>
       <c r="B62" s="133" t="s">
-        <v>13</v>
+        <v>523</v>
       </c>
       <c r="C62" s="137">
         <v>44301</v>
       </c>
       <c r="D62" s="133">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E62" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8912,19 +9164,21 @@
       </c>
       <c r="F62" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="G62" s="78" t="s">
         <v>494</v>
       </c>
-      <c r="H62" s="134"/>
+      <c r="H62" s="134" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="63" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="78" t="s">
-        <v>883</v>
+        <v>891</v>
       </c>
       <c r="B63" s="133" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C63" s="137">
         <v>44301</v>
@@ -8934,31 +9188,31 @@
       </c>
       <c r="E63" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F63" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="G63" s="78" t="s">
         <v>494</v>
       </c>
       <c r="H63" s="134" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="78" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="B64" s="133" t="s">
         <v>1</v>
       </c>
       <c r="C64" s="137">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="D64" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8966,35 +9220,35 @@
       </c>
       <c r="F64" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G64" s="78" t="s">
         <v>494</v>
       </c>
       <c r="H64" s="134" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="78" t="s">
-        <v>877</v>
+        <v>102</v>
       </c>
       <c r="B65" s="133" t="s">
-        <v>59</v>
+        <v>207</v>
       </c>
       <c r="C65" s="137">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="D65" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F65" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G65" s="78" t="s">
         <v>494</v>
@@ -9003,184 +9257,178 @@
     </row>
     <row r="66" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="78" t="s">
-        <v>897</v>
+        <v>102</v>
       </c>
       <c r="B66" s="133" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C66" s="137">
-        <v>44294</v>
+        <v>44301</v>
       </c>
       <c r="D66" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F66" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>2.5</v>
+        <v>60</v>
       </c>
       <c r="G66" s="78" t="s">
         <v>494</v>
       </c>
-      <c r="H66" s="134" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H66" s="134"/>
+    </row>
+    <row r="67" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="78" t="s">
-        <v>897</v>
+        <v>734</v>
       </c>
       <c r="B67" s="133" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C67" s="137">
-        <v>44294</v>
+        <v>44301</v>
       </c>
       <c r="D67" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F67" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="G67" s="78" t="s">
         <v>494</v>
       </c>
-      <c r="H67" s="134" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H67" s="134"/>
+    </row>
+    <row r="68" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="78" t="s">
-        <v>509</v>
+        <v>883</v>
       </c>
       <c r="B68" s="133" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C68" s="137">
-        <v>44294</v>
+        <v>44301</v>
       </c>
       <c r="D68" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F68" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G68" s="78" t="s">
         <v>494</v>
       </c>
       <c r="H68" s="134" t="s">
-        <v>893</v>
+        <v>901</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="78" t="s">
-        <v>879</v>
+        <v>891</v>
       </c>
       <c r="B69" s="133" t="s">
-        <v>487</v>
+        <v>1</v>
       </c>
       <c r="C69" s="137">
-        <v>44294</v>
+        <v>44300</v>
       </c>
       <c r="D69" s="133">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E69" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F69" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="G69" s="78" t="s">
         <v>494</v>
       </c>
       <c r="H69" s="134" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="78" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B70" s="133" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="C70" s="137">
-        <v>44294</v>
+        <v>44300</v>
       </c>
       <c r="D70" s="133">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E70" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F70" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G70" s="78" t="s">
         <v>494</v>
       </c>
-      <c r="H70" s="134" t="s">
-        <v>870</v>
-      </c>
+      <c r="H70" s="134"/>
     </row>
     <row r="71" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="78" t="s">
-        <v>886</v>
+        <v>896</v>
       </c>
       <c r="B71" s="133" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C71" s="137">
-        <v>44288</v>
+        <v>44294</v>
       </c>
       <c r="D71" s="133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E71" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F71" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
+        <v>2.5</v>
       </c>
       <c r="G71" s="78" t="s">
         <v>494</v>
       </c>
       <c r="H71" s="134" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="78" t="s">
-        <v>886</v>
+        <v>896</v>
       </c>
       <c r="B72" s="133" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C72" s="137">
-        <v>44288</v>
+        <v>44294</v>
       </c>
       <c r="D72" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -9188,24 +9436,24 @@
       </c>
       <c r="F72" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G72" s="78" t="s">
         <v>494</v>
       </c>
       <c r="H72" s="134" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="78" t="s">
-        <v>885</v>
+        <v>509</v>
       </c>
       <c r="B73" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C73" s="137">
-        <v>44288</v>
+        <v>44294</v>
       </c>
       <c r="D73" s="133">
         <v>2</v>
@@ -9222,7 +9470,7 @@
         <v>494</v>
       </c>
       <c r="H73" s="134" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -9230,13 +9478,13 @@
         <v>879</v>
       </c>
       <c r="B74" s="133" t="s">
-        <v>633</v>
+        <v>487</v>
       </c>
       <c r="C74" s="137">
-        <v>44288</v>
+        <v>44294</v>
       </c>
       <c r="D74" s="133">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E74" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -9244,27 +9492,27 @@
       </c>
       <c r="F74" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G74" s="78" t="s">
         <v>494</v>
       </c>
       <c r="H74" s="134" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="78" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="B75" s="133" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C75" s="137">
-        <v>44288</v>
+        <v>44294</v>
       </c>
       <c r="D75" s="133">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E75" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -9272,24 +9520,24 @@
       </c>
       <c r="F75" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="G75" s="78" t="s">
         <v>494</v>
       </c>
       <c r="H75" s="134" t="s">
-        <v>902</v>
+        <v>870</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="78" t="s">
-        <v>879</v>
+        <v>886</v>
       </c>
       <c r="B76" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C76" s="137">
-        <v>44284</v>
+        <v>44288</v>
       </c>
       <c r="D76" s="133">
         <v>3</v>
@@ -9306,18 +9554,18 @@
         <v>494</v>
       </c>
       <c r="H76" s="134" t="s">
-        <v>881</v>
+        <v>889</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="78" t="s">
-        <v>879</v>
+        <v>886</v>
       </c>
       <c r="B77" s="133" t="s">
         <v>1</v>
       </c>
       <c r="C77" s="137">
-        <v>44275</v>
+        <v>44288</v>
       </c>
       <c r="D77" s="133">
         <v>2</v>
@@ -9334,130 +9582,130 @@
         <v>494</v>
       </c>
       <c r="H77" s="134" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="78" t="s">
-        <v>830</v>
+        <v>885</v>
       </c>
       <c r="B78" s="133" t="s">
-        <v>948</v>
+        <v>48</v>
       </c>
       <c r="C78" s="137">
-        <v>44270</v>
+        <v>44288</v>
       </c>
       <c r="D78" s="133">
         <v>2</v>
       </c>
       <c r="E78" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F78" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="G78" s="78" t="s">
-        <v>898</v>
+        <v>494</v>
       </c>
       <c r="H78" s="134" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="78" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="B79" s="133" t="s">
-        <v>8</v>
+        <v>633</v>
       </c>
       <c r="C79" s="137">
-        <v>44264</v>
+        <v>44288</v>
       </c>
       <c r="D79" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E79" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="F79" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G79" s="78" t="s">
-        <v>878</v>
+        <v>494</v>
       </c>
       <c r="H79" s="134" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="78" t="s">
-        <v>873</v>
+        <v>883</v>
       </c>
       <c r="B80" s="133" t="s">
-        <v>487</v>
+        <v>1</v>
       </c>
       <c r="C80" s="137">
-        <v>44264</v>
+        <v>44288</v>
       </c>
       <c r="D80" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E80" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F80" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G80" s="78" t="s">
-        <v>878</v>
+        <v>494</v>
       </c>
       <c r="H80" s="134" t="s">
-        <v>874</v>
+        <v>901</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="78" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="B81" s="133" t="s">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="C81" s="137">
-        <v>44264</v>
+        <v>44284</v>
       </c>
       <c r="D81" s="133">
         <v>3</v>
       </c>
       <c r="E81" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F81" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>22.5</v>
       </c>
       <c r="G81" s="78" t="s">
-        <v>878</v>
+        <v>494</v>
       </c>
       <c r="H81" s="134" t="s">
-        <v>832</v>
+        <v>881</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="78" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="B82" s="133" t="s">
         <v>1</v>
       </c>
       <c r="C82" s="137">
-        <v>44259</v>
+        <v>44275</v>
       </c>
       <c r="D82" s="133">
         <v>2</v>
@@ -9471,10 +9719,10 @@
         <v>10</v>
       </c>
       <c r="G82" s="78" t="s">
-        <v>878</v>
+        <v>494</v>
       </c>
       <c r="H82" s="134" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -9482,69 +9730,69 @@
         <v>830</v>
       </c>
       <c r="B83" s="133" t="s">
-        <v>140</v>
+        <v>947</v>
       </c>
       <c r="C83" s="137">
-        <v>44256</v>
+        <v>44270</v>
       </c>
       <c r="D83" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F83" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>2.5</v>
+        <v>60</v>
       </c>
       <c r="G83" s="78" t="s">
-        <v>494</v>
+        <v>897</v>
       </c>
       <c r="H83" s="134" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="78" t="s">
-        <v>830</v>
+        <v>873</v>
       </c>
       <c r="B84" s="133" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C84" s="137">
-        <v>44250</v>
+        <v>44264</v>
       </c>
       <c r="D84" s="133">
         <v>1</v>
       </c>
       <c r="E84" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="F84" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>90</v>
       </c>
       <c r="G84" s="78" t="s">
-        <v>494</v>
+        <v>878</v>
       </c>
       <c r="H84" s="134" t="s">
-        <v>900</v>
+        <v>875</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="78" t="s">
-        <v>102</v>
+        <v>873</v>
       </c>
       <c r="B85" s="133" t="s">
-        <v>13</v>
+        <v>487</v>
       </c>
       <c r="C85" s="137">
-        <v>44244</v>
+        <v>44264</v>
       </c>
       <c r="D85" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E85" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -9552,163 +9800,165 @@
       </c>
       <c r="F85" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G85" s="78" t="s">
-        <v>661</v>
-      </c>
-      <c r="H85" s="134"/>
+        <v>878</v>
+      </c>
+      <c r="H85" s="134" t="s">
+        <v>874</v>
+      </c>
     </row>
     <row r="86" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="78" t="s">
-        <v>734</v>
+        <v>873</v>
       </c>
       <c r="B86" s="133" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="C86" s="137">
-        <v>44244</v>
+        <v>44264</v>
       </c>
       <c r="D86" s="133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E86" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="F86" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>7.5</v>
       </c>
       <c r="G86" s="78" t="s">
-        <v>661</v>
-      </c>
-      <c r="H86" s="134"/>
+        <v>878</v>
+      </c>
+      <c r="H86" s="134" t="s">
+        <v>832</v>
+      </c>
     </row>
     <row r="87" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="78" t="s">
-        <v>845</v>
+        <v>873</v>
       </c>
       <c r="B87" s="133" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C87" s="137">
-        <v>44244</v>
+        <v>44259</v>
       </c>
       <c r="D87" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E87" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F87" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="G87" s="78" t="s">
-        <v>661</v>
+        <v>878</v>
       </c>
       <c r="H87" s="134" t="s">
-        <v>861</v>
+        <v>876</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="78" t="s">
-        <v>866</v>
+        <v>830</v>
       </c>
       <c r="B88" s="133" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="C88" s="137">
-        <v>44242</v>
+        <v>44256</v>
       </c>
       <c r="D88" s="133">
         <v>1</v>
       </c>
       <c r="E88" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F88" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>2.5</v>
       </c>
       <c r="G88" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H88" s="134" t="s">
-        <v>868</v>
+        <v>900</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="78" t="s">
-        <v>866</v>
+        <v>830</v>
       </c>
       <c r="B89" s="133" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C89" s="137">
-        <v>44242</v>
+        <v>44250</v>
       </c>
       <c r="D89" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E89" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F89" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>7.5</v>
       </c>
       <c r="G89" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H89" s="134" t="s">
-        <v>871</v>
+        <v>899</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="78" t="s">
-        <v>866</v>
+        <v>102</v>
       </c>
       <c r="B90" s="133" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C90" s="137">
-        <v>44242</v>
+        <v>44244</v>
       </c>
       <c r="D90" s="133">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E90" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F90" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G90" s="78" t="s">
         <v>661</v>
       </c>
-      <c r="H90" s="134" t="s">
-        <v>870</v>
-      </c>
+      <c r="H90" s="134"/>
     </row>
     <row r="91" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="78" t="s">
-        <v>866</v>
+        <v>734</v>
       </c>
       <c r="B91" s="133" t="s">
-        <v>487</v>
+        <v>13</v>
       </c>
       <c r="C91" s="137">
-        <v>44242</v>
+        <v>44244</v>
       </c>
       <c r="D91" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E91" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -9716,251 +9966,249 @@
       </c>
       <c r="F91" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G91" s="78" t="s">
         <v>661</v>
       </c>
-      <c r="H91" s="134" t="s">
-        <v>867</v>
-      </c>
+      <c r="H91" s="134"/>
     </row>
     <row r="92" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="78" t="s">
-        <v>869</v>
+        <v>845</v>
       </c>
       <c r="B92" s="133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C92" s="137">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="D92" s="133">
         <v>1</v>
       </c>
       <c r="E92" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F92" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="G92" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H92" s="134" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="78" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="B93" s="133" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C93" s="137">
-        <v>44232</v>
+        <v>44242</v>
       </c>
       <c r="D93" s="133">
         <v>1</v>
       </c>
       <c r="E93" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="F93" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="G93" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H93" s="134" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="78" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="B94" s="133" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C94" s="137">
-        <v>44225</v>
+        <v>44242</v>
       </c>
       <c r="D94" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F94" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="G94" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H94" s="134" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="78" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="B95" s="133" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="C95" s="137">
-        <v>44224</v>
+        <v>44242</v>
       </c>
       <c r="D95" s="133">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E95" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F95" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>37.5</v>
+        <v>45</v>
       </c>
       <c r="G95" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H95" s="134" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="78" t="s">
-        <v>845</v>
-      </c>
-      <c r="B96" s="132" t="s">
-        <v>48</v>
+        <v>866</v>
+      </c>
+      <c r="B96" s="133" t="s">
+        <v>487</v>
       </c>
       <c r="C96" s="137">
-        <v>44218</v>
+        <v>44242</v>
       </c>
       <c r="D96" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E96" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F96" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>60</v>
       </c>
       <c r="G96" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H96" s="134" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="78" t="s">
-        <v>845</v>
+        <v>869</v>
       </c>
       <c r="B97" s="133" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C97" s="137">
-        <v>44218</v>
+        <v>44239</v>
       </c>
       <c r="D97" s="133">
         <v>1</v>
       </c>
       <c r="E97" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="F97" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="G97" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H97" s="134" t="s">
-        <v>859</v>
+        <v>868</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="78" t="s">
-        <v>845</v>
+        <v>862</v>
       </c>
       <c r="B98" s="133" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C98" s="137">
-        <v>44210</v>
+        <v>44232</v>
       </c>
       <c r="D98" s="133">
         <v>1</v>
       </c>
       <c r="E98" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="F98" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G98" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H98" s="134" t="s">
-        <v>848</v>
+        <v>863</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="78" t="s">
-        <v>845</v>
+        <v>862</v>
       </c>
       <c r="B99" s="133" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C99" s="137">
-        <v>44210</v>
+        <v>44225</v>
       </c>
       <c r="D99" s="133">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E99" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F99" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G99" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H99" s="134" t="s">
-        <v>849</v>
+        <v>864</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="78" t="s">
-        <v>830</v>
+        <v>862</v>
       </c>
       <c r="B100" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C100" s="137">
-        <v>44209</v>
+        <v>44224</v>
       </c>
       <c r="D100" s="133">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E100" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -9968,24 +10216,24 @@
       </c>
       <c r="F100" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>37.5</v>
       </c>
       <c r="G100" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H100" s="134" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="78" t="s">
-        <v>830</v>
-      </c>
-      <c r="B101" s="133" t="s">
+        <v>845</v>
+      </c>
+      <c r="B101" s="132" t="s">
         <v>48</v>
       </c>
       <c r="C101" s="137">
-        <v>44209</v>
+        <v>44218</v>
       </c>
       <c r="D101" s="133">
         <v>1</v>
@@ -10002,7 +10250,7 @@
         <v>661</v>
       </c>
       <c r="H101" s="134" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -10010,88 +10258,88 @@
         <v>845</v>
       </c>
       <c r="B102" s="133" t="s">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="C102" s="137">
-        <v>44209</v>
+        <v>44218</v>
       </c>
       <c r="D102" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E102" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="F102" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="G102" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H102" s="134" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="78" t="s">
-        <v>727</v>
+        <v>845</v>
       </c>
       <c r="B103" s="133" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="C103" s="137">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="D103" s="133">
         <v>1</v>
       </c>
       <c r="E103" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F103" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>2.5</v>
+        <v>30</v>
       </c>
       <c r="G103" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H103" s="134" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="78" t="s">
-        <v>727</v>
+        <v>845</v>
       </c>
       <c r="B104" s="133" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C104" s="137">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="D104" s="133">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E104" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F104" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="G104" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H104" s="134" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="78" t="s">
-        <v>816</v>
+        <v>830</v>
       </c>
       <c r="B105" s="133" t="s">
         <v>48</v>
@@ -10100,7 +10348,7 @@
         <v>44209</v>
       </c>
       <c r="D105" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E105" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -10108,27 +10356,27 @@
       </c>
       <c r="F105" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="G105" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H105" s="134" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="78" t="s">
-        <v>845</v>
+        <v>830</v>
       </c>
       <c r="B106" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C106" s="137">
-        <v>44208</v>
+        <v>44209</v>
       </c>
       <c r="D106" s="133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E106" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -10136,97 +10384,97 @@
       </c>
       <c r="F106" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
+        <v>7.5</v>
       </c>
       <c r="G106" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H106" s="134" t="s">
-        <v>847</v>
+        <v>855</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="78" t="s">
-        <v>102</v>
+        <v>845</v>
       </c>
       <c r="B107" s="133" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="C107" s="137">
-        <v>44208</v>
+        <v>44209</v>
       </c>
       <c r="D107" s="133">
         <v>2</v>
       </c>
       <c r="E107" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="F107" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G107" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H107" s="134" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="78" t="s">
-        <v>841</v>
+        <v>727</v>
       </c>
       <c r="B108" s="133" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="C108" s="137">
-        <v>44203</v>
+        <v>44209</v>
       </c>
       <c r="D108" s="133">
         <v>1</v>
       </c>
       <c r="E108" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F108" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="G108" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H108" s="134" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="78" t="s">
-        <v>780</v>
+        <v>727</v>
       </c>
       <c r="B109" s="133" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C109" s="137">
-        <v>44203</v>
+        <v>44209</v>
       </c>
       <c r="D109" s="133">
         <v>1</v>
       </c>
       <c r="E109" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F109" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="G109" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H109" s="134" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -10234,41 +10482,41 @@
         <v>816</v>
       </c>
       <c r="B110" s="133" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C110" s="137">
-        <v>44203</v>
+        <v>44209</v>
       </c>
       <c r="D110" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E110" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F110" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G110" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H110" s="134" t="s">
-        <v>839</v>
+        <v>853</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="78" t="s">
-        <v>781</v>
+        <v>845</v>
       </c>
       <c r="B111" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C111" s="137">
-        <v>44203</v>
+        <v>44208</v>
       </c>
       <c r="D111" s="133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E111" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -10276,59 +10524,59 @@
       </c>
       <c r="F111" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>22.5</v>
       </c>
       <c r="G111" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H111" s="134" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="78" t="s">
-        <v>767</v>
-      </c>
-      <c r="B112" s="132" t="s">
-        <v>48</v>
+        <v>102</v>
+      </c>
+      <c r="B112" s="133" t="s">
+        <v>22</v>
       </c>
       <c r="C112" s="137">
-        <v>44203</v>
+        <v>44208</v>
       </c>
       <c r="D112" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E112" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F112" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>60</v>
       </c>
       <c r="G112" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H112" s="134" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="78" t="s">
-        <v>816</v>
-      </c>
-      <c r="B113" s="132" t="s">
-        <v>140</v>
+        <v>841</v>
+      </c>
+      <c r="B113" s="133" t="s">
+        <v>48</v>
       </c>
       <c r="C113" s="137">
-        <v>44201</v>
+        <v>44203</v>
       </c>
       <c r="D113" s="133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E113" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F113" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
@@ -10338,72 +10586,197 @@
         <v>661</v>
       </c>
       <c r="H113" s="134" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="78" t="s">
-        <v>830</v>
-      </c>
-      <c r="B114" s="132" t="s">
-        <v>48</v>
+        <v>780</v>
+      </c>
+      <c r="B114" s="133" t="s">
+        <v>1</v>
       </c>
       <c r="C114" s="137">
-        <v>44201</v>
+        <v>44203</v>
       </c>
       <c r="D114" s="133">
         <v>1</v>
       </c>
       <c r="E114" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F114" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="G114" s="78" t="s">
         <v>661</v>
       </c>
       <c r="H114" s="134" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="78" t="s">
+        <v>816</v>
+      </c>
+      <c r="B115" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D115" s="133">
+        <v>2</v>
+      </c>
+      <c r="E115" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>10</v>
+      </c>
+      <c r="F115" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>10</v>
+      </c>
+      <c r="G115" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H115" s="134" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="78" t="s">
+        <v>781</v>
+      </c>
+      <c r="B116" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C116" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D116" s="133">
+        <v>1</v>
+      </c>
+      <c r="E116" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F116" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G116" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H116" s="134" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="78" t="s">
+        <v>767</v>
+      </c>
+      <c r="B117" s="132" t="s">
+        <v>48</v>
+      </c>
+      <c r="C117" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D117" s="133">
+        <v>1</v>
+      </c>
+      <c r="E117" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F117" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G117" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H117" s="134" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="78" t="s">
+        <v>816</v>
+      </c>
+      <c r="B118" s="132" t="s">
+        <v>140</v>
+      </c>
+      <c r="C118" s="137">
+        <v>44201</v>
+      </c>
+      <c r="D118" s="133">
+        <v>3</v>
+      </c>
+      <c r="E118" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>5</v>
+      </c>
+      <c r="F118" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G118" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H118" s="134" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="78" t="s">
+        <v>830</v>
+      </c>
+      <c r="B119" s="132" t="s">
+        <v>48</v>
+      </c>
+      <c r="C119" s="137">
+        <v>44201</v>
+      </c>
+      <c r="D119" s="133">
+        <v>1</v>
+      </c>
+      <c r="E119" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F119" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G119" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H119" s="134" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="162" t="s">
+    <row r="120" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="147" t="s">
         <v>491</v>
       </c>
-      <c r="B115" s="163">
+      <c r="B120" s="148">
         <f>SUBTOTAL(5,TAB_Doku_201910[Datum])</f>
         <v>44201</v>
       </c>
-      <c r="C115" s="164">
+      <c r="C120" s="149">
         <f>SUBTOTAL(4,TAB_Doku_201910[Datum])</f>
-        <v>44433</v>
-      </c>
-      <c r="D115" s="165"/>
-      <c r="E115" s="165"/>
-      <c r="F115" s="166">
+        <v>44438</v>
+      </c>
+      <c r="D120" s="150"/>
+      <c r="E120" s="150"/>
+      <c r="F120" s="151">
         <f>SUBTOTAL(9,TAB_Doku_201910[[Kosten ]])</f>
-        <v>4096.3999999999996</v>
-      </c>
-      <c r="G115" s="162"/>
-      <c r="H115" s="167"/>
-    </row>
-    <row r="116" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C116"/>
-    </row>
-    <row r="117" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C117"/>
-    </row>
-    <row r="118" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C118"/>
-    </row>
-    <row r="119" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C119"/>
-    </row>
-    <row r="120" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C120"/>
+        <v>4128.8999999999996</v>
+      </c>
+      <c r="G120" s="147"/>
+      <c r="H120" s="152"/>
     </row>
     <row r="121" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C121"/>
@@ -10447,19 +10820,19 @@
     <row r="134" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C134"/>
     </row>
-    <row r="135" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C135"/>
     </row>
-    <row r="136" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C136"/>
     </row>
-    <row r="137" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C137"/>
     </row>
-    <row r="138" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C138"/>
     </row>
-    <row r="139" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C139"/>
     </row>
     <row r="140" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -10494,9 +10867,6 @@
     </row>
     <row r="150" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C150"/>
-      <c r="I150" t="s">
-        <v>546</v>
-      </c>
     </row>
     <row r="151" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C151"/>
@@ -10512,6 +10882,9 @@
     </row>
     <row r="155" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C155"/>
+      <c r="I155" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="156" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C156"/>
@@ -10576,60 +10949,53 @@
     <row r="176" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C176"/>
     </row>
-    <row r="177" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C177"/>
     </row>
-    <row r="178" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C178"/>
     </row>
-    <row r="179" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C179"/>
     </row>
-    <row r="180" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C180"/>
     </row>
-    <row r="181" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C181"/>
     </row>
-    <row r="182" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C182"/>
     </row>
-    <row r="183" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C183"/>
     </row>
-    <row r="184" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C184"/>
     </row>
-    <row r="185" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C185"/>
     </row>
-    <row r="186" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C186"/>
     </row>
-    <row r="187" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C187"/>
     </row>
-    <row r="188" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C188"/>
     </row>
-    <row r="189" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="189" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C189"/>
     </row>
-    <row r="190" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="190" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C190"/>
     </row>
-    <row r="191" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="191" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C191"/>
     </row>
-    <row r="192" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A192"/>
-      <c r="B192"/>
+    <row r="192" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C192"/>
-      <c r="D192"/>
-      <c r="E192"/>
-      <c r="F192"/>
-      <c r="G192"/>
-      <c r="H192"/>
     </row>
     <row r="193" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C193"/>
@@ -10665,8 +11031,15 @@
     <row r="201" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C201"/>
     </row>
-    <row r="202" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A202"/>
+      <c r="B202"/>
       <c r="C202"/>
+      <c r="D202"/>
+      <c r="E202"/>
+      <c r="F202"/>
+      <c r="G202"/>
+      <c r="H202"/>
     </row>
     <row r="203" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C203"/>
@@ -10689,7 +11062,7 @@
     <row r="209" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C209"/>
     </row>
-    <row r="210" spans="3:3" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C210"/>
     </row>
     <row r="211" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -10704,7 +11077,7 @@
     <row r="214" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C214"/>
     </row>
-    <row r="215" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="215" spans="3:3" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C215"/>
     </row>
     <row r="216" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -10731,7 +11104,7 @@
     <row r="223" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C223"/>
     </row>
-    <row r="224" spans="3:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C224"/>
     </row>
     <row r="225" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -10746,7 +11119,7 @@
     <row r="228" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C228"/>
     </row>
-    <row r="229" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="229" spans="3:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C229"/>
     </row>
     <row r="230" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -11169,21 +11542,39 @@
     <row r="369" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C369"/>
     </row>
-    <row r="370" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C370"/>
     </row>
-    <row r="371" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C371"/>
     </row>
-    <row r="372" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C372"/>
+    </row>
+    <row r="373" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C373"/>
+    </row>
+    <row r="374" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C374"/>
+    </row>
+    <row r="375" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C375"/>
+    </row>
+    <row r="376" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C376"/>
+    </row>
+    <row r="377" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C377"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="nächste">
+    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="Gegenrechnung mit Flachau 3300.-">
+      <formula>NOT(ISERROR(SEARCH("Gegenrechnung mit Flachau 3300.-",G1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="4" operator="containsText" text="nächste">
       <formula>NOT(ISERROR(SEARCH("nächste",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="2" operator="containsText" text="offen">
+    <cfRule type="containsText" dxfId="35" priority="5" operator="containsText" text="offen">
       <formula>NOT(ISERROR(SEARCH("offen",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11203,7 +11594,7 @@
           <x14:formula1>
             <xm:f>'Leistungen-Liste'!$F$1:$F$35</xm:f>
           </x14:formula1>
-          <xm:sqref>B14 B16:B114 B6:B12 B2:B4</xm:sqref>
+          <xm:sqref>B20 B12:B18 B2:B10 B22:B119</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -26015,122 +26406,122 @@
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0"/>
   <conditionalFormatting sqref="C2:C90 C94:C123">
-    <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C15">
-    <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="33" priority="32" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C43 C45:C46">
-    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C34">
-    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="30" priority="29" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73:D76 D2:D71">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79">
-    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77:D78">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81">
-    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="25" priority="18" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81">
-    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82">
-    <cfRule type="containsText" dxfId="20" priority="14" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="23" priority="14" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="containsText" dxfId="19" priority="12" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="22" priority="12" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="20" priority="10" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C89:C90">
-    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C89)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92">
-    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="18" priority="8" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91">
-    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93">
-    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C125:C126">
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C127">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C127)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C124">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C128">
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C128)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C129)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/trailtech/Leistungen-KC-Trailtech.xlsx
+++ b/trailtech/Leistungen-KC-Trailtech.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2781" uniqueCount="1004">
   <si>
     <t>Tätigkeit</t>
   </si>
@@ -2952,9 +2952,6 @@
     <t>Begehung Bikepark Betandstrecken</t>
   </si>
   <si>
-    <t xml:space="preserve">Angebot Trail Assessment / Konzept </t>
-  </si>
-  <si>
     <t>Rückfahrt Wagrain Aldrans</t>
   </si>
   <si>
@@ -3021,10 +3018,124 @@
     <t>Erstgespräch mit Andreas Franze wegen PT in oberndorf</t>
   </si>
   <si>
-    <t>Periode Monat August</t>
-  </si>
-  <si>
     <t>Gegenrechnung mit Flachau 3300.-</t>
+  </si>
+  <si>
+    <t>VS Krumpendorf</t>
+  </si>
+  <si>
+    <t>Absprache mit Uli wegen Akquise Krumpendorf ModPT/PT/PP? 15x30 m Bsp: Wellington, Oberthal, Vionnaz</t>
+  </si>
+  <si>
+    <t>Absprache Design Vorschläge, Holz Miniramps vs. Beton Pools</t>
+  </si>
+  <si>
+    <t>Kontakt Absprache mit IOU Ramps, Subunternehmer, Preise, etc.</t>
+  </si>
+  <si>
+    <t>Absprachen Vorgehen Trail Assessment / konzept, Behörde weitere Schritte</t>
+  </si>
+  <si>
+    <t>Absprache mit ZOOOM Ulrich Grill, Integration Bike in Sommer Bergkonzept..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preis Anfrage IOU Ramps </t>
+  </si>
+  <si>
+    <t>Erinnerung IOU Ramps Preisanfrage</t>
+  </si>
+  <si>
+    <t>Erstgespräch, Unterbrechung... SMS bitte um Rückruf</t>
+  </si>
+  <si>
+    <t>Anfrage Grill wegen Bsp Bilder für Präsentation</t>
+  </si>
+  <si>
+    <t>Anfrage wegen Statistik / Umfragen etc für Konzept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erinnerung wegen Festlegung Planungsumfang </t>
+  </si>
+  <si>
+    <t>for the record</t>
+  </si>
+  <si>
+    <t>Verschiedene Tätigkeit nach Zeitaufwand</t>
+  </si>
+  <si>
+    <t>Trail Assessment Planerstellung</t>
+  </si>
+  <si>
+    <t>Concept Text work</t>
+  </si>
+  <si>
+    <t>Prize research and queries for cost estimates table</t>
+  </si>
+  <si>
+    <t>Abstimmung Kostenschätzung bis 23. Sept ( 1 Woche for GR Ausschuss Sitzung am 30. Sept), Budget  über Leader Project 120.000, insgesamt 200.000 geschätzt für gesamte Anlage</t>
+  </si>
+  <si>
+    <t>Erstgespräch, Flächenauswahl, Zusendung der KAGIS Auszüge, Strategie, Vorgeschichte</t>
+  </si>
+  <si>
+    <t>Arber Bikepark</t>
+  </si>
+  <si>
+    <t>Kostenkalkulation</t>
+  </si>
+  <si>
+    <t>Termin Absprache</t>
+  </si>
+  <si>
+    <t>IOU Ramps Anfrage Erinnerung</t>
+  </si>
+  <si>
+    <t>Update wegen Verzögerung an David S</t>
+  </si>
+  <si>
+    <t>Anfrage  M-Ramps Richtpreise</t>
+  </si>
+  <si>
+    <t>Telefonat Absprache wegen Gem Ausschuss am 14.09.2021</t>
+  </si>
+  <si>
+    <t>Preis Kalkulation Trails Vorchdorf / QGIS Projekt</t>
+  </si>
+  <si>
+    <t>Termin bestätigen am 15.10.2021</t>
+  </si>
+  <si>
+    <t>QGIS  Projekt als Basis frü Preis Kalkulation Trails Vorchdorf / QGIS Projekt. Übermittlung der Kostenschätzung für Pumptrack und Trails..</t>
+  </si>
+  <si>
+    <t>Angebot Trail Assessment / Konzept, Aufwand dokumentieren vergessen bei letzter Abrechnung!!</t>
+  </si>
+  <si>
+    <t>Periode Monat August/September</t>
+  </si>
+  <si>
+    <t>Roman Astleitner Bitte um e-Mail kontakt</t>
+  </si>
+  <si>
+    <t>Roman Astleitner; Besprechung Kontakt wegen Beton Parks, Sub-projekt etc. Qm-Preis: 200-250 €</t>
+  </si>
+  <si>
+    <t>Uli Absprache Design, Spiegelung, etc. z</t>
+  </si>
+  <si>
+    <t>Besprechung Designvorschläge, Kosten etc. Asphalt vs Holz vs Beton</t>
+  </si>
+  <si>
+    <t>Durchsicht Skizzen David, Recherche wegen Beton / Holz anlagen für BMX/Slope</t>
+  </si>
+  <si>
+    <t>Preiskalkulation, Absprachen Kunden &amp; Lieferanten, Berechnungen, Kostenaufstellung, Erstelllung Tabelle,etc</t>
+  </si>
+  <si>
+    <t>Update Prize Calc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albuin plans and info forward </t>
   </si>
 </sst>
 </file>
@@ -3034,7 +3145,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3196,6 +3307,12 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3407,7 +3524,7 @@
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3840,6 +3957,25 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink 2" xfId="2"/>
@@ -3847,7 +3983,7 @@
     <cellStyle name="Standard 2" xfId="1"/>
     <cellStyle name="Währung" xfId="3" builtinId="4"/>
   </cellStyles>
-  <dxfs count="133">
+  <dxfs count="146">
     <dxf>
       <font>
         <b val="0"/>
@@ -4116,6 +4252,49 @@
         <right/>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -4445,6 +4624,31 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
       <border>
         <left style="thin">
           <color rgb="FF9C0006"/>
@@ -4483,6 +4687,11 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
       <border>
         <left style="thin">
           <color rgb="FF9C0006"/>
@@ -4521,24 +4730,27 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -4561,24 +4773,27 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -4601,24 +4816,27 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -4641,6 +4859,29 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4659,6 +4900,158 @@
           <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -5987,96 +6380,96 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TAB_Leistungen" displayName="TAB_Leistungen" ref="A1:D29" totalsRowShown="0" headerRowDxfId="132" dataDxfId="131">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TAB_Leistungen" displayName="TAB_Leistungen" ref="A1:D29" totalsRowShown="0" headerRowDxfId="145" dataDxfId="144">
   <autoFilter ref="A1:D29"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Tätigkeit" dataDxfId="130"/>
-    <tableColumn id="2" name="Zeitbedarf Min (pauschal)" dataDxfId="129"/>
-    <tableColumn id="3" name="Stk.kosten/Kosten bei Stundensatz" dataDxfId="128">
+    <tableColumn id="1" name="Tätigkeit" dataDxfId="143"/>
+    <tableColumn id="2" name="Zeitbedarf Min (pauschal)" dataDxfId="142"/>
+    <tableColumn id="3" name="Stk.kosten/Kosten bei Stundensatz" dataDxfId="141">
       <calculatedColumnFormula>$D$2*B2/60</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Stundensatz" dataDxfId="127"/>
+    <tableColumn id="4" name="Stundensatz" dataDxfId="140"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="TAB_Leistungen_30" displayName="TAB_Leistungen_30" ref="F1:I35" totalsRowShown="0" headerRowDxfId="126">
-  <autoFilter ref="F1:I35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="TAB_Leistungen_30" displayName="TAB_Leistungen_30" ref="F1:I36" totalsRowShown="0" headerRowDxfId="139">
+  <autoFilter ref="F1:I36"/>
   <sortState ref="F2:I35">
     <sortCondition ref="F2"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="Tätigkeit"/>
     <tableColumn id="2" name="Zeitbedarf Min (pauschal)"/>
-    <tableColumn id="3" name="Stk.kosten/Kosten bei Stundensatz" dataDxfId="125">
+    <tableColumn id="3" name="Stk.kosten/Kosten bei Stundensatz" dataDxfId="138">
       <calculatedColumnFormula>$D$2*G2/60</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Stundensatz" dataDxfId="124"/>
+    <tableColumn id="4" name="Stundensatz" dataDxfId="137"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="TAB_Doku_201910" displayName="TAB_Doku_201910" ref="A1:H120" totalsRowCount="1" headerRowDxfId="123" dataDxfId="122" totalsRowDxfId="120" tableBorderDxfId="121">
-  <autoFilter ref="A1:H119"/>
-  <sortState ref="A2:H103">
-    <sortCondition descending="1" ref="C1:C103"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="TAB_Doku_201910" displayName="TAB_Doku_201910" ref="A1:H158" totalsRowCount="1" headerRowDxfId="136" dataDxfId="135" totalsRowDxfId="133" tableBorderDxfId="134">
+  <autoFilter ref="A1:H157"/>
+  <sortState ref="A2:H136">
+    <sortCondition descending="1" ref="C1:C136"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="119" totalsRowDxfId="7"/>
-    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="118" totalsRowDxfId="6">
+    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="132" totalsRowDxfId="7"/>
+    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="131" totalsRowDxfId="6">
       <totalsRowFormula>SUBTOTAL(5,TAB_Doku_201910[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="117" totalsRowDxfId="5">
+    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="130" totalsRowDxfId="5">
       <totalsRowFormula>SUBTOTAL(4,TAB_Doku_201910[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Stk." dataDxfId="116" totalsRowDxfId="4"/>
-    <tableColumn id="5" name="Zeitaufwand" dataDxfId="115" totalsRowDxfId="3">
+    <tableColumn id="4" name="Stk." dataDxfId="129" totalsRowDxfId="4"/>
+    <tableColumn id="5" name="Zeitaufwand" dataDxfId="128" totalsRowDxfId="3">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="114" totalsRowDxfId="2">
+    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="127" totalsRowDxfId="2">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,TAB_Doku_201910[[Kosten ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Abrechnung" dataDxfId="113" totalsRowDxfId="1"/>
-    <tableColumn id="8" name="Notiz" dataDxfId="112" totalsRowDxfId="0"/>
+    <tableColumn id="7" name="Abrechnung" dataDxfId="126" totalsRowDxfId="1"/>
+    <tableColumn id="8" name="Notiz" dataDxfId="125" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TAB_Doku_2019" displayName="TAB_Doku_2019" ref="A1:H314" totalsRowCount="1" headerRowDxfId="111" dataDxfId="110" totalsRowDxfId="108" tableBorderDxfId="109">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TAB_Doku_2019" displayName="TAB_Doku_2019" ref="A1:H314" totalsRowCount="1" headerRowDxfId="124" dataDxfId="123" totalsRowDxfId="121" tableBorderDxfId="122">
   <autoFilter ref="A1:H313"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="107" totalsRowDxfId="106"/>
-    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="105" totalsRowDxfId="104">
+    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="120" totalsRowDxfId="119"/>
+    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="118" totalsRowDxfId="117">
       <totalsRowFormula>SUBTOTAL(5,TAB_Doku_2019[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="103" totalsRowDxfId="102">
+    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="116" totalsRowDxfId="115">
       <totalsRowFormula>SUBTOTAL(4,TAB_Doku_2019[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Stk." dataDxfId="101" totalsRowDxfId="100"/>
-    <tableColumn id="5" name="Zeitaufwand" totalsRowFunction="custom" dataDxfId="99" totalsRowDxfId="98">
+    <tableColumn id="4" name="Stk." dataDxfId="114" totalsRowDxfId="113"/>
+    <tableColumn id="5" name="Zeitaufwand" totalsRowFunction="custom" dataDxfId="112" totalsRowDxfId="111">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_2019[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</calculatedColumnFormula>
       <totalsRowFormula>ROUND(SUBTOTAL(9,TAB_Doku_2019[Zeitaufwand])/60,0) &amp;" h"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="97" totalsRowDxfId="96">
+    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="110" totalsRowDxfId="109">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_2019[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_2019[[#This Row],[Stk.]]</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,TAB_Doku_2019[[Kosten ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Abrechnung" dataDxfId="95" totalsRowDxfId="94"/>
-    <tableColumn id="8" name="Notiz" dataDxfId="93" totalsRowDxfId="92"/>
+    <tableColumn id="7" name="Abrechnung" dataDxfId="108" totalsRowDxfId="107"/>
+    <tableColumn id="8" name="Notiz" dataDxfId="106" totalsRowDxfId="105"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TAB_Dokumentation" displayName="TAB_Dokumentation" ref="A1:H199" totalsRowCount="1" headerRowDxfId="91" dataDxfId="90" totalsRowDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TAB_Dokumentation" displayName="TAB_Dokumentation" ref="A1:H199" totalsRowCount="1" headerRowDxfId="104" dataDxfId="103" totalsRowDxfId="102">
   <autoFilter ref="A1:H198">
     <filterColumn colId="0">
       <filters>
@@ -6088,44 +6481,44 @@
     <sortCondition descending="1" ref="G1:G198"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="86" totalsRowDxfId="85">
+    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="101" totalsRowDxfId="100"/>
+    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="99" totalsRowDxfId="98">
       <totalsRowFormula>SUBTOTAL(5,TAB_Dokumentation[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Datum" totalsRowFunction="custom" dataDxfId="84" totalsRowDxfId="83">
+    <tableColumn id="7" name="Datum" totalsRowFunction="custom" dataDxfId="97" totalsRowDxfId="96">
       <totalsRowFormula>MAX(4,TAB_Dokumentation[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Stk." dataDxfId="82" totalsRowDxfId="81"/>
-    <tableColumn id="4" name="Zeitaufwand" dataDxfId="80" totalsRowDxfId="79">
+    <tableColumn id="3" name="Stk." dataDxfId="95" totalsRowDxfId="94"/>
+    <tableColumn id="4" name="Zeitaufwand" dataDxfId="93" totalsRowDxfId="92">
       <calculatedColumnFormula>INDEX(TAB_Leistungen[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Dokumentation[[#This Row],[Leistung]],TAB_Leistungen[Tätigkeit],0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Kosten " totalsRowFunction="custom" dataDxfId="78" totalsRowDxfId="77">
+    <tableColumn id="5" name="Kosten " totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="90">
       <calculatedColumnFormula>INDEX(TAB_Leistungen[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Dokumentation[[#This Row],[Leistung]],TAB_Leistungen[Tätigkeit],0),3)*TAB_Dokumentation[[#This Row],[Stk.]]</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,TAB_Dokumentation[[Kosten ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Abrechnung" totalsRowDxfId="76"/>
-    <tableColumn id="8" name="Notiz" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="6" name="Abrechnung" totalsRowDxfId="89"/>
+    <tableColumn id="8" name="Notiz" dataDxfId="88" totalsRowDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle1" displayName="Tabelle1" ref="A1:I40" totalsRowShown="0" headerRowDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle1" displayName="Tabelle1" ref="A1:I40" totalsRowShown="0" headerRowDxfId="86">
   <autoFilter ref="A1:I40"/>
   <sortState ref="A2:I35">
     <sortCondition descending="1" ref="D1:D35"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="Name" dataDxfId="72"/>
-    <tableColumn id="2" name="Zusatz" dataDxfId="71"/>
-    <tableColumn id="3" name="Adresse" dataDxfId="70"/>
-    <tableColumn id="4" name="PLZ" dataDxfId="69"/>
-    <tableColumn id="5" name="Ort" dataDxfId="68"/>
-    <tableColumn id="6" name="Spalte1" dataDxfId="67"/>
-    <tableColumn id="7" name="Telefon" dataDxfId="66"/>
-    <tableColumn id="8" name="Spalte2" dataDxfId="65"/>
-    <tableColumn id="9" name="Notiz" dataDxfId="64"/>
+    <tableColumn id="1" name="Name" dataDxfId="85"/>
+    <tableColumn id="2" name="Zusatz" dataDxfId="84"/>
+    <tableColumn id="3" name="Adresse" dataDxfId="83"/>
+    <tableColumn id="4" name="PLZ" dataDxfId="82"/>
+    <tableColumn id="5" name="Ort" dataDxfId="81"/>
+    <tableColumn id="6" name="Spalte1" dataDxfId="80"/>
+    <tableColumn id="7" name="Telefon" dataDxfId="79"/>
+    <tableColumn id="8" name="Spalte2" dataDxfId="78"/>
+    <tableColumn id="9" name="Notiz" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6136,9 +6529,9 @@
   <autoFilter ref="C4:F8"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Position"/>
-    <tableColumn id="2" name="Stk/Std" dataDxfId="63"/>
-    <tableColumn id="3" name="Stk/Std-Preis" dataDxfId="62"/>
-    <tableColumn id="4" name="Summe:" dataDxfId="61" dataCellStyle="Währung"/>
+    <tableColumn id="2" name="Stk/Std" dataDxfId="76"/>
+    <tableColumn id="3" name="Stk/Std-Preis" dataDxfId="75"/>
+    <tableColumn id="4" name="Summe:" dataDxfId="74" dataCellStyle="Währung"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6160,9 +6553,9 @@
   <autoFilter ref="H4:K7"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Position"/>
-    <tableColumn id="2" name="Stk/Std" dataDxfId="60"/>
-    <tableColumn id="3" name="Stk/Std-Preis" dataDxfId="59"/>
-    <tableColumn id="4" name="Summe:" dataDxfId="58" dataCellStyle="Währung"/>
+    <tableColumn id="2" name="Stk/Std" dataDxfId="73"/>
+    <tableColumn id="3" name="Stk/Std-Preis" dataDxfId="72"/>
+    <tableColumn id="4" name="Summe:" dataDxfId="71" dataCellStyle="Währung"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6456,9 +6849,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="E20" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
@@ -7035,7 +7428,7 @@
         <v>1440</v>
       </c>
       <c r="H21" s="30">
-        <f t="shared" ref="H21:H34" si="3">I21*G21/60</f>
+        <f t="shared" ref="H21:H32" si="3">I21*G21/60</f>
         <v>720</v>
       </c>
       <c r="I21" s="31">
@@ -7057,7 +7450,7 @@
         <v>25</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G22" s="29">
         <v>60</v>
@@ -7325,7 +7718,7 @@
         <v>60</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H33:H34" si="4">I33*G33/60</f>
         <v>30</v>
       </c>
       <c r="I33" s="19">
@@ -7340,7 +7733,7 @@
         <v>15</v>
       </c>
       <c r="H34" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
       <c r="I34" s="18">
@@ -7361,6 +7754,18 @@
       <c r="B36" s="26" t="s">
         <v>95</v>
       </c>
+      <c r="F36" t="s">
+        <v>978</v>
+      </c>
+      <c r="G36">
+        <v>60</v>
+      </c>
+      <c r="H36" s="40">
+        <v>30</v>
+      </c>
+      <c r="I36" s="19">
+        <v>30</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="105" t="s">
@@ -7378,30 +7783,30 @@
         <v>578</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F41">
-        <v>9880</v>
-      </c>
-    </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F42">
-        <v>5000</v>
+        <v>9880</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F43">
-        <f>F41-F42</f>
-        <v>4880</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F44">
-        <v>3000</v>
+        <f>F42-F43</f>
+        <v>4880</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F45">
-        <f>F43-F44</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <f>F44-F45</f>
         <v>1880</v>
       </c>
     </row>
@@ -7420,13 +7825,13 @@
   <sheetPr published="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I377"/>
+  <dimension ref="A1:I415"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7469,100 +7874,100 @@
     </row>
     <row r="2" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="78" t="s">
-        <v>102</v>
+        <v>883</v>
       </c>
       <c r="B2" s="133" t="s">
-        <v>207</v>
+        <v>48</v>
       </c>
       <c r="C2" s="137">
-        <v>44400</v>
+        <v>44456</v>
       </c>
       <c r="D2" s="133">
         <v>1</v>
       </c>
       <c r="E2" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F2" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="G2" s="78" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H2" s="134" t="s">
-        <v>965</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="78" t="s">
-        <v>102</v>
+        <v>509</v>
       </c>
       <c r="B3" s="133" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C3" s="137">
-        <v>44400</v>
+        <v>44456</v>
       </c>
       <c r="D3" s="133">
         <v>1</v>
       </c>
       <c r="E3" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F3" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>7.5</v>
       </c>
       <c r="G3" s="78" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>965</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="78" t="s">
-        <v>933</v>
+        <v>944</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>48</v>
+        <v>978</v>
       </c>
       <c r="C4" s="137">
-        <v>44438</v>
+        <v>44460</v>
       </c>
       <c r="D4" s="133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F4" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>90</v>
       </c>
       <c r="G4" s="78" t="s">
-        <v>966</v>
+        <v>977</v>
       </c>
       <c r="H4" s="134" t="s">
-        <v>505</v>
+        <v>980</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="78" t="s">
-        <v>933</v>
+        <v>904</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>947</v>
+        <v>978</v>
       </c>
       <c r="C5" s="137">
-        <v>44438</v>
+        <v>44461</v>
       </c>
       <c r="D5" s="133">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E5" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -7570,223 +7975,223 @@
       </c>
       <c r="F5" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G5" s="78" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H5" s="134" t="s">
-        <v>963</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="78" t="s">
-        <v>961</v>
+        <v>944</v>
       </c>
       <c r="B6" s="133" t="s">
-        <v>1</v>
+        <v>978</v>
       </c>
       <c r="C6" s="137">
-        <v>44435</v>
+        <v>44459</v>
       </c>
       <c r="D6" s="133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F6" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="G6" s="78" t="s">
-        <v>966</v>
+        <v>977</v>
       </c>
       <c r="H6" s="134" t="s">
-        <v>964</v>
+        <v>980</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="78" t="s">
-        <v>961</v>
+        <v>904</v>
       </c>
       <c r="B7" s="133" t="s">
-        <v>49</v>
+        <v>978</v>
       </c>
       <c r="C7" s="137">
-        <v>44438</v>
+        <v>44455</v>
       </c>
       <c r="D7" s="133">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F7" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="G7" s="78" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H7" s="134" t="s">
-        <v>962</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="78" t="s">
-        <v>953</v>
+        <v>904</v>
       </c>
       <c r="B8" s="133" t="s">
-        <v>48</v>
+        <v>978</v>
       </c>
       <c r="C8" s="137">
-        <v>44438</v>
+        <v>44454</v>
       </c>
       <c r="D8" s="133">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E8" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F8" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="G8" s="78" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H8" s="134" t="s">
-        <v>956</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
-        <v>958</v>
+        <v>904</v>
       </c>
       <c r="B9" s="133" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C9" s="137">
-        <v>44430</v>
+        <v>44454</v>
       </c>
       <c r="D9" s="133">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F9" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G9" s="78" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H9" s="134" t="s">
-        <v>959</v>
+        <v>999</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
-        <v>953</v>
+        <v>904</v>
       </c>
       <c r="B10" s="133" t="s">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="C10" s="137">
-        <v>44431</v>
+        <v>44454</v>
       </c>
       <c r="D10" s="133">
         <v>1</v>
       </c>
       <c r="E10" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F10" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="G10" s="78" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H10" s="134" t="s">
-        <v>955</v>
+        <v>998</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="78" t="s">
-        <v>953</v>
+        <v>904</v>
       </c>
       <c r="B11" s="133" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C11" s="137">
-        <v>44432</v>
+        <v>44454</v>
       </c>
       <c r="D11" s="133">
         <v>1</v>
       </c>
       <c r="E11" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F11" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="G11" s="78" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H11" s="134" t="s">
-        <v>954</v>
+        <v>996</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="78" t="s">
-        <v>933</v>
+        <v>904</v>
       </c>
       <c r="B12" s="133" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C12" s="137">
-        <v>44427</v>
+        <v>44453</v>
       </c>
       <c r="D12" s="133">
         <v>1</v>
       </c>
       <c r="E12" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F12" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="G12" s="78" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H12" s="134" t="s">
-        <v>952</v>
+        <v>997</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="78" t="s">
-        <v>933</v>
+        <v>944</v>
       </c>
       <c r="B13" s="133" t="s">
-        <v>22</v>
+        <v>978</v>
       </c>
       <c r="C13" s="137">
-        <v>44427</v>
+        <v>44453</v>
       </c>
       <c r="D13" s="133">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E13" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -7794,13 +8199,13 @@
       </c>
       <c r="F13" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G13" s="78" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H13" s="134" t="s">
-        <v>951</v>
+        <v>980</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7808,153 +8213,153 @@
         <v>933</v>
       </c>
       <c r="B14" s="133" t="s">
-        <v>1</v>
+        <v>978</v>
       </c>
       <c r="C14" s="137">
-        <v>44426</v>
+        <v>44453</v>
       </c>
       <c r="D14" s="133">
         <v>2</v>
       </c>
       <c r="E14" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F14" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G14" s="78" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H14" s="134" t="s">
-        <v>950</v>
+        <v>993</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78" t="s">
-        <v>904</v>
+        <v>984</v>
       </c>
       <c r="B15" s="133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="137">
-        <v>44428</v>
+        <v>44453</v>
       </c>
       <c r="D15" s="133">
         <v>1</v>
       </c>
       <c r="E15" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F15" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="G15" s="78" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H15" s="134" t="s">
-        <v>957</v>
+        <v>992</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78" t="s">
-        <v>904</v>
+        <v>933</v>
       </c>
       <c r="B16" s="133" t="s">
-        <v>1</v>
+        <v>978</v>
       </c>
       <c r="C16" s="137">
-        <v>44427</v>
+        <v>44452</v>
       </c>
       <c r="D16" s="133">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F16" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="G16" s="78" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H16" s="134" t="s">
-        <v>949</v>
+        <v>991</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="78" t="s">
-        <v>509</v>
+        <v>965</v>
       </c>
       <c r="B17" s="133" t="s">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="C17" s="137">
-        <v>44426</v>
+        <v>44452</v>
       </c>
       <c r="D17" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F17" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="G17" s="78" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H17" s="134" t="s">
-        <v>931</v>
+        <v>990</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="78" t="s">
-        <v>509</v>
+        <v>904</v>
       </c>
       <c r="B18" s="133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="137">
-        <v>44426</v>
+        <v>44449</v>
       </c>
       <c r="D18" s="133">
         <v>1</v>
       </c>
       <c r="E18" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F18" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="G18" s="78" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H18" s="134" t="s">
-        <v>931</v>
+        <v>989</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="78" t="s">
-        <v>933</v>
-      </c>
-      <c r="B19" s="78" t="s">
+        <v>904</v>
+      </c>
+      <c r="B19" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="137">
-        <v>44426</v>
+        <v>44449</v>
       </c>
       <c r="D19" s="133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -7962,13 +8367,13 @@
       </c>
       <c r="F19" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
+        <v>7.5</v>
       </c>
       <c r="G19" s="78" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H19" s="134" t="s">
-        <v>940</v>
+        <v>988</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7976,69 +8381,69 @@
         <v>904</v>
       </c>
       <c r="B20" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="137">
-        <v>44426</v>
+        <v>48</v>
+      </c>
+      <c r="C20" s="131">
+        <v>44447</v>
       </c>
       <c r="D20" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F20" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G20" s="78" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H20" s="134" t="s">
-        <v>932</v>
+        <v>987</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="78" t="s">
-        <v>945</v>
-      </c>
-      <c r="B21" s="78" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="137">
-        <v>44420</v>
+        <v>984</v>
+      </c>
+      <c r="B21" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="131">
+        <v>44448</v>
       </c>
       <c r="D21" s="133">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E21" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F21" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>7.5</v>
       </c>
       <c r="G21" s="78" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H21" s="134" t="s">
-        <v>943</v>
+        <v>986</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="78" t="s">
-        <v>945</v>
+        <v>904</v>
       </c>
       <c r="B22" s="133" t="s">
-        <v>487</v>
-      </c>
-      <c r="C22" s="137">
-        <v>44420</v>
+        <v>978</v>
+      </c>
+      <c r="C22" s="131">
+        <v>44448</v>
       </c>
       <c r="D22" s="133">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E22" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8046,55 +8451,55 @@
       </c>
       <c r="F22" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="G22" s="78" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H22" s="134" t="s">
-        <v>941</v>
+        <v>985</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="78" t="s">
-        <v>945</v>
+        <v>933</v>
       </c>
       <c r="B23" s="133" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C23" s="137">
-        <v>44410</v>
+        <v>44447</v>
       </c>
       <c r="D23" s="133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F23" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="G23" s="78" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H23" s="134" t="s">
-        <v>944</v>
+        <v>982</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78" t="s">
-        <v>933</v>
+        <v>904</v>
       </c>
       <c r="B24" s="133" t="s">
-        <v>487</v>
+        <v>978</v>
       </c>
       <c r="C24" s="137">
-        <v>44418</v>
+        <v>44447</v>
       </c>
       <c r="D24" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8102,167 +8507,167 @@
       </c>
       <c r="F24" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G24" s="78" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H24" s="134" t="s">
-        <v>938</v>
+        <v>981</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="78" t="s">
-        <v>879</v>
+        <v>944</v>
       </c>
       <c r="B25" s="133" t="s">
-        <v>58</v>
+        <v>978</v>
       </c>
       <c r="C25" s="137">
-        <v>44419</v>
+        <v>44446</v>
       </c>
       <c r="D25" s="133">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="E25" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F25" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G25" s="78" t="s">
-        <v>966</v>
-      </c>
-      <c r="H25" s="132" t="s">
-        <v>948</v>
+        <v>977</v>
+      </c>
+      <c r="H25" s="134" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="78" t="s">
-        <v>879</v>
+        <v>944</v>
       </c>
       <c r="B26" s="133" t="s">
-        <v>48</v>
+        <v>978</v>
       </c>
       <c r="C26" s="137">
-        <v>44323</v>
+        <v>44445</v>
       </c>
       <c r="D26" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F26" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>60</v>
       </c>
       <c r="G26" s="78" t="s">
-        <v>966</v>
-      </c>
-      <c r="H26" s="132" t="s">
-        <v>946</v>
+        <v>977</v>
+      </c>
+      <c r="H26" s="134" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="78" t="s">
-        <v>879</v>
+        <v>957</v>
       </c>
       <c r="B27" s="133" t="s">
-        <v>947</v>
+        <v>48</v>
       </c>
       <c r="C27" s="137">
-        <v>44323</v>
+        <v>44445</v>
       </c>
       <c r="D27" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F27" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>7.5</v>
       </c>
       <c r="G27" s="78" t="s">
-        <v>966</v>
-      </c>
-      <c r="H27" s="134" t="s">
-        <v>960</v>
+        <v>964</v>
+      </c>
+      <c r="H27" s="158" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="78" t="s">
-        <v>879</v>
+        <v>944</v>
       </c>
       <c r="B28" s="133" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C28" s="137">
-        <v>44418</v>
+        <v>44445</v>
       </c>
       <c r="D28" s="133">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E28" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F28" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>40</v>
+        <v>7.5</v>
       </c>
       <c r="G28" s="78" t="s">
-        <v>966</v>
-      </c>
-      <c r="H28" s="134" t="s">
-        <v>936</v>
+        <v>964</v>
+      </c>
+      <c r="H28" s="132" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="78" t="s">
-        <v>879</v>
+        <v>957</v>
       </c>
       <c r="B29" s="133" t="s">
-        <v>255</v>
+        <v>48</v>
       </c>
       <c r="C29" s="137">
-        <v>44418</v>
+        <v>44445</v>
       </c>
       <c r="D29" s="133">
-        <v>161</v>
+        <v>1</v>
       </c>
       <c r="E29" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F29" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>48.3</v>
+        <v>7.5</v>
       </c>
       <c r="G29" s="78" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H29" s="134" t="s">
-        <v>937</v>
+        <v>974</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="78" t="s">
-        <v>933</v>
+        <v>965</v>
       </c>
       <c r="B30" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="137">
+        <v>44445</v>
+      </c>
+      <c r="D30" s="133">
         <v>2</v>
-      </c>
-      <c r="C30" s="137">
-        <v>44418</v>
-      </c>
-      <c r="D30" s="133">
-        <v>26</v>
       </c>
       <c r="E30" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8270,41 +8675,41 @@
       </c>
       <c r="F30" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="G30" s="78" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H30" s="134" t="s">
-        <v>935</v>
+        <v>983</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="78" t="s">
-        <v>933</v>
+        <v>965</v>
       </c>
       <c r="B31" s="133" t="s">
-        <v>255</v>
+        <v>140</v>
       </c>
       <c r="C31" s="137">
-        <v>44418</v>
+        <v>44445</v>
       </c>
       <c r="D31" s="133">
-        <v>265</v>
+        <v>2</v>
       </c>
       <c r="E31" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F31" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>79.5</v>
+        <v>5</v>
       </c>
       <c r="G31" s="78" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H31" s="134" t="s">
-        <v>934</v>
+        <v>973</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -8312,41 +8717,41 @@
         <v>904</v>
       </c>
       <c r="B32" s="133" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C32" s="137">
-        <v>44417</v>
+        <v>44445</v>
       </c>
       <c r="D32" s="133">
         <v>1</v>
       </c>
       <c r="E32" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F32" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>7.5</v>
       </c>
       <c r="G32" s="78" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H32" s="134" t="s">
-        <v>939</v>
+        <v>972</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="78" t="s">
-        <v>928</v>
+        <v>904</v>
       </c>
       <c r="B33" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C33" s="137">
-        <v>44412</v>
+        <v>44440</v>
       </c>
       <c r="D33" s="133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E33" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8354,27 +8759,27 @@
       </c>
       <c r="F33" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
+        <v>7.5</v>
       </c>
       <c r="G33" s="78" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H33" s="134" t="s">
-        <v>930</v>
+        <v>971</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="78" t="s">
-        <v>928</v>
+        <v>957</v>
       </c>
       <c r="B34" s="133" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="137">
-        <v>44411</v>
+        <v>44440</v>
       </c>
       <c r="D34" s="133">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E34" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8382,83 +8787,83 @@
       </c>
       <c r="F34" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G34" s="78" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H34" s="134" t="s">
-        <v>929</v>
+        <v>970</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="78" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B35" s="133" t="s">
-        <v>947</v>
+        <v>1</v>
       </c>
       <c r="C35" s="137">
-        <v>44383</v>
+        <v>44440</v>
       </c>
       <c r="D35" s="133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F35" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="G35" s="78" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H35" s="134" t="s">
-        <v>942</v>
+        <v>969</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="78" t="s">
-        <v>102</v>
+        <v>904</v>
       </c>
       <c r="B36" s="133" t="s">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="C36" s="137">
-        <v>44400</v>
+        <v>44440</v>
       </c>
       <c r="D36" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F36" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G36" s="78" t="s">
-        <v>927</v>
+        <v>964</v>
       </c>
       <c r="H36" s="134" t="s">
-        <v>923</v>
+        <v>968</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="78" t="s">
-        <v>102</v>
+        <v>904</v>
       </c>
       <c r="B37" s="133" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="137">
-        <v>44400</v>
+        <v>44440</v>
       </c>
       <c r="D37" s="133">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="E37" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8466,27 +8871,27 @@
       </c>
       <c r="F37" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>7.5</v>
       </c>
       <c r="G37" s="78" t="s">
-        <v>927</v>
-      </c>
-      <c r="H37" s="134" t="s">
-        <v>923</v>
+        <v>964</v>
+      </c>
+      <c r="H37" s="158" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="78" t="s">
-        <v>886</v>
+        <v>965</v>
       </c>
       <c r="B38" s="133" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="137">
-        <v>44400</v>
+        <v>44440</v>
       </c>
       <c r="D38" s="133">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="E38" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8494,27 +8899,27 @@
       </c>
       <c r="F38" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>7.5</v>
       </c>
       <c r="G38" s="78" t="s">
-        <v>927</v>
-      </c>
-      <c r="H38" s="134" t="s">
-        <v>922</v>
+        <v>964</v>
+      </c>
+      <c r="H38" s="132" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="78" t="s">
-        <v>734</v>
+        <v>944</v>
       </c>
       <c r="B39" s="133" t="s">
-        <v>13</v>
+        <v>978</v>
       </c>
       <c r="C39" s="137">
-        <v>44400</v>
+        <v>44438</v>
       </c>
       <c r="D39" s="133">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E39" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8522,167 +8927,167 @@
       </c>
       <c r="F39" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>720</v>
       </c>
       <c r="G39" s="78" t="s">
-        <v>927</v>
+        <v>977</v>
       </c>
       <c r="H39" s="134" t="s">
-        <v>924</v>
+        <v>979</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="78" t="s">
-        <v>904</v>
+        <v>933</v>
       </c>
       <c r="B40" s="133" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C40" s="137">
-        <v>44396</v>
+        <v>44438</v>
       </c>
       <c r="D40" s="133">
         <v>1</v>
       </c>
       <c r="E40" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F40" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="G40" s="78" t="s">
-        <v>927</v>
+        <v>964</v>
       </c>
       <c r="H40" s="134" t="s">
-        <v>846</v>
+        <v>505</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="78" t="s">
-        <v>904</v>
+        <v>933</v>
       </c>
       <c r="B41" s="133" t="s">
-        <v>48</v>
+        <v>946</v>
       </c>
       <c r="C41" s="137">
-        <v>44396</v>
+        <v>44438</v>
       </c>
       <c r="D41" s="133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E41" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F41" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G41" s="78" t="s">
-        <v>927</v>
+        <v>964</v>
       </c>
       <c r="H41" s="134" t="s">
-        <v>905</v>
+        <v>962</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="78" t="s">
-        <v>945</v>
+        <v>960</v>
       </c>
       <c r="B42" s="133" t="s">
-        <v>255</v>
+        <v>49</v>
       </c>
       <c r="C42" s="137">
-        <v>44395</v>
+        <v>44438</v>
       </c>
       <c r="D42" s="133">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E42" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F42" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G42" s="78" t="s">
-        <v>927</v>
+        <v>964</v>
       </c>
       <c r="H42" s="134" t="s">
-        <v>920</v>
+        <v>961</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="78" t="s">
-        <v>945</v>
+        <v>952</v>
       </c>
       <c r="B43" s="133" t="s">
-        <v>255</v>
+        <v>48</v>
       </c>
       <c r="C43" s="137">
-        <v>44395</v>
+        <v>44438</v>
       </c>
       <c r="D43" s="133">
-        <v>237</v>
+        <v>1</v>
       </c>
       <c r="E43" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F43" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>71.099999999999994</v>
+        <v>7.5</v>
       </c>
       <c r="G43" s="78" t="s">
-        <v>927</v>
+        <v>964</v>
       </c>
       <c r="H43" s="134" t="s">
-        <v>921</v>
+        <v>955</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="78" t="s">
-        <v>945</v>
+        <v>960</v>
       </c>
       <c r="B44" s="133" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C44" s="137">
-        <v>44395</v>
+        <v>44435</v>
       </c>
       <c r="D44" s="133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E44" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F44" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="G44" s="78" t="s">
-        <v>927</v>
+        <v>964</v>
       </c>
       <c r="H44" s="134" t="s">
-        <v>919</v>
+        <v>963</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="78" t="s">
-        <v>883</v>
+        <v>952</v>
       </c>
       <c r="B45" s="133" t="s">
         <v>1</v>
       </c>
       <c r="C45" s="137">
-        <v>44384</v>
+        <v>44432</v>
       </c>
       <c r="D45" s="133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8690,55 +9095,55 @@
       </c>
       <c r="F45" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G45" s="78" t="s">
-        <v>927</v>
+        <v>964</v>
       </c>
       <c r="H45" s="134" t="s">
-        <v>925</v>
+        <v>953</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="78" t="s">
-        <v>738</v>
+        <v>952</v>
       </c>
       <c r="B46" s="133" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="C46" s="137">
-        <v>44384</v>
+        <v>44431</v>
       </c>
       <c r="D46" s="133">
         <v>1</v>
       </c>
       <c r="E46" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="F46" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>2.5</v>
       </c>
       <c r="G46" s="78" t="s">
-        <v>927</v>
+        <v>964</v>
       </c>
       <c r="H46" s="134" t="s">
-        <v>907</v>
+        <v>954</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="78" t="s">
-        <v>738</v>
+        <v>957</v>
       </c>
       <c r="B47" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C47" s="137">
-        <v>44379</v>
+        <v>44430</v>
       </c>
       <c r="D47" s="133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8746,136 +9151,136 @@
       </c>
       <c r="F47" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
+        <v>15</v>
       </c>
       <c r="G47" s="78" t="s">
-        <v>927</v>
+        <v>964</v>
       </c>
       <c r="H47" s="134" t="s">
-        <v>908</v>
+        <v>958</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="132" t="s">
-        <v>738</v>
+      <c r="A48" s="78" t="s">
+        <v>904</v>
       </c>
       <c r="B48" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="131">
-        <v>44377</v>
-      </c>
-      <c r="D48" s="132">
+        <v>49</v>
+      </c>
+      <c r="C48" s="137">
+        <v>44428</v>
+      </c>
+      <c r="D48" s="133">
+        <v>1</v>
+      </c>
+      <c r="E48" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>30</v>
+      </c>
+      <c r="F48" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>15</v>
+      </c>
+      <c r="G48" s="78" t="s">
+        <v>964</v>
+      </c>
+      <c r="H48" s="134" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="78" t="s">
+        <v>933</v>
+      </c>
+      <c r="B49" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="137">
+        <v>44427</v>
+      </c>
+      <c r="D49" s="133">
+        <v>1</v>
+      </c>
+      <c r="E49" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F49" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G49" s="78" t="s">
+        <v>964</v>
+      </c>
+      <c r="H49" s="134" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="78" t="s">
+        <v>933</v>
+      </c>
+      <c r="B50" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="137">
+        <v>44427</v>
+      </c>
+      <c r="D50" s="133">
+        <v>1</v>
+      </c>
+      <c r="E50" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>60</v>
+      </c>
+      <c r="F50" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>30</v>
+      </c>
+      <c r="G50" s="78" t="s">
+        <v>964</v>
+      </c>
+      <c r="H50" s="134" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="78" t="s">
+        <v>904</v>
+      </c>
+      <c r="B51" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="137">
+        <v>44427</v>
+      </c>
+      <c r="D51" s="133">
         <v>3</v>
       </c>
-      <c r="E48" s="132">
+      <c r="E51" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>10</v>
       </c>
-      <c r="F48" s="132">
+      <c r="F51" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>15</v>
       </c>
-      <c r="G48" s="78" t="s">
-        <v>927</v>
-      </c>
-      <c r="H48" s="132" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="132" t="s">
-        <v>909</v>
-      </c>
-      <c r="B49" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="131">
-        <v>44362</v>
-      </c>
-      <c r="D49" s="132">
-        <v>1</v>
-      </c>
-      <c r="E49" s="132">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
-      </c>
-      <c r="F49" s="132">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
-      </c>
-      <c r="G49" s="78" t="s">
-        <v>927</v>
-      </c>
-      <c r="H49" s="132" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="78" t="s">
-        <v>909</v>
-      </c>
-      <c r="B50" s="133" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" s="137">
-        <v>44362</v>
-      </c>
-      <c r="D50" s="133">
-        <v>3</v>
-      </c>
-      <c r="E50" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
-      </c>
-      <c r="F50" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
-      </c>
-      <c r="G50" s="78" t="s">
-        <v>927</v>
-      </c>
-      <c r="H50" s="134" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="78" t="s">
-        <v>887</v>
-      </c>
-      <c r="B51" s="133" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51" s="137">
-        <v>44343</v>
-      </c>
-      <c r="D51" s="133">
-        <v>1</v>
-      </c>
-      <c r="E51" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
-      </c>
-      <c r="F51" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
-      </c>
       <c r="G51" s="78" t="s">
-        <v>927</v>
+        <v>964</v>
       </c>
       <c r="H51" s="134" t="s">
-        <v>903</v>
+        <v>948</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="78" t="s">
-        <v>887</v>
+        <v>933</v>
       </c>
       <c r="B52" s="133" t="s">
         <v>1</v>
       </c>
       <c r="C52" s="137">
-        <v>44333</v>
+        <v>44426</v>
       </c>
       <c r="D52" s="133">
         <v>2</v>
@@ -8889,80 +9294,80 @@
         <v>10</v>
       </c>
       <c r="G52" s="78" t="s">
-        <v>927</v>
+        <v>964</v>
       </c>
       <c r="H52" s="134" t="s">
-        <v>902</v>
+        <v>949</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="78" t="s">
-        <v>913</v>
+        <v>509</v>
       </c>
       <c r="B53" s="133" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="C53" s="137">
-        <v>44326</v>
+        <v>44426</v>
       </c>
       <c r="D53" s="133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E53" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F53" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
+        <v>2.5</v>
       </c>
       <c r="G53" s="78" t="s">
-        <v>927</v>
+        <v>964</v>
       </c>
       <c r="H53" s="134" t="s">
-        <v>912</v>
+        <v>931</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="78" t="s">
-        <v>916</v>
+        <v>509</v>
       </c>
       <c r="B54" s="133" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C54" s="137">
-        <v>44320</v>
+        <v>44426</v>
       </c>
       <c r="D54" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="F54" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>180</v>
+        <v>7.5</v>
       </c>
       <c r="G54" s="78" t="s">
-        <v>927</v>
+        <v>964</v>
       </c>
       <c r="H54" s="134" t="s">
-        <v>918</v>
+        <v>931</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="78" t="s">
-        <v>916</v>
+        <v>933</v>
       </c>
       <c r="B55" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C55" s="137">
-        <v>44320</v>
+        <v>44426</v>
       </c>
       <c r="D55" s="133">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E55" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8970,165 +9375,167 @@
       </c>
       <c r="F55" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>22.5</v>
       </c>
       <c r="G55" s="78" t="s">
-        <v>927</v>
+        <v>964</v>
       </c>
       <c r="H55" s="134" t="s">
-        <v>917</v>
+        <v>940</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="78" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="B56" s="133" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C56" s="137">
-        <v>44316</v>
+        <v>44426</v>
       </c>
       <c r="D56" s="133">
         <v>2</v>
       </c>
       <c r="E56" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F56" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>10</v>
+      </c>
+      <c r="G56" s="78" t="s">
+        <v>964</v>
+      </c>
+      <c r="H56" s="134" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="78" t="s">
+        <v>944</v>
+      </c>
+      <c r="B57" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="137">
+        <v>44420</v>
+      </c>
+      <c r="D57" s="133">
+        <v>24</v>
+      </c>
+      <c r="E57" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>10</v>
+      </c>
+      <c r="F57" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>60</v>
       </c>
-      <c r="G56" s="78" t="s">
-        <v>927</v>
-      </c>
-      <c r="H56" s="134" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="153" t="s">
-        <v>879</v>
-      </c>
-      <c r="B57" s="154" t="s">
-        <v>633</v>
-      </c>
-      <c r="C57" s="155">
-        <v>44316</v>
-      </c>
-      <c r="D57" s="154">
-        <v>2</v>
-      </c>
-      <c r="E57" s="154">
+      <c r="G57" s="78" t="s">
+        <v>964</v>
+      </c>
+      <c r="H57" s="134" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="78" t="s">
+        <v>944</v>
+      </c>
+      <c r="B58" s="133" t="s">
+        <v>487</v>
+      </c>
+      <c r="C58" s="137">
+        <v>44420</v>
+      </c>
+      <c r="D58" s="133">
+        <v>10</v>
+      </c>
+      <c r="E58" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>60</v>
       </c>
-      <c r="F57" s="154">
+      <c r="F58" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>300</v>
+      </c>
+      <c r="G58" s="78" t="s">
+        <v>964</v>
+      </c>
+      <c r="H58" s="134" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="78" t="s">
+        <v>879</v>
+      </c>
+      <c r="B59" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="137">
+        <v>44419</v>
+      </c>
+      <c r="D59" s="133">
+        <v>1.5</v>
+      </c>
+      <c r="E59" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>120</v>
+      </c>
+      <c r="F59" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>90</v>
+      </c>
+      <c r="G59" s="78" t="s">
+        <v>964</v>
+      </c>
+      <c r="H59" s="134" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="78" t="s">
+        <v>933</v>
+      </c>
+      <c r="B60" s="133" t="s">
+        <v>487</v>
+      </c>
+      <c r="C60" s="137">
+        <v>44418</v>
+      </c>
+      <c r="D60" s="133">
+        <v>2</v>
+      </c>
+      <c r="E60" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>60</v>
+      </c>
+      <c r="F60" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>60</v>
       </c>
-      <c r="G57" s="78" t="s">
-        <v>927</v>
-      </c>
-      <c r="H57" s="156" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="78" t="s">
-        <v>911</v>
-      </c>
-      <c r="B58" s="133" t="s">
-        <v>48</v>
-      </c>
-      <c r="C58" s="137">
-        <v>44304</v>
-      </c>
-      <c r="D58" s="133">
-        <v>5</v>
-      </c>
-      <c r="E58" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
-      </c>
-      <c r="F58" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>37.5</v>
-      </c>
-      <c r="G58" s="78" t="s">
-        <v>927</v>
-      </c>
-      <c r="H58" s="134" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="153" t="s">
-        <v>891</v>
-      </c>
-      <c r="B59" s="154" t="s">
-        <v>49</v>
-      </c>
-      <c r="C59" s="155">
-        <v>44302</v>
-      </c>
-      <c r="D59" s="154">
-        <v>1</v>
-      </c>
-      <c r="E59" s="154">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>30</v>
-      </c>
-      <c r="F59" s="154">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
-      </c>
-      <c r="G59" s="78" t="s">
-        <v>927</v>
-      </c>
-      <c r="H59" s="156" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="157" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="78" t="s">
-        <v>887</v>
-      </c>
-      <c r="B60" s="133" t="s">
-        <v>50</v>
-      </c>
-      <c r="C60" s="137">
-        <v>44301</v>
-      </c>
-      <c r="D60" s="133">
-        <v>4</v>
-      </c>
-      <c r="E60" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
-      </c>
-      <c r="F60" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
-      </c>
       <c r="G60" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H60" s="134"/>
+        <v>964</v>
+      </c>
+      <c r="H60" s="134" t="s">
+        <v>938</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="78" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="B61" s="133" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" s="137">
-        <v>44301</v>
+        <v>44418</v>
       </c>
       <c r="D61" s="133">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E61" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -9136,245 +9543,251 @@
       </c>
       <c r="F61" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="G61" s="78" t="s">
-        <v>494</v>
+        <v>964</v>
       </c>
       <c r="H61" s="134" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="157" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="78" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="B62" s="133" t="s">
-        <v>523</v>
+        <v>255</v>
       </c>
       <c r="C62" s="137">
-        <v>44301</v>
+        <v>44418</v>
       </c>
       <c r="D62" s="133">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="E62" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F62" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>300</v>
+        <v>48.3</v>
       </c>
       <c r="G62" s="78" t="s">
-        <v>494</v>
+        <v>964</v>
       </c>
       <c r="H62" s="134" t="s">
-        <v>894</v>
+        <v>937</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="78" t="s">
-        <v>891</v>
+        <v>933</v>
       </c>
       <c r="B63" s="133" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="C63" s="137">
-        <v>44301</v>
+        <v>44418</v>
       </c>
       <c r="D63" s="133">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E63" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F63" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>65</v>
       </c>
       <c r="G63" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H63" s="134" t="s">
-        <v>892</v>
+        <v>964</v>
+      </c>
+      <c r="H63" s="132" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="78" t="s">
-        <v>883</v>
+        <v>933</v>
       </c>
       <c r="B64" s="133" t="s">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="C64" s="137">
-        <v>44301</v>
+        <v>44418</v>
       </c>
       <c r="D64" s="133">
-        <v>2</v>
+        <v>265</v>
       </c>
       <c r="E64" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F64" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>79.5</v>
       </c>
       <c r="G64" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H64" s="134" t="s">
-        <v>884</v>
+        <v>964</v>
+      </c>
+      <c r="H64" s="132" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="78" t="s">
-        <v>102</v>
+        <v>904</v>
       </c>
       <c r="B65" s="133" t="s">
-        <v>207</v>
+        <v>22</v>
       </c>
       <c r="C65" s="137">
-        <v>44301</v>
+        <v>44417</v>
       </c>
       <c r="D65" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F65" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G65" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H65" s="134"/>
+        <v>964</v>
+      </c>
+      <c r="H65" s="134" t="s">
+        <v>939</v>
+      </c>
     </row>
     <row r="66" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="78" t="s">
-        <v>102</v>
+        <v>928</v>
       </c>
       <c r="B66" s="133" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C66" s="137">
-        <v>44301</v>
+        <v>44412</v>
       </c>
       <c r="D66" s="133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E66" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F66" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>22.5</v>
       </c>
       <c r="G66" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H66" s="134"/>
-    </row>
-    <row r="67" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>964</v>
+      </c>
+      <c r="H66" s="134" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="78" t="s">
-        <v>734</v>
+        <v>928</v>
       </c>
       <c r="B67" s="133" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C67" s="137">
-        <v>44301</v>
+        <v>44411</v>
       </c>
       <c r="D67" s="133">
         <v>2</v>
       </c>
       <c r="E67" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F67" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G67" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H67" s="134"/>
+        <v>964</v>
+      </c>
+      <c r="H67" s="134" t="s">
+        <v>929</v>
+      </c>
     </row>
     <row r="68" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="78" t="s">
-        <v>883</v>
+        <v>944</v>
       </c>
       <c r="B68" s="133" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C68" s="137">
-        <v>44301</v>
+        <v>44410</v>
       </c>
       <c r="D68" s="133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E68" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F68" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="G68" s="78" t="s">
-        <v>494</v>
+        <v>964</v>
       </c>
       <c r="H68" s="134" t="s">
-        <v>901</v>
+        <v>943</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="78" t="s">
-        <v>891</v>
+        <v>102</v>
       </c>
       <c r="B69" s="133" t="s">
-        <v>1</v>
+        <v>207</v>
       </c>
       <c r="C69" s="137">
-        <v>44300</v>
+        <v>44400</v>
       </c>
       <c r="D69" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F69" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G69" s="78" t="s">
-        <v>494</v>
+        <v>964</v>
       </c>
       <c r="H69" s="134" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="78" t="s">
-        <v>877</v>
+        <v>102</v>
       </c>
       <c r="B70" s="133" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="C70" s="137">
-        <v>44300</v>
+        <v>44400</v>
       </c>
       <c r="D70" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E70" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -9382,109 +9795,111 @@
       </c>
       <c r="F70" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G70" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H70" s="134"/>
+        <v>964</v>
+      </c>
+      <c r="H70" s="134" t="s">
+        <v>995</v>
+      </c>
     </row>
     <row r="71" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="78" t="s">
-        <v>896</v>
+        <v>102</v>
       </c>
       <c r="B71" s="133" t="s">
-        <v>50</v>
+        <v>207</v>
       </c>
       <c r="C71" s="137">
-        <v>44294</v>
+        <v>44400</v>
       </c>
       <c r="D71" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F71" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="G71" s="78" t="s">
-        <v>494</v>
+        <v>927</v>
       </c>
       <c r="H71" s="134" t="s">
-        <v>893</v>
+        <v>923</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="78" t="s">
-        <v>896</v>
+        <v>102</v>
       </c>
       <c r="B72" s="133" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C72" s="137">
-        <v>44294</v>
+        <v>44400</v>
       </c>
       <c r="D72" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F72" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="G72" s="78" t="s">
-        <v>494</v>
+        <v>927</v>
       </c>
       <c r="H72" s="134" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="78" t="s">
-        <v>509</v>
+        <v>886</v>
       </c>
       <c r="B73" s="133" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C73" s="137">
-        <v>44294</v>
+        <v>44400</v>
       </c>
       <c r="D73" s="133">
         <v>2</v>
       </c>
       <c r="E73" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F73" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G73" s="78" t="s">
-        <v>494</v>
+        <v>927</v>
       </c>
       <c r="H73" s="134" t="s">
-        <v>893</v>
+        <v>922</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="78" t="s">
-        <v>879</v>
+        <v>734</v>
       </c>
       <c r="B74" s="133" t="s">
-        <v>487</v>
+        <v>13</v>
       </c>
       <c r="C74" s="137">
-        <v>44294</v>
+        <v>44400</v>
       </c>
       <c r="D74" s="133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E74" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -9492,27 +9907,27 @@
       </c>
       <c r="F74" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G74" s="78" t="s">
-        <v>494</v>
+        <v>927</v>
       </c>
       <c r="H74" s="134" t="s">
-        <v>871</v>
+        <v>924</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="78" t="s">
-        <v>879</v>
+        <v>904</v>
       </c>
       <c r="B75" s="133" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C75" s="137">
-        <v>44294</v>
+        <v>44396</v>
       </c>
       <c r="D75" s="133">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E75" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -9520,27 +9935,27 @@
       </c>
       <c r="F75" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="G75" s="78" t="s">
-        <v>494</v>
+        <v>927</v>
       </c>
       <c r="H75" s="134" t="s">
-        <v>870</v>
+        <v>846</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="78" t="s">
-        <v>886</v>
+        <v>904</v>
       </c>
       <c r="B76" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C76" s="137">
-        <v>44288</v>
+        <v>44396</v>
       </c>
       <c r="D76" s="133">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E76" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -9548,83 +9963,83 @@
       </c>
       <c r="F76" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
+        <v>30</v>
       </c>
       <c r="G76" s="78" t="s">
-        <v>494</v>
+        <v>927</v>
       </c>
       <c r="H76" s="134" t="s">
-        <v>889</v>
+        <v>905</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="78" t="s">
-        <v>886</v>
+        <v>944</v>
       </c>
       <c r="B77" s="133" t="s">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="C77" s="137">
-        <v>44288</v>
+        <v>44395</v>
       </c>
       <c r="D77" s="133">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E77" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F77" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G77" s="78" t="s">
-        <v>494</v>
+        <v>927</v>
       </c>
       <c r="H77" s="134" t="s">
-        <v>888</v>
+        <v>920</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="78" t="s">
-        <v>885</v>
+        <v>944</v>
       </c>
       <c r="B78" s="133" t="s">
-        <v>48</v>
+        <v>255</v>
       </c>
       <c r="C78" s="137">
-        <v>44288</v>
+        <v>44395</v>
       </c>
       <c r="D78" s="133">
-        <v>2</v>
+        <v>237</v>
       </c>
       <c r="E78" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F78" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="G78" s="78" t="s">
-        <v>494</v>
+        <v>927</v>
       </c>
       <c r="H78" s="134" t="s">
-        <v>890</v>
+        <v>921</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="78" t="s">
-        <v>879</v>
+        <v>944</v>
       </c>
       <c r="B79" s="133" t="s">
-        <v>633</v>
+        <v>35</v>
       </c>
       <c r="C79" s="137">
-        <v>44288</v>
+        <v>44395</v>
       </c>
       <c r="D79" s="133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E79" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -9632,13 +10047,13 @@
       </c>
       <c r="F79" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G79" s="78" t="s">
-        <v>494</v>
+        <v>927</v>
       </c>
       <c r="H79" s="134" t="s">
-        <v>880</v>
+        <v>919</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -9649,10 +10064,10 @@
         <v>1</v>
       </c>
       <c r="C80" s="137">
-        <v>44288</v>
+        <v>44384</v>
       </c>
       <c r="D80" s="133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E80" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -9660,251 +10075,251 @@
       </c>
       <c r="F80" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G80" s="78" t="s">
-        <v>494</v>
+        <v>927</v>
       </c>
       <c r="H80" s="134" t="s">
-        <v>901</v>
+        <v>925</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="78" t="s">
-        <v>879</v>
+        <v>738</v>
       </c>
       <c r="B81" s="133" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C81" s="137">
-        <v>44284</v>
+        <v>44384</v>
       </c>
       <c r="D81" s="133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E81" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="F81" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
+        <v>90</v>
       </c>
       <c r="G81" s="78" t="s">
-        <v>494</v>
+        <v>927</v>
       </c>
       <c r="H81" s="134" t="s">
-        <v>881</v>
+        <v>907</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="78" t="s">
-        <v>879</v>
+        <v>944</v>
       </c>
       <c r="B82" s="133" t="s">
-        <v>1</v>
+        <v>946</v>
       </c>
       <c r="C82" s="137">
-        <v>44275</v>
+        <v>44383</v>
       </c>
       <c r="D82" s="133">
         <v>2</v>
       </c>
       <c r="E82" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F82" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G82" s="78" t="s">
-        <v>494</v>
+        <v>964</v>
       </c>
       <c r="H82" s="134" t="s">
-        <v>882</v>
+        <v>994</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="78" t="s">
-        <v>830</v>
+        <v>738</v>
       </c>
       <c r="B83" s="133" t="s">
-        <v>947</v>
+        <v>48</v>
       </c>
       <c r="C83" s="137">
-        <v>44270</v>
+        <v>44379</v>
       </c>
       <c r="D83" s="133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E83" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F83" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>22.5</v>
       </c>
       <c r="G83" s="78" t="s">
-        <v>897</v>
+        <v>927</v>
       </c>
       <c r="H83" s="134" t="s">
-        <v>898</v>
+        <v>908</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="78" t="s">
-        <v>873</v>
+        <v>738</v>
       </c>
       <c r="B84" s="133" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C84" s="137">
-        <v>44264</v>
+        <v>44377</v>
       </c>
       <c r="D84" s="133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E84" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="F84" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="G84" s="78" t="s">
-        <v>878</v>
+        <v>927</v>
       </c>
       <c r="H84" s="134" t="s">
-        <v>875</v>
+        <v>908</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="78" t="s">
-        <v>873</v>
+        <v>909</v>
       </c>
       <c r="B85" s="133" t="s">
-        <v>487</v>
+        <v>1</v>
       </c>
       <c r="C85" s="137">
-        <v>44264</v>
+        <v>44362</v>
       </c>
       <c r="D85" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E85" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F85" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G85" s="78" t="s">
-        <v>878</v>
+        <v>927</v>
       </c>
       <c r="H85" s="134" t="s">
-        <v>874</v>
+        <v>910</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="78" t="s">
-        <v>873</v>
+      <c r="A86" s="132" t="s">
+        <v>909</v>
       </c>
       <c r="B86" s="133" t="s">
-        <v>140</v>
-      </c>
-      <c r="C86" s="137">
-        <v>44264</v>
-      </c>
-      <c r="D86" s="133">
+        <v>48</v>
+      </c>
+      <c r="C86" s="131">
+        <v>44362</v>
+      </c>
+      <c r="D86" s="132">
         <v>3</v>
       </c>
-      <c r="E86" s="133">
+      <c r="E86" s="132">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
-      </c>
-      <c r="F86" s="133">
+        <v>15</v>
+      </c>
+      <c r="F86" s="132">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>22.5</v>
+      </c>
+      <c r="G86" s="78" t="s">
+        <v>927</v>
+      </c>
+      <c r="H86" s="132" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="132" t="s">
+        <v>887</v>
+      </c>
+      <c r="B87" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C87" s="131">
+        <v>44343</v>
+      </c>
+      <c r="D87" s="132">
+        <v>1</v>
+      </c>
+      <c r="E87" s="132">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F87" s="132">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>7.5</v>
       </c>
-      <c r="G86" s="78" t="s">
-        <v>878</v>
-      </c>
-      <c r="H86" s="134" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="78" t="s">
-        <v>873</v>
-      </c>
-      <c r="B87" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87" s="137">
-        <v>44259</v>
-      </c>
-      <c r="D87" s="133">
+      <c r="G87" s="78" t="s">
+        <v>927</v>
+      </c>
+      <c r="H87" s="132" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="78" t="s">
+        <v>887</v>
+      </c>
+      <c r="B88" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="137">
+        <v>44333</v>
+      </c>
+      <c r="D88" s="133">
         <v>2</v>
       </c>
-      <c r="E87" s="133">
+      <c r="E88" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>10</v>
       </c>
-      <c r="F87" s="133">
+      <c r="F88" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>10</v>
       </c>
-      <c r="G87" s="78" t="s">
-        <v>878</v>
-      </c>
-      <c r="H87" s="134" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="78" t="s">
-        <v>830</v>
-      </c>
-      <c r="B88" s="133" t="s">
-        <v>140</v>
-      </c>
-      <c r="C88" s="137">
-        <v>44256</v>
-      </c>
-      <c r="D88" s="133">
-        <v>1</v>
-      </c>
-      <c r="E88" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
-      </c>
-      <c r="F88" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>2.5</v>
-      </c>
       <c r="G88" s="78" t="s">
-        <v>494</v>
+        <v>927</v>
       </c>
       <c r="H88" s="134" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="78" t="s">
-        <v>830</v>
+        <v>913</v>
       </c>
       <c r="B89" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C89" s="137">
-        <v>44250</v>
+        <v>44326</v>
       </c>
       <c r="D89" s="133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E89" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -9912,53 +10327,55 @@
       </c>
       <c r="F89" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>22.5</v>
       </c>
       <c r="G89" s="78" t="s">
-        <v>494</v>
+        <v>927</v>
       </c>
       <c r="H89" s="134" t="s">
-        <v>899</v>
+        <v>912</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="78" t="s">
-        <v>102</v>
+        <v>879</v>
       </c>
       <c r="B90" s="133" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C90" s="137">
-        <v>44244</v>
+        <v>44323</v>
       </c>
       <c r="D90" s="133">
         <v>1</v>
       </c>
       <c r="E90" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F90" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>7.5</v>
       </c>
       <c r="G90" s="78" t="s">
-        <v>661</v>
-      </c>
-      <c r="H90" s="134"/>
+        <v>964</v>
+      </c>
+      <c r="H90" s="134" t="s">
+        <v>945</v>
+      </c>
     </row>
     <row r="91" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="78" t="s">
-        <v>734</v>
+        <v>879</v>
       </c>
       <c r="B91" s="133" t="s">
-        <v>13</v>
+        <v>946</v>
       </c>
       <c r="C91" s="137">
-        <v>44244</v>
+        <v>44323</v>
       </c>
       <c r="D91" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E91" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -9966,78 +10383,80 @@
       </c>
       <c r="F91" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G91" s="78" t="s">
-        <v>661</v>
-      </c>
-      <c r="H91" s="134"/>
+        <v>964</v>
+      </c>
+      <c r="H91" s="134" t="s">
+        <v>959</v>
+      </c>
     </row>
     <row r="92" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="78" t="s">
-        <v>845</v>
+        <v>916</v>
       </c>
       <c r="B92" s="133" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C92" s="137">
-        <v>44244</v>
+        <v>44320</v>
       </c>
       <c r="D92" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E92" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="F92" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>180</v>
       </c>
       <c r="G92" s="78" t="s">
-        <v>661</v>
+        <v>927</v>
       </c>
       <c r="H92" s="134" t="s">
-        <v>861</v>
+        <v>918</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="78" t="s">
-        <v>866</v>
+        <v>916</v>
       </c>
       <c r="B93" s="133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C93" s="137">
-        <v>44242</v>
+        <v>44320</v>
       </c>
       <c r="D93" s="133">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E93" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F93" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G93" s="78" t="s">
-        <v>661</v>
+        <v>927</v>
       </c>
       <c r="H93" s="134" t="s">
-        <v>868</v>
+        <v>917</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="78" t="s">
-        <v>866</v>
+        <v>915</v>
       </c>
       <c r="B94" s="133" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C94" s="137">
-        <v>44242</v>
+        <v>44316</v>
       </c>
       <c r="D94" s="133">
         <v>2</v>
@@ -10051,133 +10470,131 @@
         <v>60</v>
       </c>
       <c r="G94" s="78" t="s">
-        <v>661</v>
+        <v>927</v>
       </c>
       <c r="H94" s="134" t="s">
-        <v>871</v>
+        <v>914</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="78" t="s">
-        <v>866</v>
-      </c>
-      <c r="B95" s="133" t="s">
+      <c r="A95" s="153" t="s">
+        <v>879</v>
+      </c>
+      <c r="B95" s="154" t="s">
+        <v>633</v>
+      </c>
+      <c r="C95" s="155">
+        <v>44316</v>
+      </c>
+      <c r="D95" s="154">
         <v>2</v>
       </c>
-      <c r="C95" s="137">
-        <v>44242</v>
-      </c>
-      <c r="D95" s="133">
-        <v>18</v>
-      </c>
-      <c r="E95" s="133">
+      <c r="E95" s="154">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
-      </c>
-      <c r="F95" s="133">
+        <v>60</v>
+      </c>
+      <c r="F95" s="154">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G95" s="78" t="s">
-        <v>661</v>
-      </c>
-      <c r="H95" s="134" t="s">
-        <v>870</v>
+        <v>927</v>
+      </c>
+      <c r="H95" s="156" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="78" t="s">
-        <v>866</v>
+        <v>911</v>
       </c>
       <c r="B96" s="133" t="s">
-        <v>487</v>
+        <v>48</v>
       </c>
       <c r="C96" s="137">
-        <v>44242</v>
+        <v>44304</v>
       </c>
       <c r="D96" s="133">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E96" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F96" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>37.5</v>
       </c>
       <c r="G96" s="78" t="s">
-        <v>661</v>
+        <v>927</v>
       </c>
       <c r="H96" s="134" t="s">
-        <v>867</v>
+        <v>890</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="78" t="s">
-        <v>869</v>
-      </c>
-      <c r="B97" s="133" t="s">
+      <c r="A97" s="153" t="s">
+        <v>891</v>
+      </c>
+      <c r="B97" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="C97" s="137">
-        <v>44239</v>
-      </c>
-      <c r="D97" s="133">
-        <v>1</v>
-      </c>
-      <c r="E97" s="133">
+      <c r="C97" s="155">
+        <v>44302</v>
+      </c>
+      <c r="D97" s="154">
+        <v>1</v>
+      </c>
+      <c r="E97" s="154">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>30</v>
       </c>
-      <c r="F97" s="133">
+      <c r="F97" s="154">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>15</v>
       </c>
       <c r="G97" s="78" t="s">
-        <v>661</v>
-      </c>
-      <c r="H97" s="134" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>927</v>
+      </c>
+      <c r="H97" s="156" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="157" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="78" t="s">
-        <v>862</v>
+        <v>887</v>
       </c>
       <c r="B98" s="133" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C98" s="137">
-        <v>44232</v>
+        <v>44301</v>
       </c>
       <c r="D98" s="133">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E98" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="F98" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G98" s="78" t="s">
-        <v>661</v>
-      </c>
-      <c r="H98" s="134" t="s">
-        <v>863</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="H98" s="134"/>
     </row>
     <row r="99" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="78" t="s">
-        <v>862</v>
+        <v>887</v>
       </c>
       <c r="B99" s="133" t="s">
         <v>1</v>
       </c>
       <c r="C99" s="137">
-        <v>44225</v>
+        <v>44301</v>
       </c>
       <c r="D99" s="133">
         <v>1</v>
@@ -10191,49 +10608,49 @@
         <v>5</v>
       </c>
       <c r="G99" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H99" s="134" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="157" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="78" t="s">
-        <v>862</v>
+        <v>887</v>
       </c>
       <c r="B100" s="133" t="s">
-        <v>48</v>
+        <v>523</v>
       </c>
       <c r="C100" s="137">
-        <v>44224</v>
+        <v>44301</v>
       </c>
       <c r="D100" s="133">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E100" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F100" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>37.5</v>
+        <v>300</v>
       </c>
       <c r="G100" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H100" s="134" t="s">
-        <v>865</v>
+        <v>894</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="78" t="s">
-        <v>845</v>
-      </c>
-      <c r="B101" s="132" t="s">
+        <v>891</v>
+      </c>
+      <c r="B101" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C101" s="137">
-        <v>44218</v>
+        <v>44301</v>
       </c>
       <c r="D101" s="133">
         <v>1</v>
@@ -10247,80 +10664,78 @@
         <v>7.5</v>
       </c>
       <c r="G101" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H101" s="134" t="s">
-        <v>860</v>
+        <v>892</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="78" t="s">
-        <v>845</v>
+        <v>883</v>
       </c>
       <c r="B102" s="133" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C102" s="137">
-        <v>44218</v>
+        <v>44301</v>
       </c>
       <c r="D102" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E102" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="F102" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G102" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H102" s="134" t="s">
-        <v>859</v>
+        <v>884</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="78" t="s">
-        <v>845</v>
+        <v>102</v>
       </c>
       <c r="B103" s="133" t="s">
-        <v>13</v>
+        <v>207</v>
       </c>
       <c r="C103" s="137">
-        <v>44210</v>
+        <v>44301</v>
       </c>
       <c r="D103" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E103" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F103" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G103" s="78" t="s">
-        <v>661</v>
-      </c>
-      <c r="H103" s="134" t="s">
-        <v>848</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="H103" s="134"/>
     </row>
     <row r="104" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="78" t="s">
-        <v>845</v>
+        <v>102</v>
       </c>
       <c r="B104" s="133" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C104" s="137">
-        <v>44210</v>
+        <v>44301</v>
       </c>
       <c r="D104" s="133">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E104" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -10328,195 +10743,189 @@
       </c>
       <c r="F104" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G104" s="78" t="s">
-        <v>661</v>
-      </c>
-      <c r="H104" s="134" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+      <c r="H104" s="134"/>
+    </row>
+    <row r="105" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="78" t="s">
-        <v>830</v>
+        <v>734</v>
       </c>
       <c r="B105" s="133" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C105" s="137">
-        <v>44209</v>
+        <v>44301</v>
       </c>
       <c r="D105" s="133">
         <v>2</v>
       </c>
       <c r="E105" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F105" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G105" s="78" t="s">
-        <v>661</v>
-      </c>
-      <c r="H105" s="134" t="s">
-        <v>858</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="H105" s="134"/>
     </row>
     <row r="106" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="78" t="s">
-        <v>830</v>
+        <v>883</v>
       </c>
       <c r="B106" s="133" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C106" s="137">
-        <v>44209</v>
+        <v>44301</v>
       </c>
       <c r="D106" s="133">
         <v>1</v>
       </c>
       <c r="E106" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F106" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="G106" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H106" s="134" t="s">
-        <v>855</v>
+        <v>901</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="78" t="s">
-        <v>845</v>
+        <v>891</v>
       </c>
       <c r="B107" s="133" t="s">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="C107" s="137">
-        <v>44209</v>
+        <v>44300</v>
       </c>
       <c r="D107" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E107" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F107" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>5</v>
       </c>
       <c r="G107" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H107" s="134" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="78" t="s">
-        <v>727</v>
+        <v>877</v>
       </c>
       <c r="B108" s="133" t="s">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="C108" s="137">
-        <v>44209</v>
+        <v>44300</v>
       </c>
       <c r="D108" s="133">
         <v>1</v>
       </c>
       <c r="E108" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F108" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>2.5</v>
+        <v>30</v>
       </c>
       <c r="G108" s="78" t="s">
-        <v>661</v>
-      </c>
-      <c r="H108" s="134" t="s">
-        <v>850</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="H108" s="134"/>
     </row>
     <row r="109" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="78" t="s">
-        <v>727</v>
+        <v>896</v>
       </c>
       <c r="B109" s="133" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C109" s="137">
-        <v>44209</v>
+        <v>44294</v>
       </c>
       <c r="D109" s="133">
         <v>1</v>
       </c>
       <c r="E109" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F109" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="G109" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H109" s="134" t="s">
-        <v>851</v>
+        <v>893</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="78" t="s">
-        <v>816</v>
+        <v>896</v>
       </c>
       <c r="B110" s="133" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C110" s="137">
-        <v>44209</v>
+        <v>44294</v>
       </c>
       <c r="D110" s="133">
         <v>1</v>
       </c>
       <c r="E110" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F110" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="G110" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H110" s="134" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="78" t="s">
-        <v>845</v>
+        <v>509</v>
       </c>
       <c r="B111" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C111" s="137">
-        <v>44208</v>
+        <v>44294</v>
       </c>
       <c r="D111" s="133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E111" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -10524,27 +10933,27 @@
       </c>
       <c r="F111" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
+        <v>15</v>
       </c>
       <c r="G111" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H111" s="134" t="s">
-        <v>847</v>
+        <v>893</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="78" t="s">
-        <v>102</v>
+        <v>879</v>
       </c>
       <c r="B112" s="133" t="s">
-        <v>22</v>
+        <v>487</v>
       </c>
       <c r="C112" s="137">
-        <v>44208</v>
+        <v>44294</v>
       </c>
       <c r="D112" s="133">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E112" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -10552,80 +10961,80 @@
       </c>
       <c r="F112" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G112" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H112" s="134" t="s">
-        <v>854</v>
+        <v>871</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="78" t="s">
-        <v>841</v>
+        <v>879</v>
       </c>
       <c r="B113" s="133" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="C113" s="137">
-        <v>44203</v>
+        <v>44294</v>
       </c>
       <c r="D113" s="133">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E113" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F113" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>80</v>
       </c>
       <c r="G113" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H113" s="134" t="s">
-        <v>844</v>
+        <v>870</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="78" t="s">
-        <v>780</v>
+        <v>886</v>
       </c>
       <c r="B114" s="133" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C114" s="137">
-        <v>44203</v>
+        <v>44288</v>
       </c>
       <c r="D114" s="133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E114" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F114" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>22.5</v>
       </c>
       <c r="G114" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H114" s="134" t="s">
-        <v>852</v>
+        <v>889</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="78" t="s">
-        <v>816</v>
+        <v>886</v>
       </c>
       <c r="B115" s="133" t="s">
         <v>1</v>
       </c>
       <c r="C115" s="137">
-        <v>44203</v>
+        <v>44288</v>
       </c>
       <c r="D115" s="133">
         <v>2</v>
@@ -10639,24 +11048,24 @@
         <v>10</v>
       </c>
       <c r="G115" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H115" s="134" t="s">
-        <v>839</v>
+        <v>888</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="78" t="s">
-        <v>781</v>
+        <v>885</v>
       </c>
       <c r="B116" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C116" s="137">
-        <v>44203</v>
+        <v>44288</v>
       </c>
       <c r="D116" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E116" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -10664,83 +11073,83 @@
       </c>
       <c r="F116" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="G116" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H116" s="134" t="s">
-        <v>842</v>
+        <v>890</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="78" t="s">
-        <v>767</v>
-      </c>
-      <c r="B117" s="132" t="s">
-        <v>48</v>
+        <v>879</v>
+      </c>
+      <c r="B117" s="133" t="s">
+        <v>633</v>
       </c>
       <c r="C117" s="137">
-        <v>44203</v>
+        <v>44288</v>
       </c>
       <c r="D117" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E117" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F117" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>60</v>
       </c>
       <c r="G117" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H117" s="134" t="s">
-        <v>842</v>
+        <v>880</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="78" t="s">
-        <v>816</v>
-      </c>
-      <c r="B118" s="132" t="s">
-        <v>140</v>
+        <v>883</v>
+      </c>
+      <c r="B118" s="133" t="s">
+        <v>1</v>
       </c>
       <c r="C118" s="137">
-        <v>44201</v>
+        <v>44288</v>
       </c>
       <c r="D118" s="133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E118" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F118" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="G118" s="78" t="s">
-        <v>661</v>
+        <v>494</v>
       </c>
       <c r="H118" s="134" t="s">
-        <v>840</v>
+        <v>901</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="78" t="s">
-        <v>830</v>
-      </c>
-      <c r="B119" s="132" t="s">
+        <v>879</v>
+      </c>
+      <c r="B119" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C119" s="137">
-        <v>44201</v>
+        <v>44284</v>
       </c>
       <c r="D119" s="133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E119" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -10748,208 +11157,1151 @@
       </c>
       <c r="F119" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>22.5</v>
+      </c>
+      <c r="G119" s="78" t="s">
+        <v>494</v>
+      </c>
+      <c r="H119" s="134" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="78" t="s">
+        <v>879</v>
+      </c>
+      <c r="B120" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" s="137">
+        <v>44275</v>
+      </c>
+      <c r="D120" s="133">
+        <v>2</v>
+      </c>
+      <c r="E120" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>10</v>
+      </c>
+      <c r="F120" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>10</v>
+      </c>
+      <c r="G120" s="78" t="s">
+        <v>494</v>
+      </c>
+      <c r="H120" s="134" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="78" t="s">
+        <v>830</v>
+      </c>
+      <c r="B121" s="133" t="s">
+        <v>946</v>
+      </c>
+      <c r="C121" s="137">
+        <v>44270</v>
+      </c>
+      <c r="D121" s="133">
+        <v>2</v>
+      </c>
+      <c r="E121" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>60</v>
+      </c>
+      <c r="F121" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>60</v>
+      </c>
+      <c r="G121" s="78" t="s">
+        <v>897</v>
+      </c>
+      <c r="H121" s="134" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="78" t="s">
+        <v>873</v>
+      </c>
+      <c r="B122" s="133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="137">
+        <v>44264</v>
+      </c>
+      <c r="D122" s="133">
+        <v>1</v>
+      </c>
+      <c r="E122" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>180</v>
+      </c>
+      <c r="F122" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>90</v>
+      </c>
+      <c r="G122" s="78" t="s">
+        <v>878</v>
+      </c>
+      <c r="H122" s="134" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="78" t="s">
+        <v>873</v>
+      </c>
+      <c r="B123" s="133" t="s">
+        <v>487</v>
+      </c>
+      <c r="C123" s="137">
+        <v>44264</v>
+      </c>
+      <c r="D123" s="133">
+        <v>2</v>
+      </c>
+      <c r="E123" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>60</v>
+      </c>
+      <c r="F123" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>60</v>
+      </c>
+      <c r="G123" s="78" t="s">
+        <v>878</v>
+      </c>
+      <c r="H123" s="134" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="78" t="s">
+        <v>873</v>
+      </c>
+      <c r="B124" s="133" t="s">
+        <v>140</v>
+      </c>
+      <c r="C124" s="137">
+        <v>44264</v>
+      </c>
+      <c r="D124" s="133">
+        <v>3</v>
+      </c>
+      <c r="E124" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>5</v>
+      </c>
+      <c r="F124" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>7.5</v>
       </c>
-      <c r="G119" s="78" t="s">
+      <c r="G124" s="78" t="s">
+        <v>878</v>
+      </c>
+      <c r="H124" s="134" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="78" t="s">
+        <v>873</v>
+      </c>
+      <c r="B125" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="137">
+        <v>44259</v>
+      </c>
+      <c r="D125" s="133">
+        <v>2</v>
+      </c>
+      <c r="E125" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>10</v>
+      </c>
+      <c r="F125" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>10</v>
+      </c>
+      <c r="G125" s="78" t="s">
+        <v>878</v>
+      </c>
+      <c r="H125" s="134" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="78" t="s">
+        <v>830</v>
+      </c>
+      <c r="B126" s="133" t="s">
+        <v>140</v>
+      </c>
+      <c r="C126" s="137">
+        <v>44256</v>
+      </c>
+      <c r="D126" s="133">
+        <v>1</v>
+      </c>
+      <c r="E126" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>5</v>
+      </c>
+      <c r="F126" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>2.5</v>
+      </c>
+      <c r="G126" s="78" t="s">
+        <v>494</v>
+      </c>
+      <c r="H126" s="134" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="78" t="s">
+        <v>830</v>
+      </c>
+      <c r="B127" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C127" s="137">
+        <v>44250</v>
+      </c>
+      <c r="D127" s="133">
+        <v>1</v>
+      </c>
+      <c r="E127" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F127" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G127" s="78" t="s">
+        <v>494</v>
+      </c>
+      <c r="H127" s="134" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="B128" s="133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" s="137">
+        <v>44244</v>
+      </c>
+      <c r="D128" s="133">
+        <v>1</v>
+      </c>
+      <c r="E128" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>60</v>
+      </c>
+      <c r="F128" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>30</v>
+      </c>
+      <c r="G128" s="78" t="s">
         <v>661</v>
       </c>
-      <c r="H119" s="134" t="s">
+      <c r="H128" s="134"/>
+    </row>
+    <row r="129" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="78" t="s">
+        <v>734</v>
+      </c>
+      <c r="B129" s="133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" s="137">
+        <v>44244</v>
+      </c>
+      <c r="D129" s="133">
+        <v>1</v>
+      </c>
+      <c r="E129" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>60</v>
+      </c>
+      <c r="F129" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>30</v>
+      </c>
+      <c r="G129" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H129" s="134"/>
+    </row>
+    <row r="130" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="78" t="s">
+        <v>845</v>
+      </c>
+      <c r="B130" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C130" s="137">
+        <v>44244</v>
+      </c>
+      <c r="D130" s="133">
+        <v>1</v>
+      </c>
+      <c r="E130" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F130" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G130" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H130" s="134" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="78" t="s">
+        <v>866</v>
+      </c>
+      <c r="B131" s="133" t="s">
+        <v>49</v>
+      </c>
+      <c r="C131" s="137">
+        <v>44242</v>
+      </c>
+      <c r="D131" s="133">
+        <v>1</v>
+      </c>
+      <c r="E131" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>30</v>
+      </c>
+      <c r="F131" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>15</v>
+      </c>
+      <c r="G131" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H131" s="134" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="78" t="s">
+        <v>866</v>
+      </c>
+      <c r="B132" s="133" t="s">
+        <v>35</v>
+      </c>
+      <c r="C132" s="137">
+        <v>44242</v>
+      </c>
+      <c r="D132" s="133">
+        <v>2</v>
+      </c>
+      <c r="E132" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>60</v>
+      </c>
+      <c r="F132" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>60</v>
+      </c>
+      <c r="G132" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H132" s="134" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="78" t="s">
+        <v>866</v>
+      </c>
+      <c r="B133" s="133" t="s">
+        <v>2</v>
+      </c>
+      <c r="C133" s="137">
+        <v>44242</v>
+      </c>
+      <c r="D133" s="133">
+        <v>18</v>
+      </c>
+      <c r="E133" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>10</v>
+      </c>
+      <c r="F133" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>45</v>
+      </c>
+      <c r="G133" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H133" s="134" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="78" t="s">
+        <v>866</v>
+      </c>
+      <c r="B134" s="133" t="s">
+        <v>487</v>
+      </c>
+      <c r="C134" s="137">
+        <v>44242</v>
+      </c>
+      <c r="D134" s="133">
+        <v>2</v>
+      </c>
+      <c r="E134" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>60</v>
+      </c>
+      <c r="F134" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>60</v>
+      </c>
+      <c r="G134" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H134" s="134" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="78" t="s">
+        <v>869</v>
+      </c>
+      <c r="B135" s="133" t="s">
+        <v>49</v>
+      </c>
+      <c r="C135" s="137">
+        <v>44239</v>
+      </c>
+      <c r="D135" s="133">
+        <v>1</v>
+      </c>
+      <c r="E135" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>30</v>
+      </c>
+      <c r="F135" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>15</v>
+      </c>
+      <c r="G135" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H135" s="134" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="78" t="s">
+        <v>862</v>
+      </c>
+      <c r="B136" s="133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" s="137">
+        <v>44232</v>
+      </c>
+      <c r="D136" s="133">
+        <v>1</v>
+      </c>
+      <c r="E136" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>180</v>
+      </c>
+      <c r="F136" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>90</v>
+      </c>
+      <c r="G136" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H136" s="134" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="78" t="s">
+        <v>862</v>
+      </c>
+      <c r="B137" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" s="137">
+        <v>44225</v>
+      </c>
+      <c r="D137" s="133">
+        <v>1</v>
+      </c>
+      <c r="E137" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>10</v>
+      </c>
+      <c r="F137" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>5</v>
+      </c>
+      <c r="G137" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H137" s="134" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="78" t="s">
+        <v>862</v>
+      </c>
+      <c r="B138" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C138" s="137">
+        <v>44224</v>
+      </c>
+      <c r="D138" s="133">
+        <v>5</v>
+      </c>
+      <c r="E138" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F138" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>37.5</v>
+      </c>
+      <c r="G138" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H138" s="134" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="78" t="s">
+        <v>845</v>
+      </c>
+      <c r="B139" s="132" t="s">
+        <v>48</v>
+      </c>
+      <c r="C139" s="137">
+        <v>44218</v>
+      </c>
+      <c r="D139" s="133">
+        <v>1</v>
+      </c>
+      <c r="E139" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F139" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G139" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H139" s="134" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="78" t="s">
+        <v>845</v>
+      </c>
+      <c r="B140" s="133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="137">
+        <v>44218</v>
+      </c>
+      <c r="D140" s="133">
+        <v>1</v>
+      </c>
+      <c r="E140" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>180</v>
+      </c>
+      <c r="F140" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>90</v>
+      </c>
+      <c r="G140" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H140" s="134" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="78" t="s">
+        <v>845</v>
+      </c>
+      <c r="B141" s="133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" s="137">
+        <v>44210</v>
+      </c>
+      <c r="D141" s="133">
+        <v>1</v>
+      </c>
+      <c r="E141" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>60</v>
+      </c>
+      <c r="F141" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>30</v>
+      </c>
+      <c r="G141" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H141" s="134" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="78" t="s">
+        <v>845</v>
+      </c>
+      <c r="B142" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="C142" s="137">
+        <v>44210</v>
+      </c>
+      <c r="D142" s="133">
+        <v>0.5</v>
+      </c>
+      <c r="E142" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>60</v>
+      </c>
+      <c r="F142" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>15</v>
+      </c>
+      <c r="G142" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H142" s="134" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="78" t="s">
+        <v>830</v>
+      </c>
+      <c r="B143" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C143" s="137">
+        <v>44209</v>
+      </c>
+      <c r="D143" s="133">
+        <v>2</v>
+      </c>
+      <c r="E143" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F143" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>15</v>
+      </c>
+      <c r="G143" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H143" s="134" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="78" t="s">
+        <v>830</v>
+      </c>
+      <c r="B144" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C144" s="137">
+        <v>44209</v>
+      </c>
+      <c r="D144" s="133">
+        <v>1</v>
+      </c>
+      <c r="E144" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F144" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G144" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H144" s="134" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="78" t="s">
+        <v>845</v>
+      </c>
+      <c r="B145" s="133" t="s">
+        <v>140</v>
+      </c>
+      <c r="C145" s="137">
+        <v>44209</v>
+      </c>
+      <c r="D145" s="133">
+        <v>2</v>
+      </c>
+      <c r="E145" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>5</v>
+      </c>
+      <c r="F145" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>5</v>
+      </c>
+      <c r="G145" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H145" s="134" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="78" t="s">
+        <v>727</v>
+      </c>
+      <c r="B146" s="133" t="s">
+        <v>140</v>
+      </c>
+      <c r="C146" s="137">
+        <v>44209</v>
+      </c>
+      <c r="D146" s="133">
+        <v>1</v>
+      </c>
+      <c r="E146" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>5</v>
+      </c>
+      <c r="F146" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>2.5</v>
+      </c>
+      <c r="G146" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H146" s="134" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="78" t="s">
+        <v>727</v>
+      </c>
+      <c r="B147" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C147" s="137">
+        <v>44209</v>
+      </c>
+      <c r="D147" s="133">
+        <v>1</v>
+      </c>
+      <c r="E147" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F147" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G147" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H147" s="134" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="78" t="s">
+        <v>816</v>
+      </c>
+      <c r="B148" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C148" s="137">
+        <v>44209</v>
+      </c>
+      <c r="D148" s="133">
+        <v>1</v>
+      </c>
+      <c r="E148" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F148" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G148" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H148" s="134" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="78" t="s">
+        <v>845</v>
+      </c>
+      <c r="B149" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C149" s="137">
+        <v>44208</v>
+      </c>
+      <c r="D149" s="133">
+        <v>3</v>
+      </c>
+      <c r="E149" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F149" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>22.5</v>
+      </c>
+      <c r="G149" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H149" s="134" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="B150" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="C150" s="137">
+        <v>44208</v>
+      </c>
+      <c r="D150" s="133">
+        <v>2</v>
+      </c>
+      <c r="E150" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>60</v>
+      </c>
+      <c r="F150" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>60</v>
+      </c>
+      <c r="G150" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H150" s="134" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="78" t="s">
+        <v>841</v>
+      </c>
+      <c r="B151" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C151" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D151" s="133">
+        <v>1</v>
+      </c>
+      <c r="E151" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F151" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G151" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H151" s="134" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="78" t="s">
+        <v>780</v>
+      </c>
+      <c r="B152" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D152" s="133">
+        <v>1</v>
+      </c>
+      <c r="E152" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>10</v>
+      </c>
+      <c r="F152" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>5</v>
+      </c>
+      <c r="G152" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H152" s="134" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="78" t="s">
+        <v>816</v>
+      </c>
+      <c r="B153" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D153" s="133">
+        <v>2</v>
+      </c>
+      <c r="E153" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>10</v>
+      </c>
+      <c r="F153" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>10</v>
+      </c>
+      <c r="G153" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H153" s="134" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="78" t="s">
+        <v>781</v>
+      </c>
+      <c r="B154" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C154" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D154" s="133">
+        <v>1</v>
+      </c>
+      <c r="E154" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F154" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G154" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H154" s="134" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="78" t="s">
+        <v>767</v>
+      </c>
+      <c r="B155" s="132" t="s">
+        <v>48</v>
+      </c>
+      <c r="C155" s="137">
+        <v>44203</v>
+      </c>
+      <c r="D155" s="133">
+        <v>1</v>
+      </c>
+      <c r="E155" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F155" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G155" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H155" s="134" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="78" t="s">
+        <v>816</v>
+      </c>
+      <c r="B156" s="132" t="s">
+        <v>140</v>
+      </c>
+      <c r="C156" s="137">
+        <v>44201</v>
+      </c>
+      <c r="D156" s="133">
+        <v>3</v>
+      </c>
+      <c r="E156" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>5</v>
+      </c>
+      <c r="F156" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G156" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H156" s="134" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="78" t="s">
+        <v>830</v>
+      </c>
+      <c r="B157" s="132" t="s">
+        <v>48</v>
+      </c>
+      <c r="C157" s="137">
+        <v>44201</v>
+      </c>
+      <c r="D157" s="133">
+        <v>1</v>
+      </c>
+      <c r="E157" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F157" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>7.5</v>
+      </c>
+      <c r="G157" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H157" s="134" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="147" t="s">
+    <row r="158" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="159" t="s">
         <v>491</v>
       </c>
-      <c r="B120" s="148">
+      <c r="B158" s="160">
         <f>SUBTOTAL(5,TAB_Doku_201910[Datum])</f>
         <v>44201</v>
       </c>
-      <c r="C120" s="149">
+      <c r="C158" s="161">
         <f>SUBTOTAL(4,TAB_Doku_201910[Datum])</f>
-        <v>44438</v>
-      </c>
-      <c r="D120" s="150"/>
-      <c r="E120" s="150"/>
-      <c r="F120" s="151">
+        <v>44461</v>
+      </c>
+      <c r="D158" s="162"/>
+      <c r="E158" s="162"/>
+      <c r="F158" s="163">
         <f>SUBTOTAL(9,TAB_Doku_201910[[Kosten ]])</f>
-        <v>4128.8999999999996</v>
-      </c>
-      <c r="G120" s="147"/>
-      <c r="H120" s="152"/>
-    </row>
-    <row r="121" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C121"/>
-    </row>
-    <row r="122" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C122"/>
-    </row>
-    <row r="123" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C123"/>
-    </row>
-    <row r="124" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C124"/>
-    </row>
-    <row r="125" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C125"/>
-    </row>
-    <row r="126" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C126"/>
-    </row>
-    <row r="127" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C127"/>
-    </row>
-    <row r="128" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C128"/>
-    </row>
-    <row r="129" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C129"/>
-    </row>
-    <row r="130" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C130"/>
-    </row>
-    <row r="131" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C131"/>
-    </row>
-    <row r="132" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C132"/>
-    </row>
-    <row r="133" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C133"/>
-    </row>
-    <row r="134" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C134"/>
-    </row>
-    <row r="135" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C135"/>
-    </row>
-    <row r="136" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C136"/>
-    </row>
-    <row r="137" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C137"/>
-    </row>
-    <row r="138" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C138"/>
-    </row>
-    <row r="139" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C139"/>
-    </row>
-    <row r="140" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C140"/>
-    </row>
-    <row r="141" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C141"/>
-    </row>
-    <row r="142" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C142"/>
-    </row>
-    <row r="143" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C143"/>
-    </row>
-    <row r="144" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C144"/>
-    </row>
-    <row r="145" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C145"/>
-    </row>
-    <row r="146" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C146"/>
-    </row>
-    <row r="147" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C147"/>
-    </row>
-    <row r="148" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C148"/>
-    </row>
-    <row r="149" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C149"/>
-    </row>
-    <row r="150" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C150"/>
-    </row>
-    <row r="151" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C151"/>
-    </row>
-    <row r="152" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C152"/>
-    </row>
-    <row r="153" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C153"/>
-    </row>
-    <row r="154" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C154"/>
-    </row>
-    <row r="155" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C155"/>
-      <c r="I155" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="156" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C156"/>
-    </row>
-    <row r="157" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C157"/>
-    </row>
-    <row r="158" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C158"/>
-    </row>
-    <row r="159" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+        <v>6186.4</v>
+      </c>
+      <c r="G158" s="159"/>
+      <c r="H158" s="164"/>
+    </row>
+    <row r="159" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C159"/>
     </row>
-    <row r="160" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C160"/>
     </row>
-    <row r="161" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C161"/>
     </row>
-    <row r="162" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C162"/>
     </row>
-    <row r="163" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C163"/>
     </row>
-    <row r="164" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C164"/>
     </row>
-    <row r="165" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C165"/>
     </row>
-    <row r="166" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C166"/>
     </row>
-    <row r="167" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C167"/>
     </row>
-    <row r="168" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C168"/>
     </row>
-    <row r="169" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C169"/>
     </row>
-    <row r="170" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C170"/>
     </row>
-    <row r="171" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C171"/>
     </row>
-    <row r="172" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C172"/>
     </row>
-    <row r="173" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C173"/>
     </row>
-    <row r="174" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C174"/>
     </row>
-    <row r="175" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C175"/>
     </row>
-    <row r="176" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C176"/>
     </row>
-    <row r="177" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C177"/>
     </row>
     <row r="178" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -10997,66 +12349,55 @@
     <row r="192" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C192"/>
     </row>
-    <row r="193" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="193" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C193"/>
-    </row>
-    <row r="194" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I193" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="194" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C194"/>
     </row>
-    <row r="195" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="195" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C195"/>
     </row>
-    <row r="196" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="196" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C196"/>
     </row>
-    <row r="197" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A197"/>
-      <c r="B197"/>
+    <row r="197" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C197"/>
-      <c r="D197"/>
-      <c r="E197"/>
-      <c r="F197"/>
-      <c r="G197"/>
-      <c r="H197"/>
-    </row>
-    <row r="198" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C198"/>
     </row>
-    <row r="199" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="199" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C199"/>
     </row>
-    <row r="200" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="200" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C200"/>
     </row>
-    <row r="201" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="201" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C201"/>
     </row>
-    <row r="202" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A202"/>
-      <c r="B202"/>
+    <row r="202" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C202"/>
-      <c r="D202"/>
-      <c r="E202"/>
-      <c r="F202"/>
-      <c r="G202"/>
-      <c r="H202"/>
-    </row>
-    <row r="203" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C203"/>
     </row>
-    <row r="204" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="204" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C204"/>
     </row>
-    <row r="205" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="205" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C205"/>
     </row>
-    <row r="206" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="206" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C206"/>
     </row>
-    <row r="207" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="207" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C207"/>
     </row>
-    <row r="208" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="208" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C208"/>
     </row>
     <row r="209" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -11077,7 +12418,7 @@
     <row r="214" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C214"/>
     </row>
-    <row r="215" spans="3:3" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C215"/>
     </row>
     <row r="216" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -11107,53 +12448,67 @@
     <row r="224" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C224"/>
     </row>
-    <row r="225" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C225"/>
     </row>
-    <row r="226" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C226"/>
     </row>
-    <row r="227" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C227"/>
     </row>
-    <row r="228" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C228"/>
     </row>
-    <row r="229" spans="3:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C229"/>
     </row>
-    <row r="230" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C230"/>
     </row>
-    <row r="231" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C231"/>
     </row>
-    <row r="232" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C232"/>
     </row>
-    <row r="233" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C233"/>
     </row>
-    <row r="234" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C234"/>
     </row>
-    <row r="235" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A235"/>
+      <c r="B235"/>
       <c r="C235"/>
-    </row>
-    <row r="236" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D235"/>
+      <c r="E235"/>
+      <c r="F235"/>
+      <c r="G235"/>
+      <c r="H235"/>
+    </row>
+    <row r="236" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C236"/>
     </row>
-    <row r="237" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C237"/>
     </row>
-    <row r="238" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C238"/>
     </row>
-    <row r="239" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C239"/>
     </row>
-    <row r="240" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" s="143" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A240"/>
+      <c r="B240"/>
       <c r="C240"/>
+      <c r="D240"/>
+      <c r="E240"/>
+      <c r="F240"/>
+      <c r="G240"/>
+      <c r="H240"/>
     </row>
     <row r="241" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C241"/>
@@ -11191,7 +12546,7 @@
     <row r="252" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C252"/>
     </row>
-    <row r="253" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="253" spans="3:3" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C253"/>
     </row>
     <row r="254" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -11233,7 +12588,7 @@
     <row r="266" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C266"/>
     </row>
-    <row r="267" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="267" spans="3:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C267"/>
     </row>
     <row r="268" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -11557,25 +12912,227 @@
     <row r="374" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C374"/>
     </row>
-    <row r="375" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C375"/>
     </row>
-    <row r="376" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C376"/>
     </row>
-    <row r="377" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C377"/>
     </row>
+    <row r="378" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C378"/>
+    </row>
+    <row r="379" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C379"/>
+    </row>
+    <row r="380" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C380"/>
+    </row>
+    <row r="381" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C381"/>
+    </row>
+    <row r="382" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C382"/>
+    </row>
+    <row r="383" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C383"/>
+    </row>
+    <row r="384" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C384"/>
+    </row>
+    <row r="385" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C385"/>
+    </row>
+    <row r="386" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C386"/>
+    </row>
+    <row r="387" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C387"/>
+    </row>
+    <row r="388" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C388"/>
+    </row>
+    <row r="389" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C389"/>
+    </row>
+    <row r="390" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C390"/>
+    </row>
+    <row r="391" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C391"/>
+    </row>
+    <row r="392" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C392"/>
+    </row>
+    <row r="393" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C393"/>
+    </row>
+    <row r="394" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C394"/>
+    </row>
+    <row r="395" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C395"/>
+    </row>
+    <row r="396" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C396"/>
+    </row>
+    <row r="397" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C397"/>
+    </row>
+    <row r="398" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C398"/>
+    </row>
+    <row r="399" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C399"/>
+    </row>
+    <row r="400" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C400"/>
+    </row>
+    <row r="401" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C401"/>
+    </row>
+    <row r="402" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C402"/>
+    </row>
+    <row r="403" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C403"/>
+    </row>
+    <row r="404" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C404"/>
+    </row>
+    <row r="405" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C405"/>
+    </row>
+    <row r="406" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C406"/>
+    </row>
+    <row r="407" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C407"/>
+    </row>
+    <row r="408" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C408"/>
+    </row>
+    <row r="409" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C409"/>
+    </row>
+    <row r="410" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C410"/>
+    </row>
+    <row r="411" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C411"/>
+    </row>
+    <row r="412" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C412"/>
+    </row>
+    <row r="413" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C413"/>
+    </row>
+    <row r="414" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C414"/>
+    </row>
+    <row r="415" spans="3:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C415"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="Gegenrechnung mit Flachau 3300.-">
+  <conditionalFormatting sqref="G27:G1048576 G1 G13:G25 G4">
+    <cfRule type="containsText" dxfId="61" priority="28" operator="containsText" text="Gegenrechnung mit Flachau 3300.-">
       <formula>NOT(ISERROR(SEARCH("Gegenrechnung mit Flachau 3300.-",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="4" operator="containsText" text="nächste">
+    <cfRule type="containsText" dxfId="60" priority="31" operator="containsText" text="nächste">
       <formula>NOT(ISERROR(SEARCH("nächste",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="5" operator="containsText" text="offen">
+    <cfRule type="containsText" dxfId="59" priority="32" operator="containsText" text="offen">
       <formula>NOT(ISERROR(SEARCH("offen",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="containsText" dxfId="58" priority="25" operator="containsText" text="Gegenrechnung mit Flachau 3300.-">
+      <formula>NOT(ISERROR(SEARCH("Gegenrechnung mit Flachau 3300.-",G26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="26" operator="containsText" text="nächste">
+      <formula>NOT(ISERROR(SEARCH("nächste",G26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="27" operator="containsText" text="offen">
+      <formula>NOT(ISERROR(SEARCH("offen",G26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:G12">
+    <cfRule type="containsText" dxfId="55" priority="19" operator="containsText" text="Gegenrechnung mit Flachau 3300.-">
+      <formula>NOT(ISERROR(SEARCH("Gegenrechnung mit Flachau 3300.-",G10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="20" operator="containsText" text="nächste">
+      <formula>NOT(ISERROR(SEARCH("nächste",G10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="21" operator="containsText" text="offen">
+      <formula>NOT(ISERROR(SEARCH("offen",G10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="containsText" dxfId="52" priority="16" operator="containsText" text="Gegenrechnung mit Flachau 3300.-">
+      <formula>NOT(ISERROR(SEARCH("Gegenrechnung mit Flachau 3300.-",G9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="17" operator="containsText" text="nächste">
+      <formula>NOT(ISERROR(SEARCH("nächste",G9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="18" operator="containsText" text="offen">
+      <formula>NOT(ISERROR(SEARCH("offen",G9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="containsText" dxfId="49" priority="13" operator="containsText" text="Gegenrechnung mit Flachau 3300.-">
+      <formula>NOT(ISERROR(SEARCH("Gegenrechnung mit Flachau 3300.-",G8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="14" operator="containsText" text="nächste">
+      <formula>NOT(ISERROR(SEARCH("nächste",G8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="47" priority="15" operator="containsText" text="offen">
+      <formula>NOT(ISERROR(SEARCH("offen",G8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="containsText" dxfId="46" priority="10" operator="containsText" text="Gegenrechnung mit Flachau 3300.-">
+      <formula>NOT(ISERROR(SEARCH("Gegenrechnung mit Flachau 3300.-",G7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="11" operator="containsText" text="nächste">
+      <formula>NOT(ISERROR(SEARCH("nächste",G7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="12" operator="containsText" text="offen">
+      <formula>NOT(ISERROR(SEARCH("offen",G7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G6">
+    <cfRule type="containsText" dxfId="43" priority="7" operator="containsText" text="Gegenrechnung mit Flachau 3300.-">
+      <formula>NOT(ISERROR(SEARCH("Gegenrechnung mit Flachau 3300.-",G5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="8" operator="containsText" text="nächste">
+      <formula>NOT(ISERROR(SEARCH("nächste",G5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="9" operator="containsText" text="offen">
+      <formula>NOT(ISERROR(SEARCH("offen",G5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="40" priority="4" operator="containsText" text="Gegenrechnung mit Flachau 3300.-">
+      <formula>NOT(ISERROR(SEARCH("Gegenrechnung mit Flachau 3300.-",G3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="5" operator="containsText" text="nächste">
+      <formula>NOT(ISERROR(SEARCH("nächste",G3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="6" operator="containsText" text="offen">
+      <formula>NOT(ISERROR(SEARCH("offen",G3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Gegenrechnung mit Flachau 3300.-">
+      <formula>NOT(ISERROR(SEARCH("Gegenrechnung mit Flachau 3300.-",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="nächste">
+      <formula>NOT(ISERROR(SEARCH("nächste",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="offen">
+      <formula>NOT(ISERROR(SEARCH("offen",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.47244094488188981" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11592,9 +13149,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F$1:$F$35</xm:f>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$36</xm:f>
           </x14:formula1>
-          <xm:sqref>B20 B12:B18 B2:B10 B22:B119</xm:sqref>
+          <xm:sqref>B58 B50:B56 B60:B157 B40:B48 B22:B27 B31 B16:B18 B12:B14 B4:B9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -20498,187 +22055,187 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$40</xm:f>
           </x14:formula1>
           <xm:sqref>B235:B237</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$40</xm:f>
           </x14:formula1>
           <xm:sqref>B255:B256</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$40</xm:f>
           </x14:formula1>
           <xm:sqref>B241:B250</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$40</xm:f>
           </x14:formula1>
           <xm:sqref>B258:B260</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$40</xm:f>
           </x14:formula1>
           <xm:sqref>B262</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$40</xm:f>
           </x14:formula1>
           <xm:sqref>B305:B306</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$40</xm:f>
           </x14:formula1>
           <xm:sqref>B171:B172</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$40</xm:f>
           </x14:formula1>
           <xm:sqref>B165:B169</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$40</xm:f>
           </x14:formula1>
           <xm:sqref>B308:B313</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$40</xm:f>
           </x14:formula1>
           <xm:sqref>B163</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$40</xm:f>
           </x14:formula1>
           <xm:sqref>B265:B299</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$40</xm:f>
           </x14:formula1>
           <xm:sqref>B137:B146</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$40</xm:f>
           </x14:formula1>
           <xm:sqref>B149:B158</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$40</xm:f>
           </x14:formula1>
           <xm:sqref>B134:B135</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$40</xm:f>
           </x14:formula1>
           <xm:sqref>B125</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$40</xm:f>
           </x14:formula1>
           <xm:sqref>B123</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$40</xm:f>
           </x14:formula1>
           <xm:sqref>B121</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$40</xm:f>
           </x14:formula1>
           <xm:sqref>B110:B116</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$40</xm:f>
           </x14:formula1>
           <xm:sqref>B118</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$40</xm:f>
           </x14:formula1>
           <xm:sqref>B101:B105</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$40</xm:f>
           </x14:formula1>
           <xm:sqref>B90:B98</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$40</xm:f>
           </x14:formula1>
           <xm:sqref>B217</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$40</xm:f>
           </x14:formula1>
           <xm:sqref>B58:B73</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$40</xm:f>
           </x14:formula1>
           <xm:sqref>B41:B56</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$40</xm:f>
           </x14:formula1>
           <xm:sqref>B75:B88</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$40</xm:f>
           </x14:formula1>
           <xm:sqref>B32:B38</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$40</xm:f>
           </x14:formula1>
           <xm:sqref>B27:B29</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$40</xm:f>
           </x14:formula1>
           <xm:sqref>B23:B24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$40</xm:f>
           </x14:formula1>
           <xm:sqref>B8:B13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$40</xm:f>
           </x14:formula1>
           <xm:sqref>B15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F$1:$F$39</xm:f>
+            <xm:f>'Leistungen-Liste'!$F$1:$F$40</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B6</xm:sqref>
         </x14:dataValidation>
@@ -20690,25 +22247,25 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F18:$F42</xm:f>
+            <xm:f>'Leistungen-Liste'!$F18:$F43</xm:f>
           </x14:formula1>
           <xm:sqref>B240</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F10:$F40</xm:f>
+            <xm:f>'Leistungen-Liste'!$F10:$F41</xm:f>
           </x14:formula1>
           <xm:sqref>B238:B239</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F5:$F1048565</xm:f>
+            <xm:f>'Leistungen-Liste'!$F5:$F1048566</xm:f>
           </x14:formula1>
           <xm:sqref>B216</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Nicht in Liste enthalten!">
           <x14:formula1>
-            <xm:f>'Leistungen-Liste'!$F7:$F1048567</xm:f>
+            <xm:f>'Leistungen-Liste'!$F7:$F1048568</xm:f>
           </x14:formula1>
           <xm:sqref>B218</xm:sqref>
         </x14:dataValidation>
@@ -26406,122 +27963,122 @@
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0"/>
   <conditionalFormatting sqref="C2:C90 C94:C123">
-    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="37" priority="33" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C15">
-    <cfRule type="containsText" dxfId="33" priority="32" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="36" priority="32" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C43 C45:C46">
-    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="34" priority="30" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C34">
-    <cfRule type="containsText" dxfId="30" priority="29" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="33" priority="29" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="32" priority="27" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73:D76 D2:D71">
-    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79">
-    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77:D78">
-    <cfRule type="cellIs" dxfId="26" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81">
-    <cfRule type="containsText" dxfId="25" priority="18" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="28" priority="18" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81">
-    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82">
-    <cfRule type="containsText" dxfId="23" priority="14" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="26" priority="14" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="containsText" dxfId="22" priority="12" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="25" priority="12" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="containsText" dxfId="20" priority="10" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="23" priority="10" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C89:C90">
-    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="22" priority="9" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C89)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92">
-    <cfRule type="containsText" dxfId="18" priority="8" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="21" priority="8" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91">
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93">
-    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="19" priority="6" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C125:C126">
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C127">
-    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C127)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C124">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C128">
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C128)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",C129)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/trailtech/Leistungen-KC-Trailtech.xlsx
+++ b/trailtech/Leistungen-KC-Trailtech.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="24" windowWidth="17796" windowHeight="6588" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2172" windowHeight="1140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Leistungen-Liste" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2781" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2856" uniqueCount="1020">
   <si>
     <t>Tätigkeit</t>
   </si>
@@ -3137,6 +3137,54 @@
   <si>
     <t xml:space="preserve">Albuin plans and info forward </t>
   </si>
+  <si>
+    <t>Villach TVB</t>
+  </si>
+  <si>
+    <t>Sternig first contact, Invite mid cotober</t>
+  </si>
+  <si>
+    <t>Table adjustments, prizes, calculations,..</t>
+  </si>
+  <si>
+    <t>Phone calls David, cody...</t>
+  </si>
+  <si>
+    <t>Table adjustments, prizes, calculations and finalization - E-Mail Submission</t>
+  </si>
+  <si>
+    <t>Talks with David, email, addding labels to plan, etc.</t>
+  </si>
+  <si>
+    <t>Prize queries, calculations, table adjustments..</t>
+  </si>
+  <si>
+    <t>Final discussion with David before putting budget to municipality</t>
+  </si>
+  <si>
+    <t>Angebot anpassen +5% OFFEN!</t>
+  </si>
+  <si>
+    <t>Grünberg Kinderland Angebot Konzept</t>
+  </si>
+  <si>
+    <t>Angebot Konzept übermitteln</t>
+  </si>
+  <si>
+    <t>Recherche bestehender Pumptrack Anlagen, Mitbewerber, etc. -&gt; https://www.google.at/maps/@47.4968912,9.8942302,7z/data=!3m1!4b1!4m2!6m1!1s18cAJPFu-INetTWlyOpBnEaxaQ_7ibkUF?authuser=1</t>
+  </si>
+  <si>
+    <t>Fancy Beton Erinnerung wegen Randsteinen für Uli</t>
+  </si>
+  <si>
+    <t>Fancy Beton Erinnerung wegen Sprtzbeton Anfrage</t>
+  </si>
+  <si>
+    <t>Recherche wegen möglicher Matten Lieferer für RESI Landung</t>
+  </si>
+  <si>
+    <t>Anfrage Angebot turnmatten.com mit Projektbeschreibung, RESI Landung</t>
+  </si>
 </sst>
 </file>
 
@@ -3145,7 +3193,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3307,12 +3355,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3524,7 +3566,7 @@
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3958,24 +4000,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="24" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink 2" xfId="2"/>
@@ -3983,7 +4007,7 @@
     <cellStyle name="Standard 2" xfId="1"/>
     <cellStyle name="Währung" xfId="3" builtinId="4"/>
   </cellStyles>
-  <dxfs count="146">
+  <dxfs count="170">
     <dxf>
       <font>
         <b val="0"/>
@@ -4099,7 +4123,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -5052,6 +5076,367 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -6167,28 +6552,6 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -6380,22 +6743,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TAB_Leistungen" displayName="TAB_Leistungen" ref="A1:D29" totalsRowShown="0" headerRowDxfId="145" dataDxfId="144">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TAB_Leistungen" displayName="TAB_Leistungen" ref="A1:D29" totalsRowShown="0" headerRowDxfId="169" dataDxfId="168">
   <autoFilter ref="A1:D29"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Tätigkeit" dataDxfId="143"/>
-    <tableColumn id="2" name="Zeitbedarf Min (pauschal)" dataDxfId="142"/>
-    <tableColumn id="3" name="Stk.kosten/Kosten bei Stundensatz" dataDxfId="141">
+    <tableColumn id="1" name="Tätigkeit" dataDxfId="167"/>
+    <tableColumn id="2" name="Zeitbedarf Min (pauschal)" dataDxfId="166"/>
+    <tableColumn id="3" name="Stk.kosten/Kosten bei Stundensatz" dataDxfId="165">
       <calculatedColumnFormula>$D$2*B2/60</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Stundensatz" dataDxfId="140"/>
+    <tableColumn id="4" name="Stundensatz" dataDxfId="164"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="TAB_Leistungen_30" displayName="TAB_Leistungen_30" ref="F1:I36" totalsRowShown="0" headerRowDxfId="139">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="TAB_Leistungen_30" displayName="TAB_Leistungen_30" ref="F1:I36" totalsRowShown="0" headerRowDxfId="163">
   <autoFilter ref="F1:I36"/>
   <sortState ref="F2:I35">
     <sortCondition ref="F2"/>
@@ -6403,73 +6766,74 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Tätigkeit"/>
     <tableColumn id="2" name="Zeitbedarf Min (pauschal)"/>
-    <tableColumn id="3" name="Stk.kosten/Kosten bei Stundensatz" dataDxfId="138">
+    <tableColumn id="3" name="Stk.kosten/Kosten bei Stundensatz" dataDxfId="162">
       <calculatedColumnFormula>$D$2*G2/60</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Stundensatz" dataDxfId="137"/>
+    <tableColumn id="4" name="Stundensatz" dataDxfId="161"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="TAB_Doku_201910" displayName="TAB_Doku_201910" ref="A1:H158" totalsRowCount="1" headerRowDxfId="136" dataDxfId="135" totalsRowDxfId="133" tableBorderDxfId="134">
-  <autoFilter ref="A1:H157"/>
-  <sortState ref="A2:H136">
-    <sortCondition descending="1" ref="C1:C136"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="TAB_Doku_201910" displayName="TAB_Doku_201910" ref="A1:H180" totalsRowCount="1" headerRowDxfId="160" dataDxfId="159" totalsRowDxfId="157" tableBorderDxfId="158">
+  <autoFilter ref="A1:H179"/>
+  <sortState ref="A2:H174">
+    <sortCondition descending="1" ref="C1:C174"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="132" totalsRowDxfId="7"/>
-    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="131" totalsRowDxfId="6">
+    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="156" totalsRowDxfId="7"/>
+    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="155" totalsRowDxfId="6">
       <totalsRowFormula>SUBTOTAL(5,TAB_Doku_201910[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="130" totalsRowDxfId="5">
+    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="154" totalsRowDxfId="5">
       <totalsRowFormula>SUBTOTAL(4,TAB_Doku_201910[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Stk." dataDxfId="129" totalsRowDxfId="4"/>
-    <tableColumn id="5" name="Zeitaufwand" dataDxfId="128" totalsRowDxfId="3">
+    <tableColumn id="4" name="Stk." dataDxfId="153" totalsRowDxfId="4"/>
+    <tableColumn id="5" name="Zeitaufwand" totalsRowFunction="custom" dataDxfId="95" totalsRowDxfId="3">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</calculatedColumnFormula>
+      <totalsRowFormula>ROUND(SUBTOTAL(9,TAB_Doku_201910[Zeitaufwand])/60,1) &amp;" Std"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="127" totalsRowDxfId="2">
+    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="152" totalsRowDxfId="2">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,TAB_Doku_201910[[Kosten ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Abrechnung" dataDxfId="126" totalsRowDxfId="1"/>
-    <tableColumn id="8" name="Notiz" dataDxfId="125" totalsRowDxfId="0"/>
+    <tableColumn id="7" name="Abrechnung" dataDxfId="151" totalsRowDxfId="1"/>
+    <tableColumn id="8" name="Notiz" dataDxfId="150" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TAB_Doku_2019" displayName="TAB_Doku_2019" ref="A1:H314" totalsRowCount="1" headerRowDxfId="124" dataDxfId="123" totalsRowDxfId="121" tableBorderDxfId="122">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TAB_Doku_2019" displayName="TAB_Doku_2019" ref="A1:H314" totalsRowCount="1" headerRowDxfId="149" dataDxfId="148" totalsRowDxfId="146" tableBorderDxfId="147">
   <autoFilter ref="A1:H313"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="120" totalsRowDxfId="119"/>
-    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="118" totalsRowDxfId="117">
+    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="145" totalsRowDxfId="144"/>
+    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="143" totalsRowDxfId="142">
       <totalsRowFormula>SUBTOTAL(5,TAB_Doku_2019[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="116" totalsRowDxfId="115">
+    <tableColumn id="3" name="Datum" totalsRowFunction="custom" dataDxfId="141" totalsRowDxfId="140">
       <totalsRowFormula>SUBTOTAL(4,TAB_Doku_2019[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Stk." dataDxfId="114" totalsRowDxfId="113"/>
-    <tableColumn id="5" name="Zeitaufwand" totalsRowFunction="custom" dataDxfId="112" totalsRowDxfId="111">
+    <tableColumn id="4" name="Stk." dataDxfId="139" totalsRowDxfId="138"/>
+    <tableColumn id="5" name="Zeitaufwand" totalsRowFunction="custom" dataDxfId="137" totalsRowDxfId="136">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_2019[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</calculatedColumnFormula>
       <totalsRowFormula>ROUND(SUBTOTAL(9,TAB_Doku_2019[Zeitaufwand])/60,0) &amp;" h"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="110" totalsRowDxfId="109">
+    <tableColumn id="6" name="Kosten " totalsRowFunction="custom" dataDxfId="135" totalsRowDxfId="134">
       <calculatedColumnFormula>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_2019[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_2019[[#This Row],[Stk.]]</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,TAB_Doku_2019[[Kosten ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Abrechnung" dataDxfId="108" totalsRowDxfId="107"/>
-    <tableColumn id="8" name="Notiz" dataDxfId="106" totalsRowDxfId="105"/>
+    <tableColumn id="7" name="Abrechnung" dataDxfId="133" totalsRowDxfId="132"/>
+    <tableColumn id="8" name="Notiz" dataDxfId="131" totalsRowDxfId="130"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TAB_Dokumentation" displayName="TAB_Dokumentation" ref="A1:H199" totalsRowCount="1" headerRowDxfId="104" dataDxfId="103" totalsRowDxfId="102">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TAB_Dokumentation" displayName="TAB_Dokumentation" ref="A1:H199" totalsRowCount="1" headerRowDxfId="129" dataDxfId="128" totalsRowDxfId="127">
   <autoFilter ref="A1:H198">
     <filterColumn colId="0">
       <filters>
@@ -6481,44 +6845,44 @@
     <sortCondition descending="1" ref="G1:G198"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="101" totalsRowDxfId="100"/>
-    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="99" totalsRowDxfId="98">
+    <tableColumn id="1" name="Projekt" totalsRowLabel="SUMME für Zeitraum Leistungszeitraum von-bis" dataDxfId="126" totalsRowDxfId="125"/>
+    <tableColumn id="2" name="Leistung" totalsRowFunction="custom" dataDxfId="124" totalsRowDxfId="123">
       <totalsRowFormula>SUBTOTAL(5,TAB_Dokumentation[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Datum" totalsRowFunction="custom" dataDxfId="97" totalsRowDxfId="96">
+    <tableColumn id="7" name="Datum" totalsRowFunction="custom" dataDxfId="122" totalsRowDxfId="121">
       <totalsRowFormula>MAX(4,TAB_Dokumentation[Datum])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Stk." dataDxfId="95" totalsRowDxfId="94"/>
-    <tableColumn id="4" name="Zeitaufwand" dataDxfId="93" totalsRowDxfId="92">
+    <tableColumn id="3" name="Stk." dataDxfId="120" totalsRowDxfId="119"/>
+    <tableColumn id="4" name="Zeitaufwand" dataDxfId="118" totalsRowDxfId="117">
       <calculatedColumnFormula>INDEX(TAB_Leistungen[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Dokumentation[[#This Row],[Leistung]],TAB_Leistungen[Tätigkeit],0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Kosten " totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="90">
+    <tableColumn id="5" name="Kosten " totalsRowFunction="custom" dataDxfId="116" totalsRowDxfId="115">
       <calculatedColumnFormula>INDEX(TAB_Leistungen[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Dokumentation[[#This Row],[Leistung]],TAB_Leistungen[Tätigkeit],0),3)*TAB_Dokumentation[[#This Row],[Stk.]]</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,TAB_Dokumentation[[Kosten ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Abrechnung" totalsRowDxfId="89"/>
-    <tableColumn id="8" name="Notiz" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="6" name="Abrechnung" totalsRowDxfId="114"/>
+    <tableColumn id="8" name="Notiz" dataDxfId="113" totalsRowDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle1" displayName="Tabelle1" ref="A1:I40" totalsRowShown="0" headerRowDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle1" displayName="Tabelle1" ref="A1:I40" totalsRowShown="0" headerRowDxfId="111">
   <autoFilter ref="A1:I40"/>
   <sortState ref="A2:I35">
     <sortCondition descending="1" ref="D1:D35"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="Name" dataDxfId="85"/>
-    <tableColumn id="2" name="Zusatz" dataDxfId="84"/>
-    <tableColumn id="3" name="Adresse" dataDxfId="83"/>
-    <tableColumn id="4" name="PLZ" dataDxfId="82"/>
-    <tableColumn id="5" name="Ort" dataDxfId="81"/>
-    <tableColumn id="6" name="Spalte1" dataDxfId="80"/>
-    <tableColumn id="7" name="Telefon" dataDxfId="79"/>
-    <tableColumn id="8" name="Spalte2" dataDxfId="78"/>
-    <tableColumn id="9" name="Notiz" dataDxfId="77"/>
+    <tableColumn id="1" name="Name" dataDxfId="110"/>
+    <tableColumn id="2" name="Zusatz" dataDxfId="109"/>
+    <tableColumn id="3" name="Adresse" dataDxfId="108"/>
+    <tableColumn id="4" name="PLZ" dataDxfId="107"/>
+    <tableColumn id="5" name="Ort" dataDxfId="106"/>
+    <tableColumn id="6" name="Spalte1" dataDxfId="105"/>
+    <tableColumn id="7" name="Telefon" dataDxfId="104"/>
+    <tableColumn id="8" name="Spalte2" dataDxfId="103"/>
+    <tableColumn id="9" name="Notiz" dataDxfId="102"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6529,9 +6893,9 @@
   <autoFilter ref="C4:F8"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Position"/>
-    <tableColumn id="2" name="Stk/Std" dataDxfId="76"/>
-    <tableColumn id="3" name="Stk/Std-Preis" dataDxfId="75"/>
-    <tableColumn id="4" name="Summe:" dataDxfId="74" dataCellStyle="Währung"/>
+    <tableColumn id="2" name="Stk/Std" dataDxfId="101"/>
+    <tableColumn id="3" name="Stk/Std-Preis" dataDxfId="100"/>
+    <tableColumn id="4" name="Summe:" dataDxfId="99" dataCellStyle="Währung"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6553,9 +6917,9 @@
   <autoFilter ref="H4:K7"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Position"/>
-    <tableColumn id="2" name="Stk/Std" dataDxfId="73"/>
-    <tableColumn id="3" name="Stk/Std-Preis" dataDxfId="72"/>
-    <tableColumn id="4" name="Summe:" dataDxfId="71" dataCellStyle="Währung"/>
+    <tableColumn id="2" name="Stk/Std" dataDxfId="98"/>
+    <tableColumn id="3" name="Stk/Std-Preis" dataDxfId="97"/>
+    <tableColumn id="4" name="Summe:" dataDxfId="96" dataCellStyle="Währung"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7825,13 +8189,13 @@
   <sheetPr published="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I415"/>
+  <dimension ref="A1:I437"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7874,128 +8238,128 @@
     </row>
     <row r="2" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="78" t="s">
-        <v>883</v>
+        <v>904</v>
       </c>
       <c r="B2" s="133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="137">
-        <v>44456</v>
+        <v>44468</v>
       </c>
       <c r="D2" s="133">
         <v>1</v>
       </c>
       <c r="E2" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F2" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="G2" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H2" s="134" t="s">
-        <v>1003</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="78" t="s">
-        <v>509</v>
+        <v>904</v>
       </c>
       <c r="B3" s="133" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C3" s="137">
-        <v>44456</v>
+        <v>44468</v>
       </c>
       <c r="D3" s="133">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E3" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F3" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="G3" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>1002</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="78" t="s">
-        <v>944</v>
+        <v>734</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>978</v>
+        <v>140</v>
       </c>
       <c r="C4" s="137">
-        <v>44460</v>
+        <v>44468</v>
       </c>
       <c r="D4" s="133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="F4" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>2.5</v>
       </c>
       <c r="G4" s="78" t="s">
-        <v>977</v>
+        <v>964</v>
       </c>
       <c r="H4" s="134" t="s">
-        <v>980</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="78" t="s">
-        <v>904</v>
+        <v>734</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>978</v>
+        <v>140</v>
       </c>
       <c r="C5" s="137">
-        <v>44461</v>
+        <v>44468</v>
       </c>
       <c r="D5" s="133">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E5" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="F5" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>180</v>
+        <v>2.5</v>
       </c>
       <c r="G5" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H5" s="134" t="s">
-        <v>1001</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="78" t="s">
-        <v>944</v>
+        <v>734</v>
       </c>
       <c r="B6" s="133" t="s">
-        <v>978</v>
+        <v>22</v>
       </c>
       <c r="C6" s="137">
-        <v>44459</v>
+        <v>44468</v>
       </c>
       <c r="D6" s="133">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="E6" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8003,125 +8367,125 @@
       </c>
       <c r="F6" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="G6" s="78" t="s">
-        <v>977</v>
+        <v>964</v>
       </c>
       <c r="H6" s="134" t="s">
-        <v>980</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="78" t="s">
-        <v>904</v>
+        <v>509</v>
       </c>
       <c r="B7" s="133" t="s">
-        <v>978</v>
+        <v>8</v>
       </c>
       <c r="C7" s="137">
-        <v>44455</v>
+        <v>44469</v>
       </c>
       <c r="D7" s="133">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="E7" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="F7" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="G7" s="78" t="s">
-        <v>964</v>
+        <v>897</v>
       </c>
       <c r="H7" s="134" t="s">
-        <v>1001</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="78" t="s">
-        <v>904</v>
+        <v>830</v>
       </c>
       <c r="B8" s="133" t="s">
-        <v>978</v>
+        <v>48</v>
       </c>
       <c r="C8" s="137">
-        <v>44454</v>
+        <v>44468</v>
       </c>
       <c r="D8" s="133">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E8" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F8" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="G8" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H8" s="134" t="s">
-        <v>1000</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
-        <v>904</v>
+        <v>830</v>
       </c>
       <c r="B9" s="133" t="s">
-        <v>1</v>
+        <v>946</v>
       </c>
       <c r="C9" s="137">
-        <v>44454</v>
+        <v>44468</v>
       </c>
       <c r="D9" s="133">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F9" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G9" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H9" s="134" t="s">
-        <v>999</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
-        <v>904</v>
+        <v>944</v>
       </c>
       <c r="B10" s="133" t="s">
-        <v>48</v>
+        <v>978</v>
       </c>
       <c r="C10" s="137">
-        <v>44454</v>
+        <v>44467</v>
       </c>
       <c r="D10" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F10" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>60</v>
       </c>
       <c r="G10" s="78" t="s">
-        <v>964</v>
+        <v>977</v>
       </c>
       <c r="H10" s="134" t="s">
-        <v>998</v>
+        <v>980</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -8129,27 +8493,27 @@
         <v>904</v>
       </c>
       <c r="B11" s="133" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C11" s="137">
-        <v>44454</v>
+        <v>44466</v>
       </c>
       <c r="D11" s="133">
         <v>1</v>
       </c>
       <c r="E11" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F11" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="G11" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H11" s="134" t="s">
-        <v>996</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -8157,38 +8521,38 @@
         <v>904</v>
       </c>
       <c r="B12" s="133" t="s">
-        <v>1</v>
+        <v>978</v>
       </c>
       <c r="C12" s="137">
-        <v>44453</v>
+        <v>44465</v>
       </c>
       <c r="D12" s="133">
         <v>1</v>
       </c>
       <c r="E12" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F12" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G12" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H12" s="134" t="s">
-        <v>997</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="78" t="s">
-        <v>944</v>
+        <v>904</v>
       </c>
       <c r="B13" s="133" t="s">
         <v>978</v>
       </c>
       <c r="C13" s="137">
-        <v>44453</v>
+        <v>44464</v>
       </c>
       <c r="D13" s="133">
         <v>1.5</v>
@@ -8205,77 +8569,77 @@
         <v>964</v>
       </c>
       <c r="H13" s="134" t="s">
-        <v>980</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="78" t="s">
-        <v>933</v>
+        <v>1004</v>
       </c>
       <c r="B14" s="133" t="s">
-        <v>978</v>
+        <v>1</v>
       </c>
       <c r="C14" s="137">
-        <v>44453</v>
+        <v>44463</v>
       </c>
       <c r="D14" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F14" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G14" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H14" s="134" t="s">
-        <v>993</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78" t="s">
-        <v>984</v>
+        <v>904</v>
       </c>
       <c r="B15" s="133" t="s">
-        <v>48</v>
+        <v>978</v>
       </c>
       <c r="C15" s="137">
-        <v>44453</v>
+        <v>44463</v>
       </c>
       <c r="D15" s="133">
         <v>1</v>
       </c>
       <c r="E15" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F15" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>30</v>
       </c>
       <c r="G15" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H15" s="134" t="s">
-        <v>992</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78" t="s">
-        <v>933</v>
+        <v>904</v>
       </c>
       <c r="B16" s="133" t="s">
         <v>978</v>
       </c>
       <c r="C16" s="137">
-        <v>44452</v>
+        <v>44463</v>
       </c>
       <c r="D16" s="133">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E16" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8283,69 +8647,67 @@
       </c>
       <c r="F16" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="G16" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H16" s="134" t="s">
-        <v>991</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="78" t="s">
-        <v>965</v>
+        <v>509</v>
       </c>
       <c r="B17" s="133" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C17" s="137">
-        <v>44452</v>
+        <v>44463</v>
       </c>
       <c r="D17" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F17" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G17" s="78" t="s">
         <v>964</v>
       </c>
-      <c r="H17" s="134" t="s">
-        <v>990</v>
-      </c>
+      <c r="H17" s="134"/>
     </row>
     <row r="18" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="78" t="s">
         <v>904</v>
       </c>
       <c r="B18" s="133" t="s">
-        <v>49</v>
+        <v>978</v>
       </c>
       <c r="C18" s="137">
-        <v>44449</v>
+        <v>44462</v>
       </c>
       <c r="D18" s="133">
         <v>1</v>
       </c>
       <c r="E18" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F18" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G18" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H18" s="134" t="s">
-        <v>989</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -8353,97 +8715,97 @@
         <v>904</v>
       </c>
       <c r="B19" s="133" t="s">
-        <v>48</v>
+        <v>978</v>
       </c>
       <c r="C19" s="137">
-        <v>44449</v>
+        <v>44461</v>
       </c>
       <c r="D19" s="133">
         <v>1</v>
       </c>
       <c r="E19" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F19" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>30</v>
       </c>
       <c r="G19" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H19" s="134" t="s">
-        <v>988</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="78" t="s">
-        <v>904</v>
+        <v>944</v>
       </c>
       <c r="B20" s="133" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="131">
-        <v>44447</v>
+        <v>978</v>
+      </c>
+      <c r="C20" s="137">
+        <v>44461</v>
       </c>
       <c r="D20" s="133">
         <v>1</v>
       </c>
       <c r="E20" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F20" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>30</v>
       </c>
       <c r="G20" s="78" t="s">
-        <v>964</v>
+        <v>977</v>
       </c>
       <c r="H20" s="134" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="78" t="s">
-        <v>984</v>
+        <v>904</v>
       </c>
       <c r="B21" s="133" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="131">
-        <v>44448</v>
+        <v>978</v>
+      </c>
+      <c r="C21" s="137">
+        <v>44461</v>
       </c>
       <c r="D21" s="133">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E21" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F21" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>180</v>
       </c>
       <c r="G21" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H21" s="134" t="s">
-        <v>986</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="78" t="s">
-        <v>904</v>
+        <v>944</v>
       </c>
       <c r="B22" s="133" t="s">
         <v>978</v>
       </c>
-      <c r="C22" s="131">
-        <v>44448</v>
+      <c r="C22" s="137">
+        <v>44460</v>
       </c>
       <c r="D22" s="133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8451,111 +8813,111 @@
       </c>
       <c r="F22" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G22" s="78" t="s">
-        <v>964</v>
+        <v>977</v>
       </c>
       <c r="H22" s="134" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="78" t="s">
-        <v>933</v>
+        <v>944</v>
       </c>
       <c r="B23" s="133" t="s">
-        <v>1</v>
+        <v>978</v>
       </c>
       <c r="C23" s="137">
-        <v>44447</v>
+        <v>44459</v>
       </c>
       <c r="D23" s="133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F23" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="G23" s="78" t="s">
-        <v>964</v>
+        <v>977</v>
       </c>
       <c r="H23" s="134" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78" t="s">
-        <v>904</v>
+        <v>883</v>
       </c>
       <c r="B24" s="133" t="s">
-        <v>978</v>
+        <v>48</v>
       </c>
       <c r="C24" s="137">
-        <v>44447</v>
+        <v>44456</v>
       </c>
       <c r="D24" s="133">
         <v>1</v>
       </c>
       <c r="E24" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F24" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>7.5</v>
       </c>
       <c r="G24" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H24" s="134" t="s">
-        <v>981</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="78" t="s">
-        <v>944</v>
+        <v>509</v>
       </c>
       <c r="B25" s="133" t="s">
-        <v>978</v>
+        <v>48</v>
       </c>
       <c r="C25" s="137">
-        <v>44446</v>
+        <v>44456</v>
       </c>
       <c r="D25" s="133">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E25" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F25" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>180</v>
+        <v>7.5</v>
       </c>
       <c r="G25" s="78" t="s">
-        <v>977</v>
+        <v>964</v>
       </c>
       <c r="H25" s="134" t="s">
-        <v>980</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="78" t="s">
-        <v>944</v>
+        <v>904</v>
       </c>
       <c r="B26" s="133" t="s">
         <v>978</v>
       </c>
       <c r="C26" s="137">
-        <v>44445</v>
+        <v>44455</v>
       </c>
       <c r="D26" s="133">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E26" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8563,80 +8925,80 @@
       </c>
       <c r="F26" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G26" s="78" t="s">
-        <v>977</v>
+        <v>964</v>
       </c>
       <c r="H26" s="134" t="s">
-        <v>980</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="78" t="s">
-        <v>957</v>
+        <v>904</v>
       </c>
       <c r="B27" s="133" t="s">
-        <v>48</v>
+        <v>978</v>
       </c>
       <c r="C27" s="137">
-        <v>44445</v>
+        <v>44454</v>
       </c>
       <c r="D27" s="133">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E27" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F27" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="G27" s="78" t="s">
         <v>964</v>
       </c>
-      <c r="H27" s="158" t="s">
-        <v>976</v>
+      <c r="H27" s="134" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="78" t="s">
-        <v>944</v>
+        <v>904</v>
       </c>
       <c r="B28" s="133" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C28" s="137">
-        <v>44445</v>
+        <v>44454</v>
       </c>
       <c r="D28" s="133">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E28" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F28" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>20</v>
       </c>
       <c r="G28" s="78" t="s">
         <v>964</v>
       </c>
-      <c r="H28" s="132" t="s">
-        <v>975</v>
+      <c r="H28" s="134" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="78" t="s">
-        <v>957</v>
+        <v>904</v>
       </c>
       <c r="B29" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="137">
-        <v>44445</v>
+        <v>44454</v>
       </c>
       <c r="D29" s="133">
         <v>1</v>
@@ -8653,53 +9015,53 @@
         <v>964</v>
       </c>
       <c r="H29" s="134" t="s">
-        <v>974</v>
+        <v>998</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="78" t="s">
-        <v>965</v>
+        <v>904</v>
       </c>
       <c r="B30" s="133" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C30" s="137">
-        <v>44445</v>
+        <v>44454</v>
       </c>
       <c r="D30" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F30" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G30" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H30" s="134" t="s">
-        <v>983</v>
+        <v>996</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="78" t="s">
-        <v>965</v>
+        <v>904</v>
       </c>
       <c r="B31" s="133" t="s">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="C31" s="137">
-        <v>44445</v>
+        <v>44453</v>
       </c>
       <c r="D31" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F31" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
@@ -8709,133 +9071,133 @@
         <v>964</v>
       </c>
       <c r="H31" s="134" t="s">
-        <v>973</v>
+        <v>997</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="78" t="s">
-        <v>904</v>
+        <v>944</v>
       </c>
       <c r="B32" s="133" t="s">
-        <v>48</v>
+        <v>978</v>
       </c>
       <c r="C32" s="137">
-        <v>44445</v>
+        <v>44453</v>
       </c>
       <c r="D32" s="133">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E32" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F32" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>45</v>
       </c>
       <c r="G32" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H32" s="134" t="s">
-        <v>972</v>
+        <v>980</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="78" t="s">
-        <v>904</v>
+        <v>933</v>
       </c>
       <c r="B33" s="133" t="s">
-        <v>48</v>
+        <v>978</v>
       </c>
       <c r="C33" s="137">
-        <v>44440</v>
+        <v>44453</v>
       </c>
       <c r="D33" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F33" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>60</v>
       </c>
       <c r="G33" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H33" s="134" t="s">
-        <v>971</v>
+        <v>993</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="78" t="s">
-        <v>957</v>
+        <v>984</v>
       </c>
       <c r="B34" s="133" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C34" s="137">
-        <v>44440</v>
+        <v>44453</v>
       </c>
       <c r="D34" s="133">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E34" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F34" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>20</v>
+        <v>7.5</v>
       </c>
       <c r="G34" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H34" s="134" t="s">
-        <v>970</v>
+        <v>992</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="78" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="B35" s="133" t="s">
-        <v>1</v>
+        <v>978</v>
       </c>
       <c r="C35" s="137">
-        <v>44440</v>
+        <v>44452</v>
       </c>
       <c r="D35" s="133">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E35" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F35" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="G35" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H35" s="134" t="s">
-        <v>969</v>
+        <v>991</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="78" t="s">
-        <v>904</v>
+        <v>965</v>
       </c>
       <c r="B36" s="133" t="s">
         <v>1</v>
       </c>
       <c r="C36" s="137">
-        <v>44440</v>
+        <v>44452</v>
       </c>
       <c r="D36" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -8843,13 +9205,13 @@
       </c>
       <c r="F36" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G36" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H36" s="134" t="s">
-        <v>968</v>
+        <v>990</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -8857,45 +9219,45 @@
         <v>904</v>
       </c>
       <c r="B37" s="133" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="C37" s="137">
-        <v>44440</v>
+        <v>44449</v>
       </c>
       <c r="D37" s="133">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E37" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F37" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="G37" s="78" t="s">
         <v>964</v>
       </c>
-      <c r="H37" s="158" t="s">
-        <v>967</v>
+      <c r="H37" s="134" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="78" t="s">
-        <v>965</v>
+        <v>904</v>
       </c>
       <c r="B38" s="133" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C38" s="137">
-        <v>44440</v>
+        <v>44449</v>
       </c>
       <c r="D38" s="133">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E38" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F38" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
@@ -8904,246 +9266,246 @@
       <c r="G38" s="78" t="s">
         <v>964</v>
       </c>
-      <c r="H38" s="132" t="s">
-        <v>966</v>
+      <c r="H38" s="134" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="78" t="s">
-        <v>944</v>
+        <v>984</v>
       </c>
       <c r="B39" s="133" t="s">
-        <v>978</v>
+        <v>48</v>
       </c>
       <c r="C39" s="137">
-        <v>44438</v>
+        <v>44448</v>
       </c>
       <c r="D39" s="133">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E39" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F39" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>720</v>
+        <v>7.5</v>
       </c>
       <c r="G39" s="78" t="s">
-        <v>977</v>
+        <v>964</v>
       </c>
       <c r="H39" s="134" t="s">
-        <v>979</v>
+        <v>986</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="78" t="s">
-        <v>933</v>
+        <v>904</v>
       </c>
       <c r="B40" s="133" t="s">
-        <v>48</v>
+        <v>978</v>
       </c>
       <c r="C40" s="137">
-        <v>44438</v>
+        <v>44448</v>
       </c>
       <c r="D40" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F40" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>60</v>
       </c>
       <c r="G40" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H40" s="134" t="s">
-        <v>505</v>
+        <v>985</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="78" t="s">
-        <v>933</v>
+        <v>904</v>
       </c>
       <c r="B41" s="133" t="s">
-        <v>946</v>
+        <v>48</v>
       </c>
       <c r="C41" s="137">
-        <v>44438</v>
+        <v>44447</v>
       </c>
       <c r="D41" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F41" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>7.5</v>
       </c>
       <c r="G41" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H41" s="134" t="s">
-        <v>962</v>
+        <v>987</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="78" t="s">
-        <v>960</v>
+        <v>933</v>
       </c>
       <c r="B42" s="133" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="137">
-        <v>44438</v>
+        <v>1</v>
+      </c>
+      <c r="C42" s="131">
+        <v>44447</v>
       </c>
       <c r="D42" s="133">
         <v>1</v>
       </c>
       <c r="E42" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F42" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G42" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H42" s="134" t="s">
-        <v>961</v>
+        <v>982</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="78" t="s">
-        <v>952</v>
+        <v>904</v>
       </c>
       <c r="B43" s="133" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="137">
-        <v>44438</v>
+        <v>978</v>
+      </c>
+      <c r="C43" s="131">
+        <v>44447</v>
       </c>
       <c r="D43" s="133">
         <v>1</v>
       </c>
       <c r="E43" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F43" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>30</v>
       </c>
       <c r="G43" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H43" s="134" t="s">
-        <v>955</v>
+        <v>981</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="78" t="s">
-        <v>960</v>
+        <v>944</v>
       </c>
       <c r="B44" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="137">
-        <v>44435</v>
+        <v>978</v>
+      </c>
+      <c r="C44" s="131">
+        <v>44446</v>
       </c>
       <c r="D44" s="133">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E44" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F44" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="G44" s="78" t="s">
-        <v>964</v>
+        <v>977</v>
       </c>
       <c r="H44" s="134" t="s">
-        <v>963</v>
+        <v>980</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="78" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="B45" s="133" t="s">
-        <v>1</v>
+        <v>978</v>
       </c>
       <c r="C45" s="137">
-        <v>44432</v>
+        <v>44445</v>
       </c>
       <c r="D45" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F45" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="G45" s="78" t="s">
-        <v>964</v>
+        <v>977</v>
       </c>
       <c r="H45" s="134" t="s">
-        <v>953</v>
+        <v>980</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="78" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="B46" s="133" t="s">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="C46" s="137">
-        <v>44431</v>
+        <v>44445</v>
       </c>
       <c r="D46" s="133">
         <v>1</v>
       </c>
       <c r="E46" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F46" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="G46" s="78" t="s">
         <v>964</v>
       </c>
-      <c r="H46" s="134" t="s">
-        <v>954</v>
+      <c r="H46" s="158" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="78" t="s">
-        <v>957</v>
+        <v>944</v>
       </c>
       <c r="B47" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C47" s="137">
-        <v>44430</v>
+        <v>44445</v>
       </c>
       <c r="D47" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -9151,97 +9513,97 @@
       </c>
       <c r="F47" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="G47" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H47" s="134" t="s">
-        <v>958</v>
+        <v>975</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="78" t="s">
-        <v>904</v>
+        <v>957</v>
       </c>
       <c r="B48" s="133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C48" s="137">
-        <v>44428</v>
+        <v>44445</v>
       </c>
       <c r="D48" s="133">
         <v>1</v>
       </c>
       <c r="E48" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F48" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="G48" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H48" s="134" t="s">
-        <v>956</v>
+        <v>974</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="78" t="s">
-        <v>933</v>
+        <v>965</v>
       </c>
       <c r="B49" s="133" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C49" s="137">
-        <v>44427</v>
+        <v>44445</v>
       </c>
       <c r="D49" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F49" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="G49" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H49" s="134" t="s">
-        <v>951</v>
+        <v>983</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="78" t="s">
-        <v>933</v>
+        <v>965</v>
       </c>
       <c r="B50" s="133" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="C50" s="137">
-        <v>44427</v>
+        <v>44445</v>
       </c>
       <c r="D50" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="F50" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G50" s="78" t="s">
         <v>964</v>
       </c>
-      <c r="H50" s="134" t="s">
-        <v>950</v>
+      <c r="H50" s="132" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -9249,139 +9611,139 @@
         <v>904</v>
       </c>
       <c r="B51" s="133" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C51" s="137">
-        <v>44427</v>
+        <v>44445</v>
       </c>
       <c r="D51" s="133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E51" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F51" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="G51" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H51" s="134" t="s">
-        <v>948</v>
+        <v>972</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="78" t="s">
-        <v>933</v>
+        <v>904</v>
       </c>
       <c r="B52" s="133" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C52" s="137">
-        <v>44426</v>
+        <v>44440</v>
       </c>
       <c r="D52" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F52" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G52" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H52" s="134" t="s">
-        <v>949</v>
+        <v>971</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="78" t="s">
-        <v>509</v>
+        <v>957</v>
       </c>
       <c r="B53" s="133" t="s">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="C53" s="137">
-        <v>44426</v>
+        <v>44440</v>
       </c>
       <c r="D53" s="133">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E53" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F53" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>2.5</v>
+        <v>20</v>
       </c>
       <c r="G53" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H53" s="134" t="s">
-        <v>931</v>
+        <v>970</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="78" t="s">
-        <v>509</v>
+        <v>944</v>
       </c>
       <c r="B54" s="133" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C54" s="137">
-        <v>44426</v>
+        <v>44440</v>
       </c>
       <c r="D54" s="133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E54" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F54" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="G54" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H54" s="134" t="s">
-        <v>931</v>
+        <v>969</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="78" t="s">
-        <v>933</v>
+        <v>904</v>
       </c>
       <c r="B55" s="133" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C55" s="137">
-        <v>44426</v>
+        <v>44440</v>
       </c>
       <c r="D55" s="133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E55" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F55" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
+        <v>5</v>
       </c>
       <c r="G55" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H55" s="134" t="s">
-        <v>940</v>
+        <v>968</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -9389,55 +9751,55 @@
         <v>904</v>
       </c>
       <c r="B56" s="133" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C56" s="137">
-        <v>44426</v>
+        <v>44440</v>
       </c>
       <c r="D56" s="133">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="E56" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F56" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G56" s="78" t="s">
         <v>964</v>
       </c>
-      <c r="H56" s="134" t="s">
-        <v>932</v>
+      <c r="H56" s="158" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="78" t="s">
-        <v>944</v>
-      </c>
-      <c r="B57" s="78" t="s">
-        <v>2</v>
+        <v>965</v>
+      </c>
+      <c r="B57" s="133" t="s">
+        <v>13</v>
       </c>
       <c r="C57" s="137">
-        <v>44420</v>
+        <v>44440</v>
       </c>
       <c r="D57" s="133">
-        <v>24</v>
+        <v>0.25</v>
       </c>
       <c r="E57" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F57" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>7.5</v>
       </c>
       <c r="G57" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H57" s="134" t="s">
-        <v>942</v>
+        <v>966</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -9445,13 +9807,13 @@
         <v>944</v>
       </c>
       <c r="B58" s="133" t="s">
-        <v>487</v>
+        <v>978</v>
       </c>
       <c r="C58" s="137">
-        <v>44420</v>
+        <v>44438</v>
       </c>
       <c r="D58" s="133">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E58" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -9459,41 +9821,41 @@
       </c>
       <c r="F58" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>300</v>
+        <v>720</v>
       </c>
       <c r="G58" s="78" t="s">
-        <v>964</v>
+        <v>977</v>
       </c>
       <c r="H58" s="134" t="s">
-        <v>941</v>
+        <v>979</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="78" t="s">
-        <v>879</v>
-      </c>
-      <c r="B59" s="78" t="s">
-        <v>58</v>
+        <v>933</v>
+      </c>
+      <c r="B59" s="133" t="s">
+        <v>48</v>
       </c>
       <c r="C59" s="137">
-        <v>44419</v>
+        <v>44438</v>
       </c>
       <c r="D59" s="133">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E59" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="F59" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>7.5</v>
       </c>
       <c r="G59" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H59" s="134" t="s">
-        <v>947</v>
+        <v>505</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -9501,10 +9863,10 @@
         <v>933</v>
       </c>
       <c r="B60" s="133" t="s">
-        <v>487</v>
+        <v>946</v>
       </c>
       <c r="C60" s="137">
-        <v>44418</v>
+        <v>44438</v>
       </c>
       <c r="D60" s="133">
         <v>2</v>
@@ -9520,78 +9882,78 @@
       <c r="G60" s="78" t="s">
         <v>964</v>
       </c>
-      <c r="H60" s="134" t="s">
-        <v>938</v>
+      <c r="H60" s="132" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="78" t="s">
-        <v>879</v>
+        <v>960</v>
       </c>
       <c r="B61" s="133" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="C61" s="137">
-        <v>44418</v>
+        <v>44438</v>
       </c>
       <c r="D61" s="133">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E61" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F61" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="G61" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H61" s="134" t="s">
-        <v>936</v>
+        <v>961</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="78" t="s">
-        <v>879</v>
+        <v>952</v>
       </c>
       <c r="B62" s="133" t="s">
-        <v>255</v>
+        <v>48</v>
       </c>
       <c r="C62" s="137">
-        <v>44418</v>
+        <v>44438</v>
       </c>
       <c r="D62" s="133">
-        <v>161</v>
+        <v>1</v>
       </c>
       <c r="E62" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F62" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>48.3</v>
+        <v>7.5</v>
       </c>
       <c r="G62" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H62" s="134" t="s">
-        <v>937</v>
+        <v>955</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="78" t="s">
-        <v>933</v>
+        <v>960</v>
       </c>
       <c r="B63" s="133" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63" s="137">
-        <v>44418</v>
+        <v>44435</v>
       </c>
       <c r="D63" s="133">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E63" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -9599,83 +9961,83 @@
       </c>
       <c r="F63" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="G63" s="78" t="s">
         <v>964</v>
       </c>
-      <c r="H63" s="132" t="s">
-        <v>935</v>
+      <c r="H63" s="134" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="78" t="s">
-        <v>933</v>
+        <v>952</v>
       </c>
       <c r="B64" s="133" t="s">
-        <v>255</v>
+        <v>1</v>
       </c>
       <c r="C64" s="137">
-        <v>44418</v>
+        <v>44432</v>
       </c>
       <c r="D64" s="133">
-        <v>265</v>
+        <v>1</v>
       </c>
       <c r="E64" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F64" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>79.5</v>
+        <v>5</v>
       </c>
       <c r="G64" s="78" t="s">
         <v>964</v>
       </c>
-      <c r="H64" s="132" t="s">
-        <v>934</v>
+      <c r="H64" s="134" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="78" t="s">
-        <v>904</v>
+        <v>952</v>
       </c>
       <c r="B65" s="133" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="C65" s="137">
-        <v>44417</v>
+        <v>44431</v>
       </c>
       <c r="D65" s="133">
         <v>1</v>
       </c>
       <c r="E65" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="F65" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>2.5</v>
       </c>
       <c r="G65" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H65" s="134" t="s">
-        <v>939</v>
+        <v>954</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="78" t="s">
-        <v>928</v>
+        <v>957</v>
       </c>
       <c r="B66" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C66" s="137">
-        <v>44412</v>
+        <v>44430</v>
       </c>
       <c r="D66" s="133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E66" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -9683,237 +10045,237 @@
       </c>
       <c r="F66" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
+        <v>15</v>
       </c>
       <c r="G66" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H66" s="134" t="s">
-        <v>930</v>
+        <v>958</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="78" t="s">
-        <v>928</v>
+        <v>904</v>
       </c>
       <c r="B67" s="133" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="C67" s="137">
-        <v>44411</v>
+        <v>44428</v>
       </c>
       <c r="D67" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F67" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G67" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H67" s="134" t="s">
-        <v>929</v>
+        <v>956</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="78" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="B68" s="133" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C68" s="137">
-        <v>44410</v>
+        <v>44427</v>
       </c>
       <c r="D68" s="133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E68" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F68" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>7.5</v>
       </c>
       <c r="G68" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H68" s="134" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="78" t="s">
-        <v>102</v>
+        <v>933</v>
       </c>
       <c r="B69" s="133" t="s">
-        <v>207</v>
+        <v>22</v>
       </c>
       <c r="C69" s="137">
-        <v>44400</v>
+        <v>44427</v>
       </c>
       <c r="D69" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F69" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G69" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H69" s="134" t="s">
-        <v>995</v>
+        <v>950</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="78" t="s">
-        <v>102</v>
+        <v>904</v>
       </c>
       <c r="B70" s="133" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C70" s="137">
-        <v>44400</v>
+        <v>44427</v>
       </c>
       <c r="D70" s="133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E70" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F70" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="G70" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H70" s="134" t="s">
-        <v>995</v>
+        <v>948</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="78" t="s">
-        <v>102</v>
+        <v>933</v>
       </c>
       <c r="B71" s="133" t="s">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="C71" s="137">
-        <v>44400</v>
+        <v>44426</v>
       </c>
       <c r="D71" s="133">
         <v>2</v>
       </c>
       <c r="E71" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F71" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>10</v>
       </c>
       <c r="G71" s="78" t="s">
-        <v>927</v>
+        <v>964</v>
       </c>
       <c r="H71" s="134" t="s">
-        <v>923</v>
+        <v>949</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="78" t="s">
-        <v>102</v>
+        <v>509</v>
       </c>
       <c r="B72" s="133" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="C72" s="137">
-        <v>44400</v>
+        <v>44426</v>
       </c>
       <c r="D72" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="F72" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>2.5</v>
       </c>
       <c r="G72" s="78" t="s">
-        <v>927</v>
+        <v>964</v>
       </c>
       <c r="H72" s="134" t="s">
-        <v>923</v>
+        <v>931</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="78" t="s">
-        <v>886</v>
+        <v>509</v>
       </c>
       <c r="B73" s="133" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C73" s="137">
-        <v>44400</v>
+        <v>44426</v>
       </c>
       <c r="D73" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F73" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>7.5</v>
       </c>
       <c r="G73" s="78" t="s">
-        <v>927</v>
+        <v>964</v>
       </c>
       <c r="H73" s="134" t="s">
-        <v>922</v>
+        <v>931</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="78" t="s">
-        <v>734</v>
+        <v>933</v>
       </c>
       <c r="B74" s="133" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C74" s="137">
-        <v>44400</v>
+        <v>44426</v>
       </c>
       <c r="D74" s="133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E74" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F74" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>22.5</v>
       </c>
       <c r="G74" s="78" t="s">
-        <v>927</v>
+        <v>964</v>
       </c>
       <c r="H74" s="134" t="s">
-        <v>924</v>
+        <v>940</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -9924,10 +10286,10 @@
         <v>1</v>
       </c>
       <c r="C75" s="137">
-        <v>44396</v>
+        <v>44426</v>
       </c>
       <c r="D75" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E75" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -9935,41 +10297,41 @@
       </c>
       <c r="F75" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G75" s="78" t="s">
-        <v>927</v>
+        <v>964</v>
       </c>
       <c r="H75" s="134" t="s">
-        <v>846</v>
+        <v>932</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="78" t="s">
-        <v>904</v>
+        <v>944</v>
       </c>
       <c r="B76" s="133" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="C76" s="137">
-        <v>44396</v>
+        <v>44420</v>
       </c>
       <c r="D76" s="133">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E76" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F76" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G76" s="78" t="s">
-        <v>927</v>
+        <v>964</v>
       </c>
       <c r="H76" s="134" t="s">
-        <v>905</v>
+        <v>942</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -9977,69 +10339,69 @@
         <v>944</v>
       </c>
       <c r="B77" s="133" t="s">
-        <v>255</v>
+        <v>487</v>
       </c>
       <c r="C77" s="137">
-        <v>44395</v>
+        <v>44420</v>
       </c>
       <c r="D77" s="133">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E77" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F77" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="G77" s="78" t="s">
-        <v>927</v>
+        <v>964</v>
       </c>
       <c r="H77" s="134" t="s">
-        <v>920</v>
+        <v>941</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="78" t="s">
-        <v>944</v>
+        <v>879</v>
       </c>
       <c r="B78" s="133" t="s">
-        <v>255</v>
+        <v>58</v>
       </c>
       <c r="C78" s="137">
-        <v>44395</v>
+        <v>44419</v>
       </c>
       <c r="D78" s="133">
-        <v>237</v>
+        <v>1.5</v>
       </c>
       <c r="E78" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F78" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>71.099999999999994</v>
+        <v>90</v>
       </c>
       <c r="G78" s="78" t="s">
-        <v>927</v>
+        <v>964</v>
       </c>
       <c r="H78" s="134" t="s">
-        <v>921</v>
+        <v>947</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="78" t="s">
-        <v>944</v>
-      </c>
-      <c r="B79" s="133" t="s">
-        <v>35</v>
+        <v>933</v>
+      </c>
+      <c r="B79" s="78" t="s">
+        <v>487</v>
       </c>
       <c r="C79" s="137">
-        <v>44395</v>
+        <v>44418</v>
       </c>
       <c r="D79" s="133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E79" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -10047,27 +10409,27 @@
       </c>
       <c r="F79" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G79" s="78" t="s">
-        <v>927</v>
+        <v>964</v>
       </c>
       <c r="H79" s="134" t="s">
-        <v>919</v>
+        <v>938</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="78" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="B80" s="133" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C80" s="137">
-        <v>44384</v>
+        <v>44418</v>
       </c>
       <c r="D80" s="133">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E80" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -10075,304 +10437,304 @@
       </c>
       <c r="F80" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G80" s="78" t="s">
-        <v>927</v>
+        <v>964</v>
       </c>
       <c r="H80" s="134" t="s">
-        <v>925</v>
+        <v>936</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="78" t="s">
-        <v>738</v>
-      </c>
-      <c r="B81" s="133" t="s">
-        <v>8</v>
+        <v>879</v>
+      </c>
+      <c r="B81" s="78" t="s">
+        <v>255</v>
       </c>
       <c r="C81" s="137">
-        <v>44384</v>
+        <v>44418</v>
       </c>
       <c r="D81" s="133">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="E81" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F81" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>90</v>
+        <v>48.3</v>
       </c>
       <c r="G81" s="78" t="s">
-        <v>927</v>
+        <v>964</v>
       </c>
       <c r="H81" s="134" t="s">
-        <v>907</v>
+        <v>937</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="78" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="B82" s="133" t="s">
-        <v>946</v>
+        <v>2</v>
       </c>
       <c r="C82" s="137">
-        <v>44383</v>
+        <v>44418</v>
       </c>
       <c r="D82" s="133">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E82" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F82" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G82" s="78" t="s">
         <v>964</v>
       </c>
       <c r="H82" s="134" t="s">
-        <v>994</v>
+        <v>935</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="78" t="s">
-        <v>738</v>
+        <v>933</v>
       </c>
       <c r="B83" s="133" t="s">
-        <v>48</v>
+        <v>255</v>
       </c>
       <c r="C83" s="137">
-        <v>44379</v>
+        <v>44418</v>
       </c>
       <c r="D83" s="133">
-        <v>3</v>
+        <v>265</v>
       </c>
       <c r="E83" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F83" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
+        <v>79.5</v>
       </c>
       <c r="G83" s="78" t="s">
-        <v>927</v>
+        <v>964</v>
       </c>
       <c r="H83" s="134" t="s">
-        <v>908</v>
+        <v>934</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="78" t="s">
-        <v>738</v>
+        <v>904</v>
       </c>
       <c r="B84" s="133" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C84" s="137">
-        <v>44377</v>
+        <v>44417</v>
       </c>
       <c r="D84" s="133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E84" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F84" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G84" s="78" t="s">
-        <v>927</v>
+        <v>964</v>
       </c>
       <c r="H84" s="134" t="s">
-        <v>908</v>
+        <v>939</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="78" t="s">
-        <v>909</v>
+        <v>928</v>
       </c>
       <c r="B85" s="133" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C85" s="137">
-        <v>44362</v>
+        <v>44412</v>
       </c>
       <c r="D85" s="133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E85" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F85" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>22.5</v>
       </c>
       <c r="G85" s="78" t="s">
-        <v>927</v>
-      </c>
-      <c r="H85" s="134" t="s">
-        <v>910</v>
+        <v>964</v>
+      </c>
+      <c r="H85" s="132" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="132" t="s">
-        <v>909</v>
+      <c r="A86" s="78" t="s">
+        <v>928</v>
       </c>
       <c r="B86" s="133" t="s">
-        <v>48</v>
-      </c>
-      <c r="C86" s="131">
-        <v>44362</v>
-      </c>
-      <c r="D86" s="132">
+        <v>1</v>
+      </c>
+      <c r="C86" s="137">
+        <v>44411</v>
+      </c>
+      <c r="D86" s="133">
+        <v>2</v>
+      </c>
+      <c r="E86" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>10</v>
+      </c>
+      <c r="F86" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>10</v>
+      </c>
+      <c r="G86" s="78" t="s">
+        <v>964</v>
+      </c>
+      <c r="H86" s="132" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="78" t="s">
+        <v>944</v>
+      </c>
+      <c r="B87" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" s="137">
+        <v>44410</v>
+      </c>
+      <c r="D87" s="133">
         <v>3</v>
       </c>
-      <c r="E86" s="132">
+      <c r="E87" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
-      </c>
-      <c r="F86" s="132">
+        <v>60</v>
+      </c>
+      <c r="F87" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
-      </c>
-      <c r="G86" s="78" t="s">
-        <v>927</v>
-      </c>
-      <c r="H86" s="132" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="132" t="s">
-        <v>887</v>
-      </c>
-      <c r="B87" s="133" t="s">
-        <v>48</v>
-      </c>
-      <c r="C87" s="131">
-        <v>44343</v>
-      </c>
-      <c r="D87" s="132">
-        <v>1</v>
-      </c>
-      <c r="E87" s="132">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
-      </c>
-      <c r="F87" s="132">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>90</v>
       </c>
       <c r="G87" s="78" t="s">
-        <v>927</v>
-      </c>
-      <c r="H87" s="132" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>964</v>
+      </c>
+      <c r="H87" s="134" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="78" t="s">
-        <v>887</v>
+        <v>102</v>
       </c>
       <c r="B88" s="133" t="s">
-        <v>1</v>
+        <v>207</v>
       </c>
       <c r="C88" s="137">
-        <v>44333</v>
+        <v>44400</v>
       </c>
       <c r="D88" s="133">
         <v>2</v>
       </c>
       <c r="E88" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F88" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
         <v>10</v>
       </c>
       <c r="G88" s="78" t="s">
-        <v>927</v>
+        <v>964</v>
       </c>
       <c r="H88" s="134" t="s">
-        <v>902</v>
+        <v>995</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="78" t="s">
-        <v>913</v>
+        <v>102</v>
       </c>
       <c r="B89" s="133" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C89" s="137">
-        <v>44326</v>
+        <v>44400</v>
       </c>
       <c r="D89" s="133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E89" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F89" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>22.5</v>
+        <v>60</v>
       </c>
       <c r="G89" s="78" t="s">
-        <v>927</v>
+        <v>964</v>
       </c>
       <c r="H89" s="134" t="s">
-        <v>912</v>
+        <v>995</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="78" t="s">
-        <v>879</v>
+        <v>102</v>
       </c>
       <c r="B90" s="133" t="s">
-        <v>48</v>
+        <v>207</v>
       </c>
       <c r="C90" s="137">
-        <v>44323</v>
+        <v>44400</v>
       </c>
       <c r="D90" s="133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E90" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F90" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="G90" s="78" t="s">
-        <v>964</v>
+        <v>927</v>
       </c>
       <c r="H90" s="134" t="s">
-        <v>945</v>
+        <v>923</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="78" t="s">
-        <v>879</v>
+        <v>102</v>
       </c>
       <c r="B91" s="133" t="s">
-        <v>946</v>
+        <v>13</v>
       </c>
       <c r="C91" s="137">
-        <v>44323</v>
+        <v>44400</v>
       </c>
       <c r="D91" s="133">
         <v>2</v>
@@ -10386,218 +10748,220 @@
         <v>60</v>
       </c>
       <c r="G91" s="78" t="s">
-        <v>964</v>
+        <v>927</v>
       </c>
       <c r="H91" s="134" t="s">
-        <v>959</v>
+        <v>923</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="78" t="s">
-        <v>916</v>
+        <v>886</v>
       </c>
       <c r="B92" s="133" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C92" s="137">
-        <v>44320</v>
+        <v>44400</v>
       </c>
       <c r="D92" s="133">
         <v>2</v>
       </c>
       <c r="E92" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="F92" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G92" s="78" t="s">
         <v>927</v>
       </c>
       <c r="H92" s="134" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="78" t="s">
-        <v>916</v>
+        <v>734</v>
       </c>
       <c r="B93" s="133" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C93" s="137">
-        <v>44320</v>
+        <v>44400</v>
       </c>
       <c r="D93" s="133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E93" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F93" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G93" s="78" t="s">
         <v>927</v>
       </c>
       <c r="H93" s="134" t="s">
-        <v>917</v>
+        <v>924</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="78" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="B94" s="133" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C94" s="137">
-        <v>44316</v>
+        <v>44396</v>
       </c>
       <c r="D94" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E94" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F94" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G94" s="78" t="s">
         <v>927</v>
       </c>
       <c r="H94" s="134" t="s">
-        <v>914</v>
+        <v>846</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="153" t="s">
-        <v>879</v>
-      </c>
-      <c r="B95" s="154" t="s">
-        <v>633</v>
-      </c>
-      <c r="C95" s="155">
-        <v>44316</v>
-      </c>
-      <c r="D95" s="154">
-        <v>2</v>
-      </c>
-      <c r="E95" s="154">
+      <c r="A95" s="78" t="s">
+        <v>904</v>
+      </c>
+      <c r="B95" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C95" s="137">
+        <v>44396</v>
+      </c>
+      <c r="D95" s="133">
+        <v>4</v>
+      </c>
+      <c r="E95" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>15</v>
+      </c>
+      <c r="F95" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>30</v>
+      </c>
+      <c r="G95" s="78" t="s">
+        <v>927</v>
+      </c>
+      <c r="H95" s="134" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="78" t="s">
+        <v>944</v>
+      </c>
+      <c r="B96" s="133" t="s">
+        <v>255</v>
+      </c>
+      <c r="C96" s="137">
+        <v>44395</v>
+      </c>
+      <c r="D96" s="133">
+        <v>100</v>
+      </c>
+      <c r="E96" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="F96" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>30</v>
+      </c>
+      <c r="G96" s="78" t="s">
+        <v>927</v>
+      </c>
+      <c r="H96" s="134" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="78" t="s">
+        <v>944</v>
+      </c>
+      <c r="B97" s="133" t="s">
+        <v>255</v>
+      </c>
+      <c r="C97" s="137">
+        <v>44395</v>
+      </c>
+      <c r="D97" s="133">
+        <v>237</v>
+      </c>
+      <c r="E97" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="F97" s="133">
+        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
+        <v>71.099999999999994</v>
+      </c>
+      <c r="G97" s="78" t="s">
+        <v>927</v>
+      </c>
+      <c r="H97" s="134" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="78" t="s">
+        <v>944</v>
+      </c>
+      <c r="B98" s="133" t="s">
+        <v>35</v>
+      </c>
+      <c r="C98" s="137">
+        <v>44395</v>
+      </c>
+      <c r="D98" s="133">
+        <v>3</v>
+      </c>
+      <c r="E98" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
         <v>60</v>
       </c>
-      <c r="F95" s="154">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>60</v>
-      </c>
-      <c r="G95" s="78" t="s">
-        <v>927</v>
-      </c>
-      <c r="H95" s="156" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="78" t="s">
-        <v>911</v>
-      </c>
-      <c r="B96" s="133" t="s">
-        <v>48</v>
-      </c>
-      <c r="C96" s="137">
-        <v>44304</v>
-      </c>
-      <c r="D96" s="133">
-        <v>5</v>
-      </c>
-      <c r="E96" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>15</v>
-      </c>
-      <c r="F96" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>37.5</v>
-      </c>
-      <c r="G96" s="78" t="s">
-        <v>927</v>
-      </c>
-      <c r="H96" s="134" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="153" t="s">
-        <v>891</v>
-      </c>
-      <c r="B97" s="154" t="s">
-        <v>49</v>
-      </c>
-      <c r="C97" s="155">
-        <v>44302</v>
-      </c>
-      <c r="D97" s="154">
-        <v>1</v>
-      </c>
-      <c r="E97" s="154">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>30</v>
-      </c>
-      <c r="F97" s="154">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>15</v>
-      </c>
-      <c r="G97" s="78" t="s">
-        <v>927</v>
-      </c>
-      <c r="H97" s="156" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" s="157" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="78" t="s">
-        <v>887</v>
-      </c>
-      <c r="B98" s="133" t="s">
-        <v>50</v>
-      </c>
-      <c r="C98" s="137">
-        <v>44301</v>
-      </c>
-      <c r="D98" s="133">
-        <v>4</v>
-      </c>
-      <c r="E98" s="133">
-        <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
-        <v>5</v>
-      </c>
       <c r="F98" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="G98" s="78" t="s">
-        <v>494</v>
-      </c>
-      <c r="H98" s="134"/>
+        <v>927</v>
+      </c>
+      <c r="H98" s="134" t="s">
+        <v>919</v>
+      </c>
     </row>
     <row r="99" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="78" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="B99" s="133" t="s">
         <v>1</v>
       </c>
       <c r="C99" s="137">
-        <v>44301</v>
+        <v>44384</v>
       </c>
       <c r="D99" s="133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E99" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),2)</f>
@@ -10605,217 +10969,223 @@
       </c>
       <c r="F99" s="133">
         <f>INDEX(TAB_Leistungen_30[[Tätigkeit]:[Stk.kosten/Kosten bei Stundensatz]],MATCH(TAB_Doku_201910[[#This Row],[Leistung]],TAB_Leistungen_30[Tätigkeit],0),3)*TAB_Doku_201910[[#This Row],[Stk.]]</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G99" s="78" t="s">
-        <v>494</v>
+        <v>927</v>
       </c>
       <c r="H99" s="134" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" s="157" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="16.2" custo